--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.169344</v>
+        <v>0.128004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188798</v>
+        <v>0.127158</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182612</v>
+        <v>0.108612</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171447</v>
+        <v>0.134484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191241</v>
+        <v>0.131597</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183278</v>
+        <v>0.110946</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178313</v>
+        <v>0.146641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199328</v>
+        <v>0.142541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185709</v>
+        <v>0.114637</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188024</v>
+        <v>0.158401</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209326</v>
+        <v>0.155509</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188249</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.196458</v>
+        <v>0.182818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223835</v>
+        <v>0.176945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193995</v>
+        <v>0.125946</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.216083</v>
+        <v>0.20998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.248513</v>
+        <v>0.209019</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202458</v>
+        <v>0.13631</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245619</v>
+        <v>0.256536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279537</v>
+        <v>0.247902</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213749</v>
+        <v>0.150307</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.295668</v>
+        <v>0.311565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.326507</v>
+        <v>0.332351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177724</v>
+        <v>0.101906</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159886</v>
+        <v>0.105441</v>
       </c>
       <c r="C10" t="n">
-        <v>0.17477</v>
+        <v>0.108763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177979</v>
+        <v>0.102591</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160353</v>
+        <v>0.107645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175394</v>
+        <v>0.109938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178339</v>
+        <v>0.10303</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.161506</v>
+        <v>0.110412</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176432</v>
+        <v>0.111023</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178493</v>
+        <v>0.103543</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.163038</v>
+        <v>0.112675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.177744</v>
+        <v>0.113113</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178854</v>
+        <v>0.104167</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164497</v>
+        <v>0.116721</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180511</v>
+        <v>0.116921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179389</v>
+        <v>0.105341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.16668</v>
+        <v>0.122449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.182971</v>
+        <v>0.120274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180475</v>
+        <v>0.10642</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.16993</v>
+        <v>0.127323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.186816</v>
+        <v>0.125142</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180981</v>
+        <v>0.107825</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173818</v>
+        <v>0.134911</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191587</v>
+        <v>0.131515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18246</v>
+        <v>0.109799</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179282</v>
+        <v>0.147357</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197002</v>
+        <v>0.139011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.183898</v>
+        <v>0.112031</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187504</v>
+        <v>0.158305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205323</v>
+        <v>0.150066</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186577</v>
+        <v>0.115917</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199231</v>
+        <v>0.182759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218583</v>
+        <v>0.168775</v>
       </c>
       <c r="D20" t="n">
-        <v>0.19038</v>
+        <v>0.121129</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219496</v>
+        <v>0.208759</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236268</v>
+        <v>0.19144</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195877</v>
+        <v>0.128139</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248483</v>
+        <v>0.245583</v>
       </c>
       <c r="C22" t="n">
-        <v>0.261907</v>
+        <v>0.223865</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206063</v>
+        <v>0.141293</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293578</v>
+        <v>0.299447</v>
       </c>
       <c r="C23" t="n">
-        <v>0.310382</v>
+        <v>0.286683</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177516</v>
+        <v>0.101451</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161708</v>
+        <v>0.105389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.173609</v>
+        <v>0.106438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177437</v>
+        <v>0.101761</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.16296</v>
+        <v>0.107061</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174482</v>
+        <v>0.107673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177656</v>
+        <v>0.102315</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163305</v>
+        <v>0.109247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175419</v>
+        <v>0.108928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177951</v>
+        <v>0.102682</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.16503</v>
+        <v>0.112103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177011</v>
+        <v>0.110953</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178175</v>
+        <v>0.103284</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.166209</v>
+        <v>0.115678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178689</v>
+        <v>0.113121</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17869</v>
+        <v>0.104009</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.16843</v>
+        <v>0.120486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181643</v>
+        <v>0.116834</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17935</v>
+        <v>0.10516</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.171305</v>
+        <v>0.126178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.184489</v>
+        <v>0.120486</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180238</v>
+        <v>0.106433</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.175452</v>
+        <v>0.133977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.188997</v>
+        <v>0.125652</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181214</v>
+        <v>0.107983</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.180465</v>
+        <v>0.145161</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194403</v>
+        <v>0.133206</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182965</v>
+        <v>0.110381</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187597</v>
+        <v>0.157957</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203496</v>
+        <v>0.145116</v>
       </c>
       <c r="D33" t="n">
-        <v>0.186187</v>
+        <v>0.113811</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198177</v>
+        <v>0.175197</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214315</v>
+        <v>0.159156</v>
       </c>
       <c r="D34" t="n">
-        <v>0.189281</v>
+        <v>0.11817</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.215111</v>
+        <v>0.201839</v>
       </c>
       <c r="C35" t="n">
-        <v>0.230987</v>
+        <v>0.180114</v>
       </c>
       <c r="D35" t="n">
-        <v>0.194012</v>
+        <v>0.124522</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243442</v>
+        <v>0.233444</v>
       </c>
       <c r="C36" t="n">
-        <v>0.25828</v>
+        <v>0.213378</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202689</v>
+        <v>0.136129</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285882</v>
+        <v>0.282437</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299828</v>
+        <v>0.264807</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177491</v>
+        <v>0.101814</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162755</v>
+        <v>0.105062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174464</v>
+        <v>0.106757</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177235</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163661</v>
+        <v>0.106779</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175536</v>
+        <v>0.108036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17772</v>
+        <v>0.102852</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164574</v>
+        <v>0.109107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.176469</v>
+        <v>0.109383</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178011</v>
+        <v>0.103274</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165626</v>
+        <v>0.111478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17768</v>
+        <v>0.11098</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178369</v>
+        <v>0.104051</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167231</v>
+        <v>0.115202</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179228</v>
+        <v>0.112838</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178864</v>
+        <v>0.104681</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169018</v>
+        <v>0.119347</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181347</v>
+        <v>0.115617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179412</v>
+        <v>0.105471</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171657</v>
+        <v>0.12461</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184592</v>
+        <v>0.119747</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180363</v>
+        <v>0.106695</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175245</v>
+        <v>0.131938</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188831</v>
+        <v>0.125149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181549</v>
+        <v>0.108384</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.179876</v>
+        <v>0.142116</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194592</v>
+        <v>0.132559</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183349</v>
+        <v>0.110822</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187282</v>
+        <v>0.156098</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202542</v>
+        <v>0.142891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185429</v>
+        <v>0.11384</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197765</v>
+        <v>0.174428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21392</v>
+        <v>0.157435</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188589</v>
+        <v>0.118267</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213689</v>
+        <v>0.200561</v>
       </c>
       <c r="C49" t="n">
-        <v>0.229788</v>
+        <v>0.177982</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193826</v>
+        <v>0.124628</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237868</v>
+        <v>0.234691</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257166</v>
+        <v>0.212416</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201682</v>
+        <v>0.13599</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275666</v>
+        <v>0.285167</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29383</v>
+        <v>0.258136</v>
       </c>
       <c r="D51" t="n">
-        <v>0.179769</v>
+        <v>0.103945</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331807</v>
+        <v>0.344712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349036</v>
+        <v>0.334906</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179898</v>
+        <v>0.104388</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166711</v>
+        <v>0.108673</v>
       </c>
       <c r="C53" t="n">
-        <v>0.179317</v>
+        <v>0.109641</v>
       </c>
       <c r="D53" t="n">
-        <v>0.180302</v>
+        <v>0.104913</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.16737</v>
+        <v>0.110985</v>
       </c>
       <c r="C54" t="n">
-        <v>0.180526</v>
+        <v>0.111085</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180701</v>
+        <v>0.105489</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168507</v>
+        <v>0.113794</v>
       </c>
       <c r="C55" t="n">
-        <v>0.182009</v>
+        <v>0.112749</v>
       </c>
       <c r="D55" t="n">
-        <v>0.181158</v>
+        <v>0.106037</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170079</v>
+        <v>0.117483</v>
       </c>
       <c r="C56" t="n">
-        <v>0.183762</v>
+        <v>0.114764</v>
       </c>
       <c r="D56" t="n">
-        <v>0.181766</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171869</v>
+        <v>0.121647</v>
       </c>
       <c r="C57" t="n">
-        <v>0.186159</v>
+        <v>0.117621</v>
       </c>
       <c r="D57" t="n">
-        <v>0.182452</v>
+        <v>0.107851</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1744</v>
+        <v>0.127409</v>
       </c>
       <c r="C58" t="n">
-        <v>0.18965</v>
+        <v>0.121714</v>
       </c>
       <c r="D58" t="n">
-        <v>0.183412</v>
+        <v>0.108926</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177718</v>
+        <v>0.134839</v>
       </c>
       <c r="C59" t="n">
-        <v>0.194104</v>
+        <v>0.127326</v>
       </c>
       <c r="D59" t="n">
-        <v>0.184487</v>
+        <v>0.110431</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182568</v>
+        <v>0.145572</v>
       </c>
       <c r="C60" t="n">
-        <v>0.199508</v>
+        <v>0.134066</v>
       </c>
       <c r="D60" t="n">
-        <v>0.186115</v>
+        <v>0.112476</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188944</v>
+        <v>0.157785</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207132</v>
+        <v>0.143373</v>
       </c>
       <c r="D61" t="n">
-        <v>0.188146</v>
+        <v>0.115224</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198345</v>
+        <v>0.175924</v>
       </c>
       <c r="C62" t="n">
-        <v>0.217888</v>
+        <v>0.156879</v>
       </c>
       <c r="D62" t="n">
-        <v>0.191233</v>
+        <v>0.119435</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.212934</v>
+        <v>0.200985</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23366</v>
+        <v>0.176458</v>
       </c>
       <c r="D63" t="n">
-        <v>0.196333</v>
+        <v>0.126126</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235256</v>
+        <v>0.233827</v>
       </c>
       <c r="C64" t="n">
-        <v>0.257785</v>
+        <v>0.206576</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204594</v>
+        <v>0.13711</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268354</v>
+        <v>0.278903</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294282</v>
+        <v>0.252384</v>
       </c>
       <c r="D65" t="n">
-        <v>0.218903</v>
+        <v>0.156086</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32032</v>
+        <v>0.35359</v>
       </c>
       <c r="C66" t="n">
-        <v>0.347193</v>
+        <v>0.328089</v>
       </c>
       <c r="D66" t="n">
-        <v>0.187342</v>
+        <v>0.105442</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.184133</v>
+        <v>0.109953</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188175</v>
+        <v>0.110352</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187276</v>
+        <v>0.105589</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.184558</v>
+        <v>0.112019</v>
       </c>
       <c r="C68" t="n">
-        <v>0.18943</v>
+        <v>0.111623</v>
       </c>
       <c r="D68" t="n">
-        <v>0.187714</v>
+        <v>0.106176</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.185788</v>
+        <v>0.11494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.191204</v>
+        <v>0.113334</v>
       </c>
       <c r="D69" t="n">
-        <v>0.188257</v>
+        <v>0.106627</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.187161</v>
+        <v>0.118114</v>
       </c>
       <c r="C70" t="n">
-        <v>0.193195</v>
+        <v>0.115516</v>
       </c>
       <c r="D70" t="n">
-        <v>0.188875</v>
+        <v>0.107423</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.188954</v>
+        <v>0.122592</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195889</v>
+        <v>0.118458</v>
       </c>
       <c r="D71" t="n">
-        <v>0.189595</v>
+        <v>0.108302</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.191202</v>
+        <v>0.128124</v>
       </c>
       <c r="C72" t="n">
-        <v>0.199222</v>
+        <v>0.122139</v>
       </c>
       <c r="D72" t="n">
-        <v>0.190635</v>
+        <v>0.109374</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.194386</v>
+        <v>0.135776</v>
       </c>
       <c r="C73" t="n">
-        <v>0.203547</v>
+        <v>0.12698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191948</v>
+        <v>0.110902</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.198649</v>
+        <v>0.145856</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209467</v>
+        <v>0.13392</v>
       </c>
       <c r="D74" t="n">
-        <v>0.193575</v>
+        <v>0.113048</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.204586</v>
+        <v>0.158862</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217796</v>
+        <v>0.14413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195956</v>
+        <v>0.115992</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.213554</v>
+        <v>0.175935</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228799</v>
+        <v>0.157498</v>
       </c>
       <c r="D76" t="n">
-        <v>0.199403</v>
+        <v>0.120672</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.226186</v>
+        <v>0.19905</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244212</v>
+        <v>0.176662</v>
       </c>
       <c r="D77" t="n">
-        <v>0.204366</v>
+        <v>0.12683</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.245425</v>
+        <v>0.23139</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266668</v>
+        <v>0.204231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212318</v>
+        <v>0.137292</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.276907</v>
+        <v>0.27528</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301134</v>
+        <v>0.24785</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225986</v>
+        <v>0.154323</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323323</v>
+        <v>0.331767</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350655</v>
+        <v>0.317087</v>
       </c>
       <c r="D80" t="n">
-        <v>0.205368</v>
+        <v>0.105461</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203243</v>
+        <v>0.110658</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205935</v>
+        <v>0.110425</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205649</v>
+        <v>0.105894</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.203987</v>
+        <v>0.112598</v>
       </c>
       <c r="C82" t="n">
-        <v>0.20691</v>
+        <v>0.111784</v>
       </c>
       <c r="D82" t="n">
-        <v>0.206045</v>
+        <v>0.106294</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205086</v>
+        <v>0.115348</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208196</v>
+        <v>0.113236</v>
       </c>
       <c r="D83" t="n">
-        <v>0.206456</v>
+        <v>0.106915</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206358</v>
+        <v>0.118526</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209938</v>
+        <v>0.115238</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207068</v>
+        <v>0.107385</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.20791</v>
+        <v>0.122884</v>
       </c>
       <c r="C85" t="n">
-        <v>0.212001</v>
+        <v>0.117848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207747</v>
+        <v>0.108326</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.209979</v>
+        <v>0.128546</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214722</v>
+        <v>0.121125</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208634</v>
+        <v>0.109368</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212652</v>
+        <v>0.135338</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218394</v>
+        <v>0.125876</v>
       </c>
       <c r="D87" t="n">
-        <v>0.20984</v>
+        <v>0.110662</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216491</v>
+        <v>0.144633</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223578</v>
+        <v>0.13245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211406</v>
+        <v>0.112769</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221733</v>
+        <v>0.156741</v>
       </c>
       <c r="C89" t="n">
-        <v>0.230966</v>
+        <v>0.141571</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213719</v>
+        <v>0.115443</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229619</v>
+        <v>0.172829</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240924</v>
+        <v>0.154083</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216905</v>
+        <v>0.119432</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241166</v>
+        <v>0.19518</v>
       </c>
       <c r="C91" t="n">
-        <v>0.25478</v>
+        <v>0.171805</v>
       </c>
       <c r="D91" t="n">
-        <v>0.22171</v>
+        <v>0.125319</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258912</v>
+        <v>0.225113</v>
       </c>
       <c r="C92" t="n">
-        <v>0.274911</v>
+        <v>0.197035</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229259</v>
+        <v>0.134479</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286715</v>
+        <v>0.266363</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306214</v>
+        <v>0.236344</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241799</v>
+        <v>0.149567</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330496</v>
+        <v>0.340032</v>
       </c>
       <c r="C94" t="n">
-        <v>0.354126</v>
+        <v>0.299871</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2133</v>
+        <v>0.105382</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.213546</v>
+        <v>0.110765</v>
       </c>
       <c r="C95" t="n">
-        <v>0.214848</v>
+        <v>0.110756</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213616</v>
+        <v>0.106107</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.214438</v>
+        <v>0.112546</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215958</v>
+        <v>0.112208</v>
       </c>
       <c r="D96" t="n">
-        <v>0.214064</v>
+        <v>0.106443</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.21546</v>
+        <v>0.115297</v>
       </c>
       <c r="C97" t="n">
-        <v>0.217286</v>
+        <v>0.113904</v>
       </c>
       <c r="D97" t="n">
-        <v>0.214551</v>
+        <v>0.107267</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.216797</v>
+        <v>0.118772</v>
       </c>
       <c r="C98" t="n">
-        <v>0.219104</v>
+        <v>0.115875</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215207</v>
+        <v>0.107791</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.218518</v>
+        <v>0.122549</v>
       </c>
       <c r="C99" t="n">
-        <v>0.221354</v>
+        <v>0.118416</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215891</v>
+        <v>0.108567</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220857</v>
+        <v>0.12762</v>
       </c>
       <c r="C100" t="n">
-        <v>0.224385</v>
+        <v>0.121723</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216785</v>
+        <v>0.109681</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.223983</v>
+        <v>0.134653</v>
       </c>
       <c r="C101" t="n">
-        <v>0.228428</v>
+        <v>0.126503</v>
       </c>
       <c r="D101" t="n">
-        <v>0.217951</v>
+        <v>0.111184</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.228249</v>
+        <v>0.143511</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234266</v>
+        <v>0.132823</v>
       </c>
       <c r="D102" t="n">
-        <v>0.219537</v>
+        <v>0.11315</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.234176</v>
+        <v>0.155257</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24265</v>
+        <v>0.141676</v>
       </c>
       <c r="D103" t="n">
-        <v>0.221803</v>
+        <v>0.115974</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.242752</v>
+        <v>0.170598</v>
       </c>
       <c r="C104" t="n">
-        <v>0.253969</v>
+        <v>0.153127</v>
       </c>
       <c r="D104" t="n">
-        <v>0.225053</v>
+        <v>0.119728</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255122</v>
+        <v>0.191937</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26967</v>
+        <v>0.169531</v>
       </c>
       <c r="D105" t="n">
-        <v>0.229965</v>
+        <v>0.125336</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274058</v>
+        <v>0.220614</v>
       </c>
       <c r="C106" t="n">
-        <v>0.291606</v>
+        <v>0.192697</v>
       </c>
       <c r="D106" t="n">
-        <v>0.237459</v>
+        <v>0.133812</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302249</v>
+        <v>0.259399</v>
       </c>
       <c r="C107" t="n">
-        <v>0.32423</v>
+        <v>0.229105</v>
       </c>
       <c r="D107" t="n">
-        <v>0.25022</v>
+        <v>0.147909</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345436</v>
+        <v>0.312386</v>
       </c>
       <c r="C108" t="n">
-        <v>0.372271</v>
+        <v>0.285529</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219544</v>
+        <v>0.108279</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.413202</v>
+        <v>0.381283</v>
       </c>
       <c r="C109" t="n">
-        <v>0.443862</v>
+        <v>0.375658</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220361</v>
+        <v>0.10911</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234933</v>
+        <v>0.114489</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2355</v>
+        <v>0.116522</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221531</v>
+        <v>0.10995</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235825</v>
+        <v>0.117286</v>
       </c>
       <c r="C111" t="n">
-        <v>0.239603</v>
+        <v>0.118949</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222374</v>
+        <v>0.11099</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.243966</v>
+        <v>0.120377</v>
       </c>
       <c r="C112" t="n">
-        <v>0.245082</v>
+        <v>0.123279</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223884</v>
+        <v>0.112104</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.250287</v>
+        <v>0.124403</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251895</v>
+        <v>0.129909</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225424</v>
+        <v>0.113335</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257389</v>
+        <v>0.129997</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259566</v>
+        <v>0.139536</v>
       </c>
       <c r="D114" t="n">
-        <v>0.228212</v>
+        <v>0.114684</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263967</v>
+        <v>0.136302</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268291</v>
+        <v>0.148773</v>
       </c>
       <c r="D115" t="n">
-        <v>0.231322</v>
+        <v>0.116363</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.26813</v>
+        <v>0.144969</v>
       </c>
       <c r="C116" t="n">
-        <v>0.27815</v>
+        <v>0.158151</v>
       </c>
       <c r="D116" t="n">
-        <v>0.235451</v>
+        <v>0.119176</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2778</v>
+        <v>0.157217</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290004</v>
+        <v>0.169438</v>
       </c>
       <c r="D117" t="n">
-        <v>0.240082</v>
+        <v>0.12372</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289432</v>
+        <v>0.175126</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303485</v>
+        <v>0.182443</v>
       </c>
       <c r="D118" t="n">
-        <v>0.246674</v>
+        <v>0.130817</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.309138</v>
+        <v>0.199999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.32146</v>
+        <v>0.199251</v>
       </c>
       <c r="D119" t="n">
-        <v>0.255037</v>
+        <v>0.141975</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.330238</v>
+        <v>0.232319</v>
       </c>
       <c r="C120" t="n">
-        <v>0.345154</v>
+        <v>0.221825</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266867</v>
+        <v>0.154342</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359545</v>
+        <v>0.271983</v>
       </c>
       <c r="C121" t="n">
-        <v>0.378334</v>
+        <v>0.253546</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283199</v>
+        <v>0.170371</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403244</v>
+        <v>0.322747</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428404</v>
+        <v>0.302255</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308738</v>
+        <v>0.193188</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471508</v>
+        <v>0.397887</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506183</v>
+        <v>0.380355</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2502</v>
+        <v>0.136745</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.27058</v>
+        <v>0.136122</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284669</v>
+        <v>0.161791</v>
       </c>
       <c r="D124" t="n">
-        <v>0.252056</v>
+        <v>0.140278</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.28731</v>
+        <v>0.142699</v>
       </c>
       <c r="C125" t="n">
-        <v>0.287931</v>
+        <v>0.168816</v>
       </c>
       <c r="D125" t="n">
-        <v>0.255022</v>
+        <v>0.143094</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.30094</v>
+        <v>0.148298</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293599</v>
+        <v>0.171673</v>
       </c>
       <c r="D126" t="n">
-        <v>0.259042</v>
+        <v>0.14471</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.297749</v>
+        <v>0.153498</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300363</v>
+        <v>0.174715</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263535</v>
+        <v>0.146391</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302345</v>
+        <v>0.159824</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30455</v>
+        <v>0.179699</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264869</v>
+        <v>0.14965</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31087</v>
+        <v>0.16684</v>
       </c>
       <c r="C129" t="n">
-        <v>0.311921</v>
+        <v>0.183944</v>
       </c>
       <c r="D129" t="n">
-        <v>0.269007</v>
+        <v>0.152072</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314787</v>
+        <v>0.175685</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320553</v>
+        <v>0.191816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.273195</v>
+        <v>0.154828</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.322845</v>
+        <v>0.186804</v>
       </c>
       <c r="C131" t="n">
-        <v>0.330737</v>
+        <v>0.199922</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277293</v>
+        <v>0.159554</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.334825</v>
+        <v>0.200917</v>
       </c>
       <c r="C132" t="n">
-        <v>0.343986</v>
+        <v>0.210305</v>
       </c>
       <c r="D132" t="n">
-        <v>0.282774</v>
+        <v>0.162759</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.354436</v>
+        <v>0.219421</v>
       </c>
       <c r="C133" t="n">
-        <v>0.363859</v>
+        <v>0.223547</v>
       </c>
       <c r="D133" t="n">
-        <v>0.291167</v>
+        <v>0.17392</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.354695</v>
+        <v>0.247519</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3883</v>
+        <v>0.243155</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300216</v>
+        <v>0.181937</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.398419</v>
+        <v>0.281109</v>
       </c>
       <c r="C135" t="n">
-        <v>0.426516</v>
+        <v>0.271396</v>
       </c>
       <c r="D135" t="n">
-        <v>0.316822</v>
+        <v>0.193544</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.442484</v>
+        <v>0.326807</v>
       </c>
       <c r="C136" t="n">
-        <v>0.475661</v>
+        <v>0.314627</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337997</v>
+        <v>0.212178</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509401</v>
+        <v>0.390045</v>
       </c>
       <c r="C137" t="n">
-        <v>0.551936</v>
+        <v>0.380564</v>
       </c>
       <c r="D137" t="n">
-        <v>0.389318</v>
+        <v>0.196412</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.441691</v>
+        <v>0.195833</v>
       </c>
       <c r="C138" t="n">
-        <v>0.432613</v>
+        <v>0.223249</v>
       </c>
       <c r="D138" t="n">
-        <v>0.393106</v>
+        <v>0.199005</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.450519</v>
+        <v>0.200644</v>
       </c>
       <c r="C139" t="n">
-        <v>0.437358</v>
+        <v>0.226964</v>
       </c>
       <c r="D139" t="n">
-        <v>0.395725</v>
+        <v>0.201506</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.42927</v>
+        <v>0.203962</v>
       </c>
       <c r="C140" t="n">
-        <v>0.445104</v>
+        <v>0.230015</v>
       </c>
       <c r="D140" t="n">
-        <v>0.401957</v>
+        <v>0.203619</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.458293</v>
+        <v>0.205867</v>
       </c>
       <c r="C141" t="n">
-        <v>0.452138</v>
+        <v>0.234193</v>
       </c>
       <c r="D141" t="n">
-        <v>0.406119</v>
+        <v>0.206434</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.474383</v>
+        <v>0.212327</v>
       </c>
       <c r="C142" t="n">
-        <v>0.456956</v>
+        <v>0.238287</v>
       </c>
       <c r="D142" t="n">
-        <v>0.406247</v>
+        <v>0.209025</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.472406</v>
+        <v>0.219256</v>
       </c>
       <c r="C143" t="n">
-        <v>0.468563</v>
+        <v>0.24348</v>
       </c>
       <c r="D143" t="n">
-        <v>0.415009</v>
+        <v>0.212112</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.128004</v>
+        <v>0.127347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127158</v>
+        <v>0.127319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108612</v>
+        <v>0.108783</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.134484</v>
+        <v>0.134892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131597</v>
+        <v>0.131776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110946</v>
+        <v>0.110978</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.146641</v>
+        <v>0.145621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142541</v>
+        <v>0.142523</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114637</v>
+        <v>0.114537</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.158401</v>
+        <v>0.160995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.155509</v>
+        <v>0.155359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1182</v>
+        <v>0.118199</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182818</v>
+        <v>0.18161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176945</v>
+        <v>0.176402</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125946</v>
+        <v>0.125969</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20998</v>
+        <v>0.208032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209019</v>
+        <v>0.208986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13631</v>
+        <v>0.136159</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.256536</v>
+        <v>0.247697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247902</v>
+        <v>0.245894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150307</v>
+        <v>0.149842</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.311565</v>
+        <v>0.312614</v>
       </c>
       <c r="C9" t="n">
-        <v>0.332351</v>
+        <v>0.327569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101906</v>
+        <v>0.101862</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.105441</v>
+        <v>0.10589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108763</v>
+        <v>0.108772</v>
       </c>
       <c r="D10" t="n">
-        <v>0.102591</v>
+        <v>0.10261</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.107645</v>
+        <v>0.108364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.109938</v>
+        <v>0.10989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10303</v>
+        <v>0.103006</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.110412</v>
+        <v>0.110349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111023</v>
+        <v>0.111056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103543</v>
+        <v>0.103567</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.112675</v>
+        <v>0.113099</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113113</v>
+        <v>0.113123</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104167</v>
+        <v>0.104179</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116721</v>
+        <v>0.116981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116921</v>
+        <v>0.117</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105341</v>
+        <v>0.105358</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122449</v>
+        <v>0.12076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120274</v>
+        <v>0.120214</v>
       </c>
       <c r="D15" t="n">
-        <v>0.10642</v>
+        <v>0.106457</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127323</v>
+        <v>0.1278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125142</v>
+        <v>0.125181</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107825</v>
+        <v>0.107823</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134911</v>
+        <v>0.134756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131515</v>
+        <v>0.13152</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109799</v>
+        <v>0.109853</v>
       </c>
     </row>
     <row r="18">
@@ -3472,10 +3472,10 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.147357</v>
+        <v>0.144452</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139011</v>
+        <v>0.138857</v>
       </c>
       <c r="D18" t="n">
         <v>0.112031</v>
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.158305</v>
+        <v>0.159164</v>
       </c>
       <c r="C19" t="n">
-        <v>0.150066</v>
+        <v>0.150094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.115917</v>
+        <v>0.116021</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.182759</v>
+        <v>0.179231</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168775</v>
+        <v>0.168636</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121129</v>
+        <v>0.121079</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.208759</v>
+        <v>0.209533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19144</v>
+        <v>0.191248</v>
       </c>
       <c r="D21" t="n">
-        <v>0.128139</v>
+        <v>0.128122</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245583</v>
+        <v>0.245787</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223865</v>
+        <v>0.22335</v>
       </c>
       <c r="D22" t="n">
-        <v>0.141293</v>
+        <v>0.141231</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.299447</v>
+        <v>0.303966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.286683</v>
+        <v>0.287246</v>
       </c>
       <c r="D23" t="n">
-        <v>0.101451</v>
+        <v>0.10146</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105389</v>
+        <v>0.105034</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106438</v>
+        <v>0.106447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101761</v>
+        <v>0.101779</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107061</v>
+        <v>0.106997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107673</v>
+        <v>0.107652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102315</v>
+        <v>0.10232</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109247</v>
+        <v>0.108983</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108928</v>
+        <v>0.108917</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102682</v>
+        <v>0.10269</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112103</v>
+        <v>0.111766</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110953</v>
+        <v>0.110926</v>
       </c>
       <c r="D27" t="n">
-        <v>0.103284</v>
+        <v>0.103243</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115678</v>
+        <v>0.115304</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113121</v>
+        <v>0.113124</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104009</v>
+        <v>0.104048</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120486</v>
+        <v>0.119517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116834</v>
+        <v>0.116807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.10516</v>
+        <v>0.10518</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126178</v>
+        <v>0.1245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120486</v>
+        <v>0.120503</v>
       </c>
       <c r="D30" t="n">
-        <v>0.106433</v>
+        <v>0.106439</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.133977</v>
+        <v>0.132253</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125652</v>
+        <v>0.125606</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107983</v>
+        <v>0.108003</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.145161</v>
+        <v>0.141275</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133206</v>
+        <v>0.133251</v>
       </c>
       <c r="D32" t="n">
-        <v>0.110381</v>
+        <v>0.11038</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.157957</v>
+        <v>0.154947</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145116</v>
+        <v>0.145084</v>
       </c>
       <c r="D33" t="n">
-        <v>0.113811</v>
+        <v>0.113913</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175197</v>
+        <v>0.173166</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159156</v>
+        <v>0.159105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.11817</v>
+        <v>0.118135</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.201839</v>
+        <v>0.198259</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180114</v>
+        <v>0.180131</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124522</v>
+        <v>0.124433</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233444</v>
+        <v>0.233288</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213378</v>
+        <v>0.213128</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136129</v>
+        <v>0.136113</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.282437</v>
+        <v>0.280974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264807</v>
+        <v>0.264058</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101814</v>
+        <v>0.101779</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105062</v>
+        <v>0.104444</v>
       </c>
       <c r="C38" t="n">
-        <v>0.106757</v>
+        <v>0.106755</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1022</v>
+        <v>0.102241</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106779</v>
+        <v>0.106087</v>
       </c>
       <c r="C39" t="n">
-        <v>0.108036</v>
+        <v>0.108014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.102852</v>
+        <v>0.102773</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.109107</v>
+        <v>0.108309</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109383</v>
+        <v>0.109411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.103274</v>
+        <v>0.103284</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111478</v>
+        <v>0.111091</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11098</v>
+        <v>0.110949</v>
       </c>
       <c r="D41" t="n">
-        <v>0.104051</v>
+        <v>0.10391</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115202</v>
+        <v>0.114542</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112838</v>
+        <v>0.112894</v>
       </c>
       <c r="D42" t="n">
-        <v>0.104681</v>
+        <v>0.104609</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119347</v>
+        <v>0.118744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.115617</v>
+        <v>0.115615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.105471</v>
+        <v>0.105263</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12461</v>
+        <v>0.124115</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119747</v>
+        <v>0.119565</v>
       </c>
       <c r="D44" t="n">
-        <v>0.106695</v>
+        <v>0.10652</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131938</v>
+        <v>0.132003</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125149</v>
+        <v>0.124903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.108384</v>
+        <v>0.108231</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142116</v>
+        <v>0.141662</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132559</v>
+        <v>0.132476</v>
       </c>
       <c r="D46" t="n">
-        <v>0.110822</v>
+        <v>0.110806</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156098</v>
+        <v>0.155441</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142891</v>
+        <v>0.142889</v>
       </c>
       <c r="D47" t="n">
-        <v>0.11384</v>
+        <v>0.114012</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174428</v>
+        <v>0.173538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157435</v>
+        <v>0.157451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.118267</v>
+        <v>0.11835</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.200561</v>
+        <v>0.197388</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177982</v>
+        <v>0.178057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124628</v>
+        <v>0.124637</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234691</v>
+        <v>0.231014</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212416</v>
+        <v>0.212455</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13599</v>
+        <v>0.135959</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285167</v>
+        <v>0.273745</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258136</v>
+        <v>0.258514</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103945</v>
+        <v>0.103988</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.344712</v>
+        <v>0.339399</v>
       </c>
       <c r="C52" t="n">
-        <v>0.334906</v>
+        <v>0.333651</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104388</v>
+        <v>0.104419</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108673</v>
+        <v>0.108328</v>
       </c>
       <c r="C53" t="n">
-        <v>0.109641</v>
+        <v>0.109687</v>
       </c>
       <c r="D53" t="n">
-        <v>0.104913</v>
+        <v>0.104798</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110985</v>
+        <v>0.110287</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111085</v>
+        <v>0.111035</v>
       </c>
       <c r="D54" t="n">
-        <v>0.105489</v>
+        <v>0.105382</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113794</v>
+        <v>0.113069</v>
       </c>
       <c r="C55" t="n">
-        <v>0.112749</v>
+        <v>0.112772</v>
       </c>
       <c r="D55" t="n">
-        <v>0.106037</v>
+        <v>0.105998</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117483</v>
+        <v>0.116555</v>
       </c>
       <c r="C56" t="n">
-        <v>0.114764</v>
+        <v>0.114859</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1067</v>
+        <v>0.106786</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121647</v>
+        <v>0.121165</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117621</v>
+        <v>0.117705</v>
       </c>
       <c r="D57" t="n">
-        <v>0.107851</v>
+        <v>0.107681</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127409</v>
+        <v>0.126855</v>
       </c>
       <c r="C58" t="n">
-        <v>0.121714</v>
+        <v>0.12187</v>
       </c>
       <c r="D58" t="n">
-        <v>0.108926</v>
+        <v>0.108988</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134839</v>
+        <v>0.134427</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127326</v>
+        <v>0.127226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.110431</v>
+        <v>0.110373</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.145572</v>
+        <v>0.144004</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134066</v>
+        <v>0.133773</v>
       </c>
       <c r="D60" t="n">
-        <v>0.112476</v>
+        <v>0.112471</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157785</v>
+        <v>0.157823</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143373</v>
+        <v>0.143463</v>
       </c>
       <c r="D61" t="n">
-        <v>0.115224</v>
+        <v>0.115386</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175924</v>
+        <v>0.175611</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156879</v>
+        <v>0.156724</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119435</v>
+        <v>0.119484</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.200985</v>
+        <v>0.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176458</v>
+        <v>0.176545</v>
       </c>
       <c r="D63" t="n">
-        <v>0.126126</v>
+        <v>0.12616</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.233827</v>
+        <v>0.232541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206576</v>
+        <v>0.206595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.13711</v>
+        <v>0.137051</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.278903</v>
+        <v>0.278461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252384</v>
+        <v>0.252292</v>
       </c>
       <c r="D65" t="n">
-        <v>0.156086</v>
+        <v>0.156044</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.35359</v>
+        <v>0.335337</v>
       </c>
       <c r="C66" t="n">
-        <v>0.328089</v>
+        <v>0.32878</v>
       </c>
       <c r="D66" t="n">
-        <v>0.105442</v>
+        <v>0.105303</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109953</v>
+        <v>0.109458</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110352</v>
+        <v>0.110378</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105589</v>
+        <v>0.105618</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.112019</v>
+        <v>0.111618</v>
       </c>
       <c r="C68" t="n">
-        <v>0.111623</v>
+        <v>0.11165</v>
       </c>
       <c r="D68" t="n">
-        <v>0.106176</v>
+        <v>0.10605</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11494</v>
+        <v>0.114362</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113334</v>
+        <v>0.113339</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106627</v>
+        <v>0.106681</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.118114</v>
+        <v>0.117904</v>
       </c>
       <c r="C70" t="n">
-        <v>0.115516</v>
+        <v>0.115419</v>
       </c>
       <c r="D70" t="n">
-        <v>0.107423</v>
+        <v>0.107504</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122592</v>
+        <v>0.122689</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118458</v>
+        <v>0.118318</v>
       </c>
       <c r="D71" t="n">
-        <v>0.108302</v>
+        <v>0.108397</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128124</v>
+        <v>0.128435</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122139</v>
+        <v>0.122106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.109374</v>
+        <v>0.109617</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135776</v>
+        <v>0.135594</v>
       </c>
       <c r="C73" t="n">
-        <v>0.12698</v>
+        <v>0.12709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110902</v>
+        <v>0.110927</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.145856</v>
+        <v>0.144871</v>
       </c>
       <c r="C74" t="n">
-        <v>0.13392</v>
+        <v>0.133914</v>
       </c>
       <c r="D74" t="n">
-        <v>0.113048</v>
+        <v>0.112958</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.158862</v>
+        <v>0.157967</v>
       </c>
       <c r="C75" t="n">
-        <v>0.14413</v>
+        <v>0.143956</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115992</v>
+        <v>0.115918</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175935</v>
+        <v>0.174189</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157498</v>
+        <v>0.157387</v>
       </c>
       <c r="D76" t="n">
-        <v>0.120672</v>
+        <v>0.120298</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19905</v>
+        <v>0.196923</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176662</v>
+        <v>0.176567</v>
       </c>
       <c r="D77" t="n">
-        <v>0.12683</v>
+        <v>0.126669</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.23139</v>
+        <v>0.228798</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204231</v>
+        <v>0.204268</v>
       </c>
       <c r="D78" t="n">
-        <v>0.137292</v>
+        <v>0.136987</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27528</v>
+        <v>0.277762</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24785</v>
+        <v>0.24781</v>
       </c>
       <c r="D79" t="n">
-        <v>0.154323</v>
+        <v>0.154297</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.331767</v>
+        <v>0.349207</v>
       </c>
       <c r="C80" t="n">
-        <v>0.317087</v>
+        <v>0.317071</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105461</v>
+        <v>0.105316</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110658</v>
+        <v>0.110158</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110425</v>
+        <v>0.110343</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105894</v>
+        <v>0.105901</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112598</v>
+        <v>0.112265</v>
       </c>
       <c r="C82" t="n">
-        <v>0.111784</v>
+        <v>0.111647</v>
       </c>
       <c r="D82" t="n">
-        <v>0.106294</v>
+        <v>0.10621</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115348</v>
+        <v>0.114705</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113236</v>
+        <v>0.113191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106915</v>
+        <v>0.106697</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118526</v>
+        <v>0.118208</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115238</v>
+        <v>0.115302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.107385</v>
+        <v>0.107323</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122884</v>
+        <v>0.122186</v>
       </c>
       <c r="C85" t="n">
-        <v>0.117848</v>
+        <v>0.11771</v>
       </c>
       <c r="D85" t="n">
-        <v>0.108326</v>
+        <v>0.108392</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.128546</v>
+        <v>0.127783</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121125</v>
+        <v>0.121072</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109368</v>
+        <v>0.109274</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135338</v>
+        <v>0.134936</v>
       </c>
       <c r="C87" t="n">
-        <v>0.125876</v>
+        <v>0.125753</v>
       </c>
       <c r="D87" t="n">
-        <v>0.110662</v>
+        <v>0.110726</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144633</v>
+        <v>0.144109</v>
       </c>
       <c r="C88" t="n">
-        <v>0.13245</v>
+        <v>0.132368</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112769</v>
+        <v>0.112592</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156741</v>
+        <v>0.156077</v>
       </c>
       <c r="C89" t="n">
-        <v>0.141571</v>
+        <v>0.14167</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115443</v>
+        <v>0.115622</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172829</v>
+        <v>0.17244</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154083</v>
+        <v>0.154016</v>
       </c>
       <c r="D90" t="n">
-        <v>0.119432</v>
+        <v>0.119329</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19518</v>
+        <v>0.194257</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171805</v>
+        <v>0.171692</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125319</v>
+        <v>0.125217</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225113</v>
+        <v>0.224673</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197035</v>
+        <v>0.197354</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134479</v>
+        <v>0.134537</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266363</v>
+        <v>0.266499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236344</v>
+        <v>0.236368</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149567</v>
+        <v>0.149522</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.340032</v>
+        <v>0.322182</v>
       </c>
       <c r="C94" t="n">
-        <v>0.299871</v>
+        <v>0.299707</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105382</v>
+        <v>0.105397</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110765</v>
+        <v>0.110477</v>
       </c>
       <c r="C95" t="n">
-        <v>0.110756</v>
+        <v>0.110799</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106107</v>
+        <v>0.106134</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112546</v>
+        <v>0.112474</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112208</v>
+        <v>0.112127</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106443</v>
+        <v>0.106537</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.115297</v>
+        <v>0.114915</v>
       </c>
       <c r="C97" t="n">
-        <v>0.113904</v>
+        <v>0.113755</v>
       </c>
       <c r="D97" t="n">
-        <v>0.107267</v>
+        <v>0.107086</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118772</v>
+        <v>0.118139</v>
       </c>
       <c r="C98" t="n">
-        <v>0.115875</v>
+        <v>0.115807</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107791</v>
+        <v>0.107701</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122549</v>
+        <v>0.1223</v>
       </c>
       <c r="C99" t="n">
-        <v>0.118416</v>
+        <v>0.11873</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108567</v>
+        <v>0.108562</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12762</v>
+        <v>0.127433</v>
       </c>
       <c r="C100" t="n">
-        <v>0.121723</v>
+        <v>0.121936</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109681</v>
+        <v>0.109868</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134653</v>
+        <v>0.134061</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126503</v>
+        <v>0.1264</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111184</v>
+        <v>0.111269</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143511</v>
+        <v>0.142917</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132823</v>
+        <v>0.132704</v>
       </c>
       <c r="D102" t="n">
-        <v>0.11315</v>
+        <v>0.113398</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.155257</v>
+        <v>0.154217</v>
       </c>
       <c r="C103" t="n">
-        <v>0.141676</v>
+        <v>0.141519</v>
       </c>
       <c r="D103" t="n">
-        <v>0.115974</v>
+        <v>0.116273</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.170598</v>
+        <v>0.169697</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153127</v>
+        <v>0.153213</v>
       </c>
       <c r="D104" t="n">
-        <v>0.119728</v>
+        <v>0.119954</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191937</v>
+        <v>0.190061</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169531</v>
+        <v>0.169484</v>
       </c>
       <c r="D105" t="n">
-        <v>0.125336</v>
+        <v>0.125339</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.220614</v>
+        <v>0.218907</v>
       </c>
       <c r="C106" t="n">
-        <v>0.192697</v>
+        <v>0.19268</v>
       </c>
       <c r="D106" t="n">
-        <v>0.133812</v>
+        <v>0.134023</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.259399</v>
+        <v>0.257645</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229105</v>
+        <v>0.229123</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147909</v>
+        <v>0.147763</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.312386</v>
+        <v>0.315672</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285529</v>
+        <v>0.285709</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108279</v>
+        <v>0.108607</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.381283</v>
+        <v>0.384052</v>
       </c>
       <c r="C109" t="n">
-        <v>0.375658</v>
+        <v>0.374674</v>
       </c>
       <c r="D109" t="n">
-        <v>0.10911</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114489</v>
+        <v>0.114483</v>
       </c>
       <c r="C110" t="n">
-        <v>0.116522</v>
+        <v>0.116676</v>
       </c>
       <c r="D110" t="n">
-        <v>0.10995</v>
+        <v>0.109817</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117286</v>
+        <v>0.117337</v>
       </c>
       <c r="C111" t="n">
-        <v>0.118949</v>
+        <v>0.119347</v>
       </c>
       <c r="D111" t="n">
-        <v>0.11099</v>
+        <v>0.110706</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120377</v>
+        <v>0.120446</v>
       </c>
       <c r="C112" t="n">
-        <v>0.123279</v>
+        <v>0.124044</v>
       </c>
       <c r="D112" t="n">
-        <v>0.112104</v>
+        <v>0.111929</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124403</v>
+        <v>0.124678</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129909</v>
+        <v>0.130858</v>
       </c>
       <c r="D113" t="n">
-        <v>0.113335</v>
+        <v>0.113216</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.129997</v>
+        <v>0.129955</v>
       </c>
       <c r="C114" t="n">
-        <v>0.139536</v>
+        <v>0.138116</v>
       </c>
       <c r="D114" t="n">
-        <v>0.114684</v>
+        <v>0.114503</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136302</v>
+        <v>0.136399</v>
       </c>
       <c r="C115" t="n">
-        <v>0.148773</v>
+        <v>0.147786</v>
       </c>
       <c r="D115" t="n">
-        <v>0.116363</v>
+        <v>0.117018</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.144969</v>
+        <v>0.145264</v>
       </c>
       <c r="C116" t="n">
-        <v>0.158151</v>
+        <v>0.158507</v>
       </c>
       <c r="D116" t="n">
-        <v>0.119176</v>
+        <v>0.119129</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.157217</v>
+        <v>0.157311</v>
       </c>
       <c r="C117" t="n">
-        <v>0.169438</v>
+        <v>0.16954</v>
       </c>
       <c r="D117" t="n">
-        <v>0.12372</v>
+        <v>0.124352</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.175126</v>
+        <v>0.175119</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182443</v>
+        <v>0.182164</v>
       </c>
       <c r="D118" t="n">
-        <v>0.130817</v>
+        <v>0.131442</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199999</v>
+        <v>0.200107</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199251</v>
+        <v>0.199543</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141975</v>
+        <v>0.141734</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232319</v>
+        <v>0.232919</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221825</v>
+        <v>0.22157</v>
       </c>
       <c r="D120" t="n">
-        <v>0.154342</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.271983</v>
+        <v>0.273283</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253546</v>
+        <v>0.253658</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170371</v>
+        <v>0.170336</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.322747</v>
+        <v>0.323153</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302255</v>
+        <v>0.302243</v>
       </c>
       <c r="D122" t="n">
-        <v>0.193188</v>
+        <v>0.19373</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.397887</v>
+        <v>0.390996</v>
       </c>
       <c r="C123" t="n">
-        <v>0.380355</v>
+        <v>0.380011</v>
       </c>
       <c r="D123" t="n">
-        <v>0.136745</v>
+        <v>0.131882</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.136122</v>
+        <v>0.134347</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161791</v>
+        <v>0.165532</v>
       </c>
       <c r="D124" t="n">
-        <v>0.140278</v>
+        <v>0.139265</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.142699</v>
+        <v>0.140575</v>
       </c>
       <c r="C125" t="n">
-        <v>0.168816</v>
+        <v>0.162977</v>
       </c>
       <c r="D125" t="n">
-        <v>0.143094</v>
+        <v>0.137424</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.148298</v>
+        <v>0.147428</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171673</v>
+        <v>0.172773</v>
       </c>
       <c r="D126" t="n">
-        <v>0.14471</v>
+        <v>0.142132</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.153498</v>
+        <v>0.153363</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174715</v>
+        <v>0.175595</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146391</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159824</v>
+        <v>0.159923</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179699</v>
+        <v>0.178971</v>
       </c>
       <c r="D128" t="n">
-        <v>0.14965</v>
+        <v>0.149994</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.16684</v>
+        <v>0.167029</v>
       </c>
       <c r="C129" t="n">
-        <v>0.183944</v>
+        <v>0.184497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152072</v>
+        <v>0.152051</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175685</v>
+        <v>0.175959</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191816</v>
+        <v>0.190495</v>
       </c>
       <c r="D130" t="n">
-        <v>0.154828</v>
+        <v>0.154822</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186804</v>
+        <v>0.186679</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199922</v>
+        <v>0.199662</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159554</v>
+        <v>0.159413</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200917</v>
+        <v>0.201225</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210305</v>
+        <v>0.209685</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162759</v>
+        <v>0.163163</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219421</v>
+        <v>0.219855</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223547</v>
+        <v>0.223862</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17392</v>
+        <v>0.168456</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247519</v>
+        <v>0.247802</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243155</v>
+        <v>0.242762</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181937</v>
+        <v>0.182183</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.281109</v>
+        <v>0.281214</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271396</v>
+        <v>0.271406</v>
       </c>
       <c r="D135" t="n">
-        <v>0.193544</v>
+        <v>0.194558</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.326807</v>
+        <v>0.326714</v>
       </c>
       <c r="C136" t="n">
-        <v>0.314627</v>
+        <v>0.313962</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212178</v>
+        <v>0.213124</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.390045</v>
+        <v>0.395136</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380564</v>
+        <v>0.379406</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196412</v>
+        <v>0.196732</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.195833</v>
+        <v>0.194708</v>
       </c>
       <c r="C138" t="n">
-        <v>0.223249</v>
+        <v>0.225883</v>
       </c>
       <c r="D138" t="n">
-        <v>0.199005</v>
+        <v>0.19874</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.200644</v>
+        <v>0.199534</v>
       </c>
       <c r="C139" t="n">
-        <v>0.226964</v>
+        <v>0.231952</v>
       </c>
       <c r="D139" t="n">
-        <v>0.201506</v>
+        <v>0.200803</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.203962</v>
+        <v>0.202857</v>
       </c>
       <c r="C140" t="n">
-        <v>0.230015</v>
+        <v>0.231388</v>
       </c>
       <c r="D140" t="n">
-        <v>0.203619</v>
+        <v>0.203301</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.205867</v>
+        <v>0.208409</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234193</v>
+        <v>0.235039</v>
       </c>
       <c r="D141" t="n">
-        <v>0.206434</v>
+        <v>0.20594</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.212327</v>
+        <v>0.214388</v>
       </c>
       <c r="C142" t="n">
-        <v>0.238287</v>
+        <v>0.239177</v>
       </c>
       <c r="D142" t="n">
-        <v>0.209025</v>
+        <v>0.208715</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219256</v>
+        <v>0.220655</v>
       </c>
       <c r="C143" t="n">
-        <v>0.24348</v>
+        <v>0.244122</v>
       </c>
       <c r="D143" t="n">
-        <v>0.212112</v>
+        <v>0.211934</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.127347</v>
+        <v>0.126442</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127319</v>
+        <v>0.127309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108783</v>
+        <v>0.108802</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.134892</v>
+        <v>0.132812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131776</v>
+        <v>0.131742</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110978</v>
+        <v>0.110943</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.145621</v>
+        <v>0.142453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142523</v>
+        <v>0.14245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114537</v>
+        <v>0.114631</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.160995</v>
+        <v>0.158015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.155359</v>
+        <v>0.155306</v>
       </c>
       <c r="D5" t="n">
-        <v>0.118199</v>
+        <v>0.118216</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18161</v>
+        <v>0.178406</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176402</v>
+        <v>0.176898</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125969</v>
+        <v>0.126032</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.208032</v>
+        <v>0.206003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.208986</v>
+        <v>0.208676</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136159</v>
+        <v>0.136206</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247697</v>
+        <v>0.242253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245894</v>
+        <v>0.249127</v>
       </c>
       <c r="D8" t="n">
-        <v>0.149842</v>
+        <v>0.150015</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.312614</v>
+        <v>0.308886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.327569</v>
+        <v>0.319185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101862</v>
+        <v>0.101901</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.10589</v>
+        <v>0.105931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108772</v>
+        <v>0.108774</v>
       </c>
       <c r="D10" t="n">
-        <v>0.10261</v>
+        <v>0.102662</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.108364</v>
+        <v>0.107922</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10989</v>
+        <v>0.109868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.103006</v>
+        <v>0.103033</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.110349</v>
+        <v>0.110252</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111056</v>
+        <v>0.111088</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103567</v>
+        <v>0.103535</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113099</v>
+        <v>0.113348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113123</v>
+        <v>0.113137</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104179</v>
+        <v>0.104175</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116981</v>
+        <v>0.116877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117</v>
+        <v>0.116939</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105358</v>
+        <v>0.105349</v>
       </c>
     </row>
     <row r="15">
@@ -3430,10 +3430,10 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12076</v>
+        <v>0.121869</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120214</v>
+        <v>0.120229</v>
       </c>
       <c r="D15" t="n">
         <v>0.106457</v>
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1278</v>
+        <v>0.127553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125181</v>
+        <v>0.125143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107823</v>
+        <v>0.107791</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.134756</v>
+        <v>0.137801</v>
       </c>
       <c r="C17" t="n">
-        <v>0.13152</v>
+        <v>0.131507</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109853</v>
+        <v>0.109822</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.144452</v>
+        <v>0.146526</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138857</v>
+        <v>0.13908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112031</v>
+        <v>0.112029</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159164</v>
+        <v>0.159005</v>
       </c>
       <c r="C19" t="n">
-        <v>0.150094</v>
+        <v>0.149962</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116021</v>
+        <v>0.116043</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.179231</v>
+        <v>0.183004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168636</v>
+        <v>0.16845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121079</v>
+        <v>0.121088</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.209533</v>
+        <v>0.209649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191248</v>
+        <v>0.190856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.128122</v>
+        <v>0.12816</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245787</v>
+        <v>0.247628</v>
       </c>
       <c r="C22" t="n">
-        <v>0.22335</v>
+        <v>0.224227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.141231</v>
+        <v>0.141214</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.303966</v>
+        <v>0.301513</v>
       </c>
       <c r="C23" t="n">
-        <v>0.287246</v>
+        <v>0.28751</v>
       </c>
       <c r="D23" t="n">
-        <v>0.10146</v>
+        <v>0.101445</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105034</v>
+        <v>0.104966</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106447</v>
+        <v>0.106398</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101779</v>
+        <v>0.101763</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.106997</v>
+        <v>0.106414</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107652</v>
+        <v>0.10766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10232</v>
+        <v>0.102294</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.108983</v>
+        <v>0.109206</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108917</v>
+        <v>0.108945</v>
       </c>
       <c r="D26" t="n">
-        <v>0.10269</v>
+        <v>0.102669</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111766</v>
+        <v>0.111798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110926</v>
+        <v>0.110965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.103243</v>
+        <v>0.10326</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115304</v>
+        <v>0.115882</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113124</v>
+        <v>0.113092</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104048</v>
+        <v>0.10401</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.119517</v>
+        <v>0.120301</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116807</v>
+        <v>0.116856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.10518</v>
+        <v>0.105192</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1245</v>
+        <v>0.126448</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120503</v>
+        <v>0.120478</v>
       </c>
       <c r="D30" t="n">
-        <v>0.106439</v>
+        <v>0.10641</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.132253</v>
+        <v>0.135063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125606</v>
+        <v>0.125667</v>
       </c>
       <c r="D31" t="n">
-        <v>0.108003</v>
+        <v>0.107982</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141275</v>
+        <v>0.14513</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133251</v>
+        <v>0.133242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11038</v>
+        <v>0.110394</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.154947</v>
+        <v>0.158792</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145084</v>
+        <v>0.145161</v>
       </c>
       <c r="D33" t="n">
-        <v>0.113913</v>
+        <v>0.113849</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173166</v>
+        <v>0.178193</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159105</v>
+        <v>0.159145</v>
       </c>
       <c r="D34" t="n">
-        <v>0.118135</v>
+        <v>0.118177</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.198259</v>
+        <v>0.205807</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180131</v>
+        <v>0.180108</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124433</v>
+        <v>0.124539</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233288</v>
+        <v>0.241923</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213128</v>
+        <v>0.213217</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136113</v>
+        <v>0.136089</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280974</v>
+        <v>0.288458</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264058</v>
+        <v>0.26443</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101779</v>
+        <v>0.101781</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104444</v>
+        <v>0.104766</v>
       </c>
       <c r="C38" t="n">
-        <v>0.106755</v>
+        <v>0.106735</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102241</v>
+        <v>0.102207</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106087</v>
+        <v>0.10609</v>
       </c>
       <c r="C39" t="n">
-        <v>0.108014</v>
+        <v>0.108008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.102773</v>
+        <v>0.102842</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108309</v>
+        <v>0.108439</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109411</v>
+        <v>0.109543</v>
       </c>
       <c r="D40" t="n">
-        <v>0.103284</v>
+        <v>0.103309</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111091</v>
+        <v>0.110932</v>
       </c>
       <c r="C41" t="n">
-        <v>0.110949</v>
+        <v>0.110956</v>
       </c>
       <c r="D41" t="n">
-        <v>0.10391</v>
+        <v>0.104138</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114542</v>
+        <v>0.114394</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112894</v>
+        <v>0.112871</v>
       </c>
       <c r="D42" t="n">
-        <v>0.104609</v>
+        <v>0.104565</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.118744</v>
+        <v>0.119323</v>
       </c>
       <c r="C43" t="n">
-        <v>0.115615</v>
+        <v>0.11563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.105263</v>
+        <v>0.105408</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124115</v>
+        <v>0.125398</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119565</v>
+        <v>0.119751</v>
       </c>
       <c r="D44" t="n">
-        <v>0.10652</v>
+        <v>0.106667</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132003</v>
+        <v>0.13298</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124903</v>
+        <v>0.125121</v>
       </c>
       <c r="D45" t="n">
-        <v>0.108231</v>
+        <v>0.108384</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.141662</v>
+        <v>0.142867</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132476</v>
+        <v>0.1325</v>
       </c>
       <c r="D46" t="n">
-        <v>0.110806</v>
+        <v>0.110843</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.155441</v>
+        <v>0.156238</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142889</v>
+        <v>0.142951</v>
       </c>
       <c r="D47" t="n">
-        <v>0.114012</v>
+        <v>0.113906</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.173538</v>
+        <v>0.175369</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157451</v>
+        <v>0.157616</v>
       </c>
       <c r="D48" t="n">
-        <v>0.11835</v>
+        <v>0.118202</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.197388</v>
+        <v>0.201679</v>
       </c>
       <c r="C49" t="n">
-        <v>0.178057</v>
+        <v>0.177927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124637</v>
+        <v>0.124497</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.231014</v>
+        <v>0.235579</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212455</v>
+        <v>0.212391</v>
       </c>
       <c r="D50" t="n">
-        <v>0.135959</v>
+        <v>0.135955</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.273745</v>
+        <v>0.280005</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258514</v>
+        <v>0.258022</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103988</v>
+        <v>0.103967</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.339399</v>
+        <v>0.330242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.333651</v>
+        <v>0.333925</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104419</v>
+        <v>0.104405</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108328</v>
+        <v>0.10835</v>
       </c>
       <c r="C53" t="n">
-        <v>0.109687</v>
+        <v>0.109737</v>
       </c>
       <c r="D53" t="n">
-        <v>0.104798</v>
+        <v>0.105081</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110287</v>
+        <v>0.110456</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111035</v>
+        <v>0.111048</v>
       </c>
       <c r="D54" t="n">
-        <v>0.105382</v>
+        <v>0.105446</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113069</v>
+        <v>0.113249</v>
       </c>
       <c r="C55" t="n">
-        <v>0.112772</v>
+        <v>0.112768</v>
       </c>
       <c r="D55" t="n">
-        <v>0.105998</v>
+        <v>0.106066</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116555</v>
+        <v>0.116741</v>
       </c>
       <c r="C56" t="n">
-        <v>0.114859</v>
+        <v>0.114801</v>
       </c>
       <c r="D56" t="n">
-        <v>0.106786</v>
+        <v>0.106698</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121165</v>
+        <v>0.121508</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117705</v>
+        <v>0.117594</v>
       </c>
       <c r="D57" t="n">
-        <v>0.107681</v>
+        <v>0.107656</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126855</v>
+        <v>0.126753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.12187</v>
+        <v>0.121859</v>
       </c>
       <c r="D58" t="n">
-        <v>0.108988</v>
+        <v>0.109121</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134427</v>
+        <v>0.134528</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127226</v>
+        <v>0.127315</v>
       </c>
       <c r="D59" t="n">
-        <v>0.110373</v>
+        <v>0.110494</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.144004</v>
+        <v>0.144824</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133773</v>
+        <v>0.133774</v>
       </c>
       <c r="D60" t="n">
-        <v>0.112471</v>
+        <v>0.112509</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157823</v>
+        <v>0.157859</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143463</v>
+        <v>0.143416</v>
       </c>
       <c r="D61" t="n">
-        <v>0.115386</v>
+        <v>0.115408</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175611</v>
+        <v>0.175844</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156724</v>
+        <v>0.156776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119484</v>
+        <v>0.119393</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2</v>
+        <v>0.200629</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176545</v>
+        <v>0.176398</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12616</v>
+        <v>0.126135</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.232541</v>
+        <v>0.23292</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206595</v>
+        <v>0.206657</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137051</v>
+        <v>0.137133</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.278461</v>
+        <v>0.287162</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252292</v>
+        <v>0.252137</v>
       </c>
       <c r="D65" t="n">
-        <v>0.156044</v>
+        <v>0.156053</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335337</v>
+        <v>0.33592</v>
       </c>
       <c r="C66" t="n">
-        <v>0.32878</v>
+        <v>0.328457</v>
       </c>
       <c r="D66" t="n">
-        <v>0.105303</v>
+        <v>0.105109</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109458</v>
+        <v>0.109905</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110378</v>
+        <v>0.110283</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105618</v>
+        <v>0.105845</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.111618</v>
+        <v>0.112409</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11165</v>
+        <v>0.111589</v>
       </c>
       <c r="D68" t="n">
-        <v>0.10605</v>
+        <v>0.106035</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114362</v>
+        <v>0.114885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113339</v>
+        <v>0.113357</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106681</v>
+        <v>0.106739</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.117904</v>
+        <v>0.118447</v>
       </c>
       <c r="C70" t="n">
-        <v>0.115419</v>
+        <v>0.115448</v>
       </c>
       <c r="D70" t="n">
-        <v>0.107504</v>
+        <v>0.107354</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122689</v>
+        <v>0.122997</v>
       </c>
       <c r="C71" t="n">
-        <v>0.118318</v>
+        <v>0.11846</v>
       </c>
       <c r="D71" t="n">
-        <v>0.108397</v>
+        <v>0.108332</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128435</v>
+        <v>0.128833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122106</v>
+        <v>0.121999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.109617</v>
+        <v>0.109366</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135594</v>
+        <v>0.136073</v>
       </c>
       <c r="C73" t="n">
-        <v>0.12709</v>
+        <v>0.127016</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110927</v>
+        <v>0.110937</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.144871</v>
+        <v>0.145509</v>
       </c>
       <c r="C74" t="n">
-        <v>0.133914</v>
+        <v>0.133932</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112958</v>
+        <v>0.112965</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.157967</v>
+        <v>0.158642</v>
       </c>
       <c r="C75" t="n">
-        <v>0.143956</v>
+        <v>0.144013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115918</v>
+        <v>0.115905</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.174189</v>
+        <v>0.175608</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157387</v>
+        <v>0.157393</v>
       </c>
       <c r="D76" t="n">
-        <v>0.120298</v>
+        <v>0.120263</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196923</v>
+        <v>0.198532</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176567</v>
+        <v>0.176381</v>
       </c>
       <c r="D77" t="n">
-        <v>0.126669</v>
+        <v>0.126641</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228798</v>
+        <v>0.22981</v>
       </c>
       <c r="C78" t="n">
         <v>0.204268</v>
       </c>
       <c r="D78" t="n">
-        <v>0.136987</v>
+        <v>0.137136</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277762</v>
+        <v>0.273911</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24781</v>
+        <v>0.247606</v>
       </c>
       <c r="D79" t="n">
-        <v>0.154297</v>
+        <v>0.154437</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.349207</v>
+        <v>0.335408</v>
       </c>
       <c r="C80" t="n">
-        <v>0.317071</v>
+        <v>0.316761</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105316</v>
+        <v>0.105215</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110158</v>
+        <v>0.110747</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110343</v>
+        <v>0.110381</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105901</v>
+        <v>0.105683</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112265</v>
+        <v>0.112807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.111647</v>
+        <v>0.111671</v>
       </c>
       <c r="D82" t="n">
-        <v>0.10621</v>
+        <v>0.106208</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.114705</v>
+        <v>0.115296</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113191</v>
+        <v>0.113125</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106697</v>
+        <v>0.106668</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118208</v>
+        <v>0.118811</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115302</v>
+        <v>0.115278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.107323</v>
+        <v>0.107456</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122186</v>
+        <v>0.122999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.11771</v>
+        <v>0.117745</v>
       </c>
       <c r="D85" t="n">
-        <v>0.108392</v>
+        <v>0.108274</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.127783</v>
+        <v>0.12837</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121072</v>
+        <v>0.121081</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109274</v>
+        <v>0.109337</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134936</v>
+        <v>0.135637</v>
       </c>
       <c r="C87" t="n">
-        <v>0.125753</v>
+        <v>0.125723</v>
       </c>
       <c r="D87" t="n">
-        <v>0.110726</v>
+        <v>0.11088</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144109</v>
+        <v>0.145092</v>
       </c>
       <c r="C88" t="n">
-        <v>0.132368</v>
+        <v>0.132276</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112592</v>
+        <v>0.112613</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156077</v>
+        <v>0.157121</v>
       </c>
       <c r="C89" t="n">
-        <v>0.14167</v>
+        <v>0.141631</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115622</v>
+        <v>0.115255</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.17244</v>
+        <v>0.173494</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154016</v>
+        <v>0.153799</v>
       </c>
       <c r="D90" t="n">
-        <v>0.119329</v>
+        <v>0.119249</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194257</v>
+        <v>0.195399</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171692</v>
+        <v>0.171595</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125217</v>
+        <v>0.125192</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224673</v>
+        <v>0.225364</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197354</v>
+        <v>0.197248</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134537</v>
+        <v>0.134291</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266499</v>
+        <v>0.266661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236368</v>
+        <v>0.236025</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149522</v>
+        <v>0.14939</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.322182</v>
+        <v>0.322274</v>
       </c>
       <c r="C94" t="n">
-        <v>0.299707</v>
+        <v>0.299585</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105397</v>
+        <v>0.105438</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110477</v>
+        <v>0.110665</v>
       </c>
       <c r="C95" t="n">
-        <v>0.110799</v>
+        <v>0.110834</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106134</v>
+        <v>0.106087</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112474</v>
+        <v>0.112635</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112127</v>
+        <v>0.112119</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106537</v>
+        <v>0.10639</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114915</v>
+        <v>0.115233</v>
       </c>
       <c r="C97" t="n">
-        <v>0.113755</v>
+        <v>0.113653</v>
       </c>
       <c r="D97" t="n">
-        <v>0.107086</v>
+        <v>0.10694</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118139</v>
+        <v>0.118243</v>
       </c>
       <c r="C98" t="n">
-        <v>0.115807</v>
+        <v>0.115938</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107701</v>
+        <v>0.107831</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1223</v>
+        <v>0.122267</v>
       </c>
       <c r="C99" t="n">
-        <v>0.11873</v>
+        <v>0.1185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108562</v>
+        <v>0.108688</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127433</v>
+        <v>0.127638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.121936</v>
+        <v>0.121951</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109868</v>
+        <v>0.109754</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134061</v>
+        <v>0.134603</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1264</v>
+        <v>0.126665</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111269</v>
+        <v>0.111192</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.142917</v>
+        <v>0.143113</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132704</v>
+        <v>0.132814</v>
       </c>
       <c r="D102" t="n">
-        <v>0.113398</v>
+        <v>0.113173</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154217</v>
+        <v>0.154655</v>
       </c>
       <c r="C103" t="n">
-        <v>0.141519</v>
+        <v>0.141384</v>
       </c>
       <c r="D103" t="n">
-        <v>0.116273</v>
+        <v>0.115927</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169697</v>
+        <v>0.170092</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153213</v>
+        <v>0.153055</v>
       </c>
       <c r="D104" t="n">
-        <v>0.119954</v>
+        <v>0.119865</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190061</v>
+        <v>0.191025</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169484</v>
+        <v>0.169316</v>
       </c>
       <c r="D105" t="n">
-        <v>0.125339</v>
+        <v>0.125298</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.218907</v>
+        <v>0.219408</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19268</v>
+        <v>0.192508</v>
       </c>
       <c r="D106" t="n">
-        <v>0.134023</v>
+        <v>0.133837</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257645</v>
+        <v>0.257544</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229123</v>
+        <v>0.228873</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147763</v>
+        <v>0.147881</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.315672</v>
+        <v>0.313648</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285709</v>
+        <v>0.28553</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108607</v>
+        <v>0.108352</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.384052</v>
+        <v>0.380175</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374674</v>
+        <v>0.375434</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1093</v>
+        <v>0.109358</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114483</v>
+        <v>0.114598</v>
       </c>
       <c r="C110" t="n">
-        <v>0.116676</v>
+        <v>0.11657</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109817</v>
+        <v>0.109809</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117337</v>
+        <v>0.117322</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119347</v>
+        <v>0.11899</v>
       </c>
       <c r="D111" t="n">
-        <v>0.110706</v>
+        <v>0.110997</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120446</v>
+        <v>0.120303</v>
       </c>
       <c r="C112" t="n">
-        <v>0.124044</v>
+        <v>0.123361</v>
       </c>
       <c r="D112" t="n">
-        <v>0.111929</v>
+        <v>0.111895</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124678</v>
+        <v>0.124467</v>
       </c>
       <c r="C113" t="n">
-        <v>0.130858</v>
+        <v>0.129592</v>
       </c>
       <c r="D113" t="n">
-        <v>0.113216</v>
+        <v>0.11311</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.129955</v>
+        <v>0.13044</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138116</v>
+        <v>0.138177</v>
       </c>
       <c r="D114" t="n">
-        <v>0.114503</v>
+        <v>0.114554</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136399</v>
+        <v>0.136326</v>
       </c>
       <c r="C115" t="n">
-        <v>0.147786</v>
+        <v>0.149639</v>
       </c>
       <c r="D115" t="n">
-        <v>0.117018</v>
+        <v>0.116373</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.145264</v>
+        <v>0.144922</v>
       </c>
       <c r="C116" t="n">
-        <v>0.158507</v>
+        <v>0.158068</v>
       </c>
       <c r="D116" t="n">
-        <v>0.119129</v>
+        <v>0.119148</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.157311</v>
+        <v>0.156879</v>
       </c>
       <c r="C117" t="n">
-        <v>0.16954</v>
+        <v>0.169552</v>
       </c>
       <c r="D117" t="n">
-        <v>0.124352</v>
+        <v>0.123708</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.175119</v>
+        <v>0.176298</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182164</v>
+        <v>0.182625</v>
       </c>
       <c r="D118" t="n">
-        <v>0.131442</v>
+        <v>0.131199</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200107</v>
+        <v>0.20043</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199543</v>
+        <v>0.199391</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141734</v>
+        <v>0.141671</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232919</v>
+        <v>0.232943</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22157</v>
+        <v>0.22147</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1543</v>
+        <v>0.154466</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.273283</v>
+        <v>0.27246</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253658</v>
+        <v>0.253106</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170336</v>
+        <v>0.170449</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.323153</v>
+        <v>0.327278</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302243</v>
+        <v>0.302279</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19373</v>
+        <v>0.194147</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.390996</v>
+        <v>0.403301</v>
       </c>
       <c r="C123" t="n">
-        <v>0.380011</v>
+        <v>0.380346</v>
       </c>
       <c r="D123" t="n">
-        <v>0.131882</v>
+        <v>0.132198</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134347</v>
+        <v>0.133127</v>
       </c>
       <c r="C124" t="n">
-        <v>0.165532</v>
+        <v>0.159819</v>
       </c>
       <c r="D124" t="n">
-        <v>0.139265</v>
+        <v>0.133868</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.140575</v>
+        <v>0.141314</v>
       </c>
       <c r="C125" t="n">
-        <v>0.162977</v>
+        <v>0.168677</v>
       </c>
       <c r="D125" t="n">
-        <v>0.137424</v>
+        <v>0.141494</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.147428</v>
+        <v>0.147454</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172773</v>
+        <v>0.172538</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142132</v>
+        <v>0.144748</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.153363</v>
+        <v>0.153341</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175595</v>
+        <v>0.174476</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14745</v>
+        <v>0.145794</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159923</v>
+        <v>0.159553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178971</v>
+        <v>0.179401</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149994</v>
+        <v>0.148712</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.167029</v>
+        <v>0.166779</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184497</v>
+        <v>0.184409</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152051</v>
+        <v>0.151924</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175959</v>
+        <v>0.175568</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190495</v>
+        <v>0.191614</v>
       </c>
       <c r="D130" t="n">
-        <v>0.154822</v>
+        <v>0.155713</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186679</v>
+        <v>0.186537</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199662</v>
+        <v>0.19916</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159413</v>
+        <v>0.157968</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201225</v>
+        <v>0.201283</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209685</v>
+        <v>0.209318</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163163</v>
+        <v>0.163251</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219855</v>
+        <v>0.223552</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223862</v>
+        <v>0.224226</v>
       </c>
       <c r="D133" t="n">
-        <v>0.168456</v>
+        <v>0.169981</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247802</v>
+        <v>0.247859</v>
       </c>
       <c r="C134" t="n">
-        <v>0.242762</v>
+        <v>0.243705</v>
       </c>
       <c r="D134" t="n">
-        <v>0.182183</v>
+        <v>0.181623</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.281214</v>
+        <v>0.28121</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271406</v>
+        <v>0.271538</v>
       </c>
       <c r="D135" t="n">
-        <v>0.194558</v>
+        <v>0.193164</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.326714</v>
+        <v>0.327225</v>
       </c>
       <c r="C136" t="n">
-        <v>0.313962</v>
+        <v>0.314881</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213124</v>
+        <v>0.212518</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.395136</v>
+        <v>0.390389</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379406</v>
+        <v>0.380314</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196732</v>
+        <v>0.199946</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.194708</v>
+        <v>0.197071</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225883</v>
+        <v>0.224003</v>
       </c>
       <c r="D138" t="n">
-        <v>0.19874</v>
+        <v>0.201889</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.199534</v>
+        <v>0.201957</v>
       </c>
       <c r="C139" t="n">
-        <v>0.231952</v>
+        <v>0.227344</v>
       </c>
       <c r="D139" t="n">
-        <v>0.200803</v>
+        <v>0.204511</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.202857</v>
+        <v>0.203558</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231388</v>
+        <v>0.230904</v>
       </c>
       <c r="D140" t="n">
-        <v>0.203301</v>
+        <v>0.206923</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.208409</v>
+        <v>0.209229</v>
       </c>
       <c r="C141" t="n">
-        <v>0.235039</v>
+        <v>0.234865</v>
       </c>
       <c r="D141" t="n">
-        <v>0.20594</v>
+        <v>0.209697</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.214388</v>
+        <v>0.21332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239177</v>
+        <v>0.239514</v>
       </c>
       <c r="D142" t="n">
-        <v>0.208715</v>
+        <v>0.21238</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220655</v>
+        <v>0.220776</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244122</v>
+        <v>0.244166</v>
       </c>
       <c r="D143" t="n">
-        <v>0.211934</v>
+        <v>0.215312</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.126442</v>
+        <v>0.129189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127309</v>
+        <v>0.127393</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108802</v>
+        <v>0.108812</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.132812</v>
+        <v>0.135461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131742</v>
+        <v>0.131722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110943</v>
+        <v>0.110947</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.142453</v>
+        <v>0.149065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.14245</v>
+        <v>0.142404</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114631</v>
+        <v>0.114588</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.158015</v>
+        <v>0.161545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.155306</v>
+        <v>0.155327</v>
       </c>
       <c r="D5" t="n">
-        <v>0.118216</v>
+        <v>0.11821</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178406</v>
+        <v>0.18377</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176898</v>
+        <v>0.176249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.126032</v>
+        <v>0.125927</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.206003</v>
+        <v>0.211962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.208676</v>
+        <v>0.210893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136206</v>
+        <v>0.13623</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242253</v>
+        <v>0.252105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.249127</v>
+        <v>0.248799</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150015</v>
+        <v>0.150158</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.308886</v>
+        <v>0.301639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.319185</v>
+        <v>0.322299</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101901</v>
+        <v>0.101907</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.105931</v>
+        <v>0.106401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.108774</v>
+        <v>0.10872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.102662</v>
+        <v>0.102592</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.107922</v>
+        <v>0.107422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.109868</v>
+        <v>0.109919</v>
       </c>
       <c r="D11" t="n">
-        <v>0.103033</v>
+        <v>0.103008</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.110252</v>
+        <v>0.110918</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111088</v>
+        <v>0.11102</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103535</v>
+        <v>0.10354</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113348</v>
+        <v>0.113825</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113137</v>
+        <v>0.113069</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104175</v>
+        <v>0.104171</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116877</v>
+        <v>0.118112</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116939</v>
+        <v>0.116916</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105349</v>
+        <v>0.105357</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.121869</v>
+        <v>0.12306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120229</v>
+        <v>0.120213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106457</v>
+        <v>0.106397</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.127553</v>
+        <v>0.129335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125143</v>
+        <v>0.125189</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107791</v>
+        <v>0.107851</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.137801</v>
+        <v>0.136951</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131507</v>
+        <v>0.131562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109822</v>
+        <v>0.109812</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.146526</v>
+        <v>0.147003</v>
       </c>
       <c r="C18" t="n">
-        <v>0.13908</v>
+        <v>0.138879</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112029</v>
+        <v>0.112021</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.159005</v>
+        <v>0.162422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.149962</v>
+        <v>0.150247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.116043</v>
+        <v>0.11597</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183004</v>
+        <v>0.183589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.16845</v>
+        <v>0.168343</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121088</v>
+        <v>0.121121</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.209649</v>
+        <v>0.209255</v>
       </c>
       <c r="C21" t="n">
-        <v>0.190856</v>
+        <v>0.191611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12816</v>
+        <v>0.128155</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247628</v>
+        <v>0.249293</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224227</v>
+        <v>0.223112</v>
       </c>
       <c r="D22" t="n">
-        <v>0.141214</v>
+        <v>0.141227</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301513</v>
+        <v>0.310194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28751</v>
+        <v>0.287137</v>
       </c>
       <c r="D23" t="n">
-        <v>0.101445</v>
+        <v>0.101471</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.104966</v>
+        <v>0.105534</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106398</v>
+        <v>0.106426</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101763</v>
+        <v>0.101771</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.106414</v>
+        <v>0.107345</v>
       </c>
       <c r="C25" t="n">
-        <v>0.10766</v>
+        <v>0.107675</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102294</v>
+        <v>0.102299</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109206</v>
+        <v>0.109993</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108945</v>
+        <v>0.108929</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102669</v>
+        <v>0.102686</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.111798</v>
+        <v>0.112445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110965</v>
+        <v>0.11099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.10326</v>
+        <v>0.103269</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115882</v>
+        <v>0.115978</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113092</v>
+        <v>0.113093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.10401</v>
+        <v>0.104052</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120301</v>
+        <v>0.120471</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116856</v>
+        <v>0.116816</v>
       </c>
       <c r="D29" t="n">
-        <v>0.105192</v>
+        <v>0.105161</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126448</v>
+        <v>0.126032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120478</v>
+        <v>0.120517</v>
       </c>
       <c r="D30" t="n">
-        <v>0.10641</v>
+        <v>0.106453</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.135063</v>
+        <v>0.133744</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125667</v>
+        <v>0.125585</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107982</v>
+        <v>0.107986</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.14513</v>
+        <v>0.143269</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133242</v>
+        <v>0.133282</v>
       </c>
       <c r="D32" t="n">
-        <v>0.110394</v>
+        <v>0.110367</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.158792</v>
+        <v>0.157162</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145161</v>
+        <v>0.145049</v>
       </c>
       <c r="D33" t="n">
-        <v>0.113849</v>
+        <v>0.113891</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.178193</v>
+        <v>0.175531</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159145</v>
+        <v>0.159192</v>
       </c>
       <c r="D34" t="n">
-        <v>0.118177</v>
+        <v>0.118141</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205807</v>
+        <v>0.201827</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180108</v>
+        <v>0.180171</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124539</v>
+        <v>0.124511</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.241923</v>
+        <v>0.235625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213217</v>
+        <v>0.213355</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136089</v>
+        <v>0.136102</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.288458</v>
+        <v>0.281589</v>
       </c>
       <c r="C37" t="n">
-        <v>0.26443</v>
+        <v>0.264785</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101781</v>
+        <v>0.101801</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104766</v>
+        <v>0.104716</v>
       </c>
       <c r="C38" t="n">
-        <v>0.106735</v>
+        <v>0.106741</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102207</v>
+        <v>0.102243</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10609</v>
+        <v>0.106841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.108008</v>
+        <v>0.108018</v>
       </c>
       <c r="D39" t="n">
-        <v>0.102842</v>
+        <v>0.102781</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108439</v>
+        <v>0.108677</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109543</v>
+        <v>0.109381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.103309</v>
+        <v>0.103307</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.110932</v>
+        <v>0.111612</v>
       </c>
       <c r="C41" t="n">
-        <v>0.110956</v>
+        <v>0.110969</v>
       </c>
       <c r="D41" t="n">
-        <v>0.104138</v>
+        <v>0.103966</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114394</v>
+        <v>0.115213</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112871</v>
+        <v>0.112915</v>
       </c>
       <c r="D42" t="n">
-        <v>0.104565</v>
+        <v>0.104604</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119323</v>
+        <v>0.119442</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11563</v>
+        <v>0.115587</v>
       </c>
       <c r="D43" t="n">
-        <v>0.105408</v>
+        <v>0.105368</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125398</v>
+        <v>0.125122</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119751</v>
+        <v>0.119773</v>
       </c>
       <c r="D44" t="n">
-        <v>0.106667</v>
+        <v>0.106639</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.13298</v>
+        <v>0.132753</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125121</v>
+        <v>0.125099</v>
       </c>
       <c r="D45" t="n">
-        <v>0.108384</v>
+        <v>0.108368</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142867</v>
+        <v>0.142337</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1325</v>
+        <v>0.132531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.110843</v>
+        <v>0.110816</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156238</v>
+        <v>0.156491</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142951</v>
+        <v>0.142953</v>
       </c>
       <c r="D47" t="n">
-        <v>0.113906</v>
+        <v>0.113939</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175369</v>
+        <v>0.175018</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157616</v>
+        <v>0.157481</v>
       </c>
       <c r="D48" t="n">
-        <v>0.118202</v>
+        <v>0.118228</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.201679</v>
+        <v>0.199452</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177927</v>
+        <v>0.177987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124497</v>
+        <v>0.124568</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.235579</v>
+        <v>0.234425</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212391</v>
+        <v>0.212441</v>
       </c>
       <c r="D50" t="n">
-        <v>0.135955</v>
+        <v>0.135881</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.280005</v>
+        <v>0.294797</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258022</v>
+        <v>0.258188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103967</v>
+        <v>0.104023</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.330242</v>
+        <v>0.328524</v>
       </c>
       <c r="C52" t="n">
-        <v>0.333925</v>
+        <v>0.333548</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104405</v>
+        <v>0.104377</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.10835</v>
+        <v>0.10834</v>
       </c>
       <c r="C53" t="n">
-        <v>0.109737</v>
+        <v>0.109759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.105081</v>
+        <v>0.104984</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110456</v>
+        <v>0.11053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111048</v>
+        <v>0.111008</v>
       </c>
       <c r="D54" t="n">
-        <v>0.105446</v>
+        <v>0.105309</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113249</v>
+        <v>0.113452</v>
       </c>
       <c r="C55" t="n">
-        <v>0.112768</v>
+        <v>0.112734</v>
       </c>
       <c r="D55" t="n">
-        <v>0.106066</v>
+        <v>0.106028</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116741</v>
+        <v>0.116892</v>
       </c>
       <c r="C56" t="n">
-        <v>0.114801</v>
+        <v>0.114771</v>
       </c>
       <c r="D56" t="n">
-        <v>0.106698</v>
+        <v>0.10697</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121508</v>
+        <v>0.121539</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117594</v>
+        <v>0.117606</v>
       </c>
       <c r="D57" t="n">
-        <v>0.107656</v>
+        <v>0.107653</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126753</v>
+        <v>0.127379</v>
       </c>
       <c r="C58" t="n">
-        <v>0.121859</v>
+        <v>0.121802</v>
       </c>
       <c r="D58" t="n">
-        <v>0.109121</v>
+        <v>0.109005</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134528</v>
+        <v>0.134962</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127315</v>
+        <v>0.127191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.110494</v>
+        <v>0.11064</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.144824</v>
+        <v>0.14493</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133774</v>
+        <v>0.133879</v>
       </c>
       <c r="D60" t="n">
-        <v>0.112509</v>
+        <v>0.112717</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157859</v>
+        <v>0.157873</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143416</v>
+        <v>0.143492</v>
       </c>
       <c r="D61" t="n">
-        <v>0.115408</v>
+        <v>0.115282</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175844</v>
+        <v>0.175444</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156776</v>
+        <v>0.156824</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119393</v>
+        <v>0.119391</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.200629</v>
+        <v>0.201675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176398</v>
+        <v>0.176448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.126135</v>
+        <v>0.12615</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23292</v>
+        <v>0.235039</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206657</v>
+        <v>0.206598</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137133</v>
+        <v>0.137015</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.287162</v>
+        <v>0.279763</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252137</v>
+        <v>0.252405</v>
       </c>
       <c r="D65" t="n">
-        <v>0.156053</v>
+        <v>0.156173</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.33592</v>
+        <v>0.338557</v>
       </c>
       <c r="C66" t="n">
-        <v>0.328457</v>
+        <v>0.328807</v>
       </c>
       <c r="D66" t="n">
-        <v>0.105109</v>
+        <v>0.105152</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109905</v>
+        <v>0.109453</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110283</v>
+        <v>0.110386</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105845</v>
+        <v>0.105614</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.112409</v>
+        <v>0.111734</v>
       </c>
       <c r="C68" t="n">
-        <v>0.111589</v>
+        <v>0.111716</v>
       </c>
       <c r="D68" t="n">
-        <v>0.106035</v>
+        <v>0.106292</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114885</v>
+        <v>0.114474</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113357</v>
+        <v>0.113445</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106739</v>
+        <v>0.106621</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.118447</v>
+        <v>0.117838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.115448</v>
+        <v>0.11548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.107354</v>
+        <v>0.107373</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122997</v>
+        <v>0.122308</v>
       </c>
       <c r="C71" t="n">
-        <v>0.11846</v>
+        <v>0.11831</v>
       </c>
       <c r="D71" t="n">
-        <v>0.108332</v>
+        <v>0.10827</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128833</v>
+        <v>0.128473</v>
       </c>
       <c r="C72" t="n">
-        <v>0.121999</v>
+        <v>0.122227</v>
       </c>
       <c r="D72" t="n">
-        <v>0.109366</v>
+        <v>0.109382</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136073</v>
+        <v>0.13566</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127016</v>
+        <v>0.127019</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110937</v>
+        <v>0.110926</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.145509</v>
+        <v>0.145622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.133932</v>
+        <v>0.133955</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112965</v>
+        <v>0.112958</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.158642</v>
+        <v>0.158549</v>
       </c>
       <c r="C75" t="n">
-        <v>0.144013</v>
+        <v>0.143948</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115905</v>
+        <v>0.116097</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175608</v>
+        <v>0.175761</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157393</v>
+        <v>0.157614</v>
       </c>
       <c r="D76" t="n">
-        <v>0.120263</v>
+        <v>0.120242</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198532</v>
+        <v>0.199351</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176381</v>
+        <v>0.176454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.126641</v>
+        <v>0.126656</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22981</v>
+        <v>0.231362</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204268</v>
+        <v>0.204283</v>
       </c>
       <c r="D78" t="n">
-        <v>0.137136</v>
+        <v>0.136944</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.273911</v>
+        <v>0.274548</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247606</v>
+        <v>0.247613</v>
       </c>
       <c r="D79" t="n">
-        <v>0.154437</v>
+        <v>0.154318</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.335408</v>
+        <v>0.331912</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316761</v>
+        <v>0.316594</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105215</v>
+        <v>0.105416</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110747</v>
+        <v>0.110279</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110381</v>
+        <v>0.110317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105683</v>
+        <v>0.105793</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112807</v>
+        <v>0.112486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.111671</v>
+        <v>0.111695</v>
       </c>
       <c r="D82" t="n">
-        <v>0.106208</v>
+        <v>0.106091</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115296</v>
+        <v>0.115008</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113125</v>
+        <v>0.113193</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106668</v>
+        <v>0.106647</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118811</v>
+        <v>0.118277</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115278</v>
+        <v>0.115234</v>
       </c>
       <c r="D84" t="n">
-        <v>0.107456</v>
+        <v>0.107599</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122999</v>
+        <v>0.122493</v>
       </c>
       <c r="C85" t="n">
-        <v>0.117745</v>
+        <v>0.117906</v>
       </c>
       <c r="D85" t="n">
-        <v>0.108274</v>
+        <v>0.108344</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.12837</v>
+        <v>0.127941</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121081</v>
+        <v>0.12119</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109337</v>
+        <v>0.109339</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135637</v>
+        <v>0.13483</v>
       </c>
       <c r="C87" t="n">
-        <v>0.125723</v>
+        <v>0.125703</v>
       </c>
       <c r="D87" t="n">
-        <v>0.11088</v>
+        <v>0.110694</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.145092</v>
+        <v>0.144232</v>
       </c>
       <c r="C88" t="n">
-        <v>0.132276</v>
+        <v>0.132311</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112613</v>
+        <v>0.112796</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.157121</v>
+        <v>0.15621</v>
       </c>
       <c r="C89" t="n">
-        <v>0.141631</v>
+        <v>0.141641</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115255</v>
+        <v>0.115616</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.173494</v>
+        <v>0.171976</v>
       </c>
       <c r="C90" t="n">
-        <v>0.153799</v>
+        <v>0.153914</v>
       </c>
       <c r="D90" t="n">
-        <v>0.119249</v>
+        <v>0.119415</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.195399</v>
+        <v>0.194251</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171595</v>
+        <v>0.171814</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125192</v>
+        <v>0.125335</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225364</v>
+        <v>0.224068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197248</v>
+        <v>0.196985</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134291</v>
+        <v>0.134219</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266661</v>
+        <v>0.264129</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236025</v>
+        <v>0.235856</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14939</v>
+        <v>0.149256</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.322274</v>
+        <v>0.320141</v>
       </c>
       <c r="C94" t="n">
-        <v>0.299585</v>
+        <v>0.299745</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105438</v>
+        <v>0.105531</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110665</v>
+        <v>0.11057</v>
       </c>
       <c r="C95" t="n">
-        <v>0.110834</v>
+        <v>0.110887</v>
       </c>
       <c r="D95" t="n">
-        <v>0.106087</v>
+        <v>0.10606</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112635</v>
+        <v>0.112424</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112119</v>
+        <v>0.112242</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10639</v>
+        <v>0.106498</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.115233</v>
+        <v>0.114982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.113653</v>
+        <v>0.113857</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10694</v>
+        <v>0.107035</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118243</v>
+        <v>0.11825</v>
       </c>
       <c r="C98" t="n">
-        <v>0.115938</v>
+        <v>0.115983</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107831</v>
+        <v>0.107708</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122267</v>
+        <v>0.122169</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1185</v>
+        <v>0.118518</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108688</v>
+        <v>0.10872</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127638</v>
+        <v>0.127391</v>
       </c>
       <c r="C100" t="n">
-        <v>0.121951</v>
+        <v>0.122091</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109754</v>
+        <v>0.109764</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134603</v>
+        <v>0.134066</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126665</v>
+        <v>0.126627</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111192</v>
+        <v>0.111281</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143113</v>
+        <v>0.142838</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132814</v>
+        <v>0.132813</v>
       </c>
       <c r="D102" t="n">
-        <v>0.113173</v>
+        <v>0.112996</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154655</v>
+        <v>0.154285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.141384</v>
+        <v>0.141443</v>
       </c>
       <c r="D103" t="n">
-        <v>0.115927</v>
+        <v>0.115918</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.170092</v>
+        <v>0.169608</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153055</v>
+        <v>0.153476</v>
       </c>
       <c r="D104" t="n">
-        <v>0.119865</v>
+        <v>0.119728</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191025</v>
+        <v>0.191055</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169316</v>
+        <v>0.169525</v>
       </c>
       <c r="D105" t="n">
-        <v>0.125298</v>
+        <v>0.12548</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.219408</v>
+        <v>0.219524</v>
       </c>
       <c r="C106" t="n">
-        <v>0.192508</v>
+        <v>0.193094</v>
       </c>
       <c r="D106" t="n">
-        <v>0.133837</v>
+        <v>0.133765</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257544</v>
+        <v>0.257379</v>
       </c>
       <c r="C107" t="n">
-        <v>0.228873</v>
+        <v>0.229198</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147881</v>
+        <v>0.147698</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.313648</v>
+        <v>0.311373</v>
       </c>
       <c r="C108" t="n">
-        <v>0.28553</v>
+        <v>0.285623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108352</v>
+        <v>0.108612</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.380175</v>
+        <v>0.386405</v>
       </c>
       <c r="C109" t="n">
-        <v>0.375434</v>
+        <v>0.375757</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109358</v>
+        <v>0.109281</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114598</v>
+        <v>0.114459</v>
       </c>
       <c r="C110" t="n">
-        <v>0.11657</v>
+        <v>0.117148</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109809</v>
+        <v>0.10995</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117322</v>
+        <v>0.116945</v>
       </c>
       <c r="C111" t="n">
-        <v>0.11899</v>
+        <v>0.119433</v>
       </c>
       <c r="D111" t="n">
-        <v>0.110997</v>
+        <v>0.111006</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120303</v>
+        <v>0.120339</v>
       </c>
       <c r="C112" t="n">
-        <v>0.123361</v>
+        <v>0.123727</v>
       </c>
       <c r="D112" t="n">
-        <v>0.111895</v>
+        <v>0.112138</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124467</v>
+        <v>0.124552</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129592</v>
+        <v>0.129929</v>
       </c>
       <c r="D113" t="n">
-        <v>0.11311</v>
+        <v>0.11313</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.13044</v>
+        <v>0.129624</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138177</v>
+        <v>0.138406</v>
       </c>
       <c r="D114" t="n">
-        <v>0.114554</v>
+        <v>0.114634</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136326</v>
+        <v>0.137313</v>
       </c>
       <c r="C115" t="n">
-        <v>0.149639</v>
+        <v>0.148214</v>
       </c>
       <c r="D115" t="n">
-        <v>0.116373</v>
+        <v>0.116593</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.144922</v>
+        <v>0.144612</v>
       </c>
       <c r="C116" t="n">
-        <v>0.158068</v>
+        <v>0.157992</v>
       </c>
       <c r="D116" t="n">
-        <v>0.119148</v>
+        <v>0.120284</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.156879</v>
+        <v>0.157557</v>
       </c>
       <c r="C117" t="n">
-        <v>0.169552</v>
+        <v>0.169564</v>
       </c>
       <c r="D117" t="n">
-        <v>0.123708</v>
+        <v>0.124217</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.176298</v>
+        <v>0.174798</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182625</v>
+        <v>0.182208</v>
       </c>
       <c r="D118" t="n">
-        <v>0.131199</v>
+        <v>0.131375</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20043</v>
+        <v>0.20071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199391</v>
+        <v>0.199097</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141671</v>
+        <v>0.141765</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232943</v>
+        <v>0.232735</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22147</v>
+        <v>0.221624</v>
       </c>
       <c r="D120" t="n">
-        <v>0.154466</v>
+        <v>0.153913</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.27246</v>
+        <v>0.2722</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253106</v>
+        <v>0.253231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170449</v>
+        <v>0.170331</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.327278</v>
+        <v>0.325699</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302279</v>
+        <v>0.302147</v>
       </c>
       <c r="D122" t="n">
-        <v>0.194147</v>
+        <v>0.193712</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.403301</v>
+        <v>0.398916</v>
       </c>
       <c r="C123" t="n">
-        <v>0.380346</v>
+        <v>0.38022</v>
       </c>
       <c r="D123" t="n">
-        <v>0.132198</v>
+        <v>0.132916</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.133127</v>
+        <v>0.138449</v>
       </c>
       <c r="C124" t="n">
-        <v>0.159819</v>
+        <v>0.164453</v>
       </c>
       <c r="D124" t="n">
-        <v>0.133868</v>
+        <v>0.13596</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141314</v>
+        <v>0.143679</v>
       </c>
       <c r="C125" t="n">
-        <v>0.168677</v>
+        <v>0.167456</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141494</v>
+        <v>0.141006</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.147454</v>
+        <v>0.148773</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172538</v>
+        <v>0.170568</v>
       </c>
       <c r="D126" t="n">
-        <v>0.144748</v>
+        <v>0.142125</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.153341</v>
+        <v>0.154466</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174476</v>
+        <v>0.174942</v>
       </c>
       <c r="D127" t="n">
-        <v>0.145794</v>
+        <v>0.146566</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159553</v>
+        <v>0.160742</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179401</v>
+        <v>0.178244</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148712</v>
+        <v>0.148944</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.166779</v>
+        <v>0.167646</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184409</v>
+        <v>0.184751</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151924</v>
+        <v>0.159838</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175568</v>
+        <v>0.176247</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191614</v>
+        <v>0.190835</v>
       </c>
       <c r="D130" t="n">
-        <v>0.155713</v>
+        <v>0.154751</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186537</v>
+        <v>0.187329</v>
       </c>
       <c r="C131" t="n">
-        <v>0.19916</v>
+        <v>0.199029</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157968</v>
+        <v>0.157802</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201283</v>
+        <v>0.201116</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209318</v>
+        <v>0.209655</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163251</v>
+        <v>0.171076</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.223552</v>
+        <v>0.219713</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224226</v>
+        <v>0.223964</v>
       </c>
       <c r="D133" t="n">
-        <v>0.169981</v>
+        <v>0.168271</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247859</v>
+        <v>0.245171</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243705</v>
+        <v>0.243427</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181623</v>
+        <v>0.181054</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.28121</v>
+        <v>0.279416</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271538</v>
+        <v>0.270569</v>
       </c>
       <c r="D135" t="n">
-        <v>0.193164</v>
+        <v>0.197381</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.327225</v>
+        <v>0.328663</v>
       </c>
       <c r="C136" t="n">
-        <v>0.314881</v>
+        <v>0.313797</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212518</v>
+        <v>0.212728</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.390389</v>
+        <v>0.392023</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380314</v>
+        <v>0.380265</v>
       </c>
       <c r="D137" t="n">
-        <v>0.199946</v>
+        <v>0.20054</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.197071</v>
+        <v>0.195433</v>
       </c>
       <c r="C138" t="n">
-        <v>0.224003</v>
+        <v>0.225422</v>
       </c>
       <c r="D138" t="n">
-        <v>0.201889</v>
+        <v>0.202553</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.201957</v>
+        <v>0.198634</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227344</v>
+        <v>0.228413</v>
       </c>
       <c r="D139" t="n">
-        <v>0.204511</v>
+        <v>0.205716</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.203558</v>
+        <v>0.203727</v>
       </c>
       <c r="C140" t="n">
-        <v>0.230904</v>
+        <v>0.231926</v>
       </c>
       <c r="D140" t="n">
-        <v>0.206923</v>
+        <v>0.207193</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.209229</v>
+        <v>0.207608</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234865</v>
+        <v>0.235577</v>
       </c>
       <c r="D141" t="n">
-        <v>0.209697</v>
+        <v>0.210041</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.21332</v>
+        <v>0.213484</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239514</v>
+        <v>0.239769</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21238</v>
+        <v>0.212745</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.220776</v>
+        <v>0.218101</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244166</v>
+        <v>0.244623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.215312</v>
+        <v>0.215649</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.129189</v>
+        <v>0.129903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127393</v>
+        <v>0.127428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.108812</v>
+        <v>0.107774</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.135461</v>
+        <v>0.138458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131722</v>
+        <v>0.131563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110947</v>
+        <v>0.109908</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.149065</v>
+        <v>0.149979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.142404</v>
+        <v>0.140825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114588</v>
+        <v>0.113467</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.161545</v>
+        <v>0.162436</v>
       </c>
       <c r="C5" t="n">
-        <v>0.155327</v>
+        <v>0.152529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11821</v>
+        <v>0.116997</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18377</v>
+        <v>0.188077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.176249</v>
+        <v>0.16943</v>
       </c>
       <c r="D6" t="n">
-        <v>0.125927</v>
+        <v>0.124575</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.211962</v>
+        <v>0.218006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.210893</v>
+        <v>0.199574</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13623</v>
+        <v>0.134656</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252105</v>
+        <v>0.270423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248799</v>
+        <v>0.235717</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150158</v>
+        <v>0.148217</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.301639</v>
+        <v>0.320453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.322299</v>
+        <v>0.302509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101907</v>
+        <v>0.101039</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106401</v>
+        <v>0.106156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10872</v>
+        <v>0.109317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.102592</v>
+        <v>0.101804</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.107422</v>
+        <v>0.108552</v>
       </c>
       <c r="C11" t="n">
-        <v>0.109919</v>
+        <v>0.110515</v>
       </c>
       <c r="D11" t="n">
-        <v>0.103008</v>
+        <v>0.102179</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.110918</v>
+        <v>0.111498</v>
       </c>
       <c r="C12" t="n">
-        <v>0.11102</v>
+        <v>0.111627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.10354</v>
+        <v>0.102716</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.113825</v>
+        <v>0.11344</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113069</v>
+        <v>0.113774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.104171</v>
+        <v>0.103316</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.118112</v>
+        <v>0.116911</v>
       </c>
       <c r="C14" t="n">
-        <v>0.116916</v>
+        <v>0.117678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.105357</v>
+        <v>0.104533</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12306</v>
+        <v>0.122426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120213</v>
+        <v>0.120663</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106397</v>
+        <v>0.105397</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129335</v>
+        <v>0.128532</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125189</v>
+        <v>0.125556</v>
       </c>
       <c r="D16" t="n">
-        <v>0.107851</v>
+        <v>0.10672</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.136951</v>
+        <v>0.13485</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131562</v>
+        <v>0.131678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.109812</v>
+        <v>0.108628</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.147003</v>
+        <v>0.148178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138879</v>
+        <v>0.138472</v>
       </c>
       <c r="D18" t="n">
-        <v>0.112021</v>
+        <v>0.110686</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.162422</v>
+        <v>0.161594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.150247</v>
+        <v>0.148105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11597</v>
+        <v>0.11465</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183589</v>
+        <v>0.185142</v>
       </c>
       <c r="C20" t="n">
-        <v>0.168343</v>
+        <v>0.165701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.121121</v>
+        <v>0.11977</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.209255</v>
+        <v>0.212495</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191611</v>
+        <v>0.187197</v>
       </c>
       <c r="D21" t="n">
-        <v>0.128155</v>
+        <v>0.126751</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249293</v>
+        <v>0.269109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223112</v>
+        <v>0.218742</v>
       </c>
       <c r="D22" t="n">
-        <v>0.141227</v>
+        <v>0.139367</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.310194</v>
+        <v>0.307262</v>
       </c>
       <c r="C23" t="n">
-        <v>0.287137</v>
+        <v>0.280211</v>
       </c>
       <c r="D23" t="n">
-        <v>0.101471</v>
+        <v>0.100567</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105534</v>
+        <v>0.105197</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106426</v>
+        <v>0.107442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101771</v>
+        <v>0.100918</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107345</v>
+        <v>0.107096</v>
       </c>
       <c r="C25" t="n">
-        <v>0.107675</v>
+        <v>0.108677</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102299</v>
+        <v>0.101486</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109993</v>
+        <v>0.109387</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108929</v>
+        <v>0.109926</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102686</v>
+        <v>0.101827</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112445</v>
+        <v>0.112099</v>
       </c>
       <c r="C27" t="n">
-        <v>0.11099</v>
+        <v>0.111968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.103269</v>
+        <v>0.102395</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115978</v>
+        <v>0.115907</v>
       </c>
       <c r="C28" t="n">
-        <v>0.113093</v>
+        <v>0.114122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.104052</v>
+        <v>0.103163</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120471</v>
+        <v>0.1205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116816</v>
+        <v>0.117906</v>
       </c>
       <c r="D29" t="n">
-        <v>0.105161</v>
+        <v>0.104334</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126032</v>
+        <v>0.126938</v>
       </c>
       <c r="C30" t="n">
-        <v>0.120517</v>
+        <v>0.121555</v>
       </c>
       <c r="D30" t="n">
-        <v>0.106453</v>
+        <v>0.105529</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.133744</v>
+        <v>0.134891</v>
       </c>
       <c r="C31" t="n">
-        <v>0.125585</v>
+        <v>0.126498</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107986</v>
+        <v>0.107031</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143269</v>
+        <v>0.146147</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133282</v>
+        <v>0.133665</v>
       </c>
       <c r="D32" t="n">
-        <v>0.110367</v>
+        <v>0.109348</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.157162</v>
+        <v>0.159258</v>
       </c>
       <c r="C33" t="n">
-        <v>0.145049</v>
+        <v>0.144878</v>
       </c>
       <c r="D33" t="n">
-        <v>0.113891</v>
+        <v>0.112737</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175531</v>
+        <v>0.18052</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159192</v>
+        <v>0.158674</v>
       </c>
       <c r="D34" t="n">
-        <v>0.118141</v>
+        <v>0.116977</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.201827</v>
+        <v>0.208846</v>
       </c>
       <c r="C35" t="n">
-        <v>0.180171</v>
+        <v>0.178831</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124511</v>
+        <v>0.123132</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235625</v>
+        <v>0.240783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.213355</v>
+        <v>0.211295</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136102</v>
+        <v>0.134498</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.281589</v>
+        <v>0.30485</v>
       </c>
       <c r="C37" t="n">
-        <v>0.264785</v>
+        <v>0.262381</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101801</v>
+        <v>0.100939</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104716</v>
+        <v>0.104638</v>
       </c>
       <c r="C38" t="n">
-        <v>0.106741</v>
+        <v>0.107986</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102243</v>
+        <v>0.101358</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106841</v>
+        <v>0.106348</v>
       </c>
       <c r="C39" t="n">
-        <v>0.108018</v>
+        <v>0.109294</v>
       </c>
       <c r="D39" t="n">
-        <v>0.102781</v>
+        <v>0.101972</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108677</v>
+        <v>0.108776</v>
       </c>
       <c r="C40" t="n">
-        <v>0.109381</v>
+        <v>0.110537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.103307</v>
+        <v>0.10245</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111612</v>
+        <v>0.111574</v>
       </c>
       <c r="C41" t="n">
-        <v>0.110969</v>
+        <v>0.112057</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103966</v>
+        <v>0.103274</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115213</v>
+        <v>0.115312</v>
       </c>
       <c r="C42" t="n">
-        <v>0.112915</v>
+        <v>0.114023</v>
       </c>
       <c r="D42" t="n">
-        <v>0.104604</v>
+        <v>0.103939</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119442</v>
+        <v>0.119829</v>
       </c>
       <c r="C43" t="n">
-        <v>0.115587</v>
+        <v>0.11672</v>
       </c>
       <c r="D43" t="n">
-        <v>0.105368</v>
+        <v>0.10475</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125122</v>
+        <v>0.12617</v>
       </c>
       <c r="C44" t="n">
-        <v>0.119773</v>
+        <v>0.120761</v>
       </c>
       <c r="D44" t="n">
-        <v>0.106639</v>
+        <v>0.105808</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132753</v>
+        <v>0.134076</v>
       </c>
       <c r="C45" t="n">
-        <v>0.125099</v>
+        <v>0.126213</v>
       </c>
       <c r="D45" t="n">
-        <v>0.108368</v>
+        <v>0.10753</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142337</v>
+        <v>0.144109</v>
       </c>
       <c r="C46" t="n">
-        <v>0.132531</v>
+        <v>0.133263</v>
       </c>
       <c r="D46" t="n">
-        <v>0.110816</v>
+        <v>0.109953</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156491</v>
+        <v>0.157469</v>
       </c>
       <c r="C47" t="n">
-        <v>0.142953</v>
+        <v>0.143444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.113939</v>
+        <v>0.112921</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175018</v>
+        <v>0.177086</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157481</v>
+        <v>0.157719</v>
       </c>
       <c r="D48" t="n">
-        <v>0.118228</v>
+        <v>0.117054</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199452</v>
+        <v>0.202059</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177987</v>
+        <v>0.177926</v>
       </c>
       <c r="D49" t="n">
-        <v>0.124568</v>
+        <v>0.123173</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234425</v>
+        <v>0.236697</v>
       </c>
       <c r="C50" t="n">
-        <v>0.212441</v>
+        <v>0.211765</v>
       </c>
       <c r="D50" t="n">
-        <v>0.135881</v>
+        <v>0.134553</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.294797</v>
+        <v>0.283239</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258188</v>
+        <v>0.256534</v>
       </c>
       <c r="D51" t="n">
-        <v>0.104023</v>
+        <v>0.103264</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.328524</v>
+        <v>0.336425</v>
       </c>
       <c r="C52" t="n">
-        <v>0.333548</v>
+        <v>0.332991</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104377</v>
+        <v>0.103514</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.10834</v>
+        <v>0.108489</v>
       </c>
       <c r="C53" t="n">
-        <v>0.109759</v>
+        <v>0.110464</v>
       </c>
       <c r="D53" t="n">
-        <v>0.104984</v>
+        <v>0.104073</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.11053</v>
+        <v>0.110775</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111008</v>
+        <v>0.111895</v>
       </c>
       <c r="D54" t="n">
-        <v>0.105309</v>
+        <v>0.104634</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113452</v>
+        <v>0.113694</v>
       </c>
       <c r="C55" t="n">
-        <v>0.112734</v>
+        <v>0.11358</v>
       </c>
       <c r="D55" t="n">
-        <v>0.106028</v>
+        <v>0.105141</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116892</v>
+        <v>0.117123</v>
       </c>
       <c r="C56" t="n">
-        <v>0.114771</v>
+        <v>0.115661</v>
       </c>
       <c r="D56" t="n">
-        <v>0.10697</v>
+        <v>0.105865</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121539</v>
+        <v>0.121631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.117606</v>
+        <v>0.118469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.107653</v>
+        <v>0.106835</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127379</v>
+        <v>0.127819</v>
       </c>
       <c r="C58" t="n">
-        <v>0.121802</v>
+        <v>0.122555</v>
       </c>
       <c r="D58" t="n">
-        <v>0.109005</v>
+        <v>0.108001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134962</v>
+        <v>0.135224</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127191</v>
+        <v>0.127905</v>
       </c>
       <c r="D59" t="n">
-        <v>0.11064</v>
+        <v>0.109512</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.14493</v>
+        <v>0.145251</v>
       </c>
       <c r="C60" t="n">
-        <v>0.133879</v>
+        <v>0.134547</v>
       </c>
       <c r="D60" t="n">
-        <v>0.112717</v>
+        <v>0.111562</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157873</v>
+        <v>0.158583</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143492</v>
+        <v>0.143971</v>
       </c>
       <c r="D61" t="n">
-        <v>0.115282</v>
+        <v>0.114239</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175444</v>
+        <v>0.176654</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156824</v>
+        <v>0.157304</v>
       </c>
       <c r="D62" t="n">
-        <v>0.119391</v>
+        <v>0.118462</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201675</v>
+        <v>0.201476</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176448</v>
+        <v>0.176726</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12615</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235039</v>
+        <v>0.235688</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206598</v>
+        <v>0.206622</v>
       </c>
       <c r="D64" t="n">
-        <v>0.137015</v>
+        <v>0.135797</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279763</v>
+        <v>0.280016</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252405</v>
+        <v>0.251977</v>
       </c>
       <c r="D65" t="n">
-        <v>0.156173</v>
+        <v>0.154452</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.338557</v>
+        <v>0.34905</v>
       </c>
       <c r="C66" t="n">
-        <v>0.328807</v>
+        <v>0.324681</v>
       </c>
       <c r="D66" t="n">
-        <v>0.105152</v>
+        <v>0.10432</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109453</v>
+        <v>0.109828</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110386</v>
+        <v>0.110979</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105614</v>
+        <v>0.104836</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.111734</v>
+        <v>0.112114</v>
       </c>
       <c r="C68" t="n">
-        <v>0.111716</v>
+        <v>0.112265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.106292</v>
+        <v>0.105249</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114474</v>
+        <v>0.114775</v>
       </c>
       <c r="C69" t="n">
-        <v>0.113445</v>
+        <v>0.114029</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106621</v>
+        <v>0.105916</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.117838</v>
+        <v>0.118419</v>
       </c>
       <c r="C70" t="n">
-        <v>0.11548</v>
+        <v>0.116182</v>
       </c>
       <c r="D70" t="n">
-        <v>0.107373</v>
+        <v>0.106535</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122308</v>
+        <v>0.122961</v>
       </c>
       <c r="C71" t="n">
-        <v>0.11831</v>
+        <v>0.119086</v>
       </c>
       <c r="D71" t="n">
-        <v>0.10827</v>
+        <v>0.10745</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128473</v>
+        <v>0.128644</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122227</v>
+        <v>0.122748</v>
       </c>
       <c r="D72" t="n">
-        <v>0.109382</v>
+        <v>0.108587</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13566</v>
+        <v>0.136387</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127019</v>
+        <v>0.127709</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110926</v>
+        <v>0.110295</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.145622</v>
+        <v>0.146261</v>
       </c>
       <c r="C74" t="n">
-        <v>0.133955</v>
+        <v>0.134654</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112958</v>
+        <v>0.112172</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.158549</v>
+        <v>0.159201</v>
       </c>
       <c r="C75" t="n">
-        <v>0.143948</v>
+        <v>0.144562</v>
       </c>
       <c r="D75" t="n">
-        <v>0.116097</v>
+        <v>0.115031</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175761</v>
+        <v>0.17667</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157614</v>
+        <v>0.158094</v>
       </c>
       <c r="D76" t="n">
-        <v>0.120242</v>
+        <v>0.119547</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199351</v>
+        <v>0.200119</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176454</v>
+        <v>0.177</v>
       </c>
       <c r="D77" t="n">
-        <v>0.126656</v>
+        <v>0.125434</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.231362</v>
+        <v>0.232058</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204283</v>
+        <v>0.204814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.136944</v>
+        <v>0.1356</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.274548</v>
+        <v>0.275791</v>
       </c>
       <c r="C79" t="n">
-        <v>0.247613</v>
+        <v>0.248132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.154318</v>
+        <v>0.15291</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.331912</v>
+        <v>0.335218</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316594</v>
+        <v>0.314582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.105416</v>
+        <v>0.10454</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110279</v>
+        <v>0.110143</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110317</v>
+        <v>0.110917</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105793</v>
+        <v>0.105034</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112486</v>
+        <v>0.112452</v>
       </c>
       <c r="C82" t="n">
-        <v>0.111695</v>
+        <v>0.112274</v>
       </c>
       <c r="D82" t="n">
-        <v>0.106091</v>
+        <v>0.105372</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115008</v>
+        <v>0.115153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113193</v>
+        <v>0.113699</v>
       </c>
       <c r="D83" t="n">
-        <v>0.106647</v>
+        <v>0.105901</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118277</v>
+        <v>0.118482</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115234</v>
+        <v>0.115866</v>
       </c>
       <c r="D84" t="n">
-        <v>0.107599</v>
+        <v>0.106896</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122493</v>
+        <v>0.122629</v>
       </c>
       <c r="C85" t="n">
-        <v>0.117906</v>
+        <v>0.118355</v>
       </c>
       <c r="D85" t="n">
-        <v>0.108344</v>
+        <v>0.107606</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.127941</v>
+        <v>0.128249</v>
       </c>
       <c r="C86" t="n">
-        <v>0.12119</v>
+        <v>0.121783</v>
       </c>
       <c r="D86" t="n">
-        <v>0.109339</v>
+        <v>0.108567</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13483</v>
+        <v>0.135528</v>
       </c>
       <c r="C87" t="n">
-        <v>0.125703</v>
+        <v>0.126453</v>
       </c>
       <c r="D87" t="n">
-        <v>0.110694</v>
+        <v>0.10991</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144232</v>
+        <v>0.144434</v>
       </c>
       <c r="C88" t="n">
-        <v>0.132311</v>
+        <v>0.13291</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112796</v>
+        <v>0.112065</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.15621</v>
+        <v>0.156561</v>
       </c>
       <c r="C89" t="n">
-        <v>0.141641</v>
+        <v>0.142203</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115616</v>
+        <v>0.114558</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.171976</v>
+        <v>0.172531</v>
       </c>
       <c r="C90" t="n">
-        <v>0.153914</v>
+        <v>0.154642</v>
       </c>
       <c r="D90" t="n">
-        <v>0.119415</v>
+        <v>0.118365</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194251</v>
+        <v>0.194575</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171814</v>
+        <v>0.172084</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125335</v>
+        <v>0.124026</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224068</v>
+        <v>0.225113</v>
       </c>
       <c r="C92" t="n">
-        <v>0.196985</v>
+        <v>0.197726</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134219</v>
+        <v>0.13292</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.264129</v>
+        <v>0.266296</v>
       </c>
       <c r="C93" t="n">
-        <v>0.235856</v>
+        <v>0.236874</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149256</v>
+        <v>0.148078</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.320141</v>
+        <v>0.327805</v>
       </c>
       <c r="C94" t="n">
-        <v>0.299745</v>
+        <v>0.298344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.105531</v>
+        <v>0.104824</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.11057</v>
+        <v>0.110646</v>
       </c>
       <c r="C95" t="n">
-        <v>0.110887</v>
+        <v>0.111465</v>
       </c>
       <c r="D95" t="n">
-        <v>0.10606</v>
+        <v>0.10533</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112424</v>
+        <v>0.112539</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112242</v>
+        <v>0.112659</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106498</v>
+        <v>0.105657</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114982</v>
+        <v>0.115037</v>
       </c>
       <c r="C97" t="n">
-        <v>0.113857</v>
+        <v>0.114347</v>
       </c>
       <c r="D97" t="n">
-        <v>0.107035</v>
+        <v>0.10635</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.11825</v>
+        <v>0.118396</v>
       </c>
       <c r="C98" t="n">
-        <v>0.115983</v>
+        <v>0.116478</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107708</v>
+        <v>0.107045</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122169</v>
+        <v>0.122531</v>
       </c>
       <c r="C99" t="n">
-        <v>0.118518</v>
+        <v>0.119324</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10872</v>
+        <v>0.107978</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127391</v>
+        <v>0.127898</v>
       </c>
       <c r="C100" t="n">
-        <v>0.122091</v>
+        <v>0.122526</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109764</v>
+        <v>0.10905</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134066</v>
+        <v>0.134715</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126627</v>
+        <v>0.127177</v>
       </c>
       <c r="D101" t="n">
-        <v>0.111281</v>
+        <v>0.11038</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.142838</v>
+        <v>0.143314</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132813</v>
+        <v>0.133335</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112996</v>
+        <v>0.112287</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154285</v>
+        <v>0.155069</v>
       </c>
       <c r="C103" t="n">
-        <v>0.141443</v>
+        <v>0.142229</v>
       </c>
       <c r="D103" t="n">
-        <v>0.115918</v>
+        <v>0.114895</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169608</v>
+        <v>0.170327</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153476</v>
+        <v>0.153913</v>
       </c>
       <c r="D104" t="n">
-        <v>0.119728</v>
+        <v>0.118609</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191055</v>
+        <v>0.191089</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169525</v>
+        <v>0.170088</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12548</v>
+        <v>0.124209</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.219524</v>
+        <v>0.21952</v>
       </c>
       <c r="C106" t="n">
-        <v>0.193094</v>
+        <v>0.193285</v>
       </c>
       <c r="D106" t="n">
-        <v>0.133765</v>
+        <v>0.132304</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257379</v>
+        <v>0.259935</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229198</v>
+        <v>0.229515</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147698</v>
+        <v>0.145964</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.311373</v>
+        <v>0.31617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285623</v>
+        <v>0.285058</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108612</v>
+        <v>0.107541</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.386405</v>
+        <v>0.384816</v>
       </c>
       <c r="C109" t="n">
-        <v>0.375757</v>
+        <v>0.373092</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109281</v>
+        <v>0.108181</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114459</v>
+        <v>0.114714</v>
       </c>
       <c r="C110" t="n">
-        <v>0.117148</v>
+        <v>0.117212</v>
       </c>
       <c r="D110" t="n">
-        <v>0.10995</v>
+        <v>0.109056</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.116945</v>
+        <v>0.117064</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119433</v>
+        <v>0.119782</v>
       </c>
       <c r="D111" t="n">
-        <v>0.111006</v>
+        <v>0.109912</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120339</v>
+        <v>0.120436</v>
       </c>
       <c r="C112" t="n">
-        <v>0.123727</v>
+        <v>0.123754</v>
       </c>
       <c r="D112" t="n">
-        <v>0.112138</v>
+        <v>0.11115</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124552</v>
+        <v>0.12461</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129929</v>
+        <v>0.133324</v>
       </c>
       <c r="D113" t="n">
-        <v>0.11313</v>
+        <v>0.114373</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.129624</v>
+        <v>0.130543</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138406</v>
+        <v>0.146371</v>
       </c>
       <c r="D114" t="n">
-        <v>0.114634</v>
+        <v>0.11369</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.137313</v>
+        <v>0.136676</v>
       </c>
       <c r="C115" t="n">
-        <v>0.148214</v>
+        <v>0.150555</v>
       </c>
       <c r="D115" t="n">
-        <v>0.116593</v>
+        <v>0.115416</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.144612</v>
+        <v>0.145664</v>
       </c>
       <c r="C116" t="n">
-        <v>0.157992</v>
+        <v>0.160213</v>
       </c>
       <c r="D116" t="n">
-        <v>0.120284</v>
+        <v>0.118809</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.157557</v>
+        <v>0.15924</v>
       </c>
       <c r="C117" t="n">
-        <v>0.169564</v>
+        <v>0.173445</v>
       </c>
       <c r="D117" t="n">
-        <v>0.124217</v>
+        <v>0.130776</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.174798</v>
+        <v>0.174778</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182208</v>
+        <v>0.182709</v>
       </c>
       <c r="D118" t="n">
-        <v>0.131375</v>
+        <v>0.129551</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.20071</v>
+        <v>0.200581</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199097</v>
+        <v>0.199003</v>
       </c>
       <c r="D119" t="n">
-        <v>0.141765</v>
+        <v>0.140128</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232735</v>
+        <v>0.233146</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221624</v>
+        <v>0.221502</v>
       </c>
       <c r="D120" t="n">
-        <v>0.153913</v>
+        <v>0.152554</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2722</v>
+        <v>0.272877</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253231</v>
+        <v>0.253305</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170331</v>
+        <v>0.168144</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.325699</v>
+        <v>0.327725</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302147</v>
+        <v>0.302255</v>
       </c>
       <c r="D122" t="n">
-        <v>0.193712</v>
+        <v>0.19128</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.398916</v>
+        <v>0.396075</v>
       </c>
       <c r="C123" t="n">
         <v>0.38022</v>
       </c>
       <c r="D123" t="n">
-        <v>0.132916</v>
+        <v>0.131658</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.138449</v>
+        <v>0.137985</v>
       </c>
       <c r="C124" t="n">
-        <v>0.164453</v>
+        <v>0.165138</v>
       </c>
       <c r="D124" t="n">
-        <v>0.13596</v>
+        <v>0.138511</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.143679</v>
+        <v>0.143161</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167456</v>
+        <v>0.167839</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141006</v>
+        <v>0.141498</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.148773</v>
+        <v>0.148553</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170568</v>
+        <v>0.171397</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142125</v>
+        <v>0.143163</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154466</v>
+        <v>0.154201</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174942</v>
+        <v>0.175141</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146566</v>
+        <v>0.146277</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.160742</v>
+        <v>0.1599</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178244</v>
+        <v>0.180265</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148944</v>
+        <v>0.148025</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.167646</v>
+        <v>0.167296</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184751</v>
+        <v>0.185278</v>
       </c>
       <c r="D129" t="n">
-        <v>0.159838</v>
+        <v>0.150625</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.176247</v>
+        <v>0.176266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190835</v>
+        <v>0.191017</v>
       </c>
       <c r="D130" t="n">
-        <v>0.154751</v>
+        <v>0.153395</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.187329</v>
+        <v>0.186948</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199029</v>
+        <v>0.199223</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157802</v>
+        <v>0.15774</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201116</v>
+        <v>0.20121</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209655</v>
+        <v>0.209695</v>
       </c>
       <c r="D132" t="n">
-        <v>0.171076</v>
+        <v>0.162123</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219713</v>
+        <v>0.219613</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223964</v>
+        <v>0.224486</v>
       </c>
       <c r="D133" t="n">
-        <v>0.168271</v>
+        <v>0.171358</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.245171</v>
+        <v>0.244606</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243427</v>
+        <v>0.243804</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181054</v>
+        <v>0.180703</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.279416</v>
+        <v>0.278957</v>
       </c>
       <c r="C135" t="n">
-        <v>0.270569</v>
+        <v>0.271199</v>
       </c>
       <c r="D135" t="n">
-        <v>0.197381</v>
+        <v>0.191956</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.328663</v>
+        <v>0.326849</v>
       </c>
       <c r="C136" t="n">
-        <v>0.313797</v>
+        <v>0.31391</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212728</v>
+        <v>0.210372</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.392023</v>
+        <v>0.393366</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380265</v>
+        <v>0.379571</v>
       </c>
       <c r="D137" t="n">
-        <v>0.20054</v>
+        <v>0.199957</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.195433</v>
+        <v>0.197099</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225422</v>
+        <v>0.223</v>
       </c>
       <c r="D138" t="n">
-        <v>0.202553</v>
+        <v>0.204738</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.198634</v>
+        <v>0.201122</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228413</v>
+        <v>0.226513</v>
       </c>
       <c r="D139" t="n">
-        <v>0.205716</v>
+        <v>0.204405</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.203727</v>
+        <v>0.203932</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231926</v>
+        <v>0.230028</v>
       </c>
       <c r="D140" t="n">
-        <v>0.207193</v>
+        <v>0.207091</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.207608</v>
+        <v>0.20929</v>
       </c>
       <c r="C141" t="n">
-        <v>0.235577</v>
+        <v>0.233864</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210041</v>
+        <v>0.20935</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.213484</v>
+        <v>0.212938</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239769</v>
+        <v>0.238437</v>
       </c>
       <c r="D142" t="n">
-        <v>0.212745</v>
+        <v>0.212712</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218101</v>
+        <v>0.219224</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244623</v>
+        <v>0.243603</v>
       </c>
       <c r="D143" t="n">
-        <v>0.215649</v>
+        <v>0.215371</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.129903</v>
+        <v>0.130434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127428</v>
+        <v>0.127346</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107774</v>
+        <v>0.107848</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.138458</v>
+        <v>0.138533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131563</v>
+        <v>0.131463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109908</v>
+        <v>0.109927</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.149979</v>
+        <v>0.149856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140825</v>
+        <v>0.140986</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113467</v>
+        <v>0.113436</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.162436</v>
+        <v>0.164784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152529</v>
+        <v>0.152202</v>
       </c>
       <c r="D5" t="n">
-        <v>0.116997</v>
+        <v>0.117057</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.188077</v>
+        <v>0.186643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16943</v>
+        <v>0.169118</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124575</v>
+        <v>0.124526</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218006</v>
+        <v>0.218008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199574</v>
+        <v>0.19858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134656</v>
+        <v>0.134641</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.270423</v>
+        <v>0.260549</v>
       </c>
       <c r="C8" t="n">
-        <v>0.235717</v>
+        <v>0.236602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148217</v>
+        <v>0.148661</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.320453</v>
+        <v>0.319656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.302509</v>
+        <v>0.300109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101039</v>
+        <v>0.101124</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106156</v>
+        <v>0.1056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109317</v>
+        <v>0.109279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.101804</v>
+        <v>0.101827</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.108552</v>
+        <v>0.108749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110515</v>
+        <v>0.110511</v>
       </c>
       <c r="D11" t="n">
-        <v>0.102179</v>
+        <v>0.10233</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.111498</v>
+        <v>0.110635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111627</v>
+        <v>0.111645</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102716</v>
+        <v>0.102739</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.11344</v>
+        <v>0.114427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113774</v>
+        <v>0.113742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.103316</v>
+        <v>0.103367</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116911</v>
+        <v>0.117191</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117678</v>
+        <v>0.117641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.104533</v>
+        <v>0.10455</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122426</v>
+        <v>0.122938</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120663</v>
+        <v>0.120811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105397</v>
+        <v>0.105622</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128532</v>
+        <v>0.128935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125556</v>
+        <v>0.125736</v>
       </c>
       <c r="D16" t="n">
-        <v>0.10672</v>
+        <v>0.106975</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.13485</v>
+        <v>0.136735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131678</v>
+        <v>0.131847</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108628</v>
+        <v>0.108879</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.148178</v>
+        <v>0.148409</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138472</v>
+        <v>0.138641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110686</v>
+        <v>0.11104</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.161594</v>
+        <v>0.163626</v>
       </c>
       <c r="C19" t="n">
-        <v>0.148105</v>
+        <v>0.148405</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11465</v>
+        <v>0.114811</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185142</v>
+        <v>0.184693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165701</v>
+        <v>0.165295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11977</v>
+        <v>0.119867</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.212495</v>
+        <v>0.211422</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187197</v>
+        <v>0.186459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.126751</v>
+        <v>0.12695</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.269109</v>
+        <v>0.250451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218742</v>
+        <v>0.218221</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139367</v>
+        <v>0.139838</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.307262</v>
+        <v>0.301322</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280211</v>
+        <v>0.280612</v>
       </c>
       <c r="D23" t="n">
-        <v>0.100567</v>
+        <v>0.100662</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105197</v>
+        <v>0.105615</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107442</v>
+        <v>0.107428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.100918</v>
+        <v>0.10089</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107096</v>
+        <v>0.107392</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108677</v>
+        <v>0.108723</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101486</v>
+        <v>0.101513</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109387</v>
+        <v>0.109273</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109926</v>
+        <v>0.109915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101827</v>
+        <v>0.101864</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112099</v>
+        <v>0.112344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111968</v>
+        <v>0.111989</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102395</v>
+        <v>0.102465</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115907</v>
+        <v>0.11586</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114122</v>
+        <v>0.114121</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103163</v>
+        <v>0.103206</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1205</v>
+        <v>0.120205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117906</v>
+        <v>0.117867</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104334</v>
+        <v>0.104331</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126938</v>
+        <v>0.126453</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121555</v>
+        <v>0.121528</v>
       </c>
       <c r="D30" t="n">
-        <v>0.105529</v>
+        <v>0.105601</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134891</v>
+        <v>0.134437</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126498</v>
+        <v>0.12656</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107031</v>
+        <v>0.107088</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.146147</v>
+        <v>0.144944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133665</v>
+        <v>0.13376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.109348</v>
+        <v>0.10925</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.159258</v>
+        <v>0.158921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144878</v>
+        <v>0.144592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.112737</v>
+        <v>0.112574</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18052</v>
+        <v>0.177197</v>
       </c>
       <c r="C34" t="n">
-        <v>0.158674</v>
+        <v>0.158123</v>
       </c>
       <c r="D34" t="n">
-        <v>0.116977</v>
+        <v>0.116776</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208846</v>
+        <v>0.204356</v>
       </c>
       <c r="C35" t="n">
-        <v>0.178831</v>
+        <v>0.178356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123132</v>
+        <v>0.123028</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.240783</v>
+        <v>0.238932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211295</v>
+        <v>0.210602</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134498</v>
+        <v>0.134304</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.30485</v>
+        <v>0.299286</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262381</v>
+        <v>0.261343</v>
       </c>
       <c r="D37" t="n">
-        <v>0.100939</v>
+        <v>0.100793</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104638</v>
+        <v>0.104493</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107986</v>
+        <v>0.107674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.101358</v>
+        <v>0.101215</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106348</v>
+        <v>0.106377</v>
       </c>
       <c r="C39" t="n">
-        <v>0.109294</v>
+        <v>0.10909</v>
       </c>
       <c r="D39" t="n">
-        <v>0.101972</v>
+        <v>0.102038</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108776</v>
+        <v>0.108936</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110537</v>
+        <v>0.110526</v>
       </c>
       <c r="D40" t="n">
-        <v>0.10245</v>
+        <v>0.102445</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111574</v>
+        <v>0.111772</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112057</v>
+        <v>0.112163</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103274</v>
+        <v>0.103165</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115312</v>
+        <v>0.115573</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114023</v>
+        <v>0.114096</v>
       </c>
       <c r="D42" t="n">
-        <v>0.103939</v>
+        <v>0.103908</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119829</v>
+        <v>0.119351</v>
       </c>
       <c r="C43" t="n">
-        <v>0.11672</v>
+        <v>0.116818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.10475</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12617</v>
+        <v>0.1259</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120761</v>
+        <v>0.120876</v>
       </c>
       <c r="D44" t="n">
-        <v>0.105808</v>
+        <v>0.105955</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.134076</v>
+        <v>0.133382</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126213</v>
+        <v>0.126107</v>
       </c>
       <c r="D45" t="n">
-        <v>0.10753</v>
+        <v>0.107539</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.144109</v>
+        <v>0.143282</v>
       </c>
       <c r="C46" t="n">
-        <v>0.133263</v>
+        <v>0.133231</v>
       </c>
       <c r="D46" t="n">
-        <v>0.109953</v>
+        <v>0.110037</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157469</v>
+        <v>0.157131</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143444</v>
+        <v>0.143218</v>
       </c>
       <c r="D47" t="n">
-        <v>0.112921</v>
+        <v>0.112907</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.177086</v>
+        <v>0.175751</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157719</v>
+        <v>0.157567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.117054</v>
+        <v>0.117173</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.202059</v>
+        <v>0.201864</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177926</v>
+        <v>0.177365</v>
       </c>
       <c r="D49" t="n">
-        <v>0.123173</v>
+        <v>0.123244</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236697</v>
+        <v>0.234944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211765</v>
+        <v>0.211182</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134553</v>
+        <v>0.134559</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.283239</v>
+        <v>0.278644</v>
       </c>
       <c r="C51" t="n">
-        <v>0.256534</v>
+        <v>0.255793</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103264</v>
+        <v>0.103236</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.336425</v>
+        <v>0.342803</v>
       </c>
       <c r="C52" t="n">
-        <v>0.332991</v>
+        <v>0.329987</v>
       </c>
       <c r="D52" t="n">
-        <v>0.103514</v>
+        <v>0.103589</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108489</v>
+        <v>0.108824</v>
       </c>
       <c r="C53" t="n">
-        <v>0.110464</v>
+        <v>0.110509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.104073</v>
+        <v>0.103971</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110775</v>
+        <v>0.110836</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111895</v>
+        <v>0.112014</v>
       </c>
       <c r="D54" t="n">
-        <v>0.104634</v>
+        <v>0.10461</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113694</v>
+        <v>0.113607</v>
       </c>
       <c r="C55" t="n">
-        <v>0.11358</v>
+        <v>0.113614</v>
       </c>
       <c r="D55" t="n">
-        <v>0.105141</v>
+        <v>0.105281</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117123</v>
+        <v>0.117251</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115661</v>
+        <v>0.115684</v>
       </c>
       <c r="D56" t="n">
-        <v>0.105865</v>
+        <v>0.106105</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121631</v>
+        <v>0.121462</v>
       </c>
       <c r="C57" t="n">
-        <v>0.118469</v>
+        <v>0.118591</v>
       </c>
       <c r="D57" t="n">
-        <v>0.106835</v>
+        <v>0.107044</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127819</v>
+        <v>0.12704</v>
       </c>
       <c r="C58" t="n">
-        <v>0.122555</v>
+        <v>0.122646</v>
       </c>
       <c r="D58" t="n">
-        <v>0.108001</v>
+        <v>0.108114</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.135224</v>
+        <v>0.134477</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127905</v>
+        <v>0.128025</v>
       </c>
       <c r="D59" t="n">
-        <v>0.109512</v>
+        <v>0.109532</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.145251</v>
+        <v>0.144316</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134547</v>
+        <v>0.13451</v>
       </c>
       <c r="D60" t="n">
-        <v>0.111562</v>
+        <v>0.11185</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.158583</v>
+        <v>0.157765</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143971</v>
+        <v>0.144051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.114239</v>
+        <v>0.114406</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.176654</v>
+        <v>0.175291</v>
       </c>
       <c r="C62" t="n">
-        <v>0.157304</v>
+        <v>0.15723</v>
       </c>
       <c r="D62" t="n">
-        <v>0.118462</v>
+        <v>0.11832</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201476</v>
+        <v>0.205766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176726</v>
+        <v>0.176648</v>
       </c>
       <c r="D63" t="n">
-        <v>0.125</v>
+        <v>0.125098</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235688</v>
+        <v>0.233639</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206622</v>
+        <v>0.206416</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135797</v>
+        <v>0.135788</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.280016</v>
+        <v>0.279033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251977</v>
+        <v>0.251925</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154452</v>
+        <v>0.154481</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.34905</v>
+        <v>0.351666</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324681</v>
+        <v>0.322172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.10432</v>
+        <v>0.104317</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109828</v>
+        <v>0.109932</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110979</v>
+        <v>0.111041</v>
       </c>
       <c r="D67" t="n">
-        <v>0.104836</v>
+        <v>0.104982</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.112114</v>
+        <v>0.112092</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112265</v>
+        <v>0.112377</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105249</v>
+        <v>0.105467</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114775</v>
+        <v>0.114612</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114029</v>
+        <v>0.114228</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105916</v>
+        <v>0.10587</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.118419</v>
+        <v>0.117988</v>
       </c>
       <c r="C70" t="n">
-        <v>0.116182</v>
+        <v>0.116154</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106535</v>
+        <v>0.106617</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122961</v>
+        <v>0.122222</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119086</v>
+        <v>0.119221</v>
       </c>
       <c r="D71" t="n">
-        <v>0.10745</v>
+        <v>0.107493</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128644</v>
+        <v>0.127905</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122748</v>
+        <v>0.122908</v>
       </c>
       <c r="D72" t="n">
-        <v>0.108587</v>
+        <v>0.108908</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136387</v>
+        <v>0.135026</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127709</v>
+        <v>0.127641</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110295</v>
+        <v>0.110156</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.146261</v>
+        <v>0.144725</v>
       </c>
       <c r="C74" t="n">
-        <v>0.134654</v>
+        <v>0.13468</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112172</v>
+        <v>0.11213</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.159201</v>
+        <v>0.157477</v>
       </c>
       <c r="C75" t="n">
-        <v>0.144562</v>
+        <v>0.144546</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115031</v>
+        <v>0.115008</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.17667</v>
+        <v>0.174804</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158094</v>
+        <v>0.158066</v>
       </c>
       <c r="D76" t="n">
-        <v>0.119547</v>
+        <v>0.11946</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.200119</v>
+        <v>0.198021</v>
       </c>
       <c r="C77" t="n">
-        <v>0.177</v>
+        <v>0.176942</v>
       </c>
       <c r="D77" t="n">
-        <v>0.125434</v>
+        <v>0.125435</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.232058</v>
+        <v>0.230154</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204814</v>
+        <v>0.204585</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1356</v>
+        <v>0.135517</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275791</v>
+        <v>0.273676</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248132</v>
+        <v>0.2479</v>
       </c>
       <c r="D79" t="n">
-        <v>0.15291</v>
+        <v>0.152657</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.335218</v>
+        <v>0.331759</v>
       </c>
       <c r="C80" t="n">
-        <v>0.314582</v>
+        <v>0.319372</v>
       </c>
       <c r="D80" t="n">
-        <v>0.10454</v>
+        <v>0.104496</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110143</v>
+        <v>0.110169</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110917</v>
+        <v>0.111019</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105034</v>
+        <v>0.105021</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112452</v>
+        <v>0.112303</v>
       </c>
       <c r="C82" t="n">
-        <v>0.112274</v>
+        <v>0.112144</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105372</v>
+        <v>0.105342</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115153</v>
+        <v>0.115036</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113699</v>
+        <v>0.113817</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105901</v>
+        <v>0.105958</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118482</v>
+        <v>0.118511</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115866</v>
+        <v>0.115829</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106896</v>
+        <v>0.106777</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122629</v>
+        <v>0.122654</v>
       </c>
       <c r="C85" t="n">
-        <v>0.118355</v>
+        <v>0.118384</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107606</v>
+        <v>0.10745</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.128249</v>
+        <v>0.127917</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121783</v>
+        <v>0.121712</v>
       </c>
       <c r="D86" t="n">
-        <v>0.108567</v>
+        <v>0.108531</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135528</v>
+        <v>0.134987</v>
       </c>
       <c r="C87" t="n">
-        <v>0.126453</v>
+        <v>0.126374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.10991</v>
+        <v>0.110146</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144434</v>
+        <v>0.144397</v>
       </c>
       <c r="C88" t="n">
-        <v>0.13291</v>
+        <v>0.13304</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112065</v>
+        <v>0.111801</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156561</v>
+        <v>0.156169</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142203</v>
+        <v>0.142306</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114558</v>
+        <v>0.114891</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172531</v>
+        <v>0.172399</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154642</v>
+        <v>0.154577</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118365</v>
+        <v>0.118454</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194575</v>
+        <v>0.194494</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172084</v>
+        <v>0.172261</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124026</v>
+        <v>0.124007</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.225113</v>
+        <v>0.224949</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197726</v>
+        <v>0.197543</v>
       </c>
       <c r="D92" t="n">
-        <v>0.13292</v>
+        <v>0.133095</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266296</v>
+        <v>0.267514</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236874</v>
+        <v>0.236309</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148078</v>
+        <v>0.148006</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.327805</v>
+        <v>0.321466</v>
       </c>
       <c r="C94" t="n">
-        <v>0.298344</v>
+        <v>0.297876</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104824</v>
+        <v>0.104633</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110646</v>
+        <v>0.110483</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111465</v>
+        <v>0.111269</v>
       </c>
       <c r="D95" t="n">
-        <v>0.10533</v>
+        <v>0.105148</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112539</v>
+        <v>0.112299</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112659</v>
+        <v>0.11273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.105657</v>
+        <v>0.105688</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.115037</v>
+        <v>0.114925</v>
       </c>
       <c r="C97" t="n">
-        <v>0.114347</v>
+        <v>0.114351</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10635</v>
+        <v>0.106416</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118396</v>
+        <v>0.118124</v>
       </c>
       <c r="C98" t="n">
-        <v>0.116478</v>
+        <v>0.116561</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107045</v>
+        <v>0.107019</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122531</v>
+        <v>0.122347</v>
       </c>
       <c r="C99" t="n">
-        <v>0.119324</v>
+        <v>0.119258</v>
       </c>
       <c r="D99" t="n">
-        <v>0.107978</v>
+        <v>0.108025</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127898</v>
+        <v>0.127619</v>
       </c>
       <c r="C100" t="n">
-        <v>0.122526</v>
+        <v>0.122676</v>
       </c>
       <c r="D100" t="n">
-        <v>0.10905</v>
+        <v>0.109305</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134715</v>
+        <v>0.134249</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127177</v>
+        <v>0.127286</v>
       </c>
       <c r="D101" t="n">
-        <v>0.11038</v>
+        <v>0.110658</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143314</v>
+        <v>0.143209</v>
       </c>
       <c r="C102" t="n">
-        <v>0.133335</v>
+        <v>0.133417</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112287</v>
+        <v>0.112348</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.155069</v>
+        <v>0.154619</v>
       </c>
       <c r="C103" t="n">
-        <v>0.142229</v>
+        <v>0.142171</v>
       </c>
       <c r="D103" t="n">
-        <v>0.114895</v>
+        <v>0.114935</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.170327</v>
+        <v>0.1697</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153913</v>
+        <v>0.153526</v>
       </c>
       <c r="D104" t="n">
-        <v>0.118609</v>
+        <v>0.118721</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.191089</v>
+        <v>0.190634</v>
       </c>
       <c r="C105" t="n">
-        <v>0.170088</v>
+        <v>0.169901</v>
       </c>
       <c r="D105" t="n">
-        <v>0.124209</v>
+        <v>0.124263</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.21952</v>
+        <v>0.219379</v>
       </c>
       <c r="C106" t="n">
-        <v>0.193285</v>
+        <v>0.19303</v>
       </c>
       <c r="D106" t="n">
-        <v>0.132304</v>
+        <v>0.13277</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.259935</v>
+        <v>0.25827</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229515</v>
+        <v>0.229611</v>
       </c>
       <c r="D107" t="n">
-        <v>0.145964</v>
+        <v>0.146211</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.31617</v>
+        <v>0.326035</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285058</v>
+        <v>0.284998</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107541</v>
+        <v>0.107806</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.384816</v>
+        <v>0.382705</v>
       </c>
       <c r="C109" t="n">
-        <v>0.373092</v>
+        <v>0.374091</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108181</v>
+        <v>0.10848</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114714</v>
+        <v>0.114668</v>
       </c>
       <c r="C110" t="n">
-        <v>0.117212</v>
+        <v>0.117202</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109056</v>
+        <v>0.109248</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117064</v>
+        <v>0.117323</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119782</v>
+        <v>0.119873</v>
       </c>
       <c r="D111" t="n">
-        <v>0.109912</v>
+        <v>0.110042</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120436</v>
+        <v>0.120547</v>
       </c>
       <c r="C112" t="n">
-        <v>0.123754</v>
+        <v>0.124686</v>
       </c>
       <c r="D112" t="n">
-        <v>0.11115</v>
+        <v>0.110959</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.12461</v>
+        <v>0.124448</v>
       </c>
       <c r="C113" t="n">
-        <v>0.133324</v>
+        <v>0.130784</v>
       </c>
       <c r="D113" t="n">
-        <v>0.114373</v>
+        <v>0.112434</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.130543</v>
+        <v>0.130099</v>
       </c>
       <c r="C114" t="n">
-        <v>0.146371</v>
+        <v>0.138674</v>
       </c>
       <c r="D114" t="n">
-        <v>0.11369</v>
+        <v>0.113454</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136676</v>
+        <v>0.136979</v>
       </c>
       <c r="C115" t="n">
-        <v>0.150555</v>
+        <v>0.148292</v>
       </c>
       <c r="D115" t="n">
-        <v>0.115416</v>
+        <v>0.115476</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.145664</v>
+        <v>0.145136</v>
       </c>
       <c r="C116" t="n">
-        <v>0.160213</v>
+        <v>0.158744</v>
       </c>
       <c r="D116" t="n">
-        <v>0.118809</v>
+        <v>0.118067</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.15924</v>
+        <v>0.157092</v>
       </c>
       <c r="C117" t="n">
-        <v>0.173445</v>
+        <v>0.169831</v>
       </c>
       <c r="D117" t="n">
-        <v>0.130776</v>
+        <v>0.122756</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.174778</v>
+        <v>0.174799</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182709</v>
+        <v>0.182845</v>
       </c>
       <c r="D118" t="n">
-        <v>0.129551</v>
+        <v>0.130216</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200581</v>
+        <v>0.200803</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199003</v>
+        <v>0.199557</v>
       </c>
       <c r="D119" t="n">
-        <v>0.140128</v>
+        <v>0.140486</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233146</v>
+        <v>0.233595</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221502</v>
+        <v>0.221842</v>
       </c>
       <c r="D120" t="n">
-        <v>0.152554</v>
+        <v>0.152745</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.272877</v>
+        <v>0.272995</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253305</v>
+        <v>0.253345</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168144</v>
+        <v>0.168644</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.327725</v>
+        <v>0.323898</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302255</v>
+        <v>0.301688</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19128</v>
+        <v>0.192061</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.396075</v>
+        <v>0.399987</v>
       </c>
       <c r="C123" t="n">
-        <v>0.38022</v>
+        <v>0.379419</v>
       </c>
       <c r="D123" t="n">
-        <v>0.131658</v>
+        <v>0.130486</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.137985</v>
+        <v>0.134769</v>
       </c>
       <c r="C124" t="n">
-        <v>0.165138</v>
+        <v>0.160174</v>
       </c>
       <c r="D124" t="n">
-        <v>0.138511</v>
+        <v>0.136381</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.143161</v>
+        <v>0.141892</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167839</v>
+        <v>0.167082</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141498</v>
+        <v>0.141575</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.148553</v>
+        <v>0.147866</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171397</v>
+        <v>0.172687</v>
       </c>
       <c r="D126" t="n">
-        <v>0.143163</v>
+        <v>0.144097</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.154201</v>
+        <v>0.15395</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175141</v>
+        <v>0.175415</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146277</v>
+        <v>0.146536</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1599</v>
+        <v>0.160026</v>
       </c>
       <c r="C128" t="n">
-        <v>0.180265</v>
+        <v>0.180585</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148025</v>
+        <v>0.148252</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.167296</v>
+        <v>0.166707</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185278</v>
+        <v>0.185809</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150625</v>
+        <v>0.151546</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.176266</v>
+        <v>0.175363</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191017</v>
+        <v>0.1924</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153395</v>
+        <v>0.154466</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186948</v>
+        <v>0.186851</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199223</v>
+        <v>0.198857</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15774</v>
+        <v>0.15731</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.20121</v>
+        <v>0.200873</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209695</v>
+        <v>0.20916</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162123</v>
+        <v>0.162163</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219613</v>
+        <v>0.222877</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224486</v>
+        <v>0.224308</v>
       </c>
       <c r="D133" t="n">
-        <v>0.171358</v>
+        <v>0.17208</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244606</v>
+        <v>0.247721</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243804</v>
+        <v>0.244213</v>
       </c>
       <c r="D134" t="n">
-        <v>0.180703</v>
+        <v>0.180143</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.278957</v>
+        <v>0.28211</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271199</v>
+        <v>0.27119</v>
       </c>
       <c r="D135" t="n">
-        <v>0.191956</v>
+        <v>0.192581</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.326849</v>
+        <v>0.32922</v>
       </c>
       <c r="C136" t="n">
-        <v>0.31391</v>
+        <v>0.314015</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210372</v>
+        <v>0.211318</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.393366</v>
+        <v>0.392466</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379571</v>
+        <v>0.380245</v>
       </c>
       <c r="D137" t="n">
-        <v>0.199957</v>
+        <v>0.198635</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.197099</v>
+        <v>0.194167</v>
       </c>
       <c r="C138" t="n">
-        <v>0.223</v>
+        <v>0.225055</v>
       </c>
       <c r="D138" t="n">
-        <v>0.204738</v>
+        <v>0.203142</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.201122</v>
+        <v>0.197866</v>
       </c>
       <c r="C139" t="n">
-        <v>0.226513</v>
+        <v>0.227954</v>
       </c>
       <c r="D139" t="n">
-        <v>0.204405</v>
+        <v>0.203533</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.203932</v>
+        <v>0.202577</v>
       </c>
       <c r="C140" t="n">
-        <v>0.230028</v>
+        <v>0.231206</v>
       </c>
       <c r="D140" t="n">
-        <v>0.207091</v>
+        <v>0.206003</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.20929</v>
+        <v>0.207566</v>
       </c>
       <c r="C141" t="n">
-        <v>0.233864</v>
+        <v>0.235331</v>
       </c>
       <c r="D141" t="n">
-        <v>0.20935</v>
+        <v>0.20848</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.212938</v>
+        <v>0.21277</v>
       </c>
       <c r="C142" t="n">
-        <v>0.238437</v>
+        <v>0.239242</v>
       </c>
       <c r="D142" t="n">
-        <v>0.212712</v>
+        <v>0.211307</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219224</v>
+        <v>0.219286</v>
       </c>
       <c r="C143" t="n">
-        <v>0.243603</v>
+        <v>0.244285</v>
       </c>
       <c r="D143" t="n">
-        <v>0.215371</v>
+        <v>0.214464</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.130434</v>
+        <v>0.130377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127346</v>
+        <v>0.127595</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107848</v>
+        <v>0.107843</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.138533</v>
+        <v>0.137235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131463</v>
+        <v>0.131283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109927</v>
+        <v>0.109919</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.149856</v>
+        <v>0.146541</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140986</v>
+        <v>0.140126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113436</v>
+        <v>0.114128</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.164784</v>
+        <v>0.161277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152202</v>
+        <v>0.151387</v>
       </c>
       <c r="D5" t="n">
-        <v>0.117057</v>
+        <v>0.117051</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.186643</v>
+        <v>0.17657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.169118</v>
+        <v>0.170338</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124526</v>
+        <v>0.124503</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218008</v>
+        <v>0.21287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.19858</v>
+        <v>0.198801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134641</v>
+        <v>0.134597</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.260549</v>
+        <v>0.264503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.236602</v>
+        <v>0.238191</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148661</v>
+        <v>0.148167</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.319656</v>
+        <v>0.311981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.300109</v>
+        <v>0.30618</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101124</v>
+        <v>0.101059</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1056</v>
+        <v>0.106173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109279</v>
+        <v>0.109322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.101827</v>
+        <v>0.101793</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.108749</v>
+        <v>0.109523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110511</v>
+        <v>0.110401</v>
       </c>
       <c r="D11" t="n">
-        <v>0.10233</v>
+        <v>0.102182</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.110635</v>
+        <v>0.111533</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111645</v>
+        <v>0.111587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102739</v>
+        <v>0.102764</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114427</v>
+        <v>0.114993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113742</v>
+        <v>0.113696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.103367</v>
+        <v>0.103349</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117191</v>
+        <v>0.118499</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117641</v>
+        <v>0.117656</v>
       </c>
       <c r="D14" t="n">
-        <v>0.10455</v>
+        <v>0.104526</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.122938</v>
+        <v>0.1231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120811</v>
+        <v>0.120798</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105622</v>
+        <v>0.105525</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.128935</v>
+        <v>0.129649</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125736</v>
+        <v>0.125772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106975</v>
+        <v>0.106857</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.136735</v>
+        <v>0.138732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131847</v>
+        <v>0.131663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108879</v>
+        <v>0.108756</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.148409</v>
+        <v>0.148673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138641</v>
+        <v>0.13808</v>
       </c>
       <c r="D18" t="n">
-        <v>0.11104</v>
+        <v>0.110881</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163626</v>
+        <v>0.164599</v>
       </c>
       <c r="C19" t="n">
-        <v>0.148405</v>
+        <v>0.148033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114811</v>
+        <v>0.114794</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.184693</v>
+        <v>0.183055</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165295</v>
+        <v>0.165335</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119867</v>
+        <v>0.119774</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.211422</v>
+        <v>0.210458</v>
       </c>
       <c r="C21" t="n">
-        <v>0.186459</v>
+        <v>0.186942</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12695</v>
+        <v>0.126824</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250451</v>
+        <v>0.247651</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218221</v>
+        <v>0.218938</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139838</v>
+        <v>0.139758</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301322</v>
+        <v>0.305624</v>
       </c>
       <c r="C23" t="n">
-        <v>0.280612</v>
+        <v>0.281617</v>
       </c>
       <c r="D23" t="n">
-        <v>0.100662</v>
+        <v>0.100612</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105615</v>
+        <v>0.105918</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107428</v>
+        <v>0.107469</v>
       </c>
       <c r="D24" t="n">
-        <v>0.10089</v>
+        <v>0.10091</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107392</v>
+        <v>0.107163</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108723</v>
+        <v>0.1087</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101513</v>
+        <v>0.10145</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109273</v>
+        <v>0.109828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109915</v>
+        <v>0.109962</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101864</v>
+        <v>0.101843</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112344</v>
+        <v>0.112086</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111989</v>
+        <v>0.111948</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102465</v>
+        <v>0.102418</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.11586</v>
+        <v>0.115652</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114121</v>
+        <v>0.114055</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103206</v>
+        <v>0.103178</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120205</v>
+        <v>0.121245</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117867</v>
+        <v>0.117809</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104331</v>
+        <v>0.104284</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126453</v>
+        <v>0.126633</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121528</v>
+        <v>0.121461</v>
       </c>
       <c r="D30" t="n">
-        <v>0.105601</v>
+        <v>0.105558</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134437</v>
+        <v>0.134217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12656</v>
+        <v>0.12636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107088</v>
+        <v>0.107041</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.144944</v>
+        <v>0.143885</v>
       </c>
       <c r="C32" t="n">
-        <v>0.13376</v>
+        <v>0.133707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.10925</v>
+        <v>0.10937</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.158921</v>
+        <v>0.157932</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144592</v>
+        <v>0.144641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.112574</v>
+        <v>0.112741</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.177197</v>
+        <v>0.179405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.158123</v>
+        <v>0.158568</v>
       </c>
       <c r="D34" t="n">
-        <v>0.116776</v>
+        <v>0.116927</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.204356</v>
+        <v>0.204531</v>
       </c>
       <c r="C35" t="n">
-        <v>0.178356</v>
+        <v>0.179057</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123028</v>
+        <v>0.123164</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238932</v>
+        <v>0.237933</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210602</v>
+        <v>0.211016</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134304</v>
+        <v>0.134475</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.299286</v>
+        <v>0.28581</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261343</v>
+        <v>0.261955</v>
       </c>
       <c r="D37" t="n">
-        <v>0.100793</v>
+        <v>0.101085</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104493</v>
+        <v>0.104883</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107674</v>
+        <v>0.107829</v>
       </c>
       <c r="D38" t="n">
-        <v>0.101215</v>
+        <v>0.101391</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106377</v>
+        <v>0.106555</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10909</v>
+        <v>0.10919</v>
       </c>
       <c r="D39" t="n">
-        <v>0.102038</v>
+        <v>0.101974</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108936</v>
+        <v>0.108716</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110526</v>
+        <v>0.110534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.102445</v>
+        <v>0.102453</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111772</v>
+        <v>0.111562</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112163</v>
+        <v>0.112118</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103165</v>
+        <v>0.103127</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115573</v>
+        <v>0.114896</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114096</v>
+        <v>0.114012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.103908</v>
+        <v>0.103925</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119351</v>
+        <v>0.119314</v>
       </c>
       <c r="C43" t="n">
-        <v>0.116818</v>
+        <v>0.116699</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1047</v>
+        <v>0.104554</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1259</v>
+        <v>0.125181</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120876</v>
+        <v>0.120779</v>
       </c>
       <c r="D44" t="n">
-        <v>0.105955</v>
+        <v>0.105827</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.133382</v>
+        <v>0.132591</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126107</v>
+        <v>0.126111</v>
       </c>
       <c r="D45" t="n">
-        <v>0.107539</v>
+        <v>0.107558</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.143282</v>
+        <v>0.143367</v>
       </c>
       <c r="C46" t="n">
-        <v>0.133231</v>
+        <v>0.13311</v>
       </c>
       <c r="D46" t="n">
-        <v>0.110037</v>
+        <v>0.109904</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157131</v>
+        <v>0.157648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143218</v>
+        <v>0.143225</v>
       </c>
       <c r="D47" t="n">
-        <v>0.112907</v>
+        <v>0.112858</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175751</v>
+        <v>0.175333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157567</v>
+        <v>0.157561</v>
       </c>
       <c r="D48" t="n">
-        <v>0.117173</v>
+        <v>0.117081</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.201864</v>
+        <v>0.201183</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177365</v>
+        <v>0.177374</v>
       </c>
       <c r="D49" t="n">
-        <v>0.123244</v>
+        <v>0.123154</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234944</v>
+        <v>0.233819</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211182</v>
+        <v>0.211492</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134559</v>
+        <v>0.134341</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.278644</v>
+        <v>0.291479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255793</v>
+        <v>0.255597</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103236</v>
+        <v>0.103069</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.342803</v>
+        <v>0.327915</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329987</v>
+        <v>0.332122</v>
       </c>
       <c r="D52" t="n">
-        <v>0.103589</v>
+        <v>0.103532</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108824</v>
+        <v>0.108497</v>
       </c>
       <c r="C53" t="n">
-        <v>0.110509</v>
+        <v>0.110474</v>
       </c>
       <c r="D53" t="n">
-        <v>0.103971</v>
+        <v>0.103954</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110836</v>
+        <v>0.110762</v>
       </c>
       <c r="C54" t="n">
-        <v>0.112014</v>
+        <v>0.111924</v>
       </c>
       <c r="D54" t="n">
-        <v>0.10461</v>
+        <v>0.104561</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113607</v>
+        <v>0.113381</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113614</v>
+        <v>0.113565</v>
       </c>
       <c r="D55" t="n">
-        <v>0.105281</v>
+        <v>0.105211</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117251</v>
+        <v>0.117158</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115684</v>
+        <v>0.115511</v>
       </c>
       <c r="D56" t="n">
-        <v>0.106105</v>
+        <v>0.105792</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121462</v>
+        <v>0.12162</v>
       </c>
       <c r="C57" t="n">
-        <v>0.118591</v>
+        <v>0.118389</v>
       </c>
       <c r="D57" t="n">
-        <v>0.107044</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12704</v>
+        <v>0.127412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.122646</v>
+        <v>0.122428</v>
       </c>
       <c r="D58" t="n">
-        <v>0.108114</v>
+        <v>0.107869</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134477</v>
+        <v>0.134931</v>
       </c>
       <c r="C59" t="n">
-        <v>0.128025</v>
+        <v>0.127815</v>
       </c>
       <c r="D59" t="n">
-        <v>0.109532</v>
+        <v>0.109334</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.144316</v>
+        <v>0.145217</v>
       </c>
       <c r="C60" t="n">
-        <v>0.13451</v>
+        <v>0.134286</v>
       </c>
       <c r="D60" t="n">
-        <v>0.11185</v>
+        <v>0.111411</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157765</v>
+        <v>0.15806</v>
       </c>
       <c r="C61" t="n">
-        <v>0.144051</v>
+        <v>0.143751</v>
       </c>
       <c r="D61" t="n">
-        <v>0.114406</v>
+        <v>0.114107</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175291</v>
+        <v>0.175872</v>
       </c>
       <c r="C62" t="n">
-        <v>0.15723</v>
+        <v>0.156957</v>
       </c>
       <c r="D62" t="n">
-        <v>0.11832</v>
+        <v>0.118154</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.205766</v>
+        <v>0.200921</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176648</v>
+        <v>0.176436</v>
       </c>
       <c r="D63" t="n">
-        <v>0.125098</v>
+        <v>0.12502</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.233639</v>
+        <v>0.234541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206416</v>
+        <v>0.206425</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135788</v>
+        <v>0.136071</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279033</v>
+        <v>0.279551</v>
       </c>
       <c r="C65" t="n">
-        <v>0.251925</v>
+        <v>0.252489</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154481</v>
+        <v>0.154395</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.351666</v>
+        <v>0.341085</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322172</v>
+        <v>0.324556</v>
       </c>
       <c r="D66" t="n">
-        <v>0.104317</v>
+        <v>0.104319</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109932</v>
+        <v>0.109548</v>
       </c>
       <c r="C67" t="n">
-        <v>0.111041</v>
+        <v>0.110959</v>
       </c>
       <c r="D67" t="n">
-        <v>0.104982</v>
+        <v>0.105142</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.112092</v>
+        <v>0.112186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112377</v>
+        <v>0.112635</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105467</v>
+        <v>0.105294</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114612</v>
+        <v>0.114318</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114228</v>
+        <v>0.114193</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10587</v>
+        <v>0.105837</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.117988</v>
+        <v>0.118191</v>
       </c>
       <c r="C70" t="n">
-        <v>0.116154</v>
+        <v>0.116219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106617</v>
+        <v>0.106581</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122222</v>
+        <v>0.122364</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119221</v>
+        <v>0.119035</v>
       </c>
       <c r="D71" t="n">
-        <v>0.107493</v>
+        <v>0.107447</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.127905</v>
+        <v>0.127724</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122908</v>
+        <v>0.122812</v>
       </c>
       <c r="D72" t="n">
-        <v>0.108908</v>
+        <v>0.108571</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135026</v>
+        <v>0.134974</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127641</v>
+        <v>0.1277</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110156</v>
+        <v>0.110123</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.144725</v>
+        <v>0.14534</v>
       </c>
       <c r="C74" t="n">
-        <v>0.13468</v>
+        <v>0.134527</v>
       </c>
       <c r="D74" t="n">
-        <v>0.11213</v>
+        <v>0.112128</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.157477</v>
+        <v>0.157401</v>
       </c>
       <c r="C75" t="n">
-        <v>0.144546</v>
+        <v>0.14458</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115008</v>
+        <v>0.114951</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.174804</v>
+        <v>0.174837</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158066</v>
+        <v>0.157983</v>
       </c>
       <c r="D76" t="n">
-        <v>0.11946</v>
+        <v>0.119447</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198021</v>
+        <v>0.197276</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176942</v>
+        <v>0.176877</v>
       </c>
       <c r="D77" t="n">
-        <v>0.125435</v>
+        <v>0.12552</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.230154</v>
+        <v>0.231237</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204585</v>
+        <v>0.204657</v>
       </c>
       <c r="D78" t="n">
-        <v>0.135517</v>
+        <v>0.135457</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.273676</v>
+        <v>0.273029</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2479</v>
+        <v>0.248022</v>
       </c>
       <c r="D79" t="n">
-        <v>0.152657</v>
+        <v>0.152746</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.331759</v>
+        <v>0.349179</v>
       </c>
       <c r="C80" t="n">
-        <v>0.319372</v>
+        <v>0.31415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.104496</v>
+        <v>0.104648</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110169</v>
+        <v>0.110387</v>
       </c>
       <c r="C81" t="n">
-        <v>0.111019</v>
+        <v>0.110857</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105021</v>
+        <v>0.104971</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112303</v>
+        <v>0.11248</v>
       </c>
       <c r="C82" t="n">
-        <v>0.112144</v>
+        <v>0.112152</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105342</v>
+        <v>0.105374</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115036</v>
+        <v>0.115101</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113817</v>
+        <v>0.113871</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105958</v>
+        <v>0.105951</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118511</v>
+        <v>0.118564</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115829</v>
+        <v>0.115989</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106777</v>
+        <v>0.106634</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122654</v>
+        <v>0.12274</v>
       </c>
       <c r="C85" t="n">
-        <v>0.118384</v>
+        <v>0.118462</v>
       </c>
       <c r="D85" t="n">
-        <v>0.10745</v>
+        <v>0.107797</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.127917</v>
+        <v>0.128508</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121712</v>
+        <v>0.121702</v>
       </c>
       <c r="D86" t="n">
-        <v>0.108531</v>
+        <v>0.108724</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134987</v>
+        <v>0.135239</v>
       </c>
       <c r="C87" t="n">
-        <v>0.126374</v>
+        <v>0.12633</v>
       </c>
       <c r="D87" t="n">
-        <v>0.110146</v>
+        <v>0.109858</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144397</v>
+        <v>0.144258</v>
       </c>
       <c r="C88" t="n">
-        <v>0.13304</v>
+        <v>0.133003</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111801</v>
+        <v>0.111779</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156169</v>
+        <v>0.156271</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142306</v>
+        <v>0.142247</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114891</v>
+        <v>0.114664</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172399</v>
+        <v>0.172871</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154577</v>
+        <v>0.15457</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118454</v>
+        <v>0.118316</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194494</v>
+        <v>0.194952</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172261</v>
+        <v>0.172016</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124007</v>
+        <v>0.124241</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224949</v>
+        <v>0.224776</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197543</v>
+        <v>0.197479</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133095</v>
+        <v>0.133239</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.267514</v>
+        <v>0.265879</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236309</v>
+        <v>0.23655</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148006</v>
+        <v>0.14798</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.321466</v>
+        <v>0.325178</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297876</v>
+        <v>0.298228</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104633</v>
+        <v>0.104693</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110483</v>
+        <v>0.110384</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111269</v>
+        <v>0.111321</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105148</v>
+        <v>0.105671</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112299</v>
+        <v>0.112443</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11273</v>
+        <v>0.112819</v>
       </c>
       <c r="D96" t="n">
-        <v>0.105688</v>
+        <v>0.105845</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114925</v>
+        <v>0.114999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.114351</v>
+        <v>0.114337</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106416</v>
+        <v>0.10639</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118124</v>
+        <v>0.118161</v>
       </c>
       <c r="C98" t="n">
-        <v>0.116561</v>
+        <v>0.116566</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107019</v>
+        <v>0.106956</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122347</v>
+        <v>0.122183</v>
       </c>
       <c r="C99" t="n">
-        <v>0.119258</v>
+        <v>0.119195</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108025</v>
+        <v>0.108229</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.127619</v>
+        <v>0.12732</v>
       </c>
       <c r="C100" t="n">
-        <v>0.122676</v>
+        <v>0.122675</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109305</v>
+        <v>0.109135</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134249</v>
+        <v>0.134317</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127286</v>
+        <v>0.127134</v>
       </c>
       <c r="D101" t="n">
-        <v>0.110658</v>
+        <v>0.110495</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143209</v>
+        <v>0.142951</v>
       </c>
       <c r="C102" t="n">
-        <v>0.133417</v>
+        <v>0.133411</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112348</v>
+        <v>0.112279</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154619</v>
+        <v>0.154355</v>
       </c>
       <c r="C103" t="n">
-        <v>0.142171</v>
+        <v>0.141833</v>
       </c>
       <c r="D103" t="n">
-        <v>0.114935</v>
+        <v>0.11505</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1697</v>
+        <v>0.169699</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153526</v>
+        <v>0.153603</v>
       </c>
       <c r="D104" t="n">
-        <v>0.118721</v>
+        <v>0.118943</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190634</v>
+        <v>0.190567</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169901</v>
+        <v>0.169721</v>
       </c>
       <c r="D105" t="n">
-        <v>0.124263</v>
+        <v>0.123976</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.219379</v>
+        <v>0.218466</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19303</v>
+        <v>0.193</v>
       </c>
       <c r="D106" t="n">
-        <v>0.13277</v>
+        <v>0.132665</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25827</v>
+        <v>0.25781</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229611</v>
+        <v>0.229623</v>
       </c>
       <c r="D107" t="n">
-        <v>0.146211</v>
+        <v>0.146122</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.326035</v>
+        <v>0.310937</v>
       </c>
       <c r="C108" t="n">
-        <v>0.284998</v>
+        <v>0.285538</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107806</v>
+        <v>0.10735</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.382705</v>
+        <v>0.381278</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374091</v>
+        <v>0.374754</v>
       </c>
       <c r="D109" t="n">
-        <v>0.10848</v>
+        <v>0.108087</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114668</v>
+        <v>0.114625</v>
       </c>
       <c r="C110" t="n">
-        <v>0.117202</v>
+        <v>0.117031</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109248</v>
+        <v>0.108818</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117323</v>
+        <v>0.117012</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119873</v>
+        <v>0.119746</v>
       </c>
       <c r="D111" t="n">
-        <v>0.110042</v>
+        <v>0.109822</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120547</v>
+        <v>0.120471</v>
       </c>
       <c r="C112" t="n">
-        <v>0.124686</v>
+        <v>0.12409</v>
       </c>
       <c r="D112" t="n">
-        <v>0.110959</v>
+        <v>0.110889</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124448</v>
+        <v>0.124735</v>
       </c>
       <c r="C113" t="n">
-        <v>0.130784</v>
+        <v>0.130229</v>
       </c>
       <c r="D113" t="n">
-        <v>0.112434</v>
+        <v>0.111959</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.130099</v>
+        <v>0.129923</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138674</v>
+        <v>0.13861</v>
       </c>
       <c r="D114" t="n">
-        <v>0.113454</v>
+        <v>0.113598</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136979</v>
+        <v>0.136581</v>
       </c>
       <c r="C115" t="n">
-        <v>0.148292</v>
+        <v>0.147578</v>
       </c>
       <c r="D115" t="n">
-        <v>0.115476</v>
+        <v>0.115538</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.145136</v>
+        <v>0.145184</v>
       </c>
       <c r="C116" t="n">
-        <v>0.158744</v>
+        <v>0.158242</v>
       </c>
       <c r="D116" t="n">
-        <v>0.118067</v>
+        <v>0.117867</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.157092</v>
+        <v>0.157033</v>
       </c>
       <c r="C117" t="n">
-        <v>0.169831</v>
+        <v>0.169767</v>
       </c>
       <c r="D117" t="n">
-        <v>0.122756</v>
+        <v>0.123049</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.174799</v>
+        <v>0.174881</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182845</v>
+        <v>0.1827</v>
       </c>
       <c r="D118" t="n">
-        <v>0.130216</v>
+        <v>0.129773</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.200803</v>
+        <v>0.201458</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199557</v>
+        <v>0.199329</v>
       </c>
       <c r="D119" t="n">
-        <v>0.140486</v>
+        <v>0.139953</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233595</v>
+        <v>0.233359</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221842</v>
+        <v>0.221831</v>
       </c>
       <c r="D120" t="n">
-        <v>0.152745</v>
+        <v>0.153013</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.272995</v>
+        <v>0.272578</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253345</v>
+        <v>0.253233</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168644</v>
+        <v>0.168191</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.323898</v>
+        <v>0.326386</v>
       </c>
       <c r="C122" t="n">
-        <v>0.301688</v>
+        <v>0.301867</v>
       </c>
       <c r="D122" t="n">
-        <v>0.192061</v>
+        <v>0.191594</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.399987</v>
+        <v>0.394551</v>
       </c>
       <c r="C123" t="n">
-        <v>0.379419</v>
+        <v>0.379914</v>
       </c>
       <c r="D123" t="n">
-        <v>0.130486</v>
+        <v>0.130348</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134769</v>
+        <v>0.134422</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160174</v>
+        <v>0.169558</v>
       </c>
       <c r="D124" t="n">
-        <v>0.136381</v>
+        <v>0.133407</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141892</v>
+        <v>0.141355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167082</v>
+        <v>0.172544</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141575</v>
+        <v>0.141045</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.147866</v>
+        <v>0.147862</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172687</v>
+        <v>0.175954</v>
       </c>
       <c r="D126" t="n">
-        <v>0.144097</v>
+        <v>0.144548</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15395</v>
+        <v>0.153748</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175415</v>
+        <v>0.181573</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146536</v>
+        <v>0.145229</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.160026</v>
+        <v>0.159914</v>
       </c>
       <c r="C128" t="n">
-        <v>0.180585</v>
+        <v>0.179766</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148252</v>
+        <v>0.149304</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.166707</v>
+        <v>0.167238</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185809</v>
+        <v>0.184965</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151546</v>
+        <v>0.158964</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175363</v>
+        <v>0.175707</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1924</v>
+        <v>0.222794</v>
       </c>
       <c r="D130" t="n">
-        <v>0.154466</v>
+        <v>0.1549</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186851</v>
+        <v>0.186919</v>
       </c>
       <c r="C131" t="n">
-        <v>0.198857</v>
+        <v>0.20524</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15731</v>
+        <v>0.157755</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200873</v>
+        <v>0.200928</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20916</v>
+        <v>0.214041</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162163</v>
+        <v>0.162267</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.222877</v>
+        <v>0.221127</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224308</v>
+        <v>0.227784</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17208</v>
+        <v>0.167197</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247721</v>
+        <v>0.247804</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244213</v>
+        <v>0.247929</v>
       </c>
       <c r="D134" t="n">
-        <v>0.180143</v>
+        <v>0.180885</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.28211</v>
+        <v>0.28101</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27119</v>
+        <v>0.271357</v>
       </c>
       <c r="D135" t="n">
-        <v>0.192581</v>
+        <v>0.191709</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.32922</v>
+        <v>0.329409</v>
       </c>
       <c r="C136" t="n">
-        <v>0.314015</v>
+        <v>0.313939</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211318</v>
+        <v>0.210307</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.392466</v>
+        <v>0.392659</v>
       </c>
       <c r="C137" t="n">
-        <v>0.380245</v>
+        <v>0.383183</v>
       </c>
       <c r="D137" t="n">
-        <v>0.198635</v>
+        <v>0.199699</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.194167</v>
+        <v>0.196057</v>
       </c>
       <c r="C138" t="n">
-        <v>0.225055</v>
+        <v>0.223354</v>
       </c>
       <c r="D138" t="n">
-        <v>0.203142</v>
+        <v>0.201547</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.197866</v>
+        <v>0.200404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.227954</v>
+        <v>0.226629</v>
       </c>
       <c r="D139" t="n">
-        <v>0.203533</v>
+        <v>0.203439</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.202577</v>
+        <v>0.203783</v>
       </c>
       <c r="C140" t="n">
-        <v>0.231206</v>
+        <v>0.230217</v>
       </c>
       <c r="D140" t="n">
-        <v>0.206003</v>
+        <v>0.206144</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.207566</v>
+        <v>0.208555</v>
       </c>
       <c r="C141" t="n">
-        <v>0.235331</v>
+        <v>0.234649</v>
       </c>
       <c r="D141" t="n">
-        <v>0.20848</v>
+        <v>0.208472</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.21277</v>
+        <v>0.212911</v>
       </c>
       <c r="C142" t="n">
-        <v>0.239242</v>
+        <v>0.238495</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211307</v>
+        <v>0.212329</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219286</v>
+        <v>0.223257</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244285</v>
+        <v>0.247639</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214464</v>
+        <v>0.217213</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.130377</v>
+        <v>0.12904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127595</v>
+        <v>0.126975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107843</v>
+        <v>0.107808</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.137235</v>
+        <v>0.13779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131283</v>
+        <v>0.131275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109919</v>
+        <v>0.109925</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.146541</v>
+        <v>0.145285</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140126</v>
+        <v>0.140152</v>
       </c>
       <c r="D4" t="n">
-        <v>0.114128</v>
+        <v>0.113457</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.161277</v>
+        <v>0.162097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.151387</v>
+        <v>0.151451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.117051</v>
+        <v>0.117102</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17657</v>
+        <v>0.18343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.170338</v>
+        <v>0.169164</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124503</v>
+        <v>0.124511</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21287</v>
+        <v>0.21728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198801</v>
+        <v>0.199232</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134597</v>
+        <v>0.134495</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.264503</v>
+        <v>0.260274</v>
       </c>
       <c r="C8" t="n">
-        <v>0.238191</v>
+        <v>0.234736</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148167</v>
+        <v>0.148001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.311981</v>
+        <v>0.320695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.30618</v>
+        <v>0.310804</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101059</v>
+        <v>0.101064</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106173</v>
+        <v>0.106693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109322</v>
+        <v>0.109296</v>
       </c>
       <c r="D10" t="n">
-        <v>0.101793</v>
+        <v>0.101786</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.109523</v>
+        <v>0.109156</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110401</v>
+        <v>0.110393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.102182</v>
+        <v>0.102188</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.111533</v>
+        <v>0.112003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111587</v>
+        <v>0.111558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102764</v>
+        <v>0.102713</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114993</v>
+        <v>0.114745</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113696</v>
+        <v>0.113706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.103349</v>
+        <v>0.103368</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.118499</v>
+        <v>0.118776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117656</v>
+        <v>0.117572</v>
       </c>
       <c r="D14" t="n">
-        <v>0.104526</v>
+        <v>0.104552</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1231</v>
+        <v>0.12351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.120798</v>
+        <v>0.12078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105525</v>
+        <v>0.105548</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.129649</v>
+        <v>0.12968</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125772</v>
+        <v>0.125792</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106857</v>
+        <v>0.106885</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.138732</v>
+        <v>0.138743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131663</v>
+        <v>0.13162</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108756</v>
+        <v>0.108752</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.148673</v>
+        <v>0.148722</v>
       </c>
       <c r="C18" t="n">
-        <v>0.13808</v>
+        <v>0.138083</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110881</v>
+        <v>0.110875</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.164599</v>
+        <v>0.163865</v>
       </c>
       <c r="C19" t="n">
-        <v>0.148033</v>
+        <v>0.148066</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114794</v>
+        <v>0.114782</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.183055</v>
+        <v>0.185898</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165335</v>
+        <v>0.165666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119774</v>
+        <v>0.119746</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.210458</v>
+        <v>0.21399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.186942</v>
+        <v>0.187008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.126824</v>
+        <v>0.126792</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247651</v>
+        <v>0.253565</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218938</v>
+        <v>0.218691</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139758</v>
+        <v>0.139605</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.305624</v>
+        <v>0.305647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.281617</v>
+        <v>0.281565</v>
       </c>
       <c r="D23" t="n">
-        <v>0.100612</v>
+        <v>0.100654</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105918</v>
+        <v>0.106006</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107469</v>
+        <v>0.107434</v>
       </c>
       <c r="D24" t="n">
-        <v>0.10091</v>
+        <v>0.100934</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107163</v>
+        <v>0.107403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1087</v>
+        <v>0.108689</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10145</v>
+        <v>0.101493</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109828</v>
+        <v>0.109636</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109962</v>
+        <v>0.109885</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101843</v>
+        <v>0.101856</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112086</v>
+        <v>0.112464</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111948</v>
+        <v>0.111931</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102418</v>
+        <v>0.102391</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115652</v>
+        <v>0.116581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114055</v>
+        <v>0.114132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103178</v>
+        <v>0.103197</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.121245</v>
+        <v>0.120798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117809</v>
+        <v>0.117886</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104284</v>
+        <v>0.104292</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126633</v>
+        <v>0.126629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121461</v>
+        <v>0.121449</v>
       </c>
       <c r="D30" t="n">
-        <v>0.105558</v>
+        <v>0.105574</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134217</v>
+        <v>0.134767</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12636</v>
+        <v>0.126346</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107041</v>
+        <v>0.107027</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143885</v>
+        <v>0.144692</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133707</v>
+        <v>0.133744</v>
       </c>
       <c r="D32" t="n">
-        <v>0.10937</v>
+        <v>0.109348</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.157932</v>
+        <v>0.158732</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144641</v>
+        <v>0.144674</v>
       </c>
       <c r="D33" t="n">
-        <v>0.112741</v>
+        <v>0.112749</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.179405</v>
+        <v>0.178235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.158568</v>
+        <v>0.15836</v>
       </c>
       <c r="D34" t="n">
-        <v>0.116927</v>
+        <v>0.116931</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.204531</v>
+        <v>0.206316</v>
       </c>
       <c r="C35" t="n">
-        <v>0.179057</v>
+        <v>0.178687</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123164</v>
+        <v>0.123205</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.237933</v>
+        <v>0.238433</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211016</v>
+        <v>0.211163</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134475</v>
+        <v>0.134454</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28581</v>
+        <v>0.283004</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261955</v>
+        <v>0.262257</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101085</v>
+        <v>0.101005</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104883</v>
+        <v>0.104365</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107829</v>
+        <v>0.107828</v>
       </c>
       <c r="D38" t="n">
-        <v>0.101391</v>
+        <v>0.101368</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106555</v>
+        <v>0.106035</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10919</v>
+        <v>0.109202</v>
       </c>
       <c r="D39" t="n">
-        <v>0.101974</v>
+        <v>0.101968</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108716</v>
+        <v>0.108205</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110534</v>
+        <v>0.110512</v>
       </c>
       <c r="D40" t="n">
-        <v>0.102453</v>
+        <v>0.102467</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111562</v>
+        <v>0.110878</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112118</v>
+        <v>0.112065</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103127</v>
+        <v>0.103079</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114896</v>
+        <v>0.114295</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114012</v>
+        <v>0.114024</v>
       </c>
       <c r="D42" t="n">
-        <v>0.103925</v>
+        <v>0.103817</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119314</v>
+        <v>0.119038</v>
       </c>
       <c r="C43" t="n">
-        <v>0.116699</v>
+        <v>0.116702</v>
       </c>
       <c r="D43" t="n">
-        <v>0.104554</v>
+        <v>0.104557</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125181</v>
+        <v>0.124844</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120779</v>
+        <v>0.120748</v>
       </c>
       <c r="D44" t="n">
-        <v>0.105827</v>
+        <v>0.105849</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132591</v>
+        <v>0.132324</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126111</v>
+        <v>0.126037</v>
       </c>
       <c r="D45" t="n">
-        <v>0.107558</v>
+        <v>0.107499</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.143367</v>
+        <v>0.142392</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13311</v>
+        <v>0.13314</v>
       </c>
       <c r="D46" t="n">
-        <v>0.109904</v>
+        <v>0.109862</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.157648</v>
+        <v>0.156398</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143225</v>
+        <v>0.143394</v>
       </c>
       <c r="D47" t="n">
-        <v>0.112858</v>
+        <v>0.112892</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175333</v>
+        <v>0.174277</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157561</v>
+        <v>0.157566</v>
       </c>
       <c r="D48" t="n">
-        <v>0.117081</v>
+        <v>0.117074</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.201183</v>
+        <v>0.199932</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177374</v>
+        <v>0.177361</v>
       </c>
       <c r="D49" t="n">
-        <v>0.123154</v>
+        <v>0.123246</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233819</v>
+        <v>0.242664</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211492</v>
+        <v>0.211538</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134341</v>
+        <v>0.134496</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.291479</v>
+        <v>0.285613</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255597</v>
+        <v>0.255764</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103069</v>
+        <v>0.103071</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.327915</v>
+        <v>0.341732</v>
       </c>
       <c r="C52" t="n">
-        <v>0.332122</v>
+        <v>0.333854</v>
       </c>
       <c r="D52" t="n">
-        <v>0.103532</v>
+        <v>0.103526</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108497</v>
+        <v>0.108719</v>
       </c>
       <c r="C53" t="n">
-        <v>0.110474</v>
+        <v>0.110542</v>
       </c>
       <c r="D53" t="n">
-        <v>0.103954</v>
+        <v>0.104027</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110762</v>
+        <v>0.110893</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111924</v>
+        <v>0.111858</v>
       </c>
       <c r="D54" t="n">
-        <v>0.104561</v>
+        <v>0.104485</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113381</v>
+        <v>0.113607</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113565</v>
+        <v>0.113672</v>
       </c>
       <c r="D55" t="n">
-        <v>0.105211</v>
+        <v>0.10511</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117158</v>
+        <v>0.117083</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115511</v>
+        <v>0.115634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.105792</v>
+        <v>0.105901</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12162</v>
+        <v>0.12158</v>
       </c>
       <c r="C57" t="n">
-        <v>0.118389</v>
+        <v>0.118481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1068</v>
+        <v>0.106789</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127412</v>
+        <v>0.127354</v>
       </c>
       <c r="C58" t="n">
-        <v>0.122428</v>
+        <v>0.122561</v>
       </c>
       <c r="D58" t="n">
-        <v>0.107869</v>
+        <v>0.108087</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134931</v>
+        <v>0.134739</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127815</v>
+        <v>0.127868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.109334</v>
+        <v>0.10957</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.145217</v>
+        <v>0.145057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134286</v>
+        <v>0.134501</v>
       </c>
       <c r="D60" t="n">
-        <v>0.111411</v>
+        <v>0.111562</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.15806</v>
+        <v>0.158273</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143751</v>
+        <v>0.143975</v>
       </c>
       <c r="D61" t="n">
-        <v>0.114107</v>
+        <v>0.114275</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175872</v>
+        <v>0.177318</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156957</v>
+        <v>0.157281</v>
       </c>
       <c r="D62" t="n">
-        <v>0.118154</v>
+        <v>0.118271</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.200921</v>
+        <v>0.201652</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176436</v>
+        <v>0.176572</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12502</v>
+        <v>0.125067</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.234541</v>
+        <v>0.233849</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206425</v>
+        <v>0.206241</v>
       </c>
       <c r="D64" t="n">
-        <v>0.136071</v>
+        <v>0.135732</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279551</v>
+        <v>0.279484</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252489</v>
+        <v>0.252513</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154395</v>
+        <v>0.154366</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.341085</v>
+        <v>0.354655</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324556</v>
+        <v>0.324484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.104319</v>
+        <v>0.104362</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109548</v>
+        <v>0.10966</v>
       </c>
       <c r="C67" t="n">
-        <v>0.110959</v>
+        <v>0.111249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105142</v>
+        <v>0.104826</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.112186</v>
+        <v>0.11202</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112635</v>
+        <v>0.112264</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105294</v>
+        <v>0.105264</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114318</v>
+        <v>0.114529</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114193</v>
+        <v>0.114313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105837</v>
+        <v>0.105955</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.118191</v>
+        <v>0.117902</v>
       </c>
       <c r="C70" t="n">
-        <v>0.116219</v>
+        <v>0.11628</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106581</v>
+        <v>0.106551</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122364</v>
+        <v>0.122221</v>
       </c>
       <c r="C71" t="n">
         <v>0.119035</v>
       </c>
       <c r="D71" t="n">
-        <v>0.107447</v>
+        <v>0.107405</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.127724</v>
+        <v>0.128186</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122812</v>
+        <v>0.122738</v>
       </c>
       <c r="D72" t="n">
-        <v>0.108571</v>
+        <v>0.108727</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.134974</v>
+        <v>0.135218</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1277</v>
+        <v>0.127855</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110123</v>
+        <v>0.110136</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.14534</v>
+        <v>0.145429</v>
       </c>
       <c r="C74" t="n">
-        <v>0.134527</v>
+        <v>0.134787</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112128</v>
+        <v>0.112201</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.157401</v>
+        <v>0.157695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.14458</v>
+        <v>0.144519</v>
       </c>
       <c r="D75" t="n">
-        <v>0.114951</v>
+        <v>0.115047</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.174837</v>
+        <v>0.175297</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157983</v>
+        <v>0.158172</v>
       </c>
       <c r="D76" t="n">
-        <v>0.119447</v>
+        <v>0.119219</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197276</v>
+        <v>0.19812</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176877</v>
+        <v>0.176861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.12552</v>
+        <v>0.125719</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.231237</v>
+        <v>0.230646</v>
       </c>
       <c r="C78" t="n">
-        <v>0.204657</v>
+        <v>0.20462</v>
       </c>
       <c r="D78" t="n">
-        <v>0.135457</v>
+        <v>0.135611</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.273029</v>
+        <v>0.273505</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248022</v>
+        <v>0.248247</v>
       </c>
       <c r="D79" t="n">
-        <v>0.152746</v>
+        <v>0.152908</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.349179</v>
+        <v>0.347519</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31415</v>
+        <v>0.31431</v>
       </c>
       <c r="D80" t="n">
-        <v>0.104648</v>
+        <v>0.104636</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110387</v>
+        <v>0.110331</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110857</v>
+        <v>0.110982</v>
       </c>
       <c r="D81" t="n">
-        <v>0.104971</v>
+        <v>0.10509</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.11248</v>
+        <v>0.112176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.112152</v>
+        <v>0.112084</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105374</v>
+        <v>0.105541</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.115101</v>
+        <v>0.114663</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113871</v>
+        <v>0.113564</v>
       </c>
       <c r="D83" t="n">
-        <v>0.105951</v>
+        <v>0.10579</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.118564</v>
+        <v>0.117951</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115989</v>
+        <v>0.115695</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106634</v>
+        <v>0.106734</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.12274</v>
+        <v>0.122307</v>
       </c>
       <c r="C85" t="n">
-        <v>0.118462</v>
+        <v>0.118323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107797</v>
+        <v>0.107356</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.128508</v>
+        <v>0.12808</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121702</v>
+        <v>0.121546</v>
       </c>
       <c r="D86" t="n">
-        <v>0.108724</v>
+        <v>0.108624</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135239</v>
+        <v>0.135057</v>
       </c>
       <c r="C87" t="n">
-        <v>0.12633</v>
+        <v>0.126227</v>
       </c>
       <c r="D87" t="n">
-        <v>0.109858</v>
+        <v>0.109754</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144258</v>
+        <v>0.144122</v>
       </c>
       <c r="C88" t="n">
-        <v>0.133003</v>
+        <v>0.132775</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111779</v>
+        <v>0.111916</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156271</v>
+        <v>0.156558</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142247</v>
+        <v>0.142073</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114664</v>
+        <v>0.114768</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.172871</v>
+        <v>0.173033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.15457</v>
+        <v>0.154562</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118316</v>
+        <v>0.118516</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194952</v>
+        <v>0.194747</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172016</v>
+        <v>0.172103</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124241</v>
+        <v>0.124168</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224776</v>
+        <v>0.224717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197479</v>
+        <v>0.197972</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133239</v>
+        <v>0.133342</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.265879</v>
+        <v>0.266384</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23655</v>
+        <v>0.236739</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14798</v>
+        <v>0.147839</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.325178</v>
+        <v>0.321663</v>
       </c>
       <c r="C94" t="n">
-        <v>0.298228</v>
+        <v>0.297986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104693</v>
+        <v>0.104674</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110384</v>
+        <v>0.110515</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111321</v>
+        <v>0.11131</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105671</v>
+        <v>0.105139</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112443</v>
+        <v>0.112618</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112819</v>
+        <v>0.112961</v>
       </c>
       <c r="D96" t="n">
-        <v>0.105845</v>
+        <v>0.105616</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.114999</v>
+        <v>0.1151</v>
       </c>
       <c r="C97" t="n">
-        <v>0.114337</v>
+        <v>0.114468</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10639</v>
+        <v>0.106516</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118161</v>
+        <v>0.118329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.116566</v>
+        <v>0.116414</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106956</v>
+        <v>0.107043</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122183</v>
+        <v>0.122335</v>
       </c>
       <c r="C99" t="n">
-        <v>0.119195</v>
+        <v>0.119206</v>
       </c>
       <c r="D99" t="n">
-        <v>0.108229</v>
+        <v>0.107818</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.12732</v>
+        <v>0.1275</v>
       </c>
       <c r="C100" t="n">
-        <v>0.122675</v>
+        <v>0.122487</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109135</v>
+        <v>0.109179</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134317</v>
+        <v>0.13417</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127134</v>
+        <v>0.127184</v>
       </c>
       <c r="D101" t="n">
-        <v>0.110495</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.142951</v>
+        <v>0.143121</v>
       </c>
       <c r="C102" t="n">
-        <v>0.133411</v>
+        <v>0.133233</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112279</v>
+        <v>0.112268</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154355</v>
+        <v>0.154796</v>
       </c>
       <c r="C103" t="n">
-        <v>0.141833</v>
+        <v>0.142001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.11505</v>
+        <v>0.11525</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169699</v>
+        <v>0.170182</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153603</v>
+        <v>0.153595</v>
       </c>
       <c r="D104" t="n">
-        <v>0.118943</v>
+        <v>0.118788</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190567</v>
+        <v>0.190695</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169721</v>
+        <v>0.169717</v>
       </c>
       <c r="D105" t="n">
-        <v>0.123976</v>
+        <v>0.124243</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.218466</v>
+        <v>0.218711</v>
       </c>
       <c r="C106" t="n">
-        <v>0.193</v>
+        <v>0.19312</v>
       </c>
       <c r="D106" t="n">
-        <v>0.132665</v>
+        <v>0.132667</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25781</v>
+        <v>0.260401</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229623</v>
+        <v>0.229527</v>
       </c>
       <c r="D107" t="n">
-        <v>0.146122</v>
+        <v>0.146193</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.310937</v>
+        <v>0.31473</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285538</v>
+        <v>0.285171</v>
       </c>
       <c r="D108" t="n">
-        <v>0.10735</v>
+        <v>0.107436</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.381278</v>
+        <v>0.385404</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374754</v>
+        <v>0.374719</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108087</v>
+        <v>0.108143</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114625</v>
+        <v>0.114636</v>
       </c>
       <c r="C110" t="n">
-        <v>0.117031</v>
+        <v>0.117035</v>
       </c>
       <c r="D110" t="n">
-        <v>0.108818</v>
+        <v>0.109126</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117012</v>
+        <v>0.117243</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119746</v>
+        <v>0.120112</v>
       </c>
       <c r="D111" t="n">
-        <v>0.109822</v>
+        <v>0.110103</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120471</v>
+        <v>0.120358</v>
       </c>
       <c r="C112" t="n">
-        <v>0.12409</v>
+        <v>0.124511</v>
       </c>
       <c r="D112" t="n">
-        <v>0.110889</v>
+        <v>0.110891</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124735</v>
+        <v>0.124592</v>
       </c>
       <c r="C113" t="n">
-        <v>0.130229</v>
+        <v>0.1303</v>
       </c>
       <c r="D113" t="n">
-        <v>0.111959</v>
+        <v>0.112157</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.129923</v>
+        <v>0.129826</v>
       </c>
       <c r="C114" t="n">
-        <v>0.13861</v>
+        <v>0.138516</v>
       </c>
       <c r="D114" t="n">
-        <v>0.113598</v>
+        <v>0.113948</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136581</v>
+        <v>0.136356</v>
       </c>
       <c r="C115" t="n">
-        <v>0.147578</v>
+        <v>0.148357</v>
       </c>
       <c r="D115" t="n">
-        <v>0.115538</v>
+        <v>0.115158</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.145184</v>
+        <v>0.144971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.158242</v>
+        <v>0.15831</v>
       </c>
       <c r="D116" t="n">
-        <v>0.117867</v>
+        <v>0.117978</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.157033</v>
+        <v>0.15703</v>
       </c>
       <c r="C117" t="n">
-        <v>0.169767</v>
+        <v>0.170373</v>
       </c>
       <c r="D117" t="n">
-        <v>0.123049</v>
+        <v>0.122183</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.174881</v>
+        <v>0.174957</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1827</v>
+        <v>0.182835</v>
       </c>
       <c r="D118" t="n">
-        <v>0.129773</v>
+        <v>0.130078</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201458</v>
+        <v>0.201187</v>
       </c>
       <c r="C119" t="n">
-        <v>0.199329</v>
+        <v>0.19918</v>
       </c>
       <c r="D119" t="n">
-        <v>0.139953</v>
+        <v>0.140965</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.233359</v>
+        <v>0.232813</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221831</v>
+        <v>0.221905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.153013</v>
+        <v>0.15274</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.272578</v>
+        <v>0.272603</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253233</v>
+        <v>0.253209</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168191</v>
+        <v>0.168465</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.326386</v>
+        <v>0.327654</v>
       </c>
       <c r="C122" t="n">
-        <v>0.301867</v>
+        <v>0.301964</v>
       </c>
       <c r="D122" t="n">
-        <v>0.191594</v>
+        <v>0.191536</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.394551</v>
+        <v>0.398825</v>
       </c>
       <c r="C123" t="n">
-        <v>0.379914</v>
+        <v>0.37957</v>
       </c>
       <c r="D123" t="n">
-        <v>0.130348</v>
+        <v>0.130113</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134422</v>
+        <v>0.134134</v>
       </c>
       <c r="C124" t="n">
-        <v>0.169558</v>
+        <v>0.160181</v>
       </c>
       <c r="D124" t="n">
-        <v>0.133407</v>
+        <v>0.133782</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141355</v>
+        <v>0.141585</v>
       </c>
       <c r="C125" t="n">
-        <v>0.172544</v>
+        <v>0.168895</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141045</v>
+        <v>0.137989</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.147862</v>
+        <v>0.147969</v>
       </c>
       <c r="C126" t="n">
-        <v>0.175954</v>
+        <v>0.170554</v>
       </c>
       <c r="D126" t="n">
-        <v>0.144548</v>
+        <v>0.142278</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.153748</v>
+        <v>0.153719</v>
       </c>
       <c r="C127" t="n">
-        <v>0.181573</v>
+        <v>0.175371</v>
       </c>
       <c r="D127" t="n">
-        <v>0.145229</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159914</v>
+        <v>0.159676</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179766</v>
+        <v>0.179195</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149304</v>
+        <v>0.148804</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.167238</v>
+        <v>0.166872</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184965</v>
+        <v>0.184743</v>
       </c>
       <c r="D129" t="n">
-        <v>0.158964</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175707</v>
+        <v>0.175948</v>
       </c>
       <c r="C130" t="n">
-        <v>0.222794</v>
+        <v>0.191975</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1549</v>
+        <v>0.153612</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186919</v>
+        <v>0.186879</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20524</v>
+        <v>0.199164</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157755</v>
+        <v>0.157943</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200928</v>
+        <v>0.200996</v>
       </c>
       <c r="C132" t="n">
-        <v>0.214041</v>
+        <v>0.20967</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162267</v>
+        <v>0.161291</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.221127</v>
+        <v>0.219894</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227784</v>
+        <v>0.223947</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167197</v>
+        <v>0.172881</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.247804</v>
+        <v>0.244872</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247929</v>
+        <v>0.24325</v>
       </c>
       <c r="D134" t="n">
-        <v>0.180885</v>
+        <v>0.18076</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.28101</v>
+        <v>0.279174</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271357</v>
+        <v>0.271907</v>
       </c>
       <c r="D135" t="n">
-        <v>0.191709</v>
+        <v>0.191825</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.329409</v>
+        <v>0.327015</v>
       </c>
       <c r="C136" t="n">
-        <v>0.313939</v>
+        <v>0.313457</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210307</v>
+        <v>0.210847</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.392659</v>
+        <v>0.391233</v>
       </c>
       <c r="C137" t="n">
-        <v>0.383183</v>
+        <v>0.379304</v>
       </c>
       <c r="D137" t="n">
-        <v>0.199699</v>
+        <v>0.198607</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.196057</v>
+        <v>0.198201</v>
       </c>
       <c r="C138" t="n">
-        <v>0.223354</v>
+        <v>0.222266</v>
       </c>
       <c r="D138" t="n">
-        <v>0.201547</v>
+        <v>0.201048</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.200404</v>
+        <v>0.201595</v>
       </c>
       <c r="C139" t="n">
-        <v>0.226629</v>
+        <v>0.2255</v>
       </c>
       <c r="D139" t="n">
-        <v>0.203439</v>
+        <v>0.203173</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.203783</v>
+        <v>0.205095</v>
       </c>
       <c r="C140" t="n">
-        <v>0.230217</v>
+        <v>0.229143</v>
       </c>
       <c r="D140" t="n">
-        <v>0.206144</v>
+        <v>0.205493</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.208555</v>
+        <v>0.209253</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234649</v>
+        <v>0.233077</v>
       </c>
       <c r="D141" t="n">
-        <v>0.208472</v>
+        <v>0.208194</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.212911</v>
+        <v>0.214343</v>
       </c>
       <c r="C142" t="n">
-        <v>0.238495</v>
+        <v>0.237817</v>
       </c>
       <c r="D142" t="n">
-        <v>0.212329</v>
+        <v>0.211145</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.223257</v>
+        <v>0.219855</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247639</v>
+        <v>0.242967</v>
       </c>
       <c r="D143" t="n">
-        <v>0.217213</v>
+        <v>0.214129</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.12904</v>
+        <v>0.08173039999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.126975</v>
+        <v>0.0773862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.107808</v>
+        <v>0.06761929999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.13779</v>
+        <v>0.0875672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131275</v>
+        <v>0.0814192</v>
       </c>
       <c r="D3" t="n">
-        <v>0.109925</v>
+        <v>0.0688449</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.145285</v>
+        <v>0.0950995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.140152</v>
+        <v>0.0893196</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113457</v>
+        <v>0.070616</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.162097</v>
+        <v>0.110269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.151451</v>
+        <v>0.106775</v>
       </c>
       <c r="D5" t="n">
-        <v>0.117102</v>
+        <v>0.0736135</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18343</v>
+        <v>0.125994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.169164</v>
+        <v>0.118553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.124511</v>
+        <v>0.07611179999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.21728</v>
+        <v>0.157085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199232</v>
+        <v>0.144432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.134495</v>
+        <v>0.0802243</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.260274</v>
+        <v>0.19947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.234736</v>
+        <v>0.193085</v>
       </c>
       <c r="D8" t="n">
-        <v>0.148001</v>
+        <v>0.0926607</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.320695</v>
+        <v>0.249545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.310804</v>
+        <v>0.241727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.101064</v>
+        <v>0.0627091</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.106693</v>
+        <v>0.0655333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.109296</v>
+        <v>0.0674696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.101786</v>
+        <v>0.06301030000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.109156</v>
+        <v>0.06749719999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.110393</v>
+        <v>0.06858069999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.102188</v>
+        <v>0.0632885</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.112003</v>
+        <v>0.0697451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.111558</v>
+        <v>0.0699707</v>
       </c>
       <c r="D12" t="n">
-        <v>0.102713</v>
+        <v>0.06393160000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114745</v>
+        <v>0.0720592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.113706</v>
+        <v>0.071668</v>
       </c>
       <c r="D13" t="n">
-        <v>0.103368</v>
+        <v>0.0643383</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.118776</v>
+        <v>0.075003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.117572</v>
+        <v>0.0741506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.104552</v>
+        <v>0.0653779</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12351</v>
+        <v>0.0787813</v>
       </c>
       <c r="C15" t="n">
-        <v>0.12078</v>
+        <v>0.076449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105548</v>
+        <v>0.06599380000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.12968</v>
+        <v>0.0855699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.125792</v>
+        <v>0.0797431</v>
       </c>
       <c r="D16" t="n">
-        <v>0.106885</v>
+        <v>0.0670458</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.138743</v>
+        <v>0.0910102</v>
       </c>
       <c r="C17" t="n">
-        <v>0.13162</v>
+        <v>0.085316</v>
       </c>
       <c r="D17" t="n">
-        <v>0.108752</v>
+        <v>0.068552</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.148722</v>
+        <v>0.102225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138083</v>
+        <v>0.09231880000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.110875</v>
+        <v>0.0706194</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.163865</v>
+        <v>0.11693</v>
       </c>
       <c r="C19" t="n">
-        <v>0.148066</v>
+        <v>0.103098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114782</v>
+        <v>0.0734981</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185898</v>
+        <v>0.137037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165666</v>
+        <v>0.120525</v>
       </c>
       <c r="D20" t="n">
-        <v>0.119746</v>
+        <v>0.07713250000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.21399</v>
+        <v>0.161331</v>
       </c>
       <c r="C21" t="n">
-        <v>0.187008</v>
+        <v>0.146238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.126792</v>
+        <v>0.083075</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.253565</v>
+        <v>0.197602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.218691</v>
+        <v>0.182838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.139605</v>
+        <v>0.0955597</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.305647</v>
+        <v>0.237485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.281565</v>
+        <v>0.24066</v>
       </c>
       <c r="D23" t="n">
-        <v>0.100654</v>
+        <v>0.0624354</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.106006</v>
+        <v>0.0650472</v>
       </c>
       <c r="C24" t="n">
-        <v>0.107434</v>
+        <v>0.0689432</v>
       </c>
       <c r="D24" t="n">
-        <v>0.100934</v>
+        <v>0.06273910000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107403</v>
+        <v>0.06661</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108689</v>
+        <v>0.06982240000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101493</v>
+        <v>0.0629585</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109636</v>
+        <v>0.0685731</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109885</v>
+        <v>0.0706077</v>
       </c>
       <c r="D26" t="n">
-        <v>0.101856</v>
+        <v>0.06335979999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112464</v>
+        <v>0.0708662</v>
       </c>
       <c r="C27" t="n">
-        <v>0.111931</v>
+        <v>0.0721759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102391</v>
+        <v>0.0639883</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.116581</v>
+        <v>0.07401969999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.114132</v>
+        <v>0.0744007</v>
       </c>
       <c r="D28" t="n">
-        <v>0.103197</v>
+        <v>0.0647983</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120798</v>
+        <v>0.07720050000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.117886</v>
+        <v>0.0773549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104292</v>
+        <v>0.06577669999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126629</v>
+        <v>0.08242090000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121449</v>
+        <v>0.0808227</v>
       </c>
       <c r="D30" t="n">
-        <v>0.105574</v>
+        <v>0.0667595</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134767</v>
+        <v>0.08910709999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.126346</v>
+        <v>0.0862974</v>
       </c>
       <c r="D31" t="n">
-        <v>0.107027</v>
+        <v>0.06815599999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.144692</v>
+        <v>0.09819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.133744</v>
+        <v>0.0928498</v>
       </c>
       <c r="D32" t="n">
-        <v>0.109348</v>
+        <v>0.0699883</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.158732</v>
+        <v>0.110734</v>
       </c>
       <c r="C33" t="n">
-        <v>0.144674</v>
+        <v>0.102851</v>
       </c>
       <c r="D33" t="n">
-        <v>0.112749</v>
+        <v>0.0724233</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.178235</v>
+        <v>0.127301</v>
       </c>
       <c r="C34" t="n">
-        <v>0.15836</v>
+        <v>0.116925</v>
       </c>
       <c r="D34" t="n">
-        <v>0.116931</v>
+        <v>0.07612149999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.206316</v>
+        <v>0.151198</v>
       </c>
       <c r="C35" t="n">
-        <v>0.178687</v>
+        <v>0.138151</v>
       </c>
       <c r="D35" t="n">
-        <v>0.123205</v>
+        <v>0.0822905</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238433</v>
+        <v>0.18736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.211163</v>
+        <v>0.170136</v>
       </c>
       <c r="D36" t="n">
-        <v>0.134454</v>
+        <v>0.0929093</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283004</v>
+        <v>0.223698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262257</v>
+        <v>0.221754</v>
       </c>
       <c r="D37" t="n">
-        <v>0.101005</v>
+        <v>0.0626998</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104365</v>
+        <v>0.0641998</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107828</v>
+        <v>0.0691353</v>
       </c>
       <c r="D38" t="n">
-        <v>0.101368</v>
+        <v>0.0631355</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106035</v>
+        <v>0.0656682</v>
       </c>
       <c r="C39" t="n">
-        <v>0.109202</v>
+        <v>0.0698307</v>
       </c>
       <c r="D39" t="n">
-        <v>0.101968</v>
+        <v>0.0635569</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108205</v>
+        <v>0.06721439999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110512</v>
+        <v>0.0710253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.102467</v>
+        <v>0.06399589999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.110878</v>
+        <v>0.0696266</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112065</v>
+        <v>0.0724427</v>
       </c>
       <c r="D41" t="n">
-        <v>0.103079</v>
+        <v>0.0644906</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114295</v>
+        <v>0.072492</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114024</v>
+        <v>0.0740895</v>
       </c>
       <c r="D42" t="n">
-        <v>0.103817</v>
+        <v>0.0650802</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119038</v>
+        <v>0.0762424</v>
       </c>
       <c r="C43" t="n">
-        <v>0.116702</v>
+        <v>0.07677630000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.104557</v>
+        <v>0.0659397</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124844</v>
+        <v>0.0815632</v>
       </c>
       <c r="C44" t="n">
-        <v>0.120748</v>
+        <v>0.0806106</v>
       </c>
       <c r="D44" t="n">
-        <v>0.105849</v>
+        <v>0.0668503</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132324</v>
+        <v>0.0883386</v>
       </c>
       <c r="C45" t="n">
-        <v>0.126037</v>
+        <v>0.085214</v>
       </c>
       <c r="D45" t="n">
-        <v>0.107499</v>
+        <v>0.0681189</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142392</v>
+        <v>0.0966423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.13314</v>
+        <v>0.0924879</v>
       </c>
       <c r="D46" t="n">
-        <v>0.109862</v>
+        <v>0.06999660000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156398</v>
+        <v>0.109624</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143394</v>
+        <v>0.102197</v>
       </c>
       <c r="D47" t="n">
-        <v>0.112892</v>
+        <v>0.0727138</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.174277</v>
+        <v>0.125138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.157566</v>
+        <v>0.115183</v>
       </c>
       <c r="D48" t="n">
-        <v>0.117074</v>
+        <v>0.0766667</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199932</v>
+        <v>0.146591</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177361</v>
+        <v>0.134257</v>
       </c>
       <c r="D49" t="n">
-        <v>0.123246</v>
+        <v>0.08267140000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.242664</v>
+        <v>0.176444</v>
       </c>
       <c r="C50" t="n">
-        <v>0.211538</v>
+        <v>0.163104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.134496</v>
+        <v>0.09198099999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.285613</v>
+        <v>0.216481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.255764</v>
+        <v>0.204089</v>
       </c>
       <c r="D51" t="n">
-        <v>0.103071</v>
+        <v>0.0633254</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.341732</v>
+        <v>0.2638</v>
       </c>
       <c r="C52" t="n">
-        <v>0.333854</v>
+        <v>0.276793</v>
       </c>
       <c r="D52" t="n">
-        <v>0.103526</v>
+        <v>0.06364789999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108719</v>
+        <v>0.0669515</v>
       </c>
       <c r="C53" t="n">
-        <v>0.110542</v>
+        <v>0.07021520000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.104027</v>
+        <v>0.063995</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110893</v>
+        <v>0.0685825</v>
       </c>
       <c r="C54" t="n">
-        <v>0.111858</v>
+        <v>0.0713307</v>
       </c>
       <c r="D54" t="n">
-        <v>0.104485</v>
+        <v>0.0644742</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113607</v>
+        <v>0.0708569</v>
       </c>
       <c r="C55" t="n">
-        <v>0.113672</v>
+        <v>0.07294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.10511</v>
+        <v>0.06500649999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117083</v>
+        <v>0.0740306</v>
       </c>
       <c r="C56" t="n">
-        <v>0.115634</v>
+        <v>0.0750523</v>
       </c>
       <c r="D56" t="n">
-        <v>0.105901</v>
+        <v>0.06566809999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12158</v>
+        <v>0.0784006</v>
       </c>
       <c r="C57" t="n">
-        <v>0.118481</v>
+        <v>0.077737</v>
       </c>
       <c r="D57" t="n">
-        <v>0.106789</v>
+        <v>0.0664178</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127354</v>
+        <v>0.0836185</v>
       </c>
       <c r="C58" t="n">
-        <v>0.122561</v>
+        <v>0.0811186</v>
       </c>
       <c r="D58" t="n">
-        <v>0.108087</v>
+        <v>0.0673977</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134739</v>
+        <v>0.0907911</v>
       </c>
       <c r="C59" t="n">
-        <v>0.127868</v>
+        <v>0.08600720000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.10957</v>
+        <v>0.0686539</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.145057</v>
+        <v>0.099842</v>
       </c>
       <c r="C60" t="n">
-        <v>0.134501</v>
+        <v>0.0932347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.111562</v>
+        <v>0.0706975</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.158273</v>
+        <v>0.111055</v>
       </c>
       <c r="C61" t="n">
-        <v>0.143975</v>
+        <v>0.102177</v>
       </c>
       <c r="D61" t="n">
-        <v>0.114275</v>
+        <v>0.0735088</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.177318</v>
+        <v>0.126987</v>
       </c>
       <c r="C62" t="n">
-        <v>0.157281</v>
+        <v>0.114973</v>
       </c>
       <c r="D62" t="n">
-        <v>0.118271</v>
+        <v>0.07734969999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.201652</v>
+        <v>0.146945</v>
       </c>
       <c r="C63" t="n">
-        <v>0.176572</v>
+        <v>0.132608</v>
       </c>
       <c r="D63" t="n">
-        <v>0.125067</v>
+        <v>0.08324579999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.233849</v>
+        <v>0.17533</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206241</v>
+        <v>0.15868</v>
       </c>
       <c r="D64" t="n">
-        <v>0.135732</v>
+        <v>0.092904</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279484</v>
+        <v>0.217802</v>
       </c>
       <c r="C65" t="n">
-        <v>0.252513</v>
+        <v>0.202794</v>
       </c>
       <c r="D65" t="n">
-        <v>0.154366</v>
+        <v>0.109536</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.354655</v>
+        <v>0.271473</v>
       </c>
       <c r="C66" t="n">
-        <v>0.324484</v>
+        <v>0.269018</v>
       </c>
       <c r="D66" t="n">
-        <v>0.104362</v>
+        <v>0.063429</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.10966</v>
+        <v>0.0680287</v>
       </c>
       <c r="C67" t="n">
-        <v>0.111249</v>
+        <v>0.0704085</v>
       </c>
       <c r="D67" t="n">
-        <v>0.104826</v>
+        <v>0.063829</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.11202</v>
+        <v>0.0698231</v>
       </c>
       <c r="C68" t="n">
-        <v>0.112264</v>
+        <v>0.0716798</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105264</v>
+        <v>0.0643801</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.114529</v>
+        <v>0.0721207</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114313</v>
+        <v>0.07310750000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105955</v>
+        <v>0.064912</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.117902</v>
+        <v>0.0751838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.11628</v>
+        <v>0.07503020000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106551</v>
+        <v>0.0654579</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.122221</v>
+        <v>0.079189</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119035</v>
+        <v>0.0776867</v>
       </c>
       <c r="D71" t="n">
-        <v>0.107405</v>
+        <v>0.066313</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.128186</v>
+        <v>0.0846025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.122738</v>
+        <v>0.081015</v>
       </c>
       <c r="D72" t="n">
-        <v>0.108727</v>
+        <v>0.0672552</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135218</v>
+        <v>0.0914223</v>
       </c>
       <c r="C73" t="n">
-        <v>0.127855</v>
+        <v>0.0854917</v>
       </c>
       <c r="D73" t="n">
-        <v>0.110136</v>
+        <v>0.0686372</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.145429</v>
+        <v>0.09982829999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.134787</v>
+        <v>0.0919078</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112201</v>
+        <v>0.0703555</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.157695</v>
+        <v>0.111505</v>
       </c>
       <c r="C75" t="n">
-        <v>0.144519</v>
+        <v>0.100151</v>
       </c>
       <c r="D75" t="n">
-        <v>0.115047</v>
+        <v>0.07277550000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175297</v>
+        <v>0.127306</v>
       </c>
       <c r="C76" t="n">
-        <v>0.158172</v>
+        <v>0.113061</v>
       </c>
       <c r="D76" t="n">
-        <v>0.119219</v>
+        <v>0.0765991</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19812</v>
+        <v>0.147003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.176861</v>
+        <v>0.130112</v>
       </c>
       <c r="D77" t="n">
-        <v>0.125719</v>
+        <v>0.08241610000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.230646</v>
+        <v>0.175054</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20462</v>
+        <v>0.154666</v>
       </c>
       <c r="D78" t="n">
-        <v>0.135611</v>
+        <v>0.09152349999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.273505</v>
+        <v>0.215173</v>
       </c>
       <c r="C79" t="n">
-        <v>0.248247</v>
+        <v>0.193031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.152908</v>
+        <v>0.106588</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.347519</v>
+        <v>0.274087</v>
       </c>
       <c r="C80" t="n">
-        <v>0.31431</v>
+        <v>0.255316</v>
       </c>
       <c r="D80" t="n">
-        <v>0.104636</v>
+        <v>0.06347369999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.110331</v>
+        <v>0.0682484</v>
       </c>
       <c r="C81" t="n">
-        <v>0.110982</v>
+        <v>0.07062980000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.10509</v>
+        <v>0.0638814</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112176</v>
+        <v>0.06995899999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.112084</v>
+        <v>0.0718139</v>
       </c>
       <c r="D82" t="n">
-        <v>0.105541</v>
+        <v>0.0643367</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.114663</v>
+        <v>0.0723024</v>
       </c>
       <c r="C83" t="n">
-        <v>0.113564</v>
+        <v>0.07329380000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.10579</v>
+        <v>0.064886</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.117951</v>
+        <v>0.0751995</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115695</v>
+        <v>0.0750897</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106734</v>
+        <v>0.0654786</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122307</v>
+        <v>0.0789591</v>
       </c>
       <c r="C85" t="n">
-        <v>0.118323</v>
+        <v>0.07740030000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.107356</v>
+        <v>0.06618880000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.12808</v>
+        <v>0.0839979</v>
       </c>
       <c r="C86" t="n">
-        <v>0.121546</v>
+        <v>0.08066280000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.108624</v>
+        <v>0.0670767</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135057</v>
+        <v>0.09040280000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.126227</v>
+        <v>0.08501309999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.109754</v>
+        <v>0.0683667</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144122</v>
+        <v>0.09871190000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.132775</v>
+        <v>0.09101239999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111916</v>
+        <v>0.07008490000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.156558</v>
+        <v>0.109676</v>
       </c>
       <c r="C89" t="n">
-        <v>0.142073</v>
+        <v>0.0993375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114768</v>
+        <v>0.0724634</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.173033</v>
+        <v>0.123816</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154562</v>
+        <v>0.110666</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118516</v>
+        <v>0.0760485</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194747</v>
+        <v>0.142543</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172103</v>
+        <v>0.126799</v>
       </c>
       <c r="D91" t="n">
-        <v>0.124168</v>
+        <v>0.08107250000000001</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.224717</v>
+        <v>0.168697</v>
       </c>
       <c r="C92" t="n">
-        <v>0.197972</v>
+        <v>0.149559</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133342</v>
+        <v>0.08928999999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.266384</v>
+        <v>0.205231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.236739</v>
+        <v>0.185476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.147839</v>
+        <v>0.103273</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.321663</v>
+        <v>0.256412</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297986</v>
+        <v>0.241511</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104674</v>
+        <v>0.0633085</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.110515</v>
+        <v>0.0681571</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11131</v>
+        <v>0.0705544</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105139</v>
+        <v>0.0637365</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.112618</v>
+        <v>0.07008259999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>0.112961</v>
+        <v>0.0719279</v>
       </c>
       <c r="D96" t="n">
-        <v>0.105616</v>
+        <v>0.06422750000000001</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1151</v>
+        <v>0.0723028</v>
       </c>
       <c r="C97" t="n">
-        <v>0.114468</v>
+        <v>0.0733326</v>
       </c>
       <c r="D97" t="n">
-        <v>0.106516</v>
+        <v>0.06488380000000001</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.118329</v>
+        <v>0.07521600000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.116414</v>
+        <v>0.075199</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107043</v>
+        <v>0.0653942</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.122335</v>
+        <v>0.0788124</v>
       </c>
       <c r="C99" t="n">
-        <v>0.119206</v>
+        <v>0.077574</v>
       </c>
       <c r="D99" t="n">
-        <v>0.107818</v>
+        <v>0.0662266</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1275</v>
+        <v>0.0836394</v>
       </c>
       <c r="C100" t="n">
-        <v>0.122487</v>
+        <v>0.08086790000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109179</v>
+        <v>0.06712120000000001</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13417</v>
+        <v>0.0896749</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127184</v>
+        <v>0.0852284</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1104</v>
+        <v>0.0686112</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.143121</v>
+        <v>0.0975558</v>
       </c>
       <c r="C102" t="n">
-        <v>0.133233</v>
+        <v>0.09076869999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112268</v>
+        <v>0.0702282</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.154796</v>
+        <v>0.107929</v>
       </c>
       <c r="C103" t="n">
-        <v>0.142001</v>
+        <v>0.09875109999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>0.11525</v>
+        <v>0.0726634</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.170182</v>
+        <v>0.121456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.153595</v>
+        <v>0.109204</v>
       </c>
       <c r="D104" t="n">
-        <v>0.118788</v>
+        <v>0.0761662</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190695</v>
+        <v>0.13958</v>
       </c>
       <c r="C105" t="n">
-        <v>0.169717</v>
+        <v>0.124265</v>
       </c>
       <c r="D105" t="n">
-        <v>0.124243</v>
+        <v>0.08121200000000001</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.218711</v>
+        <v>0.163948</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19312</v>
+        <v>0.145624</v>
       </c>
       <c r="D106" t="n">
-        <v>0.132667</v>
+        <v>0.0887587</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.260401</v>
+        <v>0.198183</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229527</v>
+        <v>0.179076</v>
       </c>
       <c r="D107" t="n">
-        <v>0.146193</v>
+        <v>0.101354</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.31473</v>
+        <v>0.247015</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285171</v>
+        <v>0.229722</v>
       </c>
       <c r="D108" t="n">
-        <v>0.107436</v>
+        <v>0.0651814</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.385404</v>
+        <v>0.304109</v>
       </c>
       <c r="C109" t="n">
-        <v>0.374719</v>
+        <v>0.309156</v>
       </c>
       <c r="D109" t="n">
-        <v>0.108143</v>
+        <v>0.0658268</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.114636</v>
+        <v>0.07126449999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.117035</v>
+        <v>0.0759408</v>
       </c>
       <c r="D110" t="n">
-        <v>0.109126</v>
+        <v>0.066618</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.117243</v>
+        <v>0.0736909</v>
       </c>
       <c r="C111" t="n">
-        <v>0.120112</v>
+        <v>0.0775991</v>
       </c>
       <c r="D111" t="n">
-        <v>0.110103</v>
+        <v>0.0674385</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.120358</v>
+        <v>0.07658139999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.124511</v>
+        <v>0.0817763</v>
       </c>
       <c r="D112" t="n">
-        <v>0.110891</v>
+        <v>0.0682889</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.124592</v>
+        <v>0.0802548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1303</v>
+        <v>0.08650190000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.112157</v>
+        <v>0.069324</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.129826</v>
+        <v>0.084884</v>
       </c>
       <c r="C114" t="n">
-        <v>0.138516</v>
+        <v>0.0934647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.113948</v>
+        <v>0.0707361</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136356</v>
+        <v>0.0909256</v>
       </c>
       <c r="C115" t="n">
-        <v>0.148357</v>
+        <v>0.101281</v>
       </c>
       <c r="D115" t="n">
-        <v>0.115158</v>
+        <v>0.0721319</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.144971</v>
+        <v>0.0985555</v>
       </c>
       <c r="C116" t="n">
-        <v>0.15831</v>
+        <v>0.109946</v>
       </c>
       <c r="D116" t="n">
-        <v>0.117978</v>
+        <v>0.0745746</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.15703</v>
+        <v>0.109263</v>
       </c>
       <c r="C117" t="n">
-        <v>0.170373</v>
+        <v>0.119286</v>
       </c>
       <c r="D117" t="n">
-        <v>0.122183</v>
+        <v>0.0780743</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.174957</v>
+        <v>0.124704</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182835</v>
+        <v>0.130728</v>
       </c>
       <c r="D118" t="n">
-        <v>0.130078</v>
+        <v>0.084402</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.201187</v>
+        <v>0.145889</v>
       </c>
       <c r="C119" t="n">
-        <v>0.19918</v>
+        <v>0.144704</v>
       </c>
       <c r="D119" t="n">
-        <v>0.140965</v>
+        <v>0.09441280000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.232813</v>
+        <v>0.173087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.221905</v>
+        <v>0.163284</v>
       </c>
       <c r="D120" t="n">
-        <v>0.15274</v>
+        <v>0.10499</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.272603</v>
+        <v>0.20617</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253209</v>
+        <v>0.190603</v>
       </c>
       <c r="D121" t="n">
-        <v>0.168465</v>
+        <v>0.118782</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.327654</v>
+        <v>0.251075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.301964</v>
+        <v>0.233529</v>
       </c>
       <c r="D122" t="n">
-        <v>0.191536</v>
+        <v>0.139001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.398825</v>
+        <v>0.307518</v>
       </c>
       <c r="C123" t="n">
-        <v>0.37957</v>
+        <v>0.300915</v>
       </c>
       <c r="D123" t="n">
-        <v>0.130113</v>
+        <v>0.0829961</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.134134</v>
+        <v>0.0908692</v>
       </c>
       <c r="C124" t="n">
-        <v>0.160181</v>
+        <v>0.110462</v>
       </c>
       <c r="D124" t="n">
-        <v>0.133782</v>
+        <v>0.0914841</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.141585</v>
+        <v>0.09545770000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.168895</v>
+        <v>0.118064</v>
       </c>
       <c r="D125" t="n">
-        <v>0.137989</v>
+        <v>0.0931261</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.147969</v>
+        <v>0.0996824</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170554</v>
+        <v>0.11914</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142278</v>
+        <v>0.0963296</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.153719</v>
+        <v>0.10442</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175371</v>
+        <v>0.123775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1467</v>
+        <v>0.0970654</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.159676</v>
+        <v>0.109471</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179195</v>
+        <v>0.12625</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148804</v>
+        <v>0.100094</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.166872</v>
+        <v>0.115396</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184743</v>
+        <v>0.129822</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1518</v>
+        <v>0.102039</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.175948</v>
+        <v>0.122553</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191975</v>
+        <v>0.135136</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153612</v>
+        <v>0.104862</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.186879</v>
+        <v>0.13174</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199164</v>
+        <v>0.141827</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157943</v>
+        <v>0.107405</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200996</v>
+        <v>0.143819</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20967</v>
+        <v>0.150352</v>
       </c>
       <c r="D132" t="n">
-        <v>0.161291</v>
+        <v>0.116596</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.219894</v>
+        <v>0.159033</v>
       </c>
       <c r="C133" t="n">
-        <v>0.223947</v>
+        <v>0.163394</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172881</v>
+        <v>0.11641</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.244872</v>
+        <v>0.179551</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24325</v>
+        <v>0.178002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.18076</v>
+        <v>0.126766</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.279174</v>
+        <v>0.208866</v>
       </c>
       <c r="C135" t="n">
-        <v>0.271907</v>
+        <v>0.201564</v>
       </c>
       <c r="D135" t="n">
-        <v>0.191825</v>
+        <v>0.136769</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.327015</v>
+        <v>0.247202</v>
       </c>
       <c r="C136" t="n">
-        <v>0.313457</v>
+        <v>0.237539</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210847</v>
+        <v>0.15374</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.391233</v>
+        <v>0.301027</v>
       </c>
       <c r="C137" t="n">
-        <v>0.379304</v>
+        <v>0.295971</v>
       </c>
       <c r="D137" t="n">
-        <v>0.198607</v>
+        <v>0.138437</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.198201</v>
+        <v>0.13723</v>
       </c>
       <c r="C138" t="n">
-        <v>0.222266</v>
+        <v>0.156007</v>
       </c>
       <c r="D138" t="n">
-        <v>0.201048</v>
+        <v>0.140093</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.201595</v>
+        <v>0.139932</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2255</v>
+        <v>0.15868</v>
       </c>
       <c r="D139" t="n">
-        <v>0.203173</v>
+        <v>0.142152</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.205095</v>
+        <v>0.142545</v>
       </c>
       <c r="C140" t="n">
-        <v>0.229143</v>
+        <v>0.161434</v>
       </c>
       <c r="D140" t="n">
-        <v>0.205493</v>
+        <v>0.144137</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.209253</v>
+        <v>0.145913</v>
       </c>
       <c r="C141" t="n">
-        <v>0.233077</v>
+        <v>0.164382</v>
       </c>
       <c r="D141" t="n">
-        <v>0.208194</v>
+        <v>0.147355</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.214343</v>
+        <v>0.15092</v>
       </c>
       <c r="C142" t="n">
-        <v>0.237817</v>
+        <v>0.167754</v>
       </c>
       <c r="D142" t="n">
-        <v>0.211145</v>
+        <v>0.148312</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219855</v>
+        <v>0.155524</v>
       </c>
       <c r="C143" t="n">
-        <v>0.242967</v>
+        <v>0.172095</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214129</v>
+        <v>0.150541</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08173039999999999</v>
+        <v>0.08033220000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0773862</v>
+        <v>0.0785703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06761929999999999</v>
+        <v>0.0675496</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0875672</v>
+        <v>0.08597630000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0814192</v>
+        <v>0.0823072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0688449</v>
+        <v>0.0688342</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0950995</v>
+        <v>0.0973823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0893196</v>
+        <v>0.0900359</v>
       </c>
       <c r="D4" t="n">
-        <v>0.070616</v>
+        <v>0.0708154</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.110269</v>
+        <v>0.111205</v>
       </c>
       <c r="C5" t="n">
-        <v>0.106775</v>
+        <v>0.100909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0736135</v>
+        <v>0.0743053</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125994</v>
+        <v>0.133846</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118553</v>
+        <v>0.117732</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07611179999999999</v>
+        <v>0.0776265</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.157085</v>
+        <v>0.157083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.144432</v>
+        <v>0.149109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0802243</v>
+        <v>0.082622</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.19947</v>
+        <v>0.19353</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193085</v>
+        <v>0.181825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0926607</v>
+        <v>0.092804</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.249545</v>
+        <v>0.252127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241727</v>
+        <v>0.235984</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0627091</v>
+        <v>0.0624087</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0655333</v>
+        <v>0.0662296</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0674696</v>
+        <v>0.0682239</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06301030000000001</v>
+        <v>0.062712</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06749719999999999</v>
+        <v>0.06803720000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06858069999999999</v>
+        <v>0.06920179999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0632885</v>
+        <v>0.06295489999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0697451</v>
+        <v>0.0694953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0699707</v>
+        <v>0.07075919999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06393160000000001</v>
+        <v>0.0636104</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0720592</v>
+        <v>0.071605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.071668</v>
+        <v>0.0723133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0643383</v>
+        <v>0.0639979</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.075003</v>
+        <v>0.0741502</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0741506</v>
+        <v>0.075086</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0653779</v>
+        <v>0.0650271</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0787813</v>
+        <v>0.0776438</v>
       </c>
       <c r="C15" t="n">
-        <v>0.076449</v>
+        <v>0.07757269999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06599380000000001</v>
+        <v>0.0657063</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0855699</v>
+        <v>0.08224869999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0797431</v>
+        <v>0.0808214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0670458</v>
+        <v>0.0667504</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0910102</v>
+        <v>0.08916590000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.085316</v>
+        <v>0.08614289999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.068552</v>
+        <v>0.0683677</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.102225</v>
+        <v>0.09864729999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09231880000000001</v>
+        <v>0.09268369999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0706194</v>
+        <v>0.0706065</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.11693</v>
+        <v>0.112896</v>
       </c>
       <c r="C19" t="n">
-        <v>0.103098</v>
+        <v>0.102509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0734981</v>
+        <v>0.0737604</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.137037</v>
+        <v>0.130996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.120525</v>
+        <v>0.119283</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07713250000000001</v>
+        <v>0.07782020000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.161331</v>
+        <v>0.156008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.146238</v>
+        <v>0.143435</v>
       </c>
       <c r="D21" t="n">
-        <v>0.083075</v>
+        <v>0.084476</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.197602</v>
+        <v>0.191992</v>
       </c>
       <c r="C22" t="n">
-        <v>0.182838</v>
+        <v>0.183233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0955597</v>
+        <v>0.0960939</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237485</v>
+        <v>0.246075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24066</v>
+        <v>0.236709</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0624354</v>
+        <v>0.0623204</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0650472</v>
+        <v>0.06515550000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0689432</v>
+        <v>0.06943290000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06273910000000001</v>
+        <v>0.0625521</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06661</v>
+        <v>0.0662996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06982240000000001</v>
+        <v>0.0703042</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0629585</v>
+        <v>0.06278449999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0685731</v>
+        <v>0.0681229</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0706077</v>
+        <v>0.07118919999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06335979999999999</v>
+        <v>0.0631437</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0708662</v>
+        <v>0.07040540000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0721759</v>
+        <v>0.07288269999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0639883</v>
+        <v>0.06375790000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07401969999999999</v>
+        <v>0.0724254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0744007</v>
+        <v>0.0751994</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0647983</v>
+        <v>0.0645934</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07720050000000001</v>
+        <v>0.07628840000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0773549</v>
+        <v>0.0782075</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06577669999999999</v>
+        <v>0.06553779999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.08242090000000001</v>
+        <v>0.0816009</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0808227</v>
+        <v>0.08166760000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0667595</v>
+        <v>0.0665951</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08910709999999999</v>
+        <v>0.0884486</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0862974</v>
+        <v>0.08673599999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06815599999999999</v>
+        <v>0.0680789</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09819</v>
+        <v>0.0976707</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0928498</v>
+        <v>0.09321790000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0699883</v>
+        <v>0.0699314</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.110734</v>
+        <v>0.109765</v>
       </c>
       <c r="C33" t="n">
-        <v>0.102851</v>
+        <v>0.103055</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0724233</v>
+        <v>0.07253759999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.127301</v>
+        <v>0.128127</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116925</v>
+        <v>0.116972</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07612149999999999</v>
+        <v>0.0764957</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.151198</v>
+        <v>0.152952</v>
       </c>
       <c r="C35" t="n">
-        <v>0.138151</v>
+        <v>0.138179</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0822905</v>
+        <v>0.082576</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.18736</v>
+        <v>0.185345</v>
       </c>
       <c r="C36" t="n">
-        <v>0.170136</v>
+        <v>0.170623</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0929093</v>
+        <v>0.0926029</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.223698</v>
+        <v>0.23404</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221754</v>
+        <v>0.221433</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0626998</v>
+        <v>0.0624282</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0641998</v>
+        <v>0.064747</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0691353</v>
+        <v>0.0696079</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0631355</v>
+        <v>0.0628238</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0656682</v>
+        <v>0.0661117</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0698307</v>
+        <v>0.0703346</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0635569</v>
+        <v>0.0632399</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06721439999999999</v>
+        <v>0.0675872</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0710253</v>
+        <v>0.07162350000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06399589999999999</v>
+        <v>0.0636649</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0696266</v>
+        <v>0.07000580000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0724427</v>
+        <v>0.0731096</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0644906</v>
+        <v>0.0641292</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.072492</v>
+        <v>0.0732072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0740895</v>
+        <v>0.0748016</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0650802</v>
+        <v>0.064746</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0762424</v>
+        <v>0.0771843</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07677630000000001</v>
+        <v>0.0775059</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0659397</v>
+        <v>0.0656254</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0815632</v>
+        <v>0.0826799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0806106</v>
+        <v>0.0811972</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0668503</v>
+        <v>0.0665394</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0883386</v>
+        <v>0.0890976</v>
       </c>
       <c r="C45" t="n">
-        <v>0.085214</v>
+        <v>0.0857367</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0681189</v>
+        <v>0.0678545</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0966423</v>
+        <v>0.09770710000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0924879</v>
+        <v>0.092998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06999660000000001</v>
+        <v>0.0698175</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.109624</v>
+        <v>0.109837</v>
       </c>
       <c r="C47" t="n">
-        <v>0.102197</v>
+        <v>0.102528</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0727138</v>
+        <v>0.0724585</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.125138</v>
+        <v>0.125128</v>
       </c>
       <c r="C48" t="n">
-        <v>0.115183</v>
+        <v>0.115609</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0766667</v>
+        <v>0.0764087</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.146591</v>
+        <v>0.149003</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134257</v>
+        <v>0.134383</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08267140000000001</v>
+        <v>0.0822652</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.176444</v>
+        <v>0.179393</v>
       </c>
       <c r="C50" t="n">
-        <v>0.163104</v>
+        <v>0.163284</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09198099999999999</v>
+        <v>0.0918933</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.216481</v>
+        <v>0.224843</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204089</v>
+        <v>0.204093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0633254</v>
+        <v>0.0630684</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2638</v>
+        <v>0.26709</v>
       </c>
       <c r="C52" t="n">
-        <v>0.276793</v>
+        <v>0.277015</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06364789999999999</v>
+        <v>0.0634449</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0669515</v>
+        <v>0.0671954</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07021520000000001</v>
+        <v>0.07081129999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.063995</v>
+        <v>0.06377480000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0685825</v>
+        <v>0.0687816</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0713307</v>
+        <v>0.0719086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0644742</v>
+        <v>0.0641888</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0708569</v>
+        <v>0.07141930000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07294</v>
+        <v>0.07356210000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06500649999999999</v>
+        <v>0.0647558</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0740306</v>
+        <v>0.0746433</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0750523</v>
+        <v>0.0755836</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06566809999999999</v>
+        <v>0.0654341</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0784006</v>
+        <v>0.0789504</v>
       </c>
       <c r="C57" t="n">
-        <v>0.077737</v>
+        <v>0.0783562</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0664178</v>
+        <v>0.0661017</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0836185</v>
+        <v>0.0841416</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0811186</v>
+        <v>0.0816125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0673977</v>
+        <v>0.0670796</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0907911</v>
+        <v>0.0910537</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08600720000000001</v>
+        <v>0.0864842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0686539</v>
+        <v>0.0684066</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.099842</v>
+        <v>0.100145</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0932347</v>
+        <v>0.0936921</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0706975</v>
+        <v>0.0704554</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.111055</v>
+        <v>0.112066</v>
       </c>
       <c r="C61" t="n">
-        <v>0.102177</v>
+        <v>0.102819</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0735088</v>
+        <v>0.0732158</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.126987</v>
+        <v>0.127151</v>
       </c>
       <c r="C62" t="n">
-        <v>0.114973</v>
+        <v>0.115258</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07734969999999999</v>
+        <v>0.0770691</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.146945</v>
+        <v>0.148045</v>
       </c>
       <c r="C63" t="n">
-        <v>0.132608</v>
+        <v>0.132846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08324579999999999</v>
+        <v>0.0827611</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17533</v>
+        <v>0.176781</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15868</v>
+        <v>0.159306</v>
       </c>
       <c r="D64" t="n">
-        <v>0.092904</v>
+        <v>0.0924634</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.217802</v>
+        <v>0.217262</v>
       </c>
       <c r="C65" t="n">
-        <v>0.202794</v>
+        <v>0.203444</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109536</v>
+        <v>0.109179</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271473</v>
+        <v>0.271605</v>
       </c>
       <c r="C66" t="n">
-        <v>0.269018</v>
+        <v>0.268939</v>
       </c>
       <c r="D66" t="n">
-        <v>0.063429</v>
+        <v>0.06363009999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0680287</v>
+        <v>0.06801400000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0704085</v>
+        <v>0.0710118</v>
       </c>
       <c r="D67" t="n">
-        <v>0.063829</v>
+        <v>0.0640532</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0698231</v>
+        <v>0.0698096</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0716798</v>
+        <v>0.07227260000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0643801</v>
+        <v>0.0645925</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0721207</v>
+        <v>0.0723767</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07310750000000001</v>
+        <v>0.0737664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.064912</v>
+        <v>0.06512030000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0751838</v>
+        <v>0.07550220000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07503020000000001</v>
+        <v>0.0757205</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0654579</v>
+        <v>0.0657218</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.079189</v>
+        <v>0.0794704</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0776867</v>
+        <v>0.0783229</v>
       </c>
       <c r="D71" t="n">
-        <v>0.066313</v>
+        <v>0.06653240000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0846025</v>
+        <v>0.0846623</v>
       </c>
       <c r="C72" t="n">
-        <v>0.081015</v>
+        <v>0.0817079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0672552</v>
+        <v>0.06754</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0914223</v>
+        <v>0.0912125</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0854917</v>
+        <v>0.0862473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0686372</v>
+        <v>0.06885479999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09982829999999999</v>
+        <v>0.100065</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0919078</v>
+        <v>0.0926855</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0703555</v>
+        <v>0.0706774</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.111505</v>
+        <v>0.110953</v>
       </c>
       <c r="C75" t="n">
-        <v>0.100151</v>
+        <v>0.100878</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07277550000000001</v>
+        <v>0.0730662</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.127306</v>
+        <v>0.125929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.113061</v>
+        <v>0.113613</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0765991</v>
+        <v>0.0768018</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.147003</v>
+        <v>0.146466</v>
       </c>
       <c r="C77" t="n">
-        <v>0.130112</v>
+        <v>0.130646</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08241610000000001</v>
+        <v>0.0826143</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.175054</v>
+        <v>0.173966</v>
       </c>
       <c r="C78" t="n">
-        <v>0.154666</v>
+        <v>0.155358</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09152349999999999</v>
+        <v>0.09161229999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.215173</v>
+        <v>0.212517</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193031</v>
+        <v>0.193622</v>
       </c>
       <c r="D79" t="n">
-        <v>0.106588</v>
+        <v>0.106837</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.274087</v>
+        <v>0.271571</v>
       </c>
       <c r="C80" t="n">
-        <v>0.255316</v>
+        <v>0.255305</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06347369999999999</v>
+        <v>0.0638538</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0682484</v>
+        <v>0.0683151</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07062980000000001</v>
+        <v>0.07125140000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0638814</v>
+        <v>0.06432359999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.06995899999999999</v>
+        <v>0.07007380000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0718139</v>
+        <v>0.07250239999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0643367</v>
+        <v>0.0648107</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0723024</v>
+        <v>0.07242079999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.07329380000000001</v>
+        <v>0.0739802</v>
       </c>
       <c r="D83" t="n">
-        <v>0.064886</v>
+        <v>0.06535539999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0751995</v>
+        <v>0.0754494</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0750897</v>
+        <v>0.0757418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0654786</v>
+        <v>0.0659785</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0789591</v>
+        <v>0.07924920000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>0.07740030000000001</v>
+        <v>0.07814400000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06618880000000001</v>
+        <v>0.0667481</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0839979</v>
+        <v>0.0840655</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08066280000000001</v>
+        <v>0.08146100000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0670767</v>
+        <v>0.0676596</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.09040280000000001</v>
+        <v>0.0905347</v>
       </c>
       <c r="C87" t="n">
-        <v>0.08501309999999999</v>
+        <v>0.0858018</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0683667</v>
+        <v>0.0689086</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09871190000000001</v>
+        <v>0.09881089999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09101239999999999</v>
+        <v>0.09176339999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07008490000000001</v>
+        <v>0.07064289999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.109676</v>
+        <v>0.109592</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0993375</v>
+        <v>0.100015</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0724634</v>
+        <v>0.0730064</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.123816</v>
+        <v>0.124056</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110666</v>
+        <v>0.111426</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0760485</v>
+        <v>0.07654909999999999</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.142543</v>
+        <v>0.143296</v>
       </c>
       <c r="C91" t="n">
-        <v>0.126799</v>
+        <v>0.127482</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08107250000000001</v>
+        <v>0.08171299999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.168697</v>
+        <v>0.168977</v>
       </c>
       <c r="C92" t="n">
-        <v>0.149559</v>
+        <v>0.15015</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08928999999999999</v>
+        <v>0.08997869999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.205231</v>
+        <v>0.206065</v>
       </c>
       <c r="C93" t="n">
-        <v>0.185476</v>
+        <v>0.185969</v>
       </c>
       <c r="D93" t="n">
-        <v>0.103273</v>
+        <v>0.103675</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.256412</v>
+        <v>0.258945</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241511</v>
+        <v>0.241823</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0633085</v>
+        <v>0.06388149999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0681571</v>
+        <v>0.0684217</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0705544</v>
+        <v>0.0713239</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0637365</v>
+        <v>0.0642901</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07008259999999999</v>
+        <v>0.0702631</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0719279</v>
+        <v>0.07261189999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06422750000000001</v>
+        <v>0.0648142</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0723028</v>
+        <v>0.0725116</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0733326</v>
+        <v>0.074033</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06488380000000001</v>
+        <v>0.065361</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07521600000000001</v>
+        <v>0.0753929</v>
       </c>
       <c r="C98" t="n">
-        <v>0.075199</v>
+        <v>0.0759373</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0653942</v>
+        <v>0.0659904</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0788124</v>
+        <v>0.0789675</v>
       </c>
       <c r="C99" t="n">
-        <v>0.077574</v>
+        <v>0.0784093</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0662266</v>
+        <v>0.0667703</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0836394</v>
+        <v>0.08385479999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08086790000000001</v>
+        <v>0.08158310000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06712120000000001</v>
+        <v>0.0677267</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0896749</v>
+        <v>0.0901801</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0852284</v>
+        <v>0.0857306</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0686112</v>
+        <v>0.0689722</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0975558</v>
+        <v>0.0982022</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09076869999999999</v>
+        <v>0.0914721</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0702282</v>
+        <v>0.0707142</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.107929</v>
+        <v>0.108565</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09875109999999999</v>
+        <v>0.0992339</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0726634</v>
+        <v>0.07304529999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.121456</v>
+        <v>0.122206</v>
       </c>
       <c r="C104" t="n">
-        <v>0.109204</v>
+        <v>0.109814</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0761662</v>
+        <v>0.07634779999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.13958</v>
+        <v>0.140129</v>
       </c>
       <c r="C105" t="n">
-        <v>0.124265</v>
+        <v>0.124792</v>
       </c>
       <c r="D105" t="n">
-        <v>0.08121200000000001</v>
+        <v>0.0813895</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.163948</v>
+        <v>0.164542</v>
       </c>
       <c r="C106" t="n">
-        <v>0.145624</v>
+        <v>0.146156</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0887587</v>
+        <v>0.0890623</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.198183</v>
+        <v>0.198918</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179076</v>
+        <v>0.178212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.101354</v>
+        <v>0.101173</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.247015</v>
+        <v>0.248617</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229722</v>
+        <v>0.229897</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0651814</v>
+        <v>0.0651921</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.304109</v>
+        <v>0.305504</v>
       </c>
       <c r="C109" t="n">
-        <v>0.309156</v>
+        <v>0.309024</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0658268</v>
+        <v>0.06576510000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07126449999999999</v>
+        <v>0.07152409999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0759408</v>
+        <v>0.0756058</v>
       </c>
       <c r="D110" t="n">
-        <v>0.066618</v>
+        <v>0.0664042</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0736909</v>
+        <v>0.0737294</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0775991</v>
+        <v>0.0776066</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0674385</v>
+        <v>0.0671272</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.07658139999999999</v>
+        <v>0.07667930000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0817763</v>
+        <v>0.080627</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0682889</v>
+        <v>0.0679313</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0802548</v>
+        <v>0.08020040000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.08650190000000001</v>
+        <v>0.0863797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.069324</v>
+        <v>0.06888900000000001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.084884</v>
+        <v>0.08491949999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0934647</v>
+        <v>0.0935203</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0707361</v>
+        <v>0.0699684</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0909256</v>
+        <v>0.0908395</v>
       </c>
       <c r="C115" t="n">
-        <v>0.101281</v>
+        <v>0.101097</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0721319</v>
+        <v>0.07149759999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0985555</v>
+        <v>0.09904060000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109946</v>
+        <v>0.109416</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0745746</v>
+        <v>0.0731609</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109263</v>
+        <v>0.109812</v>
       </c>
       <c r="C117" t="n">
-        <v>0.119286</v>
+        <v>0.118978</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0780743</v>
+        <v>0.07566009999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.124704</v>
+        <v>0.125205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.130728</v>
+        <v>0.12965</v>
       </c>
       <c r="D118" t="n">
-        <v>0.084402</v>
+        <v>0.0793465</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.145889</v>
+        <v>0.146294</v>
       </c>
       <c r="C119" t="n">
-        <v>0.144704</v>
+        <v>0.143314</v>
       </c>
       <c r="D119" t="n">
-        <v>0.09441280000000001</v>
+        <v>0.08532190000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.173087</v>
+        <v>0.173035</v>
       </c>
       <c r="C120" t="n">
-        <v>0.163284</v>
+        <v>0.161812</v>
       </c>
       <c r="D120" t="n">
-        <v>0.10499</v>
+        <v>0.0958445</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.20617</v>
+        <v>0.205588</v>
       </c>
       <c r="C121" t="n">
-        <v>0.190603</v>
+        <v>0.189233</v>
       </c>
       <c r="D121" t="n">
-        <v>0.118782</v>
+        <v>0.112238</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.251075</v>
+        <v>0.250138</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233529</v>
+        <v>0.232144</v>
       </c>
       <c r="D122" t="n">
-        <v>0.139001</v>
+        <v>0.135493</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.307518</v>
+        <v>0.306976</v>
       </c>
       <c r="C123" t="n">
-        <v>0.300915</v>
+        <v>0.299606</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0829961</v>
+        <v>0.0802192</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0908692</v>
+        <v>0.09005539999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>0.110462</v>
+        <v>0.113895</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0914841</v>
+        <v>0.0836242</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.09545770000000001</v>
+        <v>0.094612</v>
       </c>
       <c r="C125" t="n">
-        <v>0.118064</v>
+        <v>0.120264</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0931261</v>
+        <v>0.0881898</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0996824</v>
+        <v>0.0991611</v>
       </c>
       <c r="C126" t="n">
-        <v>0.11914</v>
+        <v>0.118659</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0963296</v>
+        <v>0.0891807</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.10442</v>
+        <v>0.103724</v>
       </c>
       <c r="C127" t="n">
-        <v>0.123775</v>
+        <v>0.125935</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0970654</v>
+        <v>0.094321</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.109471</v>
+        <v>0.108923</v>
       </c>
       <c r="C128" t="n">
-        <v>0.12625</v>
+        <v>0.128994</v>
       </c>
       <c r="D128" t="n">
-        <v>0.100094</v>
+        <v>0.105046</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.115396</v>
+        <v>0.114731</v>
       </c>
       <c r="C129" t="n">
-        <v>0.129822</v>
+        <v>0.129303</v>
       </c>
       <c r="D129" t="n">
-        <v>0.102039</v>
+        <v>0.0997545</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122553</v>
+        <v>0.122338</v>
       </c>
       <c r="C130" t="n">
-        <v>0.135136</v>
+        <v>0.133828</v>
       </c>
       <c r="D130" t="n">
-        <v>0.104862</v>
+        <v>0.10213</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13174</v>
+        <v>0.131311</v>
       </c>
       <c r="C131" t="n">
-        <v>0.141827</v>
+        <v>0.140141</v>
       </c>
       <c r="D131" t="n">
-        <v>0.107405</v>
+        <v>0.104068</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143819</v>
+        <v>0.143279</v>
       </c>
       <c r="C132" t="n">
-        <v>0.150352</v>
+        <v>0.148814</v>
       </c>
       <c r="D132" t="n">
-        <v>0.116596</v>
+        <v>0.116016</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.159033</v>
+        <v>0.161439</v>
       </c>
       <c r="C133" t="n">
-        <v>0.163394</v>
+        <v>0.159546</v>
       </c>
       <c r="D133" t="n">
-        <v>0.11641</v>
+        <v>0.112655</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.179551</v>
+        <v>0.181855</v>
       </c>
       <c r="C134" t="n">
-        <v>0.178002</v>
+        <v>0.176205</v>
       </c>
       <c r="D134" t="n">
-        <v>0.126766</v>
+        <v>0.126524</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.208866</v>
+        <v>0.209559</v>
       </c>
       <c r="C135" t="n">
-        <v>0.201564</v>
+        <v>0.198796</v>
       </c>
       <c r="D135" t="n">
-        <v>0.136769</v>
+        <v>0.129401</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.247202</v>
+        <v>0.249058</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237539</v>
+        <v>0.235676</v>
       </c>
       <c r="D136" t="n">
-        <v>0.15374</v>
+        <v>0.145478</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.301027</v>
+        <v>0.301685</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295971</v>
+        <v>0.294243</v>
       </c>
       <c r="D137" t="n">
-        <v>0.138437</v>
+        <v>0.134022</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.13723</v>
+        <v>0.136396</v>
       </c>
       <c r="C138" t="n">
-        <v>0.156007</v>
+        <v>0.158025</v>
       </c>
       <c r="D138" t="n">
-        <v>0.140093</v>
+        <v>0.135135</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.139932</v>
+        <v>0.139892</v>
       </c>
       <c r="C139" t="n">
-        <v>0.15868</v>
+        <v>0.159874</v>
       </c>
       <c r="D139" t="n">
-        <v>0.142152</v>
+        <v>0.136985</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.142545</v>
+        <v>0.142527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.161434</v>
+        <v>0.162454</v>
       </c>
       <c r="D140" t="n">
-        <v>0.144137</v>
+        <v>0.138657</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.145913</v>
+        <v>0.145524</v>
       </c>
       <c r="C141" t="n">
-        <v>0.164382</v>
+        <v>0.165159</v>
       </c>
       <c r="D141" t="n">
-        <v>0.147355</v>
+        <v>0.140361</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15092</v>
+        <v>0.150918</v>
       </c>
       <c r="C142" t="n">
-        <v>0.167754</v>
+        <v>0.168316</v>
       </c>
       <c r="D142" t="n">
-        <v>0.148312</v>
+        <v>0.142203</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.155524</v>
+        <v>0.154968</v>
       </c>
       <c r="C143" t="n">
-        <v>0.172095</v>
+        <v>0.172119</v>
       </c>
       <c r="D143" t="n">
-        <v>0.150541</v>
+        <v>0.144357</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08033220000000001</v>
+        <v>0.0216435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0785703</v>
+        <v>0.0192531</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0675496</v>
+        <v>0.0200735</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08597630000000001</v>
+        <v>0.0244671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0823072</v>
+        <v>0.0198012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0688342</v>
+        <v>0.0203168</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0973823</v>
+        <v>0.0298315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0900359</v>
+        <v>0.0207531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0708154</v>
+        <v>0.0206821</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.111205</v>
+        <v>0.0371818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.100909</v>
+        <v>0.0243098</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0743053</v>
+        <v>0.0215287</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.133846</v>
+        <v>0.050804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.117732</v>
+        <v>0.0325852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0776265</v>
+        <v>0.021894</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.157083</v>
+        <v>0.0686392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149109</v>
+        <v>0.0617734</v>
       </c>
       <c r="D7" t="n">
-        <v>0.082622</v>
+        <v>0.0240088</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.19353</v>
+        <v>0.0980248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.181825</v>
+        <v>0.0669309</v>
       </c>
       <c r="D8" t="n">
-        <v>0.092804</v>
+        <v>0.0300592</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.252127</v>
+        <v>0.122728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235984</v>
+        <v>0.111431</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0624087</v>
+        <v>0.0181986</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0662296</v>
+        <v>0.0181842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0682239</v>
+        <v>0.0192464</v>
       </c>
       <c r="D10" t="n">
-        <v>0.062712</v>
+        <v>0.0184078</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06803720000000001</v>
+        <v>0.0185773</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06920179999999999</v>
+        <v>0.0195102</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06295489999999999</v>
+        <v>0.0186083</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0694953</v>
+        <v>0.0193067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07075919999999999</v>
+        <v>0.0201716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0636104</v>
+        <v>0.0189258</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.071605</v>
+        <v>0.0201968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0723133</v>
+        <v>0.0203874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0639979</v>
+        <v>0.0192625</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0741502</v>
+        <v>0.0211495</v>
       </c>
       <c r="C14" t="n">
-        <v>0.075086</v>
+        <v>0.020657</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0650271</v>
+        <v>0.0195255</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0776438</v>
+        <v>0.0229454</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07757269999999999</v>
+        <v>0.0214749</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0657063</v>
+        <v>0.0199358</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.08224869999999999</v>
+        <v>0.0249535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0808214</v>
+        <v>0.0224629</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0667504</v>
+        <v>0.0203794</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08916590000000001</v>
+        <v>0.0322953</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08614289999999999</v>
+        <v>0.0237537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0683677</v>
+        <v>0.0206913</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09864729999999999</v>
+        <v>0.033116</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09268369999999999</v>
+        <v>0.0273338</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0706065</v>
+        <v>0.021307</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.112896</v>
+        <v>0.0423049</v>
       </c>
       <c r="C19" t="n">
-        <v>0.102509</v>
+        <v>0.0317536</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0737604</v>
+        <v>0.0218903</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.130996</v>
+        <v>0.0556593</v>
       </c>
       <c r="C20" t="n">
-        <v>0.119283</v>
+        <v>0.0509751</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07782020000000001</v>
+        <v>0.0232297</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.156008</v>
+        <v>0.0745869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.143435</v>
+        <v>0.0567342</v>
       </c>
       <c r="D21" t="n">
-        <v>0.084476</v>
+        <v>0.0260749</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.191992</v>
+        <v>0.0994951</v>
       </c>
       <c r="C22" t="n">
-        <v>0.183233</v>
+        <v>0.0930342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0960939</v>
+        <v>0.0331037</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.246075</v>
+        <v>0.122975</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236709</v>
+        <v>0.129024</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0623204</v>
+        <v>0.0181745</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06515550000000001</v>
+        <v>0.0179522</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06943290000000001</v>
+        <v>0.0197985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0625521</v>
+        <v>0.0183936</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0662996</v>
+        <v>0.018646</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0703042</v>
+        <v>0.0202205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06278449999999999</v>
+        <v>0.0185632</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0681229</v>
+        <v>0.0196205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07118919999999999</v>
+        <v>0.0206862</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0631437</v>
+        <v>0.0189057</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07040540000000001</v>
+        <v>0.020669</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07288269999999999</v>
+        <v>0.0214893</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06375790000000001</v>
+        <v>0.0192473</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0724254</v>
+        <v>0.0220056</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0751994</v>
+        <v>0.0220528</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0645934</v>
+        <v>0.0196572</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07628840000000001</v>
+        <v>0.0236291</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0782075</v>
+        <v>0.0229586</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06553779999999999</v>
+        <v>0.0199741</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0816009</v>
+        <v>0.0265793</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08166760000000001</v>
+        <v>0.0247158</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0665951</v>
+        <v>0.0204114</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0884486</v>
+        <v>0.031543</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08673599999999999</v>
+        <v>0.0279099</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0680789</v>
+        <v>0.0210622</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0976707</v>
+        <v>0.0380291</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09321790000000001</v>
+        <v>0.0311887</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0699314</v>
+        <v>0.0219564</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.109765</v>
+        <v>0.0465267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.103055</v>
+        <v>0.037002</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07253759999999999</v>
+        <v>0.0228791</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.128127</v>
+        <v>0.0573557</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116972</v>
+        <v>0.0490022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0764957</v>
+        <v>0.0247142</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.152952</v>
+        <v>0.0737686</v>
       </c>
       <c r="C35" t="n">
-        <v>0.138179</v>
+        <v>0.0604739</v>
       </c>
       <c r="D35" t="n">
-        <v>0.082576</v>
+        <v>0.0283956</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.185345</v>
+        <v>0.09491819999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.170623</v>
+        <v>0.0882748</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0926029</v>
+        <v>0.0362523</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23404</v>
+        <v>0.119129</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221433</v>
+        <v>0.130284</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0624282</v>
+        <v>0.0185142</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.064747</v>
+        <v>0.0185532</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0696079</v>
+        <v>0.020834</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0628238</v>
+        <v>0.0187631</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0661117</v>
+        <v>0.0193926</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0703346</v>
+        <v>0.0213181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0632399</v>
+        <v>0.0189528</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0675872</v>
+        <v>0.0204486</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07162350000000001</v>
+        <v>0.0219434</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0636649</v>
+        <v>0.0192602</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07000580000000001</v>
+        <v>0.0218141</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0731096</v>
+        <v>0.0225875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0641292</v>
+        <v>0.0195452</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0732072</v>
+        <v>0.0234001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0748016</v>
+        <v>0.0237076</v>
       </c>
       <c r="D42" t="n">
-        <v>0.064746</v>
+        <v>0.0199656</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0771843</v>
+        <v>0.0257005</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0775059</v>
+        <v>0.0251366</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0656254</v>
+        <v>0.020469</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0826799</v>
+        <v>0.0286623</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0811972</v>
+        <v>0.026913</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0665394</v>
+        <v>0.0210074</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0890976</v>
+        <v>0.0332165</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0857367</v>
+        <v>0.0303229</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0678545</v>
+        <v>0.0217296</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.09770710000000001</v>
+        <v>0.0389063</v>
       </c>
       <c r="C46" t="n">
-        <v>0.092998</v>
+        <v>0.0354906</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0698175</v>
+        <v>0.0228577</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.109837</v>
+        <v>0.0462846</v>
       </c>
       <c r="C47" t="n">
-        <v>0.102528</v>
+        <v>0.0405892</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0724585</v>
+        <v>0.0243659</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.125128</v>
+        <v>0.056868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.115609</v>
+        <v>0.0500991</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0764087</v>
+        <v>0.0267211</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.149003</v>
+        <v>0.0729013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.134383</v>
+        <v>0.0647329</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0822652</v>
+        <v>0.0306241</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.179393</v>
+        <v>0.093019</v>
       </c>
       <c r="C50" t="n">
-        <v>0.163284</v>
+        <v>0.0859675</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0918933</v>
+        <v>0.0369725</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.224843</v>
+        <v>0.120715</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204093</v>
+        <v>0.122256</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0630684</v>
+        <v>0.0192905</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.26709</v>
+        <v>0.142718</v>
       </c>
       <c r="C52" t="n">
-        <v>0.277015</v>
+        <v>0.169285</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0634449</v>
+        <v>0.0194965</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0671954</v>
+        <v>0.0205561</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07081129999999999</v>
+        <v>0.0223483</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06377480000000001</v>
+        <v>0.0197814</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0687816</v>
+        <v>0.0217838</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0719086</v>
+        <v>0.0229567</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0641888</v>
+        <v>0.0200773</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07141930000000001</v>
+        <v>0.0232161</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07356210000000001</v>
+        <v>0.0238571</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0647558</v>
+        <v>0.0204309</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0746433</v>
+        <v>0.0248549</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0755836</v>
+        <v>0.0248446</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0654341</v>
+        <v>0.0208198</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0789504</v>
+        <v>0.027403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0783562</v>
+        <v>0.0264602</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0661017</v>
+        <v>0.0212663</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0841416</v>
+        <v>0.0304368</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0816125</v>
+        <v>0.0288082</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0670796</v>
+        <v>0.0219796</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0910537</v>
+        <v>0.0349615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0864842</v>
+        <v>0.0315638</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0684066</v>
+        <v>0.0227795</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.100145</v>
+        <v>0.040844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0936921</v>
+        <v>0.0357189</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0704554</v>
+        <v>0.0238637</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.112066</v>
+        <v>0.0479673</v>
       </c>
       <c r="C61" t="n">
-        <v>0.102819</v>
+        <v>0.0419933</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0732158</v>
+        <v>0.02549</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.127151</v>
+        <v>0.0579032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.115258</v>
+        <v>0.0504091</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0770691</v>
+        <v>0.027939</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.148045</v>
+        <v>0.0718784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.132846</v>
+        <v>0.0632149</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0827611</v>
+        <v>0.031927</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.176781</v>
+        <v>0.0913248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.159306</v>
+        <v>0.0824236</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0924634</v>
+        <v>0.0386306</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.217262</v>
+        <v>0.11793</v>
       </c>
       <c r="C65" t="n">
-        <v>0.203444</v>
+        <v>0.115252</v>
       </c>
       <c r="D65" t="n">
-        <v>0.109179</v>
+        <v>0.0496687</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271605</v>
+        <v>0.14678</v>
       </c>
       <c r="C66" t="n">
-        <v>0.268939</v>
+        <v>0.163694</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06363009999999999</v>
+        <v>0.0196702</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06801400000000001</v>
+        <v>0.021111</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0710118</v>
+        <v>0.0227939</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0640532</v>
+        <v>0.0199844</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0698096</v>
+        <v>0.0223928</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07227260000000001</v>
+        <v>0.0235821</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0645925</v>
+        <v>0.0203465</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0723767</v>
+        <v>0.0237949</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0737664</v>
+        <v>0.0245664</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06512030000000001</v>
+        <v>0.0207404</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07550220000000001</v>
+        <v>0.0257943</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0757205</v>
+        <v>0.0257518</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0657218</v>
+        <v>0.0211659</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0794704</v>
+        <v>0.0281667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0783229</v>
+        <v>0.027196</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06653240000000001</v>
+        <v>0.0216792</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0846623</v>
+        <v>0.0314652</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0817079</v>
+        <v>0.0291578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06754</v>
+        <v>0.0222925</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0912125</v>
+        <v>0.0352207</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0862473</v>
+        <v>0.0319759</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06885479999999999</v>
+        <v>0.0231254</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.100065</v>
+        <v>0.0409942</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0926855</v>
+        <v>0.0358987</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0706774</v>
+        <v>0.0243216</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110953</v>
+        <v>0.0479739</v>
       </c>
       <c r="C75" t="n">
-        <v>0.100878</v>
+        <v>0.0416287</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0730662</v>
+        <v>0.0260991</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125929</v>
+        <v>0.0570716</v>
       </c>
       <c r="C76" t="n">
-        <v>0.113613</v>
+        <v>0.049588</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0768018</v>
+        <v>0.0284223</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.146466</v>
+        <v>0.0697866</v>
       </c>
       <c r="C77" t="n">
-        <v>0.130646</v>
+        <v>0.0612335</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0826143</v>
+        <v>0.032018</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.173966</v>
+        <v>0.0877814</v>
       </c>
       <c r="C78" t="n">
-        <v>0.155358</v>
+        <v>0.0776607</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09161229999999999</v>
+        <v>0.037653</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.212517</v>
+        <v>0.113053</v>
       </c>
       <c r="C79" t="n">
-        <v>0.193622</v>
+        <v>0.105379</v>
       </c>
       <c r="D79" t="n">
-        <v>0.106837</v>
+        <v>0.0472509</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.271571</v>
+        <v>0.144882</v>
       </c>
       <c r="C80" t="n">
-        <v>0.255305</v>
+        <v>0.150406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0638538</v>
+        <v>0.0199175</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0683151</v>
+        <v>0.0212404</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07125140000000001</v>
+        <v>0.0231477</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06432359999999999</v>
+        <v>0.0202047</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07007380000000001</v>
+        <v>0.022486</v>
       </c>
       <c r="C82" t="n">
-        <v>0.07250239999999999</v>
+        <v>0.0239446</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0648107</v>
+        <v>0.0205505</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.07242079999999999</v>
+        <v>0.0240088</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0739802</v>
+        <v>0.0248773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06535539999999999</v>
+        <v>0.0209447</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0754494</v>
+        <v>0.0258256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0757418</v>
+        <v>0.0261055</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0659785</v>
+        <v>0.0214289</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07924920000000001</v>
+        <v>0.0284184</v>
       </c>
       <c r="C85" t="n">
-        <v>0.07814400000000001</v>
+        <v>0.0277336</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0667481</v>
+        <v>0.0219813</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0840655</v>
+        <v>0.0315866</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08146100000000001</v>
+        <v>0.0297421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0676596</v>
+        <v>0.0226288</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0905347</v>
+        <v>0.0355168</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0858018</v>
+        <v>0.0322841</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0689086</v>
+        <v>0.0235052</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09881089999999999</v>
+        <v>0.0405777</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09176339999999999</v>
+        <v>0.0359325</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07064289999999999</v>
+        <v>0.0246725</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.109592</v>
+        <v>0.047144</v>
       </c>
       <c r="C89" t="n">
-        <v>0.100015</v>
+        <v>0.0409377</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0730064</v>
+        <v>0.0263177</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.124056</v>
+        <v>0.0557684</v>
       </c>
       <c r="C90" t="n">
-        <v>0.111426</v>
+        <v>0.0484596</v>
       </c>
       <c r="D90" t="n">
-        <v>0.07654909999999999</v>
+        <v>0.028668</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.143296</v>
+        <v>0.0677077</v>
       </c>
       <c r="C91" t="n">
-        <v>0.127482</v>
+        <v>0.0587847</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08171299999999999</v>
+        <v>0.0319518</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.168977</v>
+        <v>0.08495320000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.15015</v>
+        <v>0.07429479999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08997869999999999</v>
+        <v>0.0370515</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.206065</v>
+        <v>0.109055</v>
       </c>
       <c r="C93" t="n">
-        <v>0.185969</v>
+        <v>0.09984800000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.103675</v>
+        <v>0.0457901</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.258945</v>
+        <v>0.139812</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241823</v>
+        <v>0.142103</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06388149999999999</v>
+        <v>0.0213037</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0684217</v>
+        <v>0.0218588</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0713239</v>
+        <v>0.0244801</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0642901</v>
+        <v>0.0218109</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0702631</v>
+        <v>0.0231106</v>
       </c>
       <c r="C96" t="n">
-        <v>0.07261189999999999</v>
+        <v>0.0253458</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0648142</v>
+        <v>0.0222966</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0725116</v>
+        <v>0.0244934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.074033</v>
+        <v>0.0264598</v>
       </c>
       <c r="D97" t="n">
-        <v>0.065361</v>
+        <v>0.0228616</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0753929</v>
+        <v>0.026417</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0759373</v>
+        <v>0.0280927</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0659904</v>
+        <v>0.0233375</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0789675</v>
+        <v>0.0287263</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0784093</v>
+        <v>0.0302429</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0667703</v>
+        <v>0.02412</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08385479999999999</v>
+        <v>0.0316842</v>
       </c>
       <c r="C100" t="n">
-        <v>0.08158310000000001</v>
+        <v>0.0331926</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0677267</v>
+        <v>0.0250566</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0901801</v>
+        <v>0.0356133</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0857306</v>
+        <v>0.036644</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0689722</v>
+        <v>0.0264105</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0982022</v>
+        <v>0.0407699</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0914721</v>
+        <v>0.0406552</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0707142</v>
+        <v>0.028431</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.108565</v>
+        <v>0.0474453</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0992339</v>
+        <v>0.0449572</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07304529999999999</v>
+        <v>0.0310402</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122206</v>
+        <v>0.0557594</v>
       </c>
       <c r="C104" t="n">
-        <v>0.109814</v>
+        <v>0.0512026</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07634779999999999</v>
+        <v>0.0342454</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.140129</v>
+        <v>0.066842</v>
       </c>
       <c r="C105" t="n">
-        <v>0.124792</v>
+        <v>0.0597181</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0813895</v>
+        <v>0.0380498</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.164542</v>
+        <v>0.0826732</v>
       </c>
       <c r="C106" t="n">
-        <v>0.146156</v>
+        <v>0.0731352</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0890623</v>
+        <v>0.0429423</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.198918</v>
+        <v>0.104811</v>
       </c>
       <c r="C107" t="n">
-        <v>0.178212</v>
+        <v>0.09509620000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.101173</v>
+        <v>0.0500622</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.248617</v>
+        <v>0.134671</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229897</v>
+        <v>0.133931</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0651921</v>
+        <v>0.0312427</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.305504</v>
+        <v>0.169564</v>
       </c>
       <c r="C109" t="n">
-        <v>0.309024</v>
+        <v>0.186648</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06576510000000001</v>
+        <v>0.0324568</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.07152409999999999</v>
+        <v>0.0314087</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0756058</v>
+        <v>0.0385426</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0664042</v>
+        <v>0.0333215</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0737294</v>
+        <v>0.0329937</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0776066</v>
+        <v>0.0394881</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0671272</v>
+        <v>0.0342639</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.07667930000000001</v>
+        <v>0.034568</v>
       </c>
       <c r="C112" t="n">
-        <v>0.080627</v>
+        <v>0.0406976</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0679313</v>
+        <v>0.0350932</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.08020040000000001</v>
+        <v>0.0363701</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0863797</v>
+        <v>0.0417226</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06888900000000001</v>
+        <v>0.0359663</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.08491949999999999</v>
+        <v>0.0385868</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0935203</v>
+        <v>0.0430478</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0699684</v>
+        <v>0.0369742</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0908395</v>
+        <v>0.0413426</v>
       </c>
       <c r="C115" t="n">
-        <v>0.101097</v>
+        <v>0.0448441</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07149759999999999</v>
+        <v>0.0379008</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.09904060000000001</v>
+        <v>0.0448088</v>
       </c>
       <c r="C116" t="n">
-        <v>0.109416</v>
+        <v>0.0471329</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0731609</v>
+        <v>0.0389558</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.109812</v>
+        <v>0.0498589</v>
       </c>
       <c r="C117" t="n">
-        <v>0.118978</v>
+        <v>0.0502489</v>
       </c>
       <c r="D117" t="n">
-        <v>0.07566009999999999</v>
+        <v>0.0403297</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.125205</v>
+        <v>0.0564509</v>
       </c>
       <c r="C118" t="n">
-        <v>0.12965</v>
+        <v>0.0546992</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0793465</v>
+        <v>0.0422075</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.146294</v>
+        <v>0.066375</v>
       </c>
       <c r="C119" t="n">
-        <v>0.143314</v>
+        <v>0.061361</v>
       </c>
       <c r="D119" t="n">
-        <v>0.08532190000000001</v>
+        <v>0.0446693</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.173035</v>
+        <v>0.0811132</v>
       </c>
       <c r="C120" t="n">
-        <v>0.161812</v>
+        <v>0.07248780000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0958445</v>
+        <v>0.0481757</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.205588</v>
+        <v>0.101945</v>
       </c>
       <c r="C121" t="n">
-        <v>0.189233</v>
+        <v>0.09115819999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.112238</v>
+        <v>0.053848</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.250138</v>
+        <v>0.130592</v>
       </c>
       <c r="C122" t="n">
-        <v>0.232144</v>
+        <v>0.124711</v>
       </c>
       <c r="D122" t="n">
-        <v>0.135493</v>
+        <v>0.0639835</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.306976</v>
+        <v>0.165313</v>
       </c>
       <c r="C123" t="n">
-        <v>0.299606</v>
+        <v>0.175186</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0802192</v>
+        <v>0.0375491</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09005539999999999</v>
+        <v>0.0357922</v>
       </c>
       <c r="C124" t="n">
-        <v>0.113895</v>
+        <v>0.0441539</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0836242</v>
+        <v>0.0391849</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.094612</v>
+        <v>0.0370698</v>
       </c>
       <c r="C125" t="n">
-        <v>0.120264</v>
+        <v>0.0450794</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0881898</v>
+        <v>0.0395747</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0991611</v>
+        <v>0.0385468</v>
       </c>
       <c r="C126" t="n">
-        <v>0.118659</v>
+        <v>0.0459926</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0891807</v>
+        <v>0.0400074</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.103724</v>
+        <v>0.0404113</v>
       </c>
       <c r="C127" t="n">
-        <v>0.125935</v>
+        <v>0.0474244</v>
       </c>
       <c r="D127" t="n">
-        <v>0.094321</v>
+        <v>0.0407763</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.108923</v>
+        <v>0.0425049</v>
       </c>
       <c r="C128" t="n">
-        <v>0.128994</v>
+        <v>0.0490428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.105046</v>
+        <v>0.0423255</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.114731</v>
+        <v>0.0456104</v>
       </c>
       <c r="C129" t="n">
-        <v>0.129303</v>
+        <v>0.0510672</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0997545</v>
+        <v>0.0422679</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.122338</v>
+        <v>0.0493824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.133828</v>
+        <v>0.0531679</v>
       </c>
       <c r="D130" t="n">
-        <v>0.10213</v>
+        <v>0.0443973</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.131311</v>
+        <v>0.0544246</v>
       </c>
       <c r="C131" t="n">
-        <v>0.140141</v>
+        <v>0.0564966</v>
       </c>
       <c r="D131" t="n">
-        <v>0.104068</v>
+        <v>0.0459526</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143279</v>
+        <v>0.0612009</v>
       </c>
       <c r="C132" t="n">
-        <v>0.148814</v>
+        <v>0.0604789</v>
       </c>
       <c r="D132" t="n">
-        <v>0.116016</v>
+        <v>0.0477026</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.161439</v>
+        <v>0.07100679999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.159546</v>
+        <v>0.066898</v>
       </c>
       <c r="D133" t="n">
-        <v>0.112655</v>
+        <v>0.0497193</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.181855</v>
+        <v>0.0850477</v>
       </c>
       <c r="C134" t="n">
-        <v>0.176205</v>
+        <v>0.0778118</v>
       </c>
       <c r="D134" t="n">
-        <v>0.126524</v>
+        <v>0.0533139</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.209559</v>
+        <v>0.105351</v>
       </c>
       <c r="C135" t="n">
-        <v>0.198796</v>
+        <v>0.0933976</v>
       </c>
       <c r="D135" t="n">
-        <v>0.129401</v>
+        <v>0.0593245</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.249058</v>
+        <v>0.13407</v>
       </c>
       <c r="C136" t="n">
-        <v>0.235676</v>
+        <v>0.123009</v>
       </c>
       <c r="D136" t="n">
-        <v>0.145478</v>
+        <v>0.0686296</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.301685</v>
+        <v>0.167656</v>
       </c>
       <c r="C137" t="n">
-        <v>0.294243</v>
+        <v>0.170449</v>
       </c>
       <c r="D137" t="n">
-        <v>0.134022</v>
+        <v>0.0547759</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.136396</v>
+        <v>0.0493034</v>
       </c>
       <c r="C138" t="n">
-        <v>0.158025</v>
+        <v>0.0586165</v>
       </c>
       <c r="D138" t="n">
-        <v>0.135135</v>
+        <v>0.0553428</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.139892</v>
+        <v>0.0501045</v>
       </c>
       <c r="C139" t="n">
-        <v>0.159874</v>
+        <v>0.0595103</v>
       </c>
       <c r="D139" t="n">
-        <v>0.136985</v>
+        <v>0.0560394</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.142527</v>
+        <v>0.0516962</v>
       </c>
       <c r="C140" t="n">
-        <v>0.162454</v>
+        <v>0.0605927</v>
       </c>
       <c r="D140" t="n">
-        <v>0.138657</v>
+        <v>0.0567119</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.145524</v>
+        <v>0.0533264</v>
       </c>
       <c r="C141" t="n">
-        <v>0.165159</v>
+        <v>0.0617998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.140361</v>
+        <v>0.0574128</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.150918</v>
+        <v>0.0553985</v>
       </c>
       <c r="C142" t="n">
-        <v>0.168316</v>
+        <v>0.063404</v>
       </c>
       <c r="D142" t="n">
-        <v>0.142203</v>
+        <v>0.0582466</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.154968</v>
+        <v>0.0582095</v>
       </c>
       <c r="C143" t="n">
-        <v>0.172119</v>
+        <v>0.0652336</v>
       </c>
       <c r="D143" t="n">
-        <v>0.144357</v>
+        <v>0.0591822</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0216435</v>
+        <v>0.0199746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0192531</v>
+        <v>0.0185839</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0200735</v>
+        <v>0.0201621</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0244671</v>
+        <v>0.0223711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0198012</v>
+        <v>0.0180835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0203168</v>
+        <v>0.0205927</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0298315</v>
+        <v>0.0279843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0207531</v>
+        <v>0.0186575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0206821</v>
+        <v>0.0213328</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0371818</v>
+        <v>0.0374557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0243098</v>
+        <v>0.0219409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0215287</v>
+        <v>0.0224255</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.050804</v>
+        <v>0.0541003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0325852</v>
+        <v>0.0348619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.021894</v>
+        <v>0.0228236</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0686392</v>
+        <v>0.0739308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617734</v>
+        <v>0.046746</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0240088</v>
+        <v>0.0246502</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0980248</v>
+        <v>0.0908332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0669309</v>
+        <v>0.0887013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0300592</v>
+        <v>0.0289321</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122728</v>
+        <v>0.119418</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111431</v>
+        <v>0.119804</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0181986</v>
+        <v>0.0176491</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0181842</v>
+        <v>0.0160955</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0192464</v>
+        <v>0.0180709</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0184078</v>
+        <v>0.0179043</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0185773</v>
+        <v>0.0165233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0195102</v>
+        <v>0.0184204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0186083</v>
+        <v>0.0181965</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0193067</v>
+        <v>0.0170052</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0201716</v>
+        <v>0.0189457</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0189258</v>
+        <v>0.0185586</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0201968</v>
+        <v>0.0176545</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0203874</v>
+        <v>0.0193755</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0192625</v>
+        <v>0.0189253</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0211495</v>
+        <v>0.018734</v>
       </c>
       <c r="C14" t="n">
-        <v>0.020657</v>
+        <v>0.0198448</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0195255</v>
+        <v>0.0192987</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0229454</v>
+        <v>0.020118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0214749</v>
+        <v>0.020306</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0199358</v>
+        <v>0.0198485</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0249535</v>
+        <v>0.0231423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0224629</v>
+        <v>0.0209034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0203794</v>
+        <v>0.0203825</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0322953</v>
+        <v>0.0275752</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0237537</v>
+        <v>0.0227075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0206913</v>
+        <v>0.0208815</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.033116</v>
+        <v>0.0337269</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0273338</v>
+        <v>0.0253999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.021307</v>
+        <v>0.0220019</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0423049</v>
+        <v>0.0441174</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0317536</v>
+        <v>0.0319034</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0218903</v>
+        <v>0.022769</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0556593</v>
+        <v>0.0560327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0509751</v>
+        <v>0.0383341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0232297</v>
+        <v>0.0243123</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0745869</v>
+        <v>0.0735251</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0567342</v>
+        <v>0.0568493</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0260749</v>
+        <v>0.0273683</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0994951</v>
+        <v>0.09810720000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0930342</v>
+        <v>0.0838647</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0331037</v>
+        <v>0.0323586</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.122975</v>
+        <v>0.118682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129024</v>
+        <v>0.131653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0181745</v>
+        <v>0.017563</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0179522</v>
+        <v>0.0168617</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0197985</v>
+        <v>0.0187591</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0183936</v>
+        <v>0.0179077</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.018646</v>
+        <v>0.017117</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0202205</v>
+        <v>0.0191409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0185632</v>
+        <v>0.0181191</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0196205</v>
+        <v>0.0179684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0206862</v>
+        <v>0.0197405</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0189057</v>
+        <v>0.0185128</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.020669</v>
+        <v>0.018842</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0214893</v>
+        <v>0.020439</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0192473</v>
+        <v>0.0188997</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0220056</v>
+        <v>0.020762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0220528</v>
+        <v>0.0212415</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0196572</v>
+        <v>0.0193475</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0236291</v>
+        <v>0.0229493</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0229586</v>
+        <v>0.0219892</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0199741</v>
+        <v>0.0197701</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0265793</v>
+        <v>0.0261253</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0247158</v>
+        <v>0.0234121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0204114</v>
+        <v>0.0202878</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.031543</v>
+        <v>0.0299548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0279099</v>
+        <v>0.0264304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0210622</v>
+        <v>0.0211156</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0380291</v>
+        <v>0.0351932</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0311887</v>
+        <v>0.0302305</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0219564</v>
+        <v>0.0221556</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0465267</v>
+        <v>0.0437828</v>
       </c>
       <c r="C33" t="n">
-        <v>0.037002</v>
+        <v>0.0366198</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0228791</v>
+        <v>0.0232419</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0573557</v>
+        <v>0.0554948</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0490022</v>
+        <v>0.0459437</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0247142</v>
+        <v>0.0249746</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0737686</v>
+        <v>0.07231650000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0604739</v>
+        <v>0.0594599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0283956</v>
+        <v>0.0282488</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09491819999999999</v>
+        <v>0.09074749999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0882748</v>
+        <v>0.0878531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0362523</v>
+        <v>0.0352729</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119129</v>
+        <v>0.117374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.130284</v>
+        <v>0.129282</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0185142</v>
+        <v>0.017949</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0185532</v>
+        <v>0.0170956</v>
       </c>
       <c r="C38" t="n">
-        <v>0.020834</v>
+        <v>0.0198852</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0187631</v>
+        <v>0.0182123</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0193926</v>
+        <v>0.0178543</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0213181</v>
+        <v>0.0203496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0189528</v>
+        <v>0.0184241</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0204486</v>
+        <v>0.0189841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0219434</v>
+        <v>0.0210131</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0192602</v>
+        <v>0.0187582</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0218141</v>
+        <v>0.0200948</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0225875</v>
+        <v>0.0216736</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0195452</v>
+        <v>0.0191191</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0234001</v>
+        <v>0.0217684</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0237076</v>
+        <v>0.0228112</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0199656</v>
+        <v>0.0195615</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0257005</v>
+        <v>0.0244338</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0251366</v>
+        <v>0.0240973</v>
       </c>
       <c r="D43" t="n">
-        <v>0.020469</v>
+        <v>0.0201191</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0286623</v>
+        <v>0.0277674</v>
       </c>
       <c r="C44" t="n">
-        <v>0.026913</v>
+        <v>0.0257658</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0210074</v>
+        <v>0.0206961</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0332165</v>
+        <v>0.0324631</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0303229</v>
+        <v>0.0290975</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0217296</v>
+        <v>0.0215587</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0389063</v>
+        <v>0.0387566</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0354906</v>
+        <v>0.0349767</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0228577</v>
+        <v>0.0226734</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0462846</v>
+        <v>0.044976</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0405892</v>
+        <v>0.0398391</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0243659</v>
+        <v>0.0242101</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.056868</v>
+        <v>0.0559175</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0500991</v>
+        <v>0.0491529</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0267211</v>
+        <v>0.0265092</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0729013</v>
+        <v>0.0710027</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0647329</v>
+        <v>0.06340750000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0306241</v>
+        <v>0.0299203</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.093019</v>
+        <v>0.0908212</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0859675</v>
+        <v>0.0843724</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0369725</v>
+        <v>0.0362318</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.120715</v>
+        <v>0.117424</v>
       </c>
       <c r="C51" t="n">
-        <v>0.122256</v>
+        <v>0.121267</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0192905</v>
+        <v>0.018616</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142718</v>
+        <v>0.140864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.169285</v>
+        <v>0.167097</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0194965</v>
+        <v>0.0188728</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0205561</v>
+        <v>0.0189027</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0223483</v>
+        <v>0.0213247</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0197814</v>
+        <v>0.0191354</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0217838</v>
+        <v>0.0201008</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0229567</v>
+        <v>0.0219345</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0200773</v>
+        <v>0.0194676</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0232161</v>
+        <v>0.021583</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0238571</v>
+        <v>0.022889</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0204309</v>
+        <v>0.0198285</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0248549</v>
+        <v>0.0235148</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0248446</v>
+        <v>0.0238477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0208198</v>
+        <v>0.0202084</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.027403</v>
+        <v>0.0261005</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0264602</v>
+        <v>0.0253224</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0212663</v>
+        <v>0.0207233</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0304368</v>
+        <v>0.0293833</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0288082</v>
+        <v>0.0275992</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0219796</v>
+        <v>0.0213995</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0349615</v>
+        <v>0.0337692</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0315638</v>
+        <v>0.0302451</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0227795</v>
+        <v>0.0222513</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.040844</v>
+        <v>0.0392899</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0357189</v>
+        <v>0.0345438</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0238637</v>
+        <v>0.023328</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0479673</v>
+        <v>0.046662</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0419933</v>
+        <v>0.0408319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02549</v>
+        <v>0.0249404</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0579032</v>
+        <v>0.0562823</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0504091</v>
+        <v>0.0492235</v>
       </c>
       <c r="D62" t="n">
-        <v>0.027939</v>
+        <v>0.027529</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0718784</v>
+        <v>0.0701638</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0632149</v>
+        <v>0.061553</v>
       </c>
       <c r="D63" t="n">
-        <v>0.031927</v>
+        <v>0.0313116</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0913248</v>
+        <v>0.0890341</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0824236</v>
+        <v>0.0805206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0386306</v>
+        <v>0.0376983</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11793</v>
+        <v>0.114833</v>
       </c>
       <c r="C65" t="n">
-        <v>0.115252</v>
+        <v>0.113447</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0496687</v>
+        <v>0.0489477</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14678</v>
+        <v>0.144939</v>
       </c>
       <c r="C66" t="n">
-        <v>0.163694</v>
+        <v>0.161291</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0196702</v>
+        <v>0.019011</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.021111</v>
+        <v>0.0197502</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0227939</v>
+        <v>0.0217627</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0199844</v>
+        <v>0.0193203</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0223928</v>
+        <v>0.0210028</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0235821</v>
+        <v>0.022553</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0203465</v>
+        <v>0.0197232</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0237949</v>
+        <v>0.0227789</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0245664</v>
+        <v>0.0235574</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0207404</v>
+        <v>0.0201442</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0257943</v>
+        <v>0.0246593</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0257518</v>
+        <v>0.0246975</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0211659</v>
+        <v>0.0205764</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0281667</v>
+        <v>0.0270269</v>
       </c>
       <c r="C71" t="n">
-        <v>0.027196</v>
+        <v>0.0260874</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0216792</v>
+        <v>0.0210852</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0314652</v>
+        <v>0.0302493</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0291578</v>
+        <v>0.0279758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0222925</v>
+        <v>0.0217122</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0352207</v>
+        <v>0.0342455</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0319759</v>
+        <v>0.030811</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0231254</v>
+        <v>0.022629</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0409942</v>
+        <v>0.0395435</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0358987</v>
+        <v>0.034622</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0243216</v>
+        <v>0.0237333</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0479739</v>
+        <v>0.0466214</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0416287</v>
+        <v>0.0402214</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0260991</v>
+        <v>0.0254197</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0570716</v>
+        <v>0.0559597</v>
       </c>
       <c r="C76" t="n">
-        <v>0.049588</v>
+        <v>0.047952</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0284223</v>
+        <v>0.0277608</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0697866</v>
+        <v>0.0685593</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0612335</v>
+        <v>0.0592906</v>
       </c>
       <c r="D77" t="n">
-        <v>0.032018</v>
+        <v>0.0313383</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0877814</v>
+        <v>0.0867699</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0776607</v>
+        <v>0.07559440000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.037653</v>
+        <v>0.037026</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113053</v>
+        <v>0.111201</v>
       </c>
       <c r="C79" t="n">
-        <v>0.105379</v>
+        <v>0.103124</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0472509</v>
+        <v>0.0465119</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144882</v>
+        <v>0.141494</v>
       </c>
       <c r="C80" t="n">
-        <v>0.150406</v>
+        <v>0.148399</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0199175</v>
+        <v>0.0192382</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0212404</v>
+        <v>0.0200207</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0231477</v>
+        <v>0.0223391</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0202047</v>
+        <v>0.0195643</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.022486</v>
+        <v>0.0212269</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0239446</v>
+        <v>0.0231769</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0205505</v>
+        <v>0.0199296</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0240088</v>
+        <v>0.0226945</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0248773</v>
+        <v>0.0241129</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0209447</v>
+        <v>0.0204282</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0258256</v>
+        <v>0.0246895</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0261055</v>
+        <v>0.0252673</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0214289</v>
+        <v>0.0208927</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0284184</v>
+        <v>0.0274303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0277336</v>
+        <v>0.0268372</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0219813</v>
+        <v>0.021538</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0315866</v>
+        <v>0.0301632</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0297421</v>
+        <v>0.0286828</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0226288</v>
+        <v>0.0222851</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0355168</v>
+        <v>0.0343383</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0322841</v>
+        <v>0.0310672</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0235052</v>
+        <v>0.0232149</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0405777</v>
+        <v>0.0393209</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0359325</v>
+        <v>0.0345672</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0246725</v>
+        <v>0.0244507</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.047144</v>
+        <v>0.0454285</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0409377</v>
+        <v>0.0394295</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0263177</v>
+        <v>0.0259784</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0557684</v>
+        <v>0.0543419</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0484596</v>
+        <v>0.0468561</v>
       </c>
       <c r="D90" t="n">
-        <v>0.028668</v>
+        <v>0.0282943</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0677077</v>
+        <v>0.06590409999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0587847</v>
+        <v>0.0569589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0319518</v>
+        <v>0.0314579</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08495320000000001</v>
+        <v>0.08316999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07429479999999999</v>
+        <v>0.07245</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0370515</v>
+        <v>0.0365879</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.109055</v>
+        <v>0.106615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09984800000000001</v>
+        <v>0.09784569999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0457901</v>
+        <v>0.0450952</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139812</v>
+        <v>0.136838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.142103</v>
+        <v>0.139669</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0213037</v>
+        <v>0.0208871</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0218588</v>
+        <v>0.0207148</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0244801</v>
+        <v>0.0237499</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0218109</v>
+        <v>0.0214555</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0231106</v>
+        <v>0.0218231</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0253458</v>
+        <v>0.0249294</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0222966</v>
+        <v>0.0220137</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0244934</v>
+        <v>0.0235618</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0264598</v>
+        <v>0.0266465</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0228616</v>
+        <v>0.0225922</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.026417</v>
+        <v>0.0254205</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0280927</v>
+        <v>0.0293475</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0233375</v>
+        <v>0.0232915</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0287263</v>
+        <v>0.0277238</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0302429</v>
+        <v>0.0325618</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02412</v>
+        <v>0.0246113</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0316842</v>
+        <v>0.0309717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0331926</v>
+        <v>0.0359918</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0250566</v>
+        <v>0.0266287</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0356133</v>
+        <v>0.034493</v>
       </c>
       <c r="C101" t="n">
-        <v>0.036644</v>
+        <v>0.0391962</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0264105</v>
+        <v>0.0293725</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0407699</v>
+        <v>0.0401348</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0406552</v>
+        <v>0.0423199</v>
       </c>
       <c r="D102" t="n">
-        <v>0.028431</v>
+        <v>0.0323838</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0474453</v>
+        <v>0.0464552</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0449572</v>
+        <v>0.0459227</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0310402</v>
+        <v>0.0353862</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0557594</v>
+        <v>0.0546064</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0512026</v>
+        <v>0.0516739</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0342454</v>
+        <v>0.0384466</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.066842</v>
+        <v>0.065411</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0597181</v>
+        <v>0.0586182</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0380498</v>
+        <v>0.0416202</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0826732</v>
+        <v>0.08111790000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0731352</v>
+        <v>0.07141210000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0429423</v>
+        <v>0.0456443</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.104811</v>
+        <v>0.10261</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09509620000000001</v>
+        <v>0.09303640000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0500622</v>
+        <v>0.0519131</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.134671</v>
+        <v>0.131855</v>
       </c>
       <c r="C108" t="n">
-        <v>0.133931</v>
+        <v>0.131746</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0312427</v>
+        <v>0.0324166</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169564</v>
+        <v>0.167859</v>
       </c>
       <c r="C109" t="n">
-        <v>0.186648</v>
+        <v>0.183631</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0324568</v>
+        <v>0.0334394</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314087</v>
+        <v>0.0308739</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0385426</v>
+        <v>0.0382801</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0333215</v>
+        <v>0.0342435</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329937</v>
+        <v>0.032613</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0394881</v>
+        <v>0.0392846</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0342639</v>
+        <v>0.0350556</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034568</v>
+        <v>0.034221</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0406976</v>
+        <v>0.040221</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0350932</v>
+        <v>0.0358717</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0363701</v>
+        <v>0.0360225</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0417226</v>
+        <v>0.0413197</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0359663</v>
+        <v>0.0366873</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0385868</v>
+        <v>0.0383657</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0430478</v>
+        <v>0.0426685</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0369742</v>
+        <v>0.0376708</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0413426</v>
+        <v>0.0408546</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0448441</v>
+        <v>0.0443478</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0379008</v>
+        <v>0.0386302</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0448088</v>
+        <v>0.0441552</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0471329</v>
+        <v>0.0465075</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0389558</v>
+        <v>0.0398146</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0498589</v>
+        <v>0.0485179</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0502489</v>
+        <v>0.0495102</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0403297</v>
+        <v>0.0412212</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0564509</v>
+        <v>0.0552273</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0546992</v>
+        <v>0.0538235</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0422075</v>
+        <v>0.0429427</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.066375</v>
+        <v>0.06492580000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.061361</v>
+        <v>0.0601526</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0446693</v>
+        <v>0.0455556</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0811132</v>
+        <v>0.0791367</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07248780000000001</v>
+        <v>0.0710412</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0481757</v>
+        <v>0.0491536</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.101945</v>
+        <v>0.0999347</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09115819999999999</v>
+        <v>0.0895113</v>
       </c>
       <c r="D121" t="n">
-        <v>0.053848</v>
+        <v>0.054736</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.130592</v>
+        <v>0.128094</v>
       </c>
       <c r="C122" t="n">
-        <v>0.124711</v>
+        <v>0.122948</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0639835</v>
+        <v>0.0644487</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.165313</v>
+        <v>0.163548</v>
       </c>
       <c r="C123" t="n">
-        <v>0.175186</v>
+        <v>0.172866</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0375491</v>
+        <v>0.0379716</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0357922</v>
+        <v>0.0346339</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0441539</v>
+        <v>0.0424721</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0391849</v>
+        <v>0.0387374</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0370698</v>
+        <v>0.0355354</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0450794</v>
+        <v>0.0434258</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0395747</v>
+        <v>0.039425</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0385468</v>
+        <v>0.0372352</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0459926</v>
+        <v>0.044818</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0400074</v>
+        <v>0.0400483</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0404113</v>
+        <v>0.0385047</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0474244</v>
+        <v>0.0458006</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0407763</v>
+        <v>0.0410584</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0425049</v>
+        <v>0.0411049</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0490428</v>
+        <v>0.0473031</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0423255</v>
+        <v>0.0419449</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0456104</v>
+        <v>0.0439798</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0510672</v>
+        <v>0.0493497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0422679</v>
+        <v>0.0429313</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0493824</v>
+        <v>0.04739</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0531679</v>
+        <v>0.0516778</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0443973</v>
+        <v>0.0441977</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0544246</v>
+        <v>0.0521658</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0564966</v>
+        <v>0.0546998</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0459526</v>
+        <v>0.0457638</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0612009</v>
+        <v>0.0586895</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0604789</v>
+        <v>0.0591634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0477026</v>
+        <v>0.0475294</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.07100679999999999</v>
+        <v>0.0680711</v>
       </c>
       <c r="C133" t="n">
-        <v>0.066898</v>
+        <v>0.0653265</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0497193</v>
+        <v>0.0500786</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0850477</v>
+        <v>0.0820838</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0778118</v>
+        <v>0.0752591</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0533139</v>
+        <v>0.0536186</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.105351</v>
+        <v>0.101855</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0933976</v>
+        <v>0.0919177</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0593245</v>
+        <v>0.0591599</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.13407</v>
+        <v>0.12951</v>
       </c>
       <c r="C136" t="n">
-        <v>0.123009</v>
+        <v>0.121142</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0686296</v>
+        <v>0.0689019</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167656</v>
+        <v>0.163867</v>
       </c>
       <c r="C137" t="n">
-        <v>0.170449</v>
+        <v>0.1684</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0547759</v>
+        <v>0.0534654</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0493034</v>
+        <v>0.0468922</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0586165</v>
+        <v>0.0552701</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0553428</v>
+        <v>0.0539555</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0501045</v>
+        <v>0.0482012</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0595103</v>
+        <v>0.0564094</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0560394</v>
+        <v>0.0548494</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0516962</v>
+        <v>0.0491648</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0605927</v>
+        <v>0.0574369</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0567119</v>
+        <v>0.0553747</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0533264</v>
+        <v>0.0527207</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0617998</v>
+        <v>0.0586381</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0574128</v>
+        <v>0.0561235</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0553985</v>
+        <v>0.0528154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.063404</v>
+        <v>0.0601686</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0582466</v>
+        <v>0.0611306</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0582095</v>
+        <v>0.055782</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0652336</v>
+        <v>0.0620335</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0591822</v>
+        <v>0.0579442</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0199746</v>
+        <v>0.0186948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0185839</v>
+        <v>0.0181318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0201621</v>
+        <v>0.0201353</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0223711</v>
+        <v>0.0209812</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0180835</v>
+        <v>0.0179351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0205927</v>
+        <v>0.0205839</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0279843</v>
+        <v>0.0239875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0186575</v>
+        <v>0.0191846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213328</v>
+        <v>0.0213219</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0374557</v>
+        <v>0.032553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0219409</v>
+        <v>0.0219111</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0224255</v>
+        <v>0.0222944</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0541003</v>
+        <v>0.0487039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0348619</v>
+        <v>0.0419053</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0228236</v>
+        <v>0.0231827</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0739308</v>
+        <v>0.0682425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046746</v>
+        <v>0.0475631</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0246502</v>
+        <v>0.0247273</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0908332</v>
+        <v>0.0874316</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0887013</v>
+        <v>0.0665208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0289321</v>
+        <v>0.0301228</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119418</v>
+        <v>0.122039</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119804</v>
+        <v>0.11212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0176491</v>
+        <v>0.0176579</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0160955</v>
+        <v>0.0162233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0180709</v>
+        <v>0.0180282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0179043</v>
+        <v>0.0179451</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0165233</v>
+        <v>0.01671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0184204</v>
+        <v>0.0183575</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0181965</v>
+        <v>0.018219</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0170052</v>
+        <v>0.0173333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0189457</v>
+        <v>0.0190579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0185586</v>
+        <v>0.0185405</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0176545</v>
+        <v>0.0179043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0193755</v>
+        <v>0.0193768</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0189253</v>
+        <v>0.0189456</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018734</v>
+        <v>0.0186503</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0198448</v>
+        <v>0.0195506</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0192987</v>
+        <v>0.0193177</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.020118</v>
+        <v>0.0203156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.020306</v>
+        <v>0.0205102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0198485</v>
+        <v>0.0198404</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0231423</v>
+        <v>0.0231066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0209034</v>
+        <v>0.0213922</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0203825</v>
+        <v>0.0203966</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0275752</v>
+        <v>0.027167</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0227075</v>
+        <v>0.0228481</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0208815</v>
+        <v>0.0208985</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0337269</v>
+        <v>0.0335611</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0253999</v>
+        <v>0.0264254</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0220019</v>
+        <v>0.022008</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0441174</v>
+        <v>0.0424328</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0319034</v>
+        <v>0.0367423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.022769</v>
+        <v>0.0229982</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0560327</v>
+        <v>0.0574333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0383341</v>
+        <v>0.0398463</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0243123</v>
+        <v>0.0242686</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0735251</v>
+        <v>0.0745333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0568493</v>
+        <v>0.0569953</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0273683</v>
+        <v>0.0275313</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09810720000000001</v>
+        <v>0.0973152</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0838647</v>
+        <v>0.0830973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0323586</v>
+        <v>0.0329788</v>
       </c>
     </row>
     <row r="23">
@@ -3545,10 +3545,10 @@
         <v>0.118682</v>
       </c>
       <c r="C23" t="n">
-        <v>0.131653</v>
+        <v>0.129809</v>
       </c>
       <c r="D23" t="n">
-        <v>0.017563</v>
+        <v>0.017558</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0168617</v>
+        <v>0.0168014</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0187591</v>
+        <v>0.01873</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0179077</v>
+        <v>0.0179007</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017117</v>
+        <v>0.0172554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0191409</v>
+        <v>0.0191929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0181191</v>
+        <v>0.0181394</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179684</v>
+        <v>0.0178514</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0197405</v>
+        <v>0.0197536</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0185128</v>
+        <v>0.0185029</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018842</v>
+        <v>0.0189545</v>
       </c>
       <c r="C27" t="n">
-        <v>0.020439</v>
+        <v>0.0204434</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0188997</v>
+        <v>0.0188948</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.020762</v>
+        <v>0.0201068</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0212415</v>
+        <v>0.0210317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0193475</v>
+        <v>0.019364</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0229493</v>
+        <v>0.022366</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0219892</v>
+        <v>0.0220227</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0197701</v>
+        <v>0.01977</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0261253</v>
+        <v>0.0259764</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0234121</v>
+        <v>0.0233828</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0202878</v>
+        <v>0.0202965</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0299548</v>
+        <v>0.0301525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0264304</v>
+        <v>0.0260798</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0211156</v>
+        <v>0.0211087</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0351932</v>
+        <v>0.0366653</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0302305</v>
+        <v>0.0296676</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0221556</v>
+        <v>0.022153</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0437828</v>
+        <v>0.0468814</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0366198</v>
+        <v>0.0366039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0232419</v>
+        <v>0.0232487</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0554948</v>
+        <v>0.0580199</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0459437</v>
+        <v>0.0470445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249746</v>
+        <v>0.0249379</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07231650000000001</v>
+        <v>0.0739465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0594599</v>
+        <v>0.0594339</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0282488</v>
+        <v>0.0284758</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09074749999999999</v>
+        <v>0.0956312</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0878531</v>
+        <v>0.0872547</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0352729</v>
+        <v>0.0347124</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117374</v>
+        <v>0.119344</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129282</v>
+        <v>0.128826</v>
       </c>
       <c r="D37" t="n">
-        <v>0.017949</v>
+        <v>0.0179711</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170956</v>
+        <v>0.0170759</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0198852</v>
+        <v>0.0199344</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0182123</v>
+        <v>0.0181953</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178543</v>
+        <v>0.0179697</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0203496</v>
+        <v>0.020327</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0184241</v>
+        <v>0.0184681</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189841</v>
+        <v>0.0188386</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0210131</v>
+        <v>0.021083</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0187582</v>
+        <v>0.0187553</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200948</v>
+        <v>0.0203355</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0216736</v>
+        <v>0.0217392</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0191191</v>
+        <v>0.019151</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0217684</v>
+        <v>0.0218542</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0228112</v>
+        <v>0.0228463</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0195615</v>
+        <v>0.0196017</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0244338</v>
+        <v>0.0242916</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0240973</v>
+        <v>0.0240959</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0201191</v>
+        <v>0.0201565</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277674</v>
+        <v>0.0276789</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0257658</v>
+        <v>0.0259145</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0206961</v>
+        <v>0.0207249</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0324631</v>
+        <v>0.0328832</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0290975</v>
+        <v>0.0292704</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0215587</v>
+        <v>0.0215471</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0387566</v>
+        <v>0.0379133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0349767</v>
+        <v>0.033791</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0226734</v>
+        <v>0.0226777</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.044976</v>
+        <v>0.0459076</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0398391</v>
+        <v>0.0400379</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0242101</v>
+        <v>0.0242483</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0559175</v>
+        <v>0.0559784</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0491529</v>
+        <v>0.0491139</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0265092</v>
+        <v>0.0265384</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0710027</v>
+        <v>0.0707831</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06340750000000001</v>
+        <v>0.0635728</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0299203</v>
+        <v>0.0299808</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0908212</v>
+        <v>0.09192359999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0843724</v>
+        <v>0.0843226</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0362318</v>
+        <v>0.0365558</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117424</v>
+        <v>0.117096</v>
       </c>
       <c r="C51" t="n">
-        <v>0.121267</v>
+        <v>0.120521</v>
       </c>
       <c r="D51" t="n">
-        <v>0.018616</v>
+        <v>0.0186179</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.140864</v>
+        <v>0.142423</v>
       </c>
       <c r="C52" t="n">
-        <v>0.167097</v>
+        <v>0.166755</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0188728</v>
+        <v>0.0188716</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189027</v>
+        <v>0.0193392</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0213247</v>
+        <v>0.0213279</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0191354</v>
+        <v>0.0191177</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0201008</v>
+        <v>0.0205943</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0219345</v>
+        <v>0.0219596</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0194676</v>
+        <v>0.0194685</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021583</v>
+        <v>0.021982</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022889</v>
+        <v>0.0228779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0198285</v>
+        <v>0.0198473</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0235148</v>
+        <v>0.0241383</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0238477</v>
+        <v>0.0238118</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0202084</v>
+        <v>0.0202265</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261005</v>
+        <v>0.0267957</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0253224</v>
+        <v>0.025374</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0207233</v>
+        <v>0.0207137</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0293833</v>
+        <v>0.0302191</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0275992</v>
+        <v>0.0276841</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0213995</v>
+        <v>0.0214076</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0337692</v>
+        <v>0.034554</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0302451</v>
+        <v>0.0302842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0222513</v>
+        <v>0.0222774</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0392899</v>
+        <v>0.0400093</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0345438</v>
+        <v>0.0344876</v>
       </c>
       <c r="D60" t="n">
-        <v>0.023328</v>
+        <v>0.0233467</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046662</v>
+        <v>0.0471774</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0408319</v>
+        <v>0.0408948</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0249404</v>
+        <v>0.0250001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0562823</v>
+        <v>0.0568231</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0492235</v>
+        <v>0.049068</v>
       </c>
       <c r="D62" t="n">
-        <v>0.027529</v>
+        <v>0.0274681</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701638</v>
+        <v>0.07017859999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.061553</v>
+        <v>0.0614069</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0313116</v>
+        <v>0.0312036</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0890341</v>
+        <v>0.0895654</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0805206</v>
+        <v>0.0803198</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0376983</v>
+        <v>0.0375542</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114833</v>
+        <v>0.115564</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113447</v>
+        <v>0.113239</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0489477</v>
+        <v>0.0486738</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.144939</v>
+        <v>0.146593</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161291</v>
+        <v>0.160725</v>
       </c>
       <c r="D66" t="n">
-        <v>0.019011</v>
+        <v>0.0189916</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197502</v>
+        <v>0.0195937</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0217627</v>
+        <v>0.0217249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0193203</v>
+        <v>0.0192812</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210028</v>
+        <v>0.0209252</v>
       </c>
       <c r="C68" t="n">
-        <v>0.022553</v>
+        <v>0.0225169</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0197232</v>
+        <v>0.0196812</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227789</v>
+        <v>0.0226498</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0235574</v>
+        <v>0.0235262</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0201442</v>
+        <v>0.0200898</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246593</v>
+        <v>0.0248403</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0246975</v>
+        <v>0.0246481</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0205764</v>
+        <v>0.0205935</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270269</v>
+        <v>0.0269987</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260874</v>
+        <v>0.0260732</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0210852</v>
+        <v>0.0211126</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302493</v>
+        <v>0.0304801</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0279758</v>
+        <v>0.0279496</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0217122</v>
+        <v>0.0217067</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342455</v>
+        <v>0.0342837</v>
       </c>
       <c r="C73" t="n">
-        <v>0.030811</v>
+        <v>0.0308224</v>
       </c>
       <c r="D73" t="n">
-        <v>0.022629</v>
+        <v>0.0226058</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0395435</v>
+        <v>0.0400478</v>
       </c>
       <c r="C74" t="n">
-        <v>0.034622</v>
+        <v>0.0346692</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0237333</v>
+        <v>0.0237621</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466214</v>
+        <v>0.0466097</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0402214</v>
+        <v>0.0402821</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0254197</v>
+        <v>0.0254488</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559597</v>
+        <v>0.0559873</v>
       </c>
       <c r="C76" t="n">
-        <v>0.047952</v>
+        <v>0.0479293</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0277608</v>
+        <v>0.0277771</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0685593</v>
+        <v>0.0688169</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0592906</v>
+        <v>0.0593382</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0313383</v>
+        <v>0.0313582</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0867699</v>
+        <v>0.08665150000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07559440000000001</v>
+        <v>0.0755812</v>
       </c>
       <c r="D78" t="n">
-        <v>0.037026</v>
+        <v>0.0370185</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111201</v>
+        <v>0.111015</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103124</v>
+        <v>0.103278</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0465119</v>
+        <v>0.0464056</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.141494</v>
+        <v>0.142244</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148399</v>
+        <v>0.148381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0192382</v>
+        <v>0.0193067</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200207</v>
+        <v>0.0199835</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0223391</v>
+        <v>0.022406</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0195643</v>
+        <v>0.0196783</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212269</v>
+        <v>0.021327</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0231769</v>
+        <v>0.0232518</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0199296</v>
+        <v>0.0200045</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0226945</v>
+        <v>0.0231832</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0241129</v>
+        <v>0.0241605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0204282</v>
+        <v>0.020409</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0246895</v>
+        <v>0.0251331</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0252673</v>
+        <v>0.0253552</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0208927</v>
+        <v>0.0209272</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274303</v>
+        <v>0.0272164</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268372</v>
+        <v>0.0268438</v>
       </c>
       <c r="D85" t="n">
-        <v>0.021538</v>
+        <v>0.0215582</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301632</v>
+        <v>0.0303184</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0286828</v>
+        <v>0.0287383</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0222851</v>
+        <v>0.022278</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343383</v>
+        <v>0.0343353</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310672</v>
+        <v>0.0310279</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0232149</v>
+        <v>0.023225</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393209</v>
+        <v>0.0391055</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0345672</v>
+        <v>0.0346662</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0244507</v>
+        <v>0.0243833</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0454285</v>
+        <v>0.0453125</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0394295</v>
+        <v>0.039411</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0259784</v>
+        <v>0.025973</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0543419</v>
+        <v>0.0539698</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0468561</v>
+        <v>0.0467736</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0282943</v>
+        <v>0.0282271</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06590409999999999</v>
+        <v>0.0656775</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569589</v>
+        <v>0.0569962</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0314579</v>
+        <v>0.031476</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08316999999999999</v>
+        <v>0.0825689</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07245</v>
+        <v>0.0736868</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0365879</v>
+        <v>0.03649</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106615</v>
+        <v>0.106551</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09784569999999999</v>
+        <v>0.09788959999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0450952</v>
+        <v>0.0451648</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.136838</v>
+        <v>0.136858</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139669</v>
+        <v>0.139691</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0208871</v>
+        <v>0.0208951</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0207148</v>
+        <v>0.0205769</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0237499</v>
+        <v>0.0237438</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0214555</v>
+        <v>0.0214019</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218231</v>
+        <v>0.0220241</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0249294</v>
+        <v>0.0250102</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0220137</v>
+        <v>0.0218715</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0235618</v>
+        <v>0.0230731</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0266465</v>
+        <v>0.0268014</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0225922</v>
+        <v>0.022483</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0254205</v>
+        <v>0.0253367</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0293475</v>
+        <v>0.0294983</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0232915</v>
+        <v>0.0232513</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277238</v>
+        <v>0.0274745</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0325618</v>
+        <v>0.0326744</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0246113</v>
+        <v>0.0246799</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0309717</v>
+        <v>0.0306262</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0359918</v>
+        <v>0.0361084</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0266287</v>
+        <v>0.026658</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034493</v>
+        <v>0.0345343</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391962</v>
+        <v>0.0392554</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0293725</v>
+        <v>0.0295375</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0401348</v>
+        <v>0.0397965</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0423199</v>
+        <v>0.0423955</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0323838</v>
+        <v>0.0324613</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464552</v>
+        <v>0.046082</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0459227</v>
+        <v>0.0459665</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0353862</v>
+        <v>0.0353249</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546064</v>
+        <v>0.0542563</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0516739</v>
+        <v>0.0510963</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0384466</v>
+        <v>0.0384867</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.065411</v>
+        <v>0.0656987</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0586182</v>
+        <v>0.0587097</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0416202</v>
+        <v>0.0415464</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08111790000000001</v>
+        <v>0.0812239</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07141210000000001</v>
+        <v>0.0714113</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0456443</v>
+        <v>0.0457533</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10261</v>
+        <v>0.103092</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09303640000000001</v>
+        <v>0.0930947</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0519131</v>
+        <v>0.0520775</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.131855</v>
+        <v>0.132421</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131746</v>
+        <v>0.131807</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0324166</v>
+        <v>0.0323772</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167859</v>
+        <v>0.168586</v>
       </c>
       <c r="C109" t="n">
-        <v>0.183631</v>
+        <v>0.183707</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0334394</v>
+        <v>0.0333298</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0308739</v>
+        <v>0.0310073</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0382801</v>
+        <v>0.0383079</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0342435</v>
+        <v>0.0343103</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032613</v>
+        <v>0.0327721</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0392846</v>
+        <v>0.0392832</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0350556</v>
+        <v>0.0351137</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034221</v>
+        <v>0.0344227</v>
       </c>
       <c r="C112" t="n">
-        <v>0.040221</v>
+        <v>0.0402648</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0358717</v>
+        <v>0.0358271</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360225</v>
+        <v>0.0360724</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0413197</v>
+        <v>0.0415844</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0366873</v>
+        <v>0.036736</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383657</v>
+        <v>0.0381604</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426685</v>
+        <v>0.0427041</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0376708</v>
+        <v>0.0375258</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408546</v>
+        <v>0.0406146</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0443478</v>
+        <v>0.0443808</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0386302</v>
+        <v>0.0386125</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441552</v>
+        <v>0.044285</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0465075</v>
+        <v>0.0465053</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0398146</v>
+        <v>0.0398431</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0485179</v>
+        <v>0.0488143</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0495102</v>
+        <v>0.0494779</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0412212</v>
+        <v>0.0411778</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552273</v>
+        <v>0.0552516</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0538235</v>
+        <v>0.0537543</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0429427</v>
+        <v>0.0430203</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06492580000000001</v>
+        <v>0.0652137</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0601526</v>
+        <v>0.0601001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0455556</v>
+        <v>0.0454404</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0791367</v>
+        <v>0.0795894</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0710412</v>
+        <v>0.0708941</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0491536</v>
+        <v>0.0490729</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0999347</v>
+        <v>0.100328</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0895113</v>
+        <v>0.089285</v>
       </c>
       <c r="D121" t="n">
-        <v>0.054736</v>
+        <v>0.0546015</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128094</v>
+        <v>0.128457</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122948</v>
+        <v>0.122861</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0644487</v>
+        <v>0.0644826</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163548</v>
+        <v>0.16375</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172866</v>
+        <v>0.173851</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0379716</v>
+        <v>0.0373899</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0346339</v>
+        <v>0.033984</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0424721</v>
+        <v>0.0427903</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0387374</v>
+        <v>0.0383741</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355354</v>
+        <v>0.0353676</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0434258</v>
+        <v>0.0437264</v>
       </c>
       <c r="D125" t="n">
-        <v>0.039425</v>
+        <v>0.0387514</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0372352</v>
+        <v>0.0366861</v>
       </c>
       <c r="C126" t="n">
-        <v>0.044818</v>
+        <v>0.044975</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0400483</v>
+        <v>0.0395509</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385047</v>
+        <v>0.0383137</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0458006</v>
+        <v>0.0457867</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0410584</v>
+        <v>0.0406444</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0411049</v>
+        <v>0.0407236</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0473031</v>
+        <v>0.047395</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0419449</v>
+        <v>0.0417485</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0439798</v>
+        <v>0.0430999</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0493497</v>
+        <v>0.0494361</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0429313</v>
+        <v>0.0429381</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04739</v>
+        <v>0.0464781</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0516778</v>
+        <v>0.0516277</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0441977</v>
+        <v>0.0441332</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521658</v>
+        <v>0.050957</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0546998</v>
+        <v>0.0546901</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0457638</v>
+        <v>0.0455142</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0586895</v>
+        <v>0.0587706</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0591634</v>
+        <v>0.0590943</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0475294</v>
+        <v>0.0474135</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0680711</v>
+        <v>0.0681277</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0653265</v>
+        <v>0.0653262</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0500786</v>
+        <v>0.0495755</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0820838</v>
+        <v>0.08202089999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0752591</v>
+        <v>0.07554130000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0536186</v>
+        <v>0.053497</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101855</v>
+        <v>0.101872</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0919177</v>
+        <v>0.09209630000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0591599</v>
+        <v>0.0592104</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.12951</v>
+        <v>0.129297</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121142</v>
+        <v>0.12097</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0689019</v>
+        <v>0.06858359999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163867</v>
+        <v>0.162683</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1684</v>
+        <v>0.168207</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0534654</v>
+        <v>0.0541178</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468922</v>
+        <v>0.0468302</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0552701</v>
+        <v>0.0557122</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0539555</v>
+        <v>0.0544616</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482012</v>
+        <v>0.0480661</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0564094</v>
+        <v>0.0566927</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0548494</v>
+        <v>0.0551218</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0491648</v>
+        <v>0.0493841</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0574369</v>
+        <v>0.0578305</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0553747</v>
+        <v>0.0559123</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0527207</v>
+        <v>0.0507831</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0586381</v>
+        <v>0.0590916</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0561235</v>
+        <v>0.0566191</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0528154</v>
+        <v>0.0528967</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0601686</v>
+        <v>0.0605786</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0611306</v>
+        <v>0.0573903</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.055782</v>
+        <v>0.0558204</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0620335</v>
+        <v>0.0622729</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0579442</v>
+        <v>0.0583973</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0186948</v>
+        <v>0.0198068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0181318</v>
+        <v>0.0176381</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0201353</v>
+        <v>0.0203162</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0209812</v>
+        <v>0.0227613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0179351</v>
+        <v>0.0179344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0205839</v>
+        <v>0.0207822</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0239875</v>
+        <v>0.028842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0191846</v>
+        <v>0.0190713</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0213219</v>
+        <v>0.0211955</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.032553</v>
+        <v>0.0392289</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0219111</v>
+        <v>0.022798</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0222944</v>
+        <v>0.022586</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0487039</v>
+        <v>0.0578169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0419053</v>
+        <v>0.0309601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0231827</v>
+        <v>0.0230783</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0682425</v>
+        <v>0.0733092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0475631</v>
+        <v>0.0442383</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247273</v>
+        <v>0.0247361</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0874316</v>
+        <v>0.0948832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0665208</v>
+        <v>0.06586450000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0301228</v>
+        <v>0.029782</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122039</v>
+        <v>0.12106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11212</v>
+        <v>0.117376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0176579</v>
+        <v>0.0176627</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162233</v>
+        <v>0.0164424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0180282</v>
+        <v>0.0181822</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0179451</v>
+        <v>0.0180104</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01671</v>
+        <v>0.0169028</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0183575</v>
+        <v>0.018567</v>
       </c>
       <c r="D11" t="n">
-        <v>0.018219</v>
+        <v>0.0182035</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173333</v>
+        <v>0.0175797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0190579</v>
+        <v>0.0188446</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0185405</v>
+        <v>0.0185408</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179043</v>
+        <v>0.0180249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0193768</v>
+        <v>0.0194734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0189456</v>
+        <v>0.0189508</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186503</v>
+        <v>0.0192162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0195506</v>
+        <v>0.0198791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0193177</v>
+        <v>0.01935</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0203156</v>
+        <v>0.0218241</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0205102</v>
+        <v>0.0203973</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0198404</v>
+        <v>0.0198779</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0231066</v>
+        <v>0.0234799</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0213922</v>
+        <v>0.0215339</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0203966</v>
+        <v>0.0204783</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.027167</v>
+        <v>0.0293808</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0228481</v>
+        <v>0.0226616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0208985</v>
+        <v>0.0210018</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0335611</v>
+        <v>0.0338924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0264254</v>
+        <v>0.0285971</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022008</v>
+        <v>0.0220903</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0424328</v>
+        <v>0.0434697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0367423</v>
+        <v>0.034937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229982</v>
+        <v>0.0229376</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0574333</v>
+        <v>0.0548915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0398463</v>
+        <v>0.045203</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0242686</v>
+        <v>0.0242016</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0745333</v>
+        <v>0.0725638</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0569953</v>
+        <v>0.0565921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0275313</v>
+        <v>0.0276417</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0973152</v>
+        <v>0.09459380000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0830973</v>
+        <v>0.0842353</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0329788</v>
+        <v>0.0325155</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118682</v>
+        <v>0.120468</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129809</v>
+        <v>0.129284</v>
       </c>
       <c r="D23" t="n">
-        <v>0.017558</v>
+        <v>0.0175548</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0168014</v>
+        <v>0.0165575</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01873</v>
+        <v>0.0187746</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0179007</v>
+        <v>0.0179095</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172554</v>
+        <v>0.0170743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0191929</v>
+        <v>0.0191607</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0181394</v>
+        <v>0.0181142</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178514</v>
+        <v>0.0178351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0197536</v>
+        <v>0.0197355</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0185029</v>
+        <v>0.0185188</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189545</v>
+        <v>0.0186919</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0204434</v>
+        <v>0.0203938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0188948</v>
+        <v>0.0189066</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201068</v>
+        <v>0.0200213</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0210317</v>
+        <v>0.0211434</v>
       </c>
       <c r="D28" t="n">
-        <v>0.019364</v>
+        <v>0.0193636</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.022366</v>
+        <v>0.0225422</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0220227</v>
+        <v>0.0219781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01977</v>
+        <v>0.019785</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0259764</v>
+        <v>0.0252698</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0233828</v>
+        <v>0.0235107</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0202965</v>
+        <v>0.0202954</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0301525</v>
+        <v>0.0298629</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0260798</v>
+        <v>0.0257256</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0211087</v>
+        <v>0.0211134</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0366653</v>
+        <v>0.034227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0296676</v>
+        <v>0.0302247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.022153</v>
+        <v>0.0221596</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0468814</v>
+        <v>0.0424815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0366039</v>
+        <v>0.0364906</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0232487</v>
+        <v>0.0232605</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0580199</v>
+        <v>0.0546211</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0470445</v>
+        <v>0.045427</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0249379</v>
+        <v>0.024925</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0739465</v>
+        <v>0.0702556</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0594339</v>
+        <v>0.0595358</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0284758</v>
+        <v>0.0287255</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0956312</v>
+        <v>0.0945033</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0872547</v>
+        <v>0.0875826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0347124</v>
+        <v>0.0350804</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119344</v>
+        <v>0.118773</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128826</v>
+        <v>0.129137</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0179711</v>
+        <v>0.0179453</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170759</v>
+        <v>0.0171675</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0199344</v>
+        <v>0.0198773</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0181953</v>
+        <v>0.0181988</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179697</v>
+        <v>0.0177609</v>
       </c>
       <c r="C39" t="n">
-        <v>0.020327</v>
+        <v>0.0203461</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0184681</v>
+        <v>0.0184335</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188386</v>
+        <v>0.0187391</v>
       </c>
       <c r="C40" t="n">
-        <v>0.021083</v>
+        <v>0.0210175</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0187553</v>
+        <v>0.0187637</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0203355</v>
+        <v>0.019801</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0217392</v>
+        <v>0.0216709</v>
       </c>
       <c r="D41" t="n">
-        <v>0.019151</v>
+        <v>0.0191154</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0218542</v>
+        <v>0.0215554</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0228463</v>
+        <v>0.0227377</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0196017</v>
+        <v>0.0195795</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0242916</v>
+        <v>0.0241101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0240959</v>
+        <v>0.0240947</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0201565</v>
+        <v>0.0201141</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0276789</v>
+        <v>0.0271847</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0259145</v>
+        <v>0.0258301</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0207249</v>
+        <v>0.0206965</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0328832</v>
+        <v>0.0316541</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0292704</v>
+        <v>0.029432</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0215471</v>
+        <v>0.0215484</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0379133</v>
+        <v>0.0381962</v>
       </c>
       <c r="C46" t="n">
-        <v>0.033791</v>
+        <v>0.03481</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0226777</v>
+        <v>0.0226702</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0459076</v>
+        <v>0.0446672</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0400379</v>
+        <v>0.0393739</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0242483</v>
+        <v>0.0241851</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0559784</v>
+        <v>0.0551277</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0491139</v>
+        <v>0.0484997</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0265384</v>
+        <v>0.0264874</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0707831</v>
+        <v>0.0701811</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0635728</v>
+        <v>0.0627139</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0299808</v>
+        <v>0.0297787</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09192359999999999</v>
+        <v>0.09178699999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0843226</v>
+        <v>0.084595</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0365558</v>
+        <v>0.036445</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117096</v>
+        <v>0.116304</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120521</v>
+        <v>0.12102</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0186179</v>
+        <v>0.0185996</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142423</v>
+        <v>0.140979</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166755</v>
+        <v>0.166972</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0188716</v>
+        <v>0.0188485</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0193392</v>
+        <v>0.0191267</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0213279</v>
+        <v>0.0212976</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0191177</v>
+        <v>0.0191191</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0205943</v>
+        <v>0.020224</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0219596</v>
+        <v>0.0219327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0194685</v>
+        <v>0.0194703</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021982</v>
+        <v>0.0218143</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0228779</v>
+        <v>0.0228922</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0198473</v>
+        <v>0.0198283</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0241383</v>
+        <v>0.0238165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0238118</v>
+        <v>0.0238284</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0202265</v>
+        <v>0.0202061</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0267957</v>
+        <v>0.0263777</v>
       </c>
       <c r="C57" t="n">
-        <v>0.025374</v>
+        <v>0.0253219</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0207137</v>
+        <v>0.0207166</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0302191</v>
+        <v>0.0294627</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0276841</v>
+        <v>0.0275316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0214076</v>
+        <v>0.0214257</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.034554</v>
+        <v>0.0342373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0302842</v>
+        <v>0.0302244</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0222774</v>
+        <v>0.0222177</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0400093</v>
+        <v>0.0393359</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0344876</v>
+        <v>0.0345757</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0233467</v>
+        <v>0.0233278</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0471774</v>
+        <v>0.0466331</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0408948</v>
+        <v>0.0405502</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0250001</v>
+        <v>0.0249393</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0568231</v>
+        <v>0.0565491</v>
       </c>
       <c r="C62" t="n">
-        <v>0.049068</v>
+        <v>0.0491505</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0274681</v>
+        <v>0.0274716</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07017859999999999</v>
+        <v>0.0703863</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0614069</v>
+        <v>0.0616451</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0312036</v>
+        <v>0.0312685</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0895654</v>
+        <v>0.08994249999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0803198</v>
+        <v>0.0799489</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0375542</v>
+        <v>0.0376233</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115564</v>
+        <v>0.115342</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113239</v>
+        <v>0.113184</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0486738</v>
+        <v>0.0487456</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146593</v>
+        <v>0.144973</v>
       </c>
       <c r="C66" t="n">
-        <v>0.160725</v>
+        <v>0.161195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0189916</v>
+        <v>0.0189753</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0195937</v>
+        <v>0.0199283</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0217249</v>
+        <v>0.0217182</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0192812</v>
+        <v>0.019293</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209252</v>
+        <v>0.0212068</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0225169</v>
+        <v>0.0225136</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0196812</v>
+        <v>0.0196736</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226498</v>
+        <v>0.0227531</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0235262</v>
+        <v>0.023506</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0200898</v>
+        <v>0.0200947</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0248403</v>
+        <v>0.0246901</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0246481</v>
+        <v>0.0246452</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0205935</v>
+        <v>0.0205512</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0269987</v>
+        <v>0.0273207</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260732</v>
+        <v>0.0261042</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0211126</v>
+        <v>0.0210943</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304801</v>
+        <v>0.0306014</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0279496</v>
+        <v>0.0279934</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0217067</v>
+        <v>0.0217277</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0342837</v>
+        <v>0.0348848</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0308224</v>
+        <v>0.0307581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0226058</v>
+        <v>0.0225845</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0400478</v>
+        <v>0.0397255</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0346692</v>
+        <v>0.0346436</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0237621</v>
+        <v>0.0237172</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466097</v>
+        <v>0.0465141</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0402821</v>
+        <v>0.0402731</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0254488</v>
+        <v>0.0253895</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559873</v>
+        <v>0.0556629</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0479293</v>
+        <v>0.0479353</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0277771</v>
+        <v>0.0277243</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0688169</v>
+        <v>0.0684935</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0593382</v>
+        <v>0.0593312</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0313582</v>
+        <v>0.0313297</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08665150000000001</v>
+        <v>0.0869566</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0755812</v>
+        <v>0.0756598</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0370185</v>
+        <v>0.0369388</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111015</v>
+        <v>0.11144</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103278</v>
+        <v>0.103185</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0464056</v>
+        <v>0.0464558</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142244</v>
+        <v>0.142442</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148381</v>
+        <v>0.148512</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0193067</v>
+        <v>0.0192519</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199835</v>
+        <v>0.0200141</v>
       </c>
       <c r="C81" t="n">
-        <v>0.022406</v>
+        <v>0.0224204</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0196783</v>
+        <v>0.0196349</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.021327</v>
+        <v>0.0212692</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232518</v>
+        <v>0.0232176</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0200045</v>
+        <v>0.0199761</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231832</v>
+        <v>0.0228871</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0241605</v>
+        <v>0.0241619</v>
       </c>
       <c r="D83" t="n">
-        <v>0.020409</v>
+        <v>0.0205169</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0251331</v>
+        <v>0.0249277</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253552</v>
+        <v>0.0254017</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0209272</v>
+        <v>0.0209695</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272164</v>
+        <v>0.0276166</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268438</v>
+        <v>0.0268205</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0215582</v>
+        <v>0.0216183</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303184</v>
+        <v>0.0304937</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0287383</v>
+        <v>0.028656</v>
       </c>
       <c r="D86" t="n">
-        <v>0.022278</v>
+        <v>0.0222701</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343353</v>
+        <v>0.0345283</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310279</v>
+        <v>0.0310033</v>
       </c>
       <c r="D87" t="n">
-        <v>0.023225</v>
+        <v>0.0232295</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391055</v>
+        <v>0.0394451</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0346662</v>
+        <v>0.0346137</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0243833</v>
+        <v>0.0244134</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0453125</v>
+        <v>0.0458132</v>
       </c>
       <c r="C89" t="n">
-        <v>0.039411</v>
+        <v>0.0394891</v>
       </c>
       <c r="D89" t="n">
-        <v>0.025973</v>
+        <v>0.0259364</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0539698</v>
+        <v>0.0544661</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0467736</v>
+        <v>0.0467897</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0282271</v>
+        <v>0.0282526</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0656775</v>
+        <v>0.06639059999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569962</v>
+        <v>0.0569816</v>
       </c>
       <c r="D91" t="n">
-        <v>0.031476</v>
+        <v>0.0314659</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0825689</v>
+        <v>0.0836411</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0736868</v>
+        <v>0.0723801</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03649</v>
+        <v>0.0364673</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106551</v>
+        <v>0.107099</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09788959999999999</v>
+        <v>0.097848</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0451648</v>
+        <v>0.0452475</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.136858</v>
+        <v>0.137372</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139691</v>
+        <v>0.139583</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0208951</v>
+        <v>0.020849</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205769</v>
+        <v>0.0209287</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0237438</v>
+        <v>0.0238036</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0214019</v>
+        <v>0.0214249</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220241</v>
+        <v>0.0223971</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0250102</v>
+        <v>0.0248773</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0218715</v>
+        <v>0.0219654</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0230731</v>
+        <v>0.0237962</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0268014</v>
+        <v>0.0266427</v>
       </c>
       <c r="D97" t="n">
-        <v>0.022483</v>
+        <v>0.0224508</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253367</v>
+        <v>0.0253982</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0294983</v>
+        <v>0.0294073</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0232513</v>
+        <v>0.0233783</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274745</v>
+        <v>0.0277012</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0326744</v>
+        <v>0.0327204</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0246799</v>
+        <v>0.0245788</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306262</v>
+        <v>0.0306235</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0361084</v>
+        <v>0.0361251</v>
       </c>
       <c r="D100" t="n">
-        <v>0.026658</v>
+        <v>0.0266607</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0345343</v>
+        <v>0.0344998</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0392554</v>
+        <v>0.0391916</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0295375</v>
+        <v>0.029505</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397965</v>
+        <v>0.0402065</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0423955</v>
+        <v>0.0422488</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0324613</v>
+        <v>0.0323258</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046082</v>
+        <v>0.0464204</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0459665</v>
+        <v>0.0459912</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0353249</v>
+        <v>0.0354845</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0542563</v>
+        <v>0.054949</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0510963</v>
+        <v>0.0511435</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0384867</v>
+        <v>0.0385409</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656987</v>
+        <v>0.06564399999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0587097</v>
+        <v>0.0586719</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0415464</v>
+        <v>0.0417286</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0812239</v>
+        <v>0.0814512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0714113</v>
+        <v>0.0713747</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0457533</v>
+        <v>0.0458948</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103092</v>
+        <v>0.103581</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0930947</v>
+        <v>0.09296310000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0520775</v>
+        <v>0.0521034</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132421</v>
+        <v>0.13265</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131807</v>
+        <v>0.131762</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323772</v>
+        <v>0.0323647</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168586</v>
+        <v>0.168153</v>
       </c>
       <c r="C109" t="n">
-        <v>0.183707</v>
+        <v>0.183485</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0333298</v>
+        <v>0.0334041</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310073</v>
+        <v>0.0310224</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0383079</v>
+        <v>0.0384232</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0343103</v>
+        <v>0.0342078</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327721</v>
+        <v>0.0324759</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0392832</v>
+        <v>0.0390967</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0351137</v>
+        <v>0.0349869</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344227</v>
+        <v>0.0342959</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0402648</v>
+        <v>0.040116</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0358271</v>
+        <v>0.0358786</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360724</v>
+        <v>0.0361589</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0415844</v>
+        <v>0.0412252</v>
       </c>
       <c r="D113" t="n">
-        <v>0.036736</v>
+        <v>0.0367516</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0381604</v>
+        <v>0.0380511</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0427041</v>
+        <v>0.0426179</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0375258</v>
+        <v>0.0374957</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406146</v>
+        <v>0.0408251</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0443808</v>
+        <v>0.0441905</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0386125</v>
+        <v>0.0384724</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.044285</v>
+        <v>0.0443441</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0465053</v>
+        <v>0.0464117</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0398431</v>
+        <v>0.0397426</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488143</v>
+        <v>0.0489157</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0494779</v>
+        <v>0.0493998</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0411778</v>
+        <v>0.0411772</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552516</v>
+        <v>0.0551976</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0537543</v>
+        <v>0.0536902</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0430203</v>
+        <v>0.0429372</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0652137</v>
+        <v>0.0651335</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0601001</v>
+        <v>0.0599353</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0454404</v>
+        <v>0.0455287</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0795894</v>
+        <v>0.0794106</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0708941</v>
+        <v>0.07074220000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0490729</v>
+        <v>0.0490757</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100328</v>
+        <v>0.100016</v>
       </c>
       <c r="C121" t="n">
-        <v>0.089285</v>
+        <v>0.0892144</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0546015</v>
+        <v>0.0544348</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128457</v>
+        <v>0.128249</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122861</v>
+        <v>0.122705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0644826</v>
+        <v>0.0643861</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16375</v>
+        <v>0.163281</v>
       </c>
       <c r="C123" t="n">
-        <v>0.173851</v>
+        <v>0.172986</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0373899</v>
+        <v>0.0372735</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.033984</v>
+        <v>0.0345352</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0427903</v>
+        <v>0.04258</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0383741</v>
+        <v>0.0381443</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353676</v>
+        <v>0.0354191</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0437264</v>
+        <v>0.0434367</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0387514</v>
+        <v>0.0388291</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366861</v>
+        <v>0.0372847</v>
       </c>
       <c r="C126" t="n">
-        <v>0.044975</v>
+        <v>0.0446332</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0395509</v>
+        <v>0.039541</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383137</v>
+        <v>0.0388169</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457867</v>
+        <v>0.0458047</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0406444</v>
+        <v>0.0403033</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407236</v>
+        <v>0.0410912</v>
       </c>
       <c r="C128" t="n">
-        <v>0.047395</v>
+        <v>0.0472433</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0417485</v>
+        <v>0.0416809</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0430999</v>
+        <v>0.0435181</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0494361</v>
+        <v>0.049024</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0429381</v>
+        <v>0.0432427</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0464781</v>
+        <v>0.0469439</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0516277</v>
+        <v>0.0514871</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0441332</v>
+        <v>0.0444162</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.050957</v>
+        <v>0.0523975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0546901</v>
+        <v>0.0546249</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0455142</v>
+        <v>0.0454396</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0587706</v>
+        <v>0.0586065</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0590943</v>
+        <v>0.0587483</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0474135</v>
+        <v>0.0478305</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0681277</v>
+        <v>0.0681604</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0653262</v>
+        <v>0.06508129999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0495755</v>
+        <v>0.0497685</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08202089999999999</v>
+        <v>0.0821453</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07554130000000001</v>
+        <v>0.0751313</v>
       </c>
       <c r="D134" t="n">
-        <v>0.053497</v>
+        <v>0.0532729</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101872</v>
+        <v>0.101943</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09209630000000001</v>
+        <v>0.09124649999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0592104</v>
+        <v>0.0588871</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129297</v>
+        <v>0.129539</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12097</v>
+        <v>0.120996</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06858359999999999</v>
+        <v>0.06849180000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162683</v>
+        <v>0.16358</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168207</v>
+        <v>0.167954</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0541178</v>
+        <v>0.0535785</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468302</v>
+        <v>0.0472573</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0557122</v>
+        <v>0.0555465</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0544616</v>
+        <v>0.0540777</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0480661</v>
+        <v>0.0479216</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0566927</v>
+        <v>0.0563554</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0551218</v>
+        <v>0.0548645</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493841</v>
+        <v>0.0492886</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0578305</v>
+        <v>0.0573909</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0559123</v>
+        <v>0.0555324</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507831</v>
+        <v>0.050653</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0590916</v>
+        <v>0.0587852</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0566191</v>
+        <v>0.0564783</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0528967</v>
+        <v>0.0542926</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0605786</v>
+        <v>0.0602535</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0573903</v>
+        <v>0.0571866</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558204</v>
+        <v>0.0552023</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0622729</v>
+        <v>0.0621042</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0583973</v>
+        <v>0.0580659</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198068</v>
+        <v>0.0198362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0176381</v>
+        <v>0.0228814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0203162</v>
+        <v>0.0192239</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0227613</v>
+        <v>0.0225741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0179344</v>
+        <v>0.0243947</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0207822</v>
+        <v>0.0196076</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.028842</v>
+        <v>0.0257494</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0190713</v>
+        <v>0.0258483</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0211955</v>
+        <v>0.0198675</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0392289</v>
+        <v>0.035924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.022798</v>
+        <v>0.0313151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.022586</v>
+        <v>0.020175</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0578169</v>
+        <v>0.0505356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0309601</v>
+        <v>0.0338107</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0230783</v>
+        <v>0.0206703</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0733092</v>
+        <v>0.0752647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0442383</v>
+        <v>0.0569029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247361</v>
+        <v>0.0221592</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0948832</v>
+        <v>0.0989463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06586450000000001</v>
+        <v>0.08019800000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.029782</v>
+        <v>0.0265311</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12106</v>
+        <v>0.118606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.117376</v>
+        <v>0.115168</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0176627</v>
+        <v>0.0175006</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0164424</v>
+        <v>0.0162789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0181822</v>
+        <v>0.0194912</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0180104</v>
+        <v>0.0178284</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169028</v>
+        <v>0.017328</v>
       </c>
       <c r="C11" t="n">
-        <v>0.018567</v>
+        <v>0.0201107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0182035</v>
+        <v>0.0179636</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0175797</v>
+        <v>0.0172962</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0188446</v>
+        <v>0.0209038</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0185408</v>
+        <v>0.0182479</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180249</v>
+        <v>0.0181894</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0194734</v>
+        <v>0.021561</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0189508</v>
+        <v>0.0186806</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0192162</v>
+        <v>0.0188206</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0198791</v>
+        <v>0.0227746</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01935</v>
+        <v>0.0188658</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0218241</v>
+        <v>0.0208992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0203973</v>
+        <v>0.0234825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0198779</v>
+        <v>0.0191545</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0234799</v>
+        <v>0.023048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0215339</v>
+        <v>0.0251848</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0204783</v>
+        <v>0.0195939</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0293808</v>
+        <v>0.0274392</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0226616</v>
+        <v>0.0260034</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0210018</v>
+        <v>0.0198906</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0338924</v>
+        <v>0.0353673</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0285971</v>
+        <v>0.0304005</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0220903</v>
+        <v>0.0204189</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0434697</v>
+        <v>0.040731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.034937</v>
+        <v>0.0347118</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0229376</v>
+        <v>0.0211711</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0548915</v>
+        <v>0.0527893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.045203</v>
+        <v>0.0404016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0242016</v>
+        <v>0.0224907</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0725638</v>
+        <v>0.07061870000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0565921</v>
+        <v>0.0650686</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0276417</v>
+        <v>0.0252435</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09459380000000001</v>
+        <v>0.08996120000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0842353</v>
+        <v>0.0831857</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0325155</v>
+        <v>0.0313345</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120468</v>
+        <v>0.120869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129284</v>
+        <v>0.12941</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0175548</v>
+        <v>0.0174851</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165575</v>
+        <v>0.0163648</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0187746</v>
+        <v>0.0197567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0179095</v>
+        <v>0.0177939</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0170743</v>
+        <v>0.0169836</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0191607</v>
+        <v>0.0203113</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0181142</v>
+        <v>0.0179763</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178351</v>
+        <v>0.0175222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0197355</v>
+        <v>0.0210415</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0185188</v>
+        <v>0.018308</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186919</v>
+        <v>0.0183056</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0203938</v>
+        <v>0.0220454</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0189066</v>
+        <v>0.0186487</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200213</v>
+        <v>0.01975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0211434</v>
+        <v>0.0230521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0193636</v>
+        <v>0.0190139</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0225422</v>
+        <v>0.021821</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0219781</v>
+        <v>0.0241428</v>
       </c>
       <c r="D29" t="n">
-        <v>0.019785</v>
+        <v>0.019347</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0252698</v>
+        <v>0.024241</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235107</v>
+        <v>0.0257898</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0202954</v>
+        <v>0.0197931</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298629</v>
+        <v>0.0294417</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0257256</v>
+        <v>0.0279148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0211134</v>
+        <v>0.0204649</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.034227</v>
+        <v>0.0343949</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0302247</v>
+        <v>0.0315643</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0221596</v>
+        <v>0.0213058</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0424815</v>
+        <v>0.0427947</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0364906</v>
+        <v>0.036645</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0232605</v>
+        <v>0.0221672</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0546211</v>
+        <v>0.0540834</v>
       </c>
       <c r="C34" t="n">
-        <v>0.045427</v>
+        <v>0.0457059</v>
       </c>
       <c r="D34" t="n">
-        <v>0.024925</v>
+        <v>0.0238381</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0702556</v>
+        <v>0.0687001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0595358</v>
+        <v>0.0587992</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0287255</v>
+        <v>0.0275347</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0945033</v>
+        <v>0.0916854</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0875826</v>
+        <v>0.0855305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0350804</v>
+        <v>0.0348901</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118773</v>
+        <v>0.118108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129137</v>
+        <v>0.128811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0179453</v>
+        <v>0.0178394</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171675</v>
+        <v>0.0169527</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0198773</v>
+        <v>0.0204794</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0181988</v>
+        <v>0.0180741</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177609</v>
+        <v>0.0177318</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0203461</v>
+        <v>0.0209684</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0184335</v>
+        <v>0.0182957</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187391</v>
+        <v>0.018584</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0210175</v>
+        <v>0.0217011</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0187637</v>
+        <v>0.0186039</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.019801</v>
+        <v>0.019813</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0216709</v>
+        <v>0.0224828</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0191154</v>
+        <v>0.0189048</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0215554</v>
+        <v>0.0213688</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0227377</v>
+        <v>0.0237094</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0195795</v>
+        <v>0.0193191</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0241101</v>
+        <v>0.0241325</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0240947</v>
+        <v>0.0251762</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0201141</v>
+        <v>0.0198658</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0271847</v>
+        <v>0.0267038</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0258301</v>
+        <v>0.026827</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0206965</v>
+        <v>0.0204214</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0316541</v>
+        <v>0.0308143</v>
       </c>
       <c r="C45" t="n">
-        <v>0.029432</v>
+        <v>0.0295831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0215484</v>
+        <v>0.0212068</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0381962</v>
+        <v>0.036544</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03481</v>
+        <v>0.0337893</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0226702</v>
+        <v>0.0222116</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0446672</v>
+        <v>0.0448617</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0393739</v>
+        <v>0.0392716</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0241851</v>
+        <v>0.0236423</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0551277</v>
+        <v>0.0550031</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0484997</v>
+        <v>0.0480062</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0264874</v>
+        <v>0.0260289</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0701811</v>
+        <v>0.0687662</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0627139</v>
+        <v>0.0624941</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0297787</v>
+        <v>0.0300609</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09178699999999999</v>
+        <v>0.0893958</v>
       </c>
       <c r="C50" t="n">
-        <v>0.084595</v>
+        <v>0.0842149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.036445</v>
+        <v>0.0367887</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116304</v>
+        <v>0.116701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.12102</v>
+        <v>0.120653</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0185996</v>
+        <v>0.018571</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.140979</v>
+        <v>0.142083</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166972</v>
+        <v>0.166929</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0188485</v>
+        <v>0.0187505</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191267</v>
+        <v>0.0189275</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0212976</v>
+        <v>0.0215969</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0191191</v>
+        <v>0.019013</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.020224</v>
+        <v>0.0200761</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0219327</v>
+        <v>0.0222764</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0194703</v>
+        <v>0.01936</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218143</v>
+        <v>0.0216842</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0228922</v>
+        <v>0.0232459</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0198283</v>
+        <v>0.019733</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238165</v>
+        <v>0.0234537</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0238284</v>
+        <v>0.0243094</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0202061</v>
+        <v>0.0200993</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263777</v>
+        <v>0.0259134</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0253219</v>
+        <v>0.0257949</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0207166</v>
+        <v>0.0206146</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0294627</v>
+        <v>0.0291842</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0275316</v>
+        <v>0.0279511</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0214257</v>
+        <v>0.0212464</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0342373</v>
+        <v>0.0337068</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0302244</v>
+        <v>0.0304492</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0222177</v>
+        <v>0.0220967</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0393359</v>
+        <v>0.0396124</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0345757</v>
+        <v>0.0340714</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0233278</v>
+        <v>0.0231575</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0466331</v>
+        <v>0.0464008</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0405502</v>
+        <v>0.0400609</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0249393</v>
+        <v>0.0247976</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0565491</v>
+        <v>0.0562035</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0491505</v>
+        <v>0.0485857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0274716</v>
+        <v>0.0272565</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0703863</v>
+        <v>0.07021959999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0616451</v>
+        <v>0.0611799</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0312685</v>
+        <v>0.031377</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08994249999999999</v>
+        <v>0.0908234</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0799489</v>
+        <v>0.080169</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0376233</v>
+        <v>0.0378282</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115342</v>
+        <v>0.115963</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113184</v>
+        <v>0.113402</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0487456</v>
+        <v>0.0489095</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.144973</v>
+        <v>0.147593</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161195</v>
+        <v>0.161486</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0189753</v>
+        <v>0.0189664</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199283</v>
+        <v>0.0196807</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0217182</v>
+        <v>0.0218744</v>
       </c>
       <c r="D67" t="n">
-        <v>0.019293</v>
+        <v>0.0192661</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212068</v>
+        <v>0.0209768</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0225136</v>
+        <v>0.0226858</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0196736</v>
+        <v>0.0196514</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227531</v>
+        <v>0.0226346</v>
       </c>
       <c r="C69" t="n">
-        <v>0.023506</v>
+        <v>0.0236468</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0200947</v>
+        <v>0.0200569</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246901</v>
+        <v>0.0244167</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0246452</v>
+        <v>0.024771</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0205512</v>
+        <v>0.0204919</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273207</v>
+        <v>0.0270412</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0261042</v>
+        <v>0.0261394</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0210943</v>
+        <v>0.0210414</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306014</v>
+        <v>0.0303396</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0279934</v>
+        <v>0.0280775</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0217277</v>
+        <v>0.0216403</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0348848</v>
+        <v>0.0341644</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0307581</v>
+        <v>0.0308376</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0225845</v>
+        <v>0.0225758</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397255</v>
+        <v>0.039823</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0346436</v>
+        <v>0.0345647</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0237172</v>
+        <v>0.0236972</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0465141</v>
+        <v>0.0464972</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0402731</v>
+        <v>0.0400022</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0253895</v>
+        <v>0.0254308</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0556629</v>
+        <v>0.0558007</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0479353</v>
+        <v>0.0477132</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0277243</v>
+        <v>0.0278021</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0684935</v>
+        <v>0.0689039</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0593312</v>
+        <v>0.0592687</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0313297</v>
+        <v>0.0313444</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869566</v>
+        <v>0.0874381</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0756598</v>
+        <v>0.0755937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0369388</v>
+        <v>0.036949</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11144</v>
+        <v>0.112029</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103185</v>
+        <v>0.103214</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0464558</v>
+        <v>0.0465868</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142442</v>
+        <v>0.143697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148512</v>
+        <v>0.148613</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0192519</v>
+        <v>0.0191816</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200141</v>
+        <v>0.0198689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0224204</v>
+        <v>0.0224915</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0196349</v>
+        <v>0.0195587</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212692</v>
+        <v>0.0210816</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232176</v>
+        <v>0.0232624</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0199761</v>
+        <v>0.019942</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228871</v>
+        <v>0.0228166</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0241619</v>
+        <v>0.0242272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0205169</v>
+        <v>0.0204317</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249277</v>
+        <v>0.0248867</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0254017</v>
+        <v>0.0253054</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0209695</v>
+        <v>0.0208982</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0276166</v>
+        <v>0.0270571</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268205</v>
+        <v>0.0268034</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0216183</v>
+        <v>0.021529</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304937</v>
+        <v>0.0303581</v>
       </c>
       <c r="C86" t="n">
-        <v>0.028656</v>
+        <v>0.0286178</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0222701</v>
+        <v>0.0222958</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0345283</v>
+        <v>0.0340781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310033</v>
+        <v>0.0310401</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0232295</v>
+        <v>0.0232274</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394451</v>
+        <v>0.0392201</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0346137</v>
+        <v>0.0346516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0244134</v>
+        <v>0.0244563</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458132</v>
+        <v>0.0455859</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0394891</v>
+        <v>0.0395407</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0259364</v>
+        <v>0.0260627</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544661</v>
+        <v>0.0542968</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0467897</v>
+        <v>0.0469505</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0282526</v>
+        <v>0.0283881</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06639059999999999</v>
+        <v>0.0665861</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569816</v>
+        <v>0.0569123</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0314659</v>
+        <v>0.0314991</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0836411</v>
+        <v>0.0836271</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0723801</v>
+        <v>0.07243570000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0364673</v>
+        <v>0.0364516</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107099</v>
+        <v>0.107474</v>
       </c>
       <c r="C93" t="n">
-        <v>0.097848</v>
+        <v>0.0978425</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0452475</v>
+        <v>0.044952</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137372</v>
+        <v>0.138182</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139583</v>
+        <v>0.139639</v>
       </c>
       <c r="D94" t="n">
-        <v>0.020849</v>
+        <v>0.0208722</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0209287</v>
+        <v>0.0205858</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0238036</v>
+        <v>0.0237351</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0214249</v>
+        <v>0.0213989</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0223971</v>
+        <v>0.0218546</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0248773</v>
+        <v>0.0248802</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0219654</v>
+        <v>0.0219755</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0237962</v>
+        <v>0.023814</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0266427</v>
+        <v>0.0265995</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0224508</v>
+        <v>0.0225093</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253982</v>
+        <v>0.0250964</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0294073</v>
+        <v>0.0293002</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0233783</v>
+        <v>0.0232097</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277012</v>
+        <v>0.0274836</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0327204</v>
+        <v>0.0326414</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0245788</v>
+        <v>0.0245795</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306235</v>
+        <v>0.030747</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0361251</v>
+        <v>0.0361125</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0266607</v>
+        <v>0.0267163</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344998</v>
+        <v>0.0347355</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391916</v>
+        <v>0.0391886</v>
       </c>
       <c r="D101" t="n">
-        <v>0.029505</v>
+        <v>0.02941</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0402065</v>
+        <v>0.0400224</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0422488</v>
+        <v>0.042293</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0323258</v>
+        <v>0.032552</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464204</v>
+        <v>0.0463208</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0459912</v>
+        <v>0.046029</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0354845</v>
+        <v>0.0354512</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.054949</v>
+        <v>0.0543637</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0511435</v>
+        <v>0.0513529</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0385409</v>
+        <v>0.0385299</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06564399999999999</v>
+        <v>0.0653682</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0586719</v>
+        <v>0.0588731</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0417286</v>
+        <v>0.0417104</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0814512</v>
+        <v>0.08100350000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0713747</v>
+        <v>0.0713868</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0458948</v>
+        <v>0.0458779</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103581</v>
+        <v>0.103209</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09296310000000001</v>
+        <v>0.0928829</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0521034</v>
+        <v>0.052126</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13265</v>
+        <v>0.133122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131762</v>
+        <v>0.131654</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323647</v>
+        <v>0.032469</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168153</v>
+        <v>0.169373</v>
       </c>
       <c r="C109" t="n">
-        <v>0.183485</v>
+        <v>0.183658</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0334041</v>
+        <v>0.0334518</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310224</v>
+        <v>0.0314765</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0384232</v>
+        <v>0.0381555</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0342078</v>
+        <v>0.0342454</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0324759</v>
+        <v>0.0329173</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0390967</v>
+        <v>0.0391654</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0349869</v>
+        <v>0.0352441</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342959</v>
+        <v>0.0343783</v>
       </c>
       <c r="C112" t="n">
-        <v>0.040116</v>
+        <v>0.0401417</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0358786</v>
+        <v>0.0358322</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0361589</v>
+        <v>0.0363075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0412252</v>
+        <v>0.0413402</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0367516</v>
+        <v>0.0370327</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380511</v>
+        <v>0.038119</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426179</v>
+        <v>0.0426599</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0374957</v>
+        <v>0.0375964</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408251</v>
+        <v>0.0408054</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0441905</v>
+        <v>0.0443099</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0384724</v>
+        <v>0.0385411</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0443441</v>
+        <v>0.0443767</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0464117</v>
+        <v>0.0465229</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0397426</v>
+        <v>0.0396593</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0489157</v>
+        <v>0.0488793</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0493998</v>
+        <v>0.0493312</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0411772</v>
+        <v>0.041189</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551976</v>
+        <v>0.0551344</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0536902</v>
+        <v>0.0536939</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0429372</v>
+        <v>0.0429297</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0651335</v>
+        <v>0.0650314</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0599353</v>
+        <v>0.0599583</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0455287</v>
+        <v>0.04557</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794106</v>
+        <v>0.07922269999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07074220000000001</v>
+        <v>0.0707173</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0490757</v>
+        <v>0.048945</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100016</v>
+        <v>0.100153</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0892144</v>
+        <v>0.0891391</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0544348</v>
+        <v>0.0544269</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128249</v>
+        <v>0.128537</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122705</v>
+        <v>0.122699</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0643861</v>
+        <v>0.0644387</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163281</v>
+        <v>0.163884</v>
       </c>
       <c r="C123" t="n">
-        <v>0.172986</v>
+        <v>0.173047</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0372735</v>
+        <v>0.0379583</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345352</v>
+        <v>0.0341604</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04258</v>
+        <v>0.0426073</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0381443</v>
+        <v>0.0382235</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354191</v>
+        <v>0.0353346</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0434367</v>
+        <v>0.043945</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0388291</v>
+        <v>0.0394619</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0372847</v>
+        <v>0.0366792</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0446332</v>
+        <v>0.0450097</v>
       </c>
       <c r="D126" t="n">
-        <v>0.039541</v>
+        <v>0.0404277</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0388169</v>
+        <v>0.0385754</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0458047</v>
+        <v>0.0457395</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0403033</v>
+        <v>0.0412344</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0410912</v>
+        <v>0.0407602</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0472433</v>
+        <v>0.0476742</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0416809</v>
+        <v>0.0421878</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0435181</v>
+        <v>0.0432595</v>
       </c>
       <c r="C129" t="n">
-        <v>0.049024</v>
+        <v>0.0494454</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0432427</v>
+        <v>0.0431449</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0469439</v>
+        <v>0.0465333</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0514871</v>
+        <v>0.0518466</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0444162</v>
+        <v>0.0440747</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0523975</v>
+        <v>0.0524135</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0546249</v>
+        <v>0.0546879</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0454396</v>
+        <v>0.0457512</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0586065</v>
+        <v>0.0587079</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0587483</v>
+        <v>0.0584939</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0478305</v>
+        <v>0.0475797</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0681604</v>
+        <v>0.06791990000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06508129999999999</v>
+        <v>0.0649792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0497685</v>
+        <v>0.0497646</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0821453</v>
+        <v>0.08132789999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0751313</v>
+        <v>0.0754669</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0532729</v>
+        <v>0.0532368</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101943</v>
+        <v>0.101527</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09124649999999999</v>
+        <v>0.0919288</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0588871</v>
+        <v>0.0594058</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129539</v>
+        <v>0.129078</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120996</v>
+        <v>0.121378</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06849180000000001</v>
+        <v>0.06882439999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16358</v>
+        <v>0.163069</v>
       </c>
       <c r="C137" t="n">
-        <v>0.167954</v>
+        <v>0.168483</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0535785</v>
+        <v>0.0536539</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0472573</v>
+        <v>0.0480392</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0555465</v>
+        <v>0.0555839</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0540777</v>
+        <v>0.054376</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479216</v>
+        <v>0.047964</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0563554</v>
+        <v>0.056498</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0548645</v>
+        <v>0.0548039</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492886</v>
+        <v>0.0494619</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0573909</v>
+        <v>0.0575378</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0555324</v>
+        <v>0.0555604</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.050653</v>
+        <v>0.0511432</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0587852</v>
+        <v>0.0588233</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0564783</v>
+        <v>0.0564701</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0542926</v>
+        <v>0.052837</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0602535</v>
+        <v>0.0602667</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0571866</v>
+        <v>0.0572694</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0552023</v>
+        <v>0.0557833</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0621042</v>
+        <v>0.0621672</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0580659</v>
+        <v>0.0583745</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198362</v>
+        <v>0.0237667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0228814</v>
+        <v>0.0189721</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0192239</v>
+        <v>0.0195844</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0225741</v>
+        <v>0.0252064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0243947</v>
+        <v>0.0214377</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0196076</v>
+        <v>0.02016</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0257494</v>
+        <v>0.0312682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0258483</v>
+        <v>0.0208254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0198675</v>
+        <v>0.0209866</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.035924</v>
+        <v>0.0383975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0313151</v>
+        <v>0.0250961</v>
       </c>
       <c r="D5" t="n">
-        <v>0.020175</v>
+        <v>0.0219094</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0505356</v>
+        <v>0.0519862</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0338107</v>
+        <v>0.0319113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0206703</v>
+        <v>0.0231099</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0752647</v>
+        <v>0.0687405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0569029</v>
+        <v>0.0438913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0221592</v>
+        <v>0.0247769</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0989463</v>
+        <v>0.0931514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08019800000000001</v>
+        <v>0.06818630000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0265311</v>
+        <v>0.030279</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118606</v>
+        <v>0.122963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.115168</v>
+        <v>0.116377</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0175006</v>
+        <v>0.0174921</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162789</v>
+        <v>0.0172189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0194912</v>
+        <v>0.0188219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0178284</v>
+        <v>0.0177123</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.017328</v>
+        <v>0.018144</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0201107</v>
+        <v>0.0190304</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0179636</v>
+        <v>0.0179593</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172962</v>
+        <v>0.0190403</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0209038</v>
+        <v>0.0196041</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0182479</v>
+        <v>0.0182913</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0181894</v>
+        <v>0.0202366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.021561</v>
+        <v>0.0200093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0186806</v>
+        <v>0.0186858</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0188206</v>
+        <v>0.0215102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0227746</v>
+        <v>0.0202579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0188658</v>
+        <v>0.0188155</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0208992</v>
+        <v>0.0237568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0234825</v>
+        <v>0.0208127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0191545</v>
+        <v>0.0192441</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.023048</v>
+        <v>0.0261716</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0251848</v>
+        <v>0.0214607</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0195939</v>
+        <v>0.0199942</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0274392</v>
+        <v>0.029838</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0260034</v>
+        <v>0.0243548</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0198906</v>
+        <v>0.0204366</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0353673</v>
+        <v>0.0367299</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0304005</v>
+        <v>0.0273293</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0204189</v>
+        <v>0.0212342</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.040731</v>
+        <v>0.0429192</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0347118</v>
+        <v>0.0310391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0211711</v>
+        <v>0.0222397</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0527893</v>
+        <v>0.0530723</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0404016</v>
+        <v>0.0399603</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0224907</v>
+        <v>0.0239756</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07061870000000001</v>
+        <v>0.0715952</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0650686</v>
+        <v>0.0564202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0252435</v>
+        <v>0.0269817</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08996120000000001</v>
+        <v>0.0949692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831857</v>
+        <v>0.082819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0313345</v>
+        <v>0.0332229</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120869</v>
+        <v>0.122651</v>
       </c>
       <c r="C23" t="n">
-        <v>0.12941</v>
+        <v>0.127611</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0174851</v>
+        <v>0.0172688</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0163648</v>
+        <v>0.0164944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0197567</v>
+        <v>0.0191494</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0177939</v>
+        <v>0.017562</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169836</v>
+        <v>0.0175907</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0203113</v>
+        <v>0.0195215</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0179763</v>
+        <v>0.0177584</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0175222</v>
+        <v>0.0187962</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0210415</v>
+        <v>0.020152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.018308</v>
+        <v>0.0181118</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0183056</v>
+        <v>0.0199557</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0220454</v>
+        <v>0.0208305</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0186487</v>
+        <v>0.0184726</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01975</v>
+        <v>0.0211952</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0230521</v>
+        <v>0.0215876</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0190139</v>
+        <v>0.0188526</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.021821</v>
+        <v>0.0235451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0241428</v>
+        <v>0.0224701</v>
       </c>
       <c r="D29" t="n">
-        <v>0.019347</v>
+        <v>0.0192585</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.024241</v>
+        <v>0.0258434</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0257898</v>
+        <v>0.0240204</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0197931</v>
+        <v>0.0196461</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0294417</v>
+        <v>0.0302922</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0279148</v>
+        <v>0.0258413</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0204649</v>
+        <v>0.0204657</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0343949</v>
+        <v>0.0354765</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0315643</v>
+        <v>0.0301125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0213058</v>
+        <v>0.021354</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0427947</v>
+        <v>0.0441472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.036645</v>
+        <v>0.0358772</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0221672</v>
+        <v>0.0226727</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0540834</v>
+        <v>0.0559628</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0457059</v>
+        <v>0.0468479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0238381</v>
+        <v>0.0245247</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0687001</v>
+        <v>0.0724867</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0587992</v>
+        <v>0.05883</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0275347</v>
+        <v>0.0282355</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0916854</v>
+        <v>0.09297039999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0855305</v>
+        <v>0.08729240000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0348901</v>
+        <v>0.0350925</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118108</v>
+        <v>0.118794</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128811</v>
+        <v>0.128595</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0178394</v>
+        <v>0.0176327</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169527</v>
+        <v>0.0171808</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0204794</v>
+        <v>0.0200823</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0180741</v>
+        <v>0.0178562</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177318</v>
+        <v>0.0181918</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0209684</v>
+        <v>0.0205538</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0182957</v>
+        <v>0.0180896</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.018584</v>
+        <v>0.0192102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0217011</v>
+        <v>0.021232</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0186039</v>
+        <v>0.0183682</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.019813</v>
+        <v>0.0206009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0224828</v>
+        <v>0.0218818</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0189048</v>
+        <v>0.0186766</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0213688</v>
+        <v>0.0224408</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0237094</v>
+        <v>0.022965</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0193191</v>
+        <v>0.0191251</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0241325</v>
+        <v>0.0247355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0251762</v>
+        <v>0.0243359</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0198658</v>
+        <v>0.0196491</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0267038</v>
+        <v>0.0276164</v>
       </c>
       <c r="C44" t="n">
-        <v>0.026827</v>
+        <v>0.0260587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0204214</v>
+        <v>0.0201924</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0308143</v>
+        <v>0.0317449</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0295831</v>
+        <v>0.0291025</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0212068</v>
+        <v>0.0209959</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.036544</v>
+        <v>0.0376795</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0337893</v>
+        <v>0.0335306</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0222116</v>
+        <v>0.0221087</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0448617</v>
+        <v>0.0444975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0392716</v>
+        <v>0.0396239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0236423</v>
+        <v>0.0236376</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550031</v>
+        <v>0.0548607</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0480062</v>
+        <v>0.0485538</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0260289</v>
+        <v>0.0260875</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0687662</v>
+        <v>0.0701763</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0624941</v>
+        <v>0.0633253</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0300609</v>
+        <v>0.0296382</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0893958</v>
+        <v>0.0915372</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0842149</v>
+        <v>0.0843957</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0367887</v>
+        <v>0.0358728</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116701</v>
+        <v>0.117203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120653</v>
+        <v>0.120581</v>
       </c>
       <c r="D51" t="n">
-        <v>0.018571</v>
+        <v>0.0182374</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142083</v>
+        <v>0.143077</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166929</v>
+        <v>0.164446</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0187505</v>
+        <v>0.018488</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189275</v>
+        <v>0.0195934</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0215969</v>
+        <v>0.0214336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.019013</v>
+        <v>0.0187666</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0200761</v>
+        <v>0.02102</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0222764</v>
+        <v>0.0220525</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01936</v>
+        <v>0.0190885</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216842</v>
+        <v>0.0225648</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0232459</v>
+        <v>0.022966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.019733</v>
+        <v>0.0194149</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0234537</v>
+        <v>0.0242846</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0243094</v>
+        <v>0.0239966</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0200993</v>
+        <v>0.0198165</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0259134</v>
+        <v>0.0267901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0257949</v>
+        <v>0.0254981</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0206146</v>
+        <v>0.0202895</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0291842</v>
+        <v>0.0301859</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0279511</v>
+        <v>0.027607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0212464</v>
+        <v>0.0209132</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0337068</v>
+        <v>0.0341083</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0304492</v>
+        <v>0.030234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0220967</v>
+        <v>0.0217617</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0396124</v>
+        <v>0.0396727</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0340714</v>
+        <v>0.0342716</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0231575</v>
+        <v>0.0228338</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0464008</v>
+        <v>0.0467569</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0400609</v>
+        <v>0.0401737</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0247976</v>
+        <v>0.0244777</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0562035</v>
+        <v>0.056571</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0485857</v>
+        <v>0.0489712</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0272565</v>
+        <v>0.0269072</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07021959999999999</v>
+        <v>0.0706807</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0611799</v>
+        <v>0.0615112</v>
       </c>
       <c r="D63" t="n">
-        <v>0.031377</v>
+        <v>0.0308425</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0908234</v>
+        <v>0.0904457</v>
       </c>
       <c r="C64" t="n">
-        <v>0.080169</v>
+        <v>0.0802418</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0378282</v>
+        <v>0.0370188</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115963</v>
+        <v>0.115684</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113402</v>
+        <v>0.113182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0489095</v>
+        <v>0.0483751</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147593</v>
+        <v>0.146419</v>
       </c>
       <c r="C66" t="n">
-        <v>0.161486</v>
+        <v>0.160231</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0189664</v>
+        <v>0.0186509</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196807</v>
+        <v>0.0203674</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0218744</v>
+        <v>0.0217713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0192661</v>
+        <v>0.0189355</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209768</v>
+        <v>0.0214375</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0226858</v>
+        <v>0.0225799</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0196514</v>
+        <v>0.0193122</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226346</v>
+        <v>0.0231471</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236468</v>
+        <v>0.0235356</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0200569</v>
+        <v>0.0197278</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244167</v>
+        <v>0.025012</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024771</v>
+        <v>0.024692</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0204919</v>
+        <v>0.0200798</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270412</v>
+        <v>0.0273397</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0261394</v>
+        <v>0.026039</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0210414</v>
+        <v>0.0206165</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303396</v>
+        <v>0.030584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280775</v>
+        <v>0.0280152</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0216403</v>
+        <v>0.0212643</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0341644</v>
+        <v>0.0346521</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0308376</v>
+        <v>0.0306983</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0225758</v>
+        <v>0.0221111</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.039823</v>
+        <v>0.039922</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0345647</v>
+        <v>0.0345522</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0236972</v>
+        <v>0.0232425</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0464972</v>
+        <v>0.0465891</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0400022</v>
+        <v>0.0400392</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0254308</v>
+        <v>0.0248546</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0558007</v>
+        <v>0.0560145</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0477132</v>
+        <v>0.0478542</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0278021</v>
+        <v>0.0272222</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689039</v>
+        <v>0.06882630000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0592687</v>
+        <v>0.0592937</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0313444</v>
+        <v>0.0307919</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0874381</v>
+        <v>0.086936</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0755937</v>
+        <v>0.0756323</v>
       </c>
       <c r="D78" t="n">
-        <v>0.036949</v>
+        <v>0.0364433</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112029</v>
+        <v>0.112149</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103214</v>
+        <v>0.10319</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0465868</v>
+        <v>0.0459619</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143697</v>
+        <v>0.144098</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148613</v>
+        <v>0.148134</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0191816</v>
+        <v>0.0188155</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0198689</v>
+        <v>0.0199222</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0224915</v>
+        <v>0.0223968</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0195587</v>
+        <v>0.0192385</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0210816</v>
+        <v>0.0212328</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232624</v>
+        <v>0.023223</v>
       </c>
       <c r="D82" t="n">
-        <v>0.019942</v>
+        <v>0.0196125</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228166</v>
+        <v>0.022735</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0242272</v>
+        <v>0.0241704</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0204317</v>
+        <v>0.0200982</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248867</v>
+        <v>0.0247762</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253054</v>
+        <v>0.0252991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0208982</v>
+        <v>0.0205706</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0270571</v>
+        <v>0.0270465</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268034</v>
+        <v>0.0268308</v>
       </c>
       <c r="D85" t="n">
-        <v>0.021529</v>
+        <v>0.0212006</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303581</v>
+        <v>0.0302172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0286178</v>
+        <v>0.0286413</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0222958</v>
+        <v>0.0219494</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0340781</v>
+        <v>0.0345222</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310401</v>
+        <v>0.0311202</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0232274</v>
+        <v>0.0228526</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392201</v>
+        <v>0.0396322</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0346516</v>
+        <v>0.0345706</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0244563</v>
+        <v>0.0240188</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455859</v>
+        <v>0.0459303</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0395407</v>
+        <v>0.0393922</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0260627</v>
+        <v>0.0255933</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0542968</v>
+        <v>0.0549385</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0469505</v>
+        <v>0.0468297</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0283881</v>
+        <v>0.0278379</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0665861</v>
+        <v>0.06727710000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569123</v>
+        <v>0.0569296</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0314991</v>
+        <v>0.0311047</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0836271</v>
+        <v>0.08436630000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07243570000000001</v>
+        <v>0.0723693</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0364516</v>
+        <v>0.0360583</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107474</v>
+        <v>0.108233</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978425</v>
+        <v>0.0978642</v>
       </c>
       <c r="D93" t="n">
-        <v>0.044952</v>
+        <v>0.0447819</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138182</v>
+        <v>0.139143</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139639</v>
+        <v>0.139379</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0208722</v>
+        <v>0.0205803</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205858</v>
+        <v>0.0205389</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0237351</v>
+        <v>0.023755</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0213989</v>
+        <v>0.021147</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218546</v>
+        <v>0.021812</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0248802</v>
+        <v>0.0249706</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0219755</v>
+        <v>0.0216439</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023814</v>
+        <v>0.023288</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0265995</v>
+        <v>0.0268513</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0225093</v>
+        <v>0.0223749</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250964</v>
+        <v>0.0250072</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0293002</v>
+        <v>0.0295238</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0232097</v>
+        <v>0.0230506</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274836</v>
+        <v>0.0278474</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0326414</v>
+        <v>0.032851</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0245795</v>
+        <v>0.0244323</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.030747</v>
+        <v>0.0305323</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0361125</v>
+        <v>0.0361284</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0267163</v>
+        <v>0.0266327</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347355</v>
+        <v>0.0344567</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391886</v>
+        <v>0.0391365</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02941</v>
+        <v>0.0293525</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400224</v>
+        <v>0.0400658</v>
       </c>
       <c r="C102" t="n">
-        <v>0.042293</v>
+        <v>0.0424224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.032552</v>
+        <v>0.0321544</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463208</v>
+        <v>0.0464362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.046029</v>
+        <v>0.046045</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0354512</v>
+        <v>0.0352099</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543637</v>
+        <v>0.0546574</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0513529</v>
+        <v>0.051263</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0385299</v>
+        <v>0.0382894</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653682</v>
+        <v>0.0659129</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0588731</v>
+        <v>0.0587762</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0417104</v>
+        <v>0.0413789</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08100350000000001</v>
+        <v>0.081398</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0713868</v>
+        <v>0.07140730000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0458779</v>
+        <v>0.0455842</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103209</v>
+        <v>0.103688</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0928829</v>
+        <v>0.09306449999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.052126</v>
+        <v>0.0518624</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133122</v>
+        <v>0.132993</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131654</v>
+        <v>0.131703</v>
       </c>
       <c r="D108" t="n">
-        <v>0.032469</v>
+        <v>0.0323864</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169373</v>
+        <v>0.168656</v>
       </c>
       <c r="C109" t="n">
-        <v>0.183658</v>
+        <v>0.180981</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0334518</v>
+        <v>0.033203</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314765</v>
+        <v>0.0313275</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0381555</v>
+        <v>0.0384432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0342454</v>
+        <v>0.0345444</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329173</v>
+        <v>0.032407</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0391654</v>
+        <v>0.0393056</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0352441</v>
+        <v>0.0351091</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343783</v>
+        <v>0.0341779</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0401417</v>
+        <v>0.0401242</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0358322</v>
+        <v>0.0357765</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0363075</v>
+        <v>0.0360529</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0413402</v>
+        <v>0.0414411</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0370327</v>
+        <v>0.0365488</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.038119</v>
+        <v>0.0379617</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426599</v>
+        <v>0.0426079</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0375964</v>
+        <v>0.0374078</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408054</v>
+        <v>0.0406271</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0443099</v>
+        <v>0.0441639</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0385411</v>
+        <v>0.0384696</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0443767</v>
+        <v>0.0440815</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0465229</v>
+        <v>0.0463438</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0396593</v>
+        <v>0.0398856</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488793</v>
+        <v>0.0488723</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0493312</v>
+        <v>0.0493066</v>
       </c>
       <c r="D117" t="n">
-        <v>0.041189</v>
+        <v>0.0413344</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551344</v>
+        <v>0.0552278</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0536939</v>
+        <v>0.0536276</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0429297</v>
+        <v>0.0428719</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650314</v>
+        <v>0.0653012</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0599583</v>
+        <v>0.059945</v>
       </c>
       <c r="D119" t="n">
-        <v>0.04557</v>
+        <v>0.0453975</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07922269999999999</v>
+        <v>0.079846</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0707173</v>
+        <v>0.0709564</v>
       </c>
       <c r="D120" t="n">
-        <v>0.048945</v>
+        <v>0.0488839</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100153</v>
+        <v>0.100582</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0891391</v>
+        <v>0.0893848</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0544269</v>
+        <v>0.054449</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128537</v>
+        <v>0.128948</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122699</v>
+        <v>0.123084</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0644387</v>
+        <v>0.06427339999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163884</v>
+        <v>0.164539</v>
       </c>
       <c r="C123" t="n">
-        <v>0.173047</v>
+        <v>0.171473</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0379583</v>
+        <v>0.0378996</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341604</v>
+        <v>0.0343559</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0426073</v>
+        <v>0.042538</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0382235</v>
+        <v>0.0383897</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0353346</v>
+        <v>0.0356284</v>
       </c>
       <c r="C125" t="n">
-        <v>0.043945</v>
+        <v>0.0434489</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0394619</v>
+        <v>0.0387562</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366792</v>
+        <v>0.0371799</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0450097</v>
+        <v>0.0445358</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0404277</v>
+        <v>0.0398048</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385754</v>
+        <v>0.0388574</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0457395</v>
+        <v>0.0456912</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0412344</v>
+        <v>0.0412372</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407602</v>
+        <v>0.0408845</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0476742</v>
+        <v>0.0470722</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0421878</v>
+        <v>0.0419985</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432595</v>
+        <v>0.0433438</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0494454</v>
+        <v>0.0491605</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0431449</v>
+        <v>0.0430223</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465333</v>
+        <v>0.0470611</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0518466</v>
+        <v>0.0512632</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0440747</v>
+        <v>0.0441448</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0524135</v>
+        <v>0.0525315</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0546879</v>
+        <v>0.0541554</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0457512</v>
+        <v>0.0457799</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0587079</v>
+        <v>0.0590358</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0584939</v>
+        <v>0.0588464</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0475797</v>
+        <v>0.0472733</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06791990000000001</v>
+        <v>0.0684752</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0649792</v>
+        <v>0.06474439999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0497646</v>
+        <v>0.0499067</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08132789999999999</v>
+        <v>0.0824598</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0754669</v>
+        <v>0.0749522</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0532368</v>
+        <v>0.0534531</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101527</v>
+        <v>0.102309</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0919288</v>
+        <v>0.09158239999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0594058</v>
+        <v>0.0593611</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129078</v>
+        <v>0.130432</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121378</v>
+        <v>0.120455</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06882439999999999</v>
+        <v>0.0688211</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163069</v>
+        <v>0.165051</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168483</v>
+        <v>0.167501</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0536539</v>
+        <v>0.0536261</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0480392</v>
+        <v>0.0466953</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0555839</v>
+        <v>0.0554084</v>
       </c>
       <c r="D138" t="n">
-        <v>0.054376</v>
+        <v>0.0543315</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.047964</v>
+        <v>0.0483961</v>
       </c>
       <c r="C139" t="n">
-        <v>0.056498</v>
+        <v>0.0563765</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0548039</v>
+        <v>0.0549449</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494619</v>
+        <v>0.0494039</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0575378</v>
+        <v>0.0574294</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0555604</v>
+        <v>0.0554957</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0511432</v>
+        <v>0.0510554</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0588233</v>
+        <v>0.0587233</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0564701</v>
+        <v>0.0563672</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.052837</v>
+        <v>0.0529942</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0602667</v>
+        <v>0.0602661</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0572694</v>
+        <v>0.0571394</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557833</v>
+        <v>0.0558591</v>
       </c>
       <c r="C143" t="n">
         <v>0.0621672</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0583745</v>
+        <v>0.0580986</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0237667</v>
+        <v>0.0187548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0189721</v>
+        <v>0.023056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0195844</v>
+        <v>0.0191523</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0252064</v>
+        <v>0.0213281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0214377</v>
+        <v>0.0241096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02016</v>
+        <v>0.019472</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0312682</v>
+        <v>0.0274456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0208254</v>
+        <v>0.0257252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0209866</v>
+        <v>0.0197968</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0383975</v>
+        <v>0.0366672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0250961</v>
+        <v>0.0279106</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0219094</v>
+        <v>0.0201456</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0519862</v>
+        <v>0.0516722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0319113</v>
+        <v>0.0329331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0231099</v>
+        <v>0.0202135</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0687405</v>
+        <v>0.07329239999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0438913</v>
+        <v>0.046893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0247769</v>
+        <v>0.0229775</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0931514</v>
+        <v>0.102445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06818630000000001</v>
+        <v>0.06931809999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.030279</v>
+        <v>0.0278973</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.122963</v>
+        <v>0.126892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116377</v>
+        <v>0.122917</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0174921</v>
+        <v>0.0174942</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0172189</v>
+        <v>0.0162624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0188219</v>
+        <v>0.0196158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0177123</v>
+        <v>0.0177311</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.018144</v>
+        <v>0.0171512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0190304</v>
+        <v>0.019814</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0179593</v>
+        <v>0.0178122</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0190403</v>
+        <v>0.0176229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0196041</v>
+        <v>0.0210733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0182913</v>
+        <v>0.0180614</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0202366</v>
+        <v>0.0180005</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0200093</v>
+        <v>0.0215648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0186858</v>
+        <v>0.0183428</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0215102</v>
+        <v>0.0190396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0202579</v>
+        <v>0.0226951</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0188155</v>
+        <v>0.0186387</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0237568</v>
+        <v>0.0207466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0208127</v>
+        <v>0.0233762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0192441</v>
+        <v>0.0191438</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0261716</v>
+        <v>0.02435</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0214607</v>
+        <v>0.0248621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0199942</v>
+        <v>0.019472</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.029838</v>
+        <v>0.028228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0243548</v>
+        <v>0.026623</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0204366</v>
+        <v>0.0196885</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0367299</v>
+        <v>0.033222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0273293</v>
+        <v>0.0294666</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0212342</v>
+        <v>0.0204824</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0429192</v>
+        <v>0.0442111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0310391</v>
+        <v>0.0337617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0222397</v>
+        <v>0.0209833</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0530723</v>
+        <v>0.0562851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0399603</v>
+        <v>0.0452952</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0239756</v>
+        <v>0.0223523</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0715952</v>
+        <v>0.07218819999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0564202</v>
+        <v>0.0616837</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0269817</v>
+        <v>0.0253224</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0949692</v>
+        <v>0.0968981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.082819</v>
+        <v>0.0840688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0332229</v>
+        <v>0.0316746</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.122651</v>
+        <v>0.12043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127611</v>
+        <v>0.127442</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0172688</v>
+        <v>0.0173233</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164944</v>
+        <v>0.0166185</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0191494</v>
+        <v>0.0197212</v>
       </c>
       <c r="D24" t="n">
-        <v>0.017562</v>
+        <v>0.0175872</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0175907</v>
+        <v>0.0174158</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0195215</v>
+        <v>0.0203071</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0177584</v>
+        <v>0.0177972</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0187962</v>
+        <v>0.0179228</v>
       </c>
       <c r="C26" t="n">
-        <v>0.020152</v>
+        <v>0.0210489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0181118</v>
+        <v>0.0180847</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0199557</v>
+        <v>0.0187969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0208305</v>
+        <v>0.0219773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0184726</v>
+        <v>0.018444</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0211952</v>
+        <v>0.0204523</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0215876</v>
+        <v>0.0229646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0188526</v>
+        <v>0.0188172</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0235451</v>
+        <v>0.0224876</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0224701</v>
+        <v>0.0239029</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0192585</v>
+        <v>0.0191376</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0258434</v>
+        <v>0.025577</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0240204</v>
+        <v>0.0257263</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0196461</v>
+        <v>0.0195551</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0302922</v>
+        <v>0.0298904</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0258413</v>
+        <v>0.0277794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0204657</v>
+        <v>0.0201712</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0354765</v>
+        <v>0.0359716</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0301125</v>
+        <v>0.0309774</v>
       </c>
       <c r="D32" t="n">
-        <v>0.021354</v>
+        <v>0.0208529</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0441472</v>
+        <v>0.0429005</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0358772</v>
+        <v>0.0364445</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0226727</v>
+        <v>0.0217177</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0559628</v>
+        <v>0.054111</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0468479</v>
+        <v>0.0457848</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0245247</v>
+        <v>0.0233672</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0724867</v>
+        <v>0.0712265</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05883</v>
+        <v>0.0593112</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0282355</v>
+        <v>0.0272726</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09297039999999999</v>
+        <v>0.09261129999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08729240000000001</v>
+        <v>0.0878398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0350925</v>
+        <v>0.0343868</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118794</v>
+        <v>0.117718</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128595</v>
+        <v>0.129218</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0176327</v>
+        <v>0.0176655</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171808</v>
+        <v>0.0171413</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0200823</v>
+        <v>0.0203891</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0178562</v>
+        <v>0.0179003</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0181918</v>
+        <v>0.0178961</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0205538</v>
+        <v>0.0208662</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0180896</v>
+        <v>0.0180894</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0192102</v>
+        <v>0.0189294</v>
       </c>
       <c r="C40" t="n">
-        <v>0.021232</v>
+        <v>0.0216376</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0183682</v>
+        <v>0.0183657</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0206009</v>
+        <v>0.0200277</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0218818</v>
+        <v>0.0224156</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0186766</v>
+        <v>0.0186685</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0224408</v>
+        <v>0.0214925</v>
       </c>
       <c r="C42" t="n">
-        <v>0.022965</v>
+        <v>0.0236464</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0191251</v>
+        <v>0.0190959</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0247355</v>
+        <v>0.0237414</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0243359</v>
+        <v>0.025122</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0196491</v>
+        <v>0.0195926</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0276164</v>
+        <v>0.0275746</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0260587</v>
+        <v>0.0272226</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0201924</v>
+        <v>0.020057</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0317449</v>
+        <v>0.03177</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0291025</v>
+        <v>0.0295559</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0209959</v>
+        <v>0.0207859</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0376795</v>
+        <v>0.0378145</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0335306</v>
+        <v>0.0336682</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0221087</v>
+        <v>0.0217499</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0444975</v>
+        <v>0.0457079</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0396239</v>
+        <v>0.0397657</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0236376</v>
+        <v>0.0231501</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0548607</v>
+        <v>0.057209</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0485538</v>
+        <v>0.0486222</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0260875</v>
+        <v>0.0255355</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0701763</v>
+        <v>0.0714891</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0633253</v>
+        <v>0.0631118</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0296382</v>
+        <v>0.0294417</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0915372</v>
+        <v>0.0917071</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0843957</v>
+        <v>0.0840501</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0358728</v>
+        <v>0.0360441</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117203</v>
+        <v>0.118301</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120581</v>
+        <v>0.120874</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0182374</v>
+        <v>0.0183355</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143077</v>
+        <v>0.143443</v>
       </c>
       <c r="C52" t="n">
-        <v>0.164446</v>
+        <v>0.164713</v>
       </c>
       <c r="D52" t="n">
-        <v>0.018488</v>
+        <v>0.0185681</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0195934</v>
+        <v>0.0191641</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0214336</v>
+        <v>0.0215895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0187666</v>
+        <v>0.0187886</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02102</v>
+        <v>0.0203675</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220525</v>
+        <v>0.0222625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0190885</v>
+        <v>0.0191324</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0225648</v>
+        <v>0.0219775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022966</v>
+        <v>0.0232707</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0194149</v>
+        <v>0.0194354</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0242846</v>
+        <v>0.0238995</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0239966</v>
+        <v>0.0242587</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0198165</v>
+        <v>0.0197702</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0267901</v>
+        <v>0.0263819</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0254981</v>
+        <v>0.0257992</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0202895</v>
+        <v>0.0202339</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0301859</v>
+        <v>0.0295258</v>
       </c>
       <c r="C58" t="n">
-        <v>0.027607</v>
+        <v>0.0279283</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0209132</v>
+        <v>0.020907</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341083</v>
+        <v>0.0340312</v>
       </c>
       <c r="C59" t="n">
-        <v>0.030234</v>
+        <v>0.0304041</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0217617</v>
+        <v>0.0216483</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0396727</v>
+        <v>0.0394041</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0342716</v>
+        <v>0.0339046</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0228338</v>
+        <v>0.0226873</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0467569</v>
+        <v>0.0467275</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0401737</v>
+        <v>0.0398188</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0244777</v>
+        <v>0.0242971</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056571</v>
+        <v>0.0566308</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0489712</v>
+        <v>0.0487334</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0269072</v>
+        <v>0.0266963</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0706807</v>
+        <v>0.07062690000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0615112</v>
+        <v>0.0614368</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0308425</v>
+        <v>0.0307856</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0904457</v>
+        <v>0.0903716</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0802418</v>
+        <v>0.0802993</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0370188</v>
+        <v>0.0374314</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115684</v>
+        <v>0.116314</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113182</v>
+        <v>0.113357</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0483751</v>
+        <v>0.0484396</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146419</v>
+        <v>0.14767</v>
       </c>
       <c r="C66" t="n">
-        <v>0.160231</v>
+        <v>0.159917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0186509</v>
+        <v>0.0186618</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0203674</v>
+        <v>0.0196928</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0217713</v>
+        <v>0.0219296</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0189355</v>
+        <v>0.0189804</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0214375</v>
+        <v>0.021092</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0225799</v>
+        <v>0.0227098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0193122</v>
+        <v>0.0193363</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0231471</v>
+        <v>0.0226713</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0235356</v>
+        <v>0.0236287</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0197278</v>
+        <v>0.0196923</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.025012</v>
+        <v>0.0245756</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024692</v>
+        <v>0.0247351</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0200798</v>
+        <v>0.0201106</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273397</v>
+        <v>0.0269921</v>
       </c>
       <c r="C71" t="n">
-        <v>0.026039</v>
+        <v>0.0260996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0206165</v>
+        <v>0.0206433</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.030584</v>
+        <v>0.0304374</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280152</v>
+        <v>0.0280168</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0212643</v>
+        <v>0.0212172</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346521</v>
+        <v>0.0345365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0306983</v>
+        <v>0.0307876</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0221111</v>
+        <v>0.0220455</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.039922</v>
+        <v>0.0397949</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0345522</v>
+        <v>0.0345564</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0232425</v>
+        <v>0.0232023</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0465891</v>
+        <v>0.0467882</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0400392</v>
+        <v>0.0399306</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0248546</v>
+        <v>0.0248845</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560145</v>
+        <v>0.0557339</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0478542</v>
+        <v>0.0478556</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0272222</v>
+        <v>0.0271903</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06882630000000001</v>
+        <v>0.0683441</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0592937</v>
+        <v>0.0593168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0307919</v>
+        <v>0.0307625</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.086936</v>
+        <v>0.0869636</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0756323</v>
+        <v>0.0755508</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0364433</v>
+        <v>0.0364449</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112149</v>
+        <v>0.112217</v>
       </c>
       <c r="C79" t="n">
-        <v>0.10319</v>
+        <v>0.103276</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0459619</v>
+        <v>0.0460307</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144098</v>
+        <v>0.143604</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148134</v>
+        <v>0.148005</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0188155</v>
+        <v>0.0189037</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199222</v>
+        <v>0.020329</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0223968</v>
+        <v>0.0224011</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0192385</v>
+        <v>0.0192675</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212328</v>
+        <v>0.0212778</v>
       </c>
       <c r="C82" t="n">
-        <v>0.023223</v>
+        <v>0.0232508</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0196125</v>
+        <v>0.0197317</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.022735</v>
+        <v>0.0227831</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0241704</v>
+        <v>0.0242188</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0200982</v>
+        <v>0.0201014</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247762</v>
+        <v>0.0250056</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0252991</v>
+        <v>0.0253743</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0205706</v>
+        <v>0.0206841</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0270465</v>
+        <v>0.0274338</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268308</v>
+        <v>0.0267865</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0212006</v>
+        <v>0.0213674</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302172</v>
+        <v>0.0303437</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0286413</v>
+        <v>0.0286267</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0219494</v>
+        <v>0.0220699</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0345222</v>
+        <v>0.03417</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0311202</v>
+        <v>0.0310396</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0228526</v>
+        <v>0.0229093</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0396322</v>
+        <v>0.0394457</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0345706</v>
+        <v>0.0346257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0240188</v>
+        <v>0.0241092</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459303</v>
+        <v>0.0458083</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0393922</v>
+        <v>0.0396161</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0255933</v>
+        <v>0.0256701</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0549385</v>
+        <v>0.0544101</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0468297</v>
+        <v>0.0469049</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0278379</v>
+        <v>0.0279136</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06727710000000001</v>
+        <v>0.06646050000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569296</v>
+        <v>0.0570268</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0311047</v>
+        <v>0.0310937</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08436630000000001</v>
+        <v>0.08358740000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0723693</v>
+        <v>0.0724799</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0360583</v>
+        <v>0.0359055</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108233</v>
+        <v>0.10681</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978642</v>
+        <v>0.0977174</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0447819</v>
+        <v>0.0444743</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139143</v>
+        <v>0.13798</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139379</v>
+        <v>0.139584</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0205803</v>
+        <v>0.0207373</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205389</v>
+        <v>0.0209109</v>
       </c>
       <c r="C95" t="n">
-        <v>0.023755</v>
+        <v>0.0238864</v>
       </c>
       <c r="D95" t="n">
-        <v>0.021147</v>
+        <v>0.0212753</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.021812</v>
+        <v>0.0218936</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0249706</v>
+        <v>0.0251279</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0216439</v>
+        <v>0.021758</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023288</v>
+        <v>0.023128</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0268513</v>
+        <v>0.0266779</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0223749</v>
+        <v>0.0223499</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250072</v>
+        <v>0.0252711</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0295238</v>
+        <v>0.0294849</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0230506</v>
+        <v>0.023089</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0278474</v>
+        <v>0.027375</v>
       </c>
       <c r="C99" t="n">
-        <v>0.032851</v>
+        <v>0.032722</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0244323</v>
+        <v>0.0243046</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305323</v>
+        <v>0.0305254</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0361284</v>
+        <v>0.0360943</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0266327</v>
+        <v>0.0262413</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344567</v>
+        <v>0.0345336</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391365</v>
+        <v>0.0390901</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0293525</v>
+        <v>0.029096</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400658</v>
+        <v>0.0401664</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0424224</v>
+        <v>0.0423061</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0321544</v>
+        <v>0.0319722</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464362</v>
+        <v>0.0462935</v>
       </c>
       <c r="C103" t="n">
-        <v>0.046045</v>
+        <v>0.0460636</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0352099</v>
+        <v>0.0348621</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546574</v>
+        <v>0.0545432</v>
       </c>
       <c r="C104" t="n">
-        <v>0.051263</v>
+        <v>0.0512181</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0382894</v>
+        <v>0.0379453</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0659129</v>
+        <v>0.0656226</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0587762</v>
+        <v>0.0592979</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0413789</v>
+        <v>0.0412487</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.081398</v>
+        <v>0.0813815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07140730000000001</v>
+        <v>0.07136149999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0455842</v>
+        <v>0.045456</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103688</v>
+        <v>0.103536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09306449999999999</v>
+        <v>0.0930686</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0518624</v>
+        <v>0.0517993</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132993</v>
+        <v>0.132989</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131703</v>
+        <v>0.131632</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323864</v>
+        <v>0.0323021</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168656</v>
+        <v>0.168872</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180981</v>
+        <v>0.180837</v>
       </c>
       <c r="D109" t="n">
-        <v>0.033203</v>
+        <v>0.0331917</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313275</v>
+        <v>0.0314328</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0384432</v>
+        <v>0.0382154</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0345444</v>
+        <v>0.0341265</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032407</v>
+        <v>0.0325813</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0393056</v>
+        <v>0.0391817</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0351091</v>
+        <v>0.0349931</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341779</v>
+        <v>0.0345505</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0401242</v>
+        <v>0.0401386</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0357765</v>
+        <v>0.035787</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360529</v>
+        <v>0.0360841</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0414411</v>
+        <v>0.0413241</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0365488</v>
+        <v>0.0366431</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379617</v>
+        <v>0.0379401</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426079</v>
+        <v>0.0426336</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0374078</v>
+        <v>0.0375208</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406271</v>
+        <v>0.0409951</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0441639</v>
+        <v>0.0442527</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0384696</v>
+        <v>0.0384927</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440815</v>
+        <v>0.0441382</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0463438</v>
+        <v>0.0464002</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0398856</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488723</v>
+        <v>0.0490168</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0493066</v>
+        <v>0.0495026</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0413344</v>
+        <v>0.0411602</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552278</v>
+        <v>0.0552879</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0536276</v>
+        <v>0.0537372</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0428719</v>
+        <v>0.042807</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0653012</v>
+        <v>0.0652281</v>
       </c>
       <c r="C119" t="n">
-        <v>0.059945</v>
+        <v>0.0598928</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0453975</v>
+        <v>0.045389</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079846</v>
+        <v>0.07957119999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0709564</v>
+        <v>0.0708463</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0488839</v>
+        <v>0.0488284</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100582</v>
+        <v>0.1003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0893848</v>
+        <v>0.089269</v>
       </c>
       <c r="D121" t="n">
-        <v>0.054449</v>
+        <v>0.0542059</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128948</v>
+        <v>0.128434</v>
       </c>
       <c r="C122" t="n">
-        <v>0.123084</v>
+        <v>0.122796</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06427339999999999</v>
+        <v>0.06421159999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164539</v>
+        <v>0.164694</v>
       </c>
       <c r="C123" t="n">
-        <v>0.171473</v>
+        <v>0.171526</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0378996</v>
+        <v>0.0373103</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0343559</v>
+        <v>0.0343301</v>
       </c>
       <c r="C124" t="n">
-        <v>0.042538</v>
+        <v>0.0429271</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0383897</v>
+        <v>0.0381499</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356284</v>
+        <v>0.0359087</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0434489</v>
+        <v>0.0439565</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0387562</v>
+        <v>0.0388524</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371799</v>
+        <v>0.0370319</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0445358</v>
+        <v>0.0449136</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0398048</v>
+        <v>0.0398901</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0388574</v>
+        <v>0.0384918</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0456912</v>
+        <v>0.046299</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0412372</v>
+        <v>0.0403263</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408845</v>
+        <v>0.0403683</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0470722</v>
+        <v>0.0479411</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0419985</v>
+        <v>0.0415355</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433438</v>
+        <v>0.0433361</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0491605</v>
+        <v>0.0495569</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0430223</v>
+        <v>0.0429844</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0470611</v>
+        <v>0.047765</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0512632</v>
+        <v>0.0519238</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0441448</v>
+        <v>0.0440903</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0525315</v>
+        <v>0.0527672</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0541554</v>
+        <v>0.0549914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0457799</v>
+        <v>0.0452924</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590358</v>
+        <v>0.0591228</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0588464</v>
+        <v>0.0593839</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0472733</v>
+        <v>0.0472812</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0684752</v>
+        <v>0.0688764</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06474439999999999</v>
+        <v>0.0661423</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0499067</v>
+        <v>0.0500439</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0824598</v>
+        <v>0.0823786</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0749522</v>
+        <v>0.07585210000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0534531</v>
+        <v>0.053199</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102309</v>
+        <v>0.102965</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09158239999999999</v>
+        <v>0.0922535</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0593611</v>
+        <v>0.0588582</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130432</v>
+        <v>0.130784</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120455</v>
+        <v>0.121498</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0688211</v>
+        <v>0.068283</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165051</v>
+        <v>0.166432</v>
       </c>
       <c r="C137" t="n">
-        <v>0.167501</v>
+        <v>0.168037</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0536261</v>
+        <v>0.0533155</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0466953</v>
+        <v>0.0468173</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0554084</v>
+        <v>0.055253</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0543315</v>
+        <v>0.0541791</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0483961</v>
+        <v>0.0478613</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0563765</v>
+        <v>0.0562186</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0549449</v>
+        <v>0.0546209</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494039</v>
+        <v>0.0491754</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0574294</v>
+        <v>0.0573826</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0554957</v>
+        <v>0.0555164</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510554</v>
+        <v>0.0504298</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0587233</v>
+        <v>0.0586242</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0563672</v>
+        <v>0.0562522</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529942</v>
+        <v>0.0528644</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0602661</v>
+        <v>0.0600946</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0571394</v>
+        <v>0.0569617</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558591</v>
+        <v>0.0556055</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0621672</v>
+        <v>0.0620072</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0580986</v>
+        <v>0.0578987</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0187548</v>
+        <v>0.0211174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.023056</v>
+        <v>0.0180685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0191523</v>
+        <v>0.0188881</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0213281</v>
+        <v>0.0230622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0241096</v>
+        <v>0.018587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.019472</v>
+        <v>0.0192571</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0274456</v>
+        <v>0.0297415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0257252</v>
+        <v>0.018042</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0197968</v>
+        <v>0.0194109</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0366672</v>
+        <v>0.0412587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0279106</v>
+        <v>0.021413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0201456</v>
+        <v>0.0196144</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0516722</v>
+        <v>0.048938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0329331</v>
+        <v>0.0298865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0202135</v>
+        <v>0.0201251</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07329239999999999</v>
+        <v>0.07427789999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046893</v>
+        <v>0.0472524</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0229775</v>
+        <v>0.0221901</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102445</v>
+        <v>0.096427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06931809999999999</v>
+        <v>0.0692031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0278973</v>
+        <v>0.0269391</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.126892</v>
+        <v>0.117051</v>
       </c>
       <c r="C9" t="n">
-        <v>0.122917</v>
+        <v>0.121989</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0174942</v>
+        <v>0.0173174</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162624</v>
+        <v>0.0165361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0196158</v>
+        <v>0.0181846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0177311</v>
+        <v>0.0174917</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0171512</v>
+        <v>0.0168488</v>
       </c>
       <c r="C11" t="n">
-        <v>0.019814</v>
+        <v>0.0184498</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0178122</v>
+        <v>0.0177531</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0176229</v>
+        <v>0.0173219</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210733</v>
+        <v>0.0190556</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0180614</v>
+        <v>0.0179484</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180005</v>
+        <v>0.0182356</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215648</v>
+        <v>0.0193541</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0183428</v>
+        <v>0.0183103</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0190396</v>
+        <v>0.0193681</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0226951</v>
+        <v>0.0199661</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0186387</v>
+        <v>0.0184605</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0207466</v>
+        <v>0.0218109</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0233762</v>
+        <v>0.0203904</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0191438</v>
+        <v>0.0188012</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02435</v>
+        <v>0.0244032</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0248621</v>
+        <v>0.0212365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.019472</v>
+        <v>0.0191186</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.028228</v>
+        <v>0.0268855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.026623</v>
+        <v>0.0230007</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0196885</v>
+        <v>0.0194568</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.033222</v>
+        <v>0.0358713</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0294666</v>
+        <v>0.0266884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0204824</v>
+        <v>0.0199736</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0442111</v>
+        <v>0.0436241</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0337617</v>
+        <v>0.0315211</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0209833</v>
+        <v>0.020758</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0562851</v>
+        <v>0.0566744</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0452952</v>
+        <v>0.0398089</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0223523</v>
+        <v>0.022001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07218819999999999</v>
+        <v>0.07481309999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0616837</v>
+        <v>0.0568806</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0253224</v>
+        <v>0.0250162</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0968981</v>
+        <v>0.0977315</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0840688</v>
+        <v>0.0822582</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0316746</v>
+        <v>0.0315447</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12043</v>
+        <v>0.121529</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127442</v>
+        <v>0.127728</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0173233</v>
+        <v>0.0172989</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166185</v>
+        <v>0.0167635</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0197212</v>
+        <v>0.0188289</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0175872</v>
+        <v>0.0175482</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0174158</v>
+        <v>0.017192</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0203071</v>
+        <v>0.0192476</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0177972</v>
+        <v>0.0177057</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179228</v>
+        <v>0.0181569</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0210489</v>
+        <v>0.0198017</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0180847</v>
+        <v>0.0180249</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0187969</v>
+        <v>0.0191394</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0219773</v>
+        <v>0.0205639</v>
       </c>
       <c r="D27" t="n">
-        <v>0.018444</v>
+        <v>0.0183236</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0204523</v>
+        <v>0.0201933</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229646</v>
+        <v>0.0213322</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0188172</v>
+        <v>0.0186792</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0224876</v>
+        <v>0.0226015</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0239029</v>
+        <v>0.0221298</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0191376</v>
+        <v>0.0190148</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.025577</v>
+        <v>0.0258807</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0257263</v>
+        <v>0.0237063</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0195551</v>
+        <v>0.0194174</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0298904</v>
+        <v>0.0301595</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0277794</v>
+        <v>0.0259835</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0201712</v>
+        <v>0.02002</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0359716</v>
+        <v>0.0368941</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0309774</v>
+        <v>0.029836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0208529</v>
+        <v>0.0206906</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0429005</v>
+        <v>0.0451685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0364445</v>
+        <v>0.0369864</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0217177</v>
+        <v>0.0216999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.054111</v>
+        <v>0.0580539</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0457848</v>
+        <v>0.0470132</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0233672</v>
+        <v>0.0232802</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0712265</v>
+        <v>0.0731541</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0593112</v>
+        <v>0.0597216</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0272726</v>
+        <v>0.0274712</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09261129999999999</v>
+        <v>0.0931563</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0878398</v>
+        <v>0.0874554</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0343868</v>
+        <v>0.0350777</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117718</v>
+        <v>0.119273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.129218</v>
+        <v>0.128408</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0176655</v>
+        <v>0.0176359</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171413</v>
+        <v>0.0173029</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0203891</v>
+        <v>0.0198633</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0179003</v>
+        <v>0.0178197</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178961</v>
+        <v>0.0179896</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0208662</v>
+        <v>0.0203478</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0180894</v>
+        <v>0.0180354</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189294</v>
+        <v>0.0188819</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0216376</v>
+        <v>0.0208903</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0183657</v>
+        <v>0.0183015</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200277</v>
+        <v>0.0200781</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0224156</v>
+        <v>0.0215984</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0186685</v>
+        <v>0.0186137</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0214925</v>
+        <v>0.0219101</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0236464</v>
+        <v>0.0226578</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0190959</v>
+        <v>0.0190082</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0237414</v>
+        <v>0.0240282</v>
       </c>
       <c r="C43" t="n">
-        <v>0.025122</v>
+        <v>0.0238756</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0195926</v>
+        <v>0.0195027</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0275746</v>
+        <v>0.0281971</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0272226</v>
+        <v>0.0260252</v>
       </c>
       <c r="D44" t="n">
-        <v>0.020057</v>
+        <v>0.0199257</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03177</v>
+        <v>0.0321977</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0295559</v>
+        <v>0.0292789</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0207859</v>
+        <v>0.020694</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0378145</v>
+        <v>0.0388415</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0336682</v>
+        <v>0.0336523</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0217499</v>
+        <v>0.0217628</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0457079</v>
+        <v>0.04648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0397657</v>
+        <v>0.0396882</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0231501</v>
+        <v>0.0231294</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.057209</v>
+        <v>0.058305</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0486222</v>
+        <v>0.0488878</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0255355</v>
+        <v>0.0256267</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0714891</v>
+        <v>0.0729099</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0631118</v>
+        <v>0.0632752</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0294417</v>
+        <v>0.0294446</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0917071</v>
+        <v>0.092652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0840501</v>
+        <v>0.08395660000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0360441</v>
+        <v>0.0358499</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118301</v>
+        <v>0.116645</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120874</v>
+        <v>0.120519</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0183355</v>
+        <v>0.0182501</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143443</v>
+        <v>0.141819</v>
       </c>
       <c r="C52" t="n">
-        <v>0.164713</v>
+        <v>0.164494</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0185681</v>
+        <v>0.0184604</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191641</v>
+        <v>0.0190212</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0215895</v>
+        <v>0.0213206</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0187886</v>
+        <v>0.0187407</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203675</v>
+        <v>0.0203763</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0222625</v>
+        <v>0.0219748</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0191324</v>
+        <v>0.0190437</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219775</v>
+        <v>0.0217277</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0232707</v>
+        <v>0.0229064</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0194354</v>
+        <v>0.0193514</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238995</v>
+        <v>0.0236711</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0242587</v>
+        <v>0.0238726</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0197702</v>
+        <v>0.0197087</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263819</v>
+        <v>0.0263062</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0257992</v>
+        <v>0.0253976</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0202339</v>
+        <v>0.0201868</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295258</v>
+        <v>0.0298477</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0279283</v>
+        <v>0.0275165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.020907</v>
+        <v>0.0208148</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0340312</v>
+        <v>0.0340807</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0304041</v>
+        <v>0.0303105</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0216483</v>
+        <v>0.0216163</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0394041</v>
+        <v>0.03975</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0339046</v>
+        <v>0.0343034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0226873</v>
+        <v>0.0226724</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0467275</v>
+        <v>0.0472159</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0398188</v>
+        <v>0.0403983</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0242971</v>
+        <v>0.0243224</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0566308</v>
+        <v>0.0573969</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0487334</v>
+        <v>0.0488933</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0266963</v>
+        <v>0.0266818</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07062690000000001</v>
+        <v>0.0715185</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0614368</v>
+        <v>0.0614014</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0307856</v>
+        <v>0.0307607</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0903716</v>
+        <v>0.09036370000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0802993</v>
+        <v>0.08021880000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0374314</v>
+        <v>0.0373394</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116314</v>
+        <v>0.116762</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113357</v>
+        <v>0.11308</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0484396</v>
+        <v>0.0483717</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.14767</v>
+        <v>0.146274</v>
       </c>
       <c r="C66" t="n">
-        <v>0.159917</v>
+        <v>0.160147</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0186618</v>
+        <v>0.0186553</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196928</v>
+        <v>0.0199373</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0219296</v>
+        <v>0.0217485</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0189804</v>
+        <v>0.0189318</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.021092</v>
+        <v>0.0211418</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0227098</v>
+        <v>0.0225859</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0193363</v>
+        <v>0.0192916</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226713</v>
+        <v>0.0225957</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0236287</v>
+        <v>0.02357</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0196923</v>
+        <v>0.0197106</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245756</v>
+        <v>0.0246208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0247351</v>
+        <v>0.0247048</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0201106</v>
+        <v>0.0201159</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0269921</v>
+        <v>0.0270927</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0260996</v>
+        <v>0.026075</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0206433</v>
+        <v>0.0206356</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304374</v>
+        <v>0.0303143</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280168</v>
+        <v>0.0280242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0212172</v>
+        <v>0.021272</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345365</v>
+        <v>0.0345702</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0307876</v>
+        <v>0.0308367</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0220455</v>
+        <v>0.0220513</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397949</v>
+        <v>0.0397634</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0345564</v>
+        <v>0.0347017</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0232023</v>
+        <v>0.023268</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467882</v>
+        <v>0.046271</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0399306</v>
+        <v>0.0401477</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0248845</v>
+        <v>0.0249203</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0557339</v>
+        <v>0.0554742</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0478556</v>
+        <v>0.0479764</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0271903</v>
+        <v>0.0272345</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0683441</v>
+        <v>0.0682217</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0593168</v>
+        <v>0.0593902</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0307625</v>
+        <v>0.0307256</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869636</v>
+        <v>0.0864555</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0755508</v>
+        <v>0.0756405</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0364449</v>
+        <v>0.0363809</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112217</v>
+        <v>0.11175</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103276</v>
+        <v>0.103244</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0460307</v>
+        <v>0.0460268</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143604</v>
+        <v>0.142257</v>
       </c>
       <c r="C80" t="n">
-        <v>0.148005</v>
+        <v>0.147968</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0189037</v>
+        <v>0.0188603</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020329</v>
+        <v>0.0200415</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0224011</v>
+        <v>0.0224056</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0192675</v>
+        <v>0.0191501</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212778</v>
+        <v>0.0216381</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232508</v>
+        <v>0.0232069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0197317</v>
+        <v>0.0195536</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0227831</v>
+        <v>0.0232822</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0242188</v>
+        <v>0.0241626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0201014</v>
+        <v>0.0199987</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0250056</v>
+        <v>0.0248015</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253743</v>
+        <v>0.0253137</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0206841</v>
+        <v>0.0205111</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274338</v>
+        <v>0.0271903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0267865</v>
+        <v>0.0268291</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0213674</v>
+        <v>0.0211078</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303437</v>
+        <v>0.0302139</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0286267</v>
+        <v>0.0286848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0220699</v>
+        <v>0.0218974</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03417</v>
+        <v>0.034291</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310396</v>
+        <v>0.0310049</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0229093</v>
+        <v>0.0228606</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394457</v>
+        <v>0.0392704</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0346257</v>
+        <v>0.0345969</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0241092</v>
+        <v>0.0240751</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458083</v>
+        <v>0.0458622</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0396161</v>
+        <v>0.039372</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0256701</v>
+        <v>0.0256505</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544101</v>
+        <v>0.0548053</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0469049</v>
+        <v>0.0467931</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0279136</v>
+        <v>0.0278838</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06646050000000001</v>
+        <v>0.0667198</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0570268</v>
+        <v>0.0569562</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0310937</v>
+        <v>0.0310571</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08358740000000001</v>
+        <v>0.08403339999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0724799</v>
+        <v>0.0723987</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0359055</v>
+        <v>0.0359778</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10681</v>
+        <v>0.10766</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0977174</v>
+        <v>0.0978484</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0444743</v>
+        <v>0.0444093</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.13798</v>
+        <v>0.138283</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139584</v>
+        <v>0.139487</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0207373</v>
+        <v>0.020645</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0209109</v>
+        <v>0.0207104</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0238864</v>
+        <v>0.0238244</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0212753</v>
+        <v>0.0212648</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218936</v>
+        <v>0.02173</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0251279</v>
+        <v>0.0249115</v>
       </c>
       <c r="D96" t="n">
-        <v>0.021758</v>
+        <v>0.0218495</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023128</v>
+        <v>0.0231597</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0266779</v>
+        <v>0.0266521</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0223499</v>
+        <v>0.0223547</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252711</v>
+        <v>0.0250058</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0294849</v>
+        <v>0.0294375</v>
       </c>
       <c r="D98" t="n">
-        <v>0.023089</v>
+        <v>0.0231361</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027375</v>
+        <v>0.0272539</v>
       </c>
       <c r="C99" t="n">
-        <v>0.032722</v>
+        <v>0.0326638</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0243046</v>
+        <v>0.0244291</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305254</v>
+        <v>0.0307433</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0360943</v>
+        <v>0.0360975</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0262413</v>
+        <v>0.0264105</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0345336</v>
+        <v>0.0345166</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0390901</v>
+        <v>0.0391391</v>
       </c>
       <c r="D101" t="n">
-        <v>0.029096</v>
+        <v>0.0292659</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0401664</v>
+        <v>0.039823</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0423061</v>
+        <v>0.0424222</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0319722</v>
+        <v>0.0322595</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462935</v>
+        <v>0.0462334</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0460636</v>
+        <v>0.0459734</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0348621</v>
+        <v>0.0352581</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545432</v>
+        <v>0.0545345</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0512181</v>
+        <v>0.0514468</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0379453</v>
+        <v>0.038332</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656226</v>
+        <v>0.0652382</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0592979</v>
+        <v>0.0587609</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0412487</v>
+        <v>0.041508</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0813815</v>
+        <v>0.0808064</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07136149999999999</v>
+        <v>0.0714313</v>
       </c>
       <c r="D106" t="n">
-        <v>0.045456</v>
+        <v>0.0455034</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103536</v>
+        <v>0.103092</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0930686</v>
+        <v>0.0928977</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0517993</v>
+        <v>0.0517817</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132989</v>
+        <v>0.132309</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131632</v>
+        <v>0.131753</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323021</v>
+        <v>0.0323628</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168872</v>
+        <v>0.168309</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180837</v>
+        <v>0.180846</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0331917</v>
+        <v>0.0334202</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0314328</v>
+        <v>0.0312439</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0382154</v>
+        <v>0.0383371</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0341265</v>
+        <v>0.0341268</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0325813</v>
+        <v>0.0323428</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0391817</v>
+        <v>0.0392824</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0349931</v>
+        <v>0.0348901</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345505</v>
+        <v>0.0340158</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0401386</v>
+        <v>0.040209</v>
       </c>
       <c r="D112" t="n">
-        <v>0.035787</v>
+        <v>0.0358851</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360841</v>
+        <v>0.0359052</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0413241</v>
+        <v>0.0414064</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0366431</v>
+        <v>0.0367738</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379401</v>
+        <v>0.0381595</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426336</v>
+        <v>0.0427704</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0375208</v>
+        <v>0.0376673</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409951</v>
+        <v>0.0408319</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0442527</v>
+        <v>0.0443567</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0384927</v>
+        <v>0.0385768</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441382</v>
+        <v>0.0440146</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0464002</v>
+        <v>0.0465956</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0397</v>
+        <v>0.0397643</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0490168</v>
+        <v>0.0487515</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0495026</v>
+        <v>0.0496146</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0411602</v>
+        <v>0.0410591</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552879</v>
+        <v>0.0553821</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0537372</v>
+        <v>0.0538986</v>
       </c>
       <c r="D118" t="n">
-        <v>0.042807</v>
+        <v>0.0430323</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0652281</v>
+        <v>0.0650408</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0598928</v>
+        <v>0.0602095</v>
       </c>
       <c r="D119" t="n">
-        <v>0.045389</v>
+        <v>0.0455148</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07957119999999999</v>
+        <v>0.0794189</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0708463</v>
+        <v>0.0708404</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0488284</v>
+        <v>0.0490665</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1003</v>
+        <v>0.100028</v>
       </c>
       <c r="C121" t="n">
-        <v>0.089269</v>
+        <v>0.0896964</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0542059</v>
+        <v>0.0546016</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128434</v>
+        <v>0.127928</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122796</v>
+        <v>0.122751</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06421159999999999</v>
+        <v>0.0646234</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164694</v>
+        <v>0.163812</v>
       </c>
       <c r="C123" t="n">
-        <v>0.171526</v>
+        <v>0.17146</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0373103</v>
+        <v>0.0380666</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0343301</v>
+        <v>0.034014</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0429271</v>
+        <v>0.0424469</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0381499</v>
+        <v>0.0388222</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0359087</v>
+        <v>0.0355616</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0439565</v>
+        <v>0.0433632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0388524</v>
+        <v>0.0389232</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0370319</v>
+        <v>0.0369419</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0449136</v>
+        <v>0.0442091</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0398901</v>
+        <v>0.0402297</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384918</v>
+        <v>0.0385323</v>
       </c>
       <c r="C127" t="n">
-        <v>0.046299</v>
+        <v>0.0453548</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0403263</v>
+        <v>0.0409764</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0403683</v>
+        <v>0.0407862</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0479411</v>
+        <v>0.0469626</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0415355</v>
+        <v>0.0420888</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433361</v>
+        <v>0.0432495</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0495569</v>
+        <v>0.0486016</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0429844</v>
+        <v>0.0429176</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.047765</v>
+        <v>0.0465019</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0519238</v>
+        <v>0.050839</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0440903</v>
+        <v>0.0443302</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0527672</v>
+        <v>0.0523858</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0549914</v>
+        <v>0.053909</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0452924</v>
+        <v>0.0457453</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0591228</v>
+        <v>0.0590692</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0593839</v>
+        <v>0.058237</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0472812</v>
+        <v>0.0474603</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0688764</v>
+        <v>0.06899180000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0661423</v>
+        <v>0.06477869999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0500439</v>
+        <v>0.0501011</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0823786</v>
+        <v>0.0828528</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07585210000000001</v>
+        <v>0.0746805</v>
       </c>
       <c r="D134" t="n">
-        <v>0.053199</v>
+        <v>0.0537355</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102965</v>
+        <v>0.102675</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0922535</v>
+        <v>0.0911201</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0588582</v>
+        <v>0.0593498</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130784</v>
+        <v>0.130106</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121498</v>
+        <v>0.120043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.068283</v>
+        <v>0.0689023</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.166432</v>
+        <v>0.16333</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168037</v>
+        <v>0.166861</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0533155</v>
+        <v>0.0535241</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468173</v>
+        <v>0.0469285</v>
       </c>
       <c r="C138" t="n">
-        <v>0.055253</v>
+        <v>0.0554151</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0541791</v>
+        <v>0.0542655</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478613</v>
+        <v>0.0482892</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0562186</v>
+        <v>0.0564294</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0546209</v>
+        <v>0.0549401</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0491754</v>
+        <v>0.0495857</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0573826</v>
+        <v>0.0575631</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0555164</v>
+        <v>0.0557124</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0504298</v>
+        <v>0.0509668</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0586242</v>
+        <v>0.0593031</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0562522</v>
+        <v>0.0569024</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0528644</v>
+        <v>0.0530051</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0600946</v>
+        <v>0.0603426</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0569617</v>
+        <v>0.0571831</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0556055</v>
+        <v>0.0556981</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0620072</v>
+        <v>0.0620928</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0578987</v>
+        <v>0.0581282</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0211174</v>
+        <v>0.0204593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0180685</v>
+        <v>0.0180867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0188881</v>
+        <v>0.0191979</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0230622</v>
+        <v>0.0236181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.018587</v>
+        <v>0.0179514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0192571</v>
+        <v>0.0193023</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0297415</v>
+        <v>0.0276455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.018042</v>
+        <v>0.0199549</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0194109</v>
+        <v>0.0192979</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0412587</v>
+        <v>0.0381987</v>
       </c>
       <c r="C5" t="n">
-        <v>0.021413</v>
+        <v>0.026048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0196144</v>
+        <v>0.0198091</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.048938</v>
+        <v>0.0523715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0298865</v>
+        <v>0.0471549</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0201251</v>
+        <v>0.0203621</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07427789999999999</v>
+        <v>0.06931370000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0472524</v>
+        <v>0.0521722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0221901</v>
+        <v>0.0224561</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.096427</v>
+        <v>0.102337</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0692031</v>
+        <v>0.0679464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0269391</v>
+        <v>0.0287482</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.117051</v>
+        <v>0.124698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.121989</v>
+        <v>0.119094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0173174</v>
+        <v>0.0174511</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165361</v>
+        <v>0.0168989</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0181846</v>
+        <v>0.0181857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0174917</v>
+        <v>0.0176352</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0168488</v>
+        <v>0.0172542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0184498</v>
+        <v>0.0187203</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0177531</v>
+        <v>0.0178704</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173219</v>
+        <v>0.0177426</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0190556</v>
+        <v>0.0195464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0179484</v>
+        <v>0.018103</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0182356</v>
+        <v>0.0183292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0193541</v>
+        <v>0.0196151</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0183103</v>
+        <v>0.0183564</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0193681</v>
+        <v>0.019032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0199661</v>
+        <v>0.0201613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0184605</v>
+        <v>0.0185126</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0218109</v>
+        <v>0.0215214</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0203904</v>
+        <v>0.0206001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0188012</v>
+        <v>0.0188932</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0244032</v>
+        <v>0.0238496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0212365</v>
+        <v>0.0216254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0191186</v>
+        <v>0.019362</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0268855</v>
+        <v>0.0285781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0230007</v>
+        <v>0.0226797</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0194568</v>
+        <v>0.0196357</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0358713</v>
+        <v>0.0349813</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0266884</v>
+        <v>0.0278038</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0199736</v>
+        <v>0.0202313</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0436241</v>
+        <v>0.0425251</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0315211</v>
+        <v>0.0303302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.020758</v>
+        <v>0.021065</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0566744</v>
+        <v>0.0579111</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0398089</v>
+        <v>0.039336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.022001</v>
+        <v>0.0222549</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07481309999999999</v>
+        <v>0.0746256</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0568806</v>
+        <v>0.0563163</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0250162</v>
+        <v>0.0250051</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0977315</v>
+        <v>0.100453</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0822582</v>
+        <v>0.08237129999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0315447</v>
+        <v>0.0319431</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121529</v>
+        <v>0.124051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127728</v>
+        <v>0.133302</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0172989</v>
+        <v>0.0173257</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167635</v>
+        <v>0.0165467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0188289</v>
+        <v>0.0188726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0175482</v>
+        <v>0.0175673</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017192</v>
+        <v>0.0172259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0192476</v>
+        <v>0.0193075</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0177057</v>
+        <v>0.0177289</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0181569</v>
+        <v>0.0181033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0198017</v>
+        <v>0.0198688</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0180249</v>
+        <v>0.018035</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0191394</v>
+        <v>0.0191399</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0205639</v>
+        <v>0.0205306</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0183236</v>
+        <v>0.0184105</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201933</v>
+        <v>0.020585</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0213322</v>
+        <v>0.0213187</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0186792</v>
+        <v>0.0187705</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226015</v>
+        <v>0.0227217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0221298</v>
+        <v>0.0222761</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0190148</v>
+        <v>0.0191132</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0258807</v>
+        <v>0.0252427</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0237063</v>
+        <v>0.0235815</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0194174</v>
+        <v>0.0194772</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0301595</v>
+        <v>0.0304562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0259835</v>
+        <v>0.0256742</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02002</v>
+        <v>0.0201058</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0368941</v>
+        <v>0.0364267</v>
       </c>
       <c r="C32" t="n">
-        <v>0.029836</v>
+        <v>0.0296622</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0206906</v>
+        <v>0.0208287</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0451685</v>
+        <v>0.0454163</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0369864</v>
+        <v>0.0373852</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0216999</v>
+        <v>0.0217637</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0580539</v>
+        <v>0.0566542</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0470132</v>
+        <v>0.0455855</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0232802</v>
+        <v>0.0235661</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0731541</v>
+        <v>0.0735494</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0597216</v>
+        <v>0.0606211</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0274712</v>
+        <v>0.027564</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0931563</v>
+        <v>0.0944797</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0874554</v>
+        <v>0.08738949999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0350777</v>
+        <v>0.0350477</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119273</v>
+        <v>0.118396</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128408</v>
+        <v>0.127277</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0176359</v>
+        <v>0.0176521</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0173029</v>
+        <v>0.0172469</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0198633</v>
+        <v>0.0199159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0178197</v>
+        <v>0.0178565</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179896</v>
+        <v>0.0179941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0203478</v>
+        <v>0.0204091</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0180354</v>
+        <v>0.0180672</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188819</v>
+        <v>0.0189329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0208903</v>
+        <v>0.0210374</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0183015</v>
+        <v>0.0183574</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0200781</v>
+        <v>0.0203684</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0215984</v>
+        <v>0.0216536</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0186137</v>
+        <v>0.0186439</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219101</v>
+        <v>0.0220583</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0226578</v>
+        <v>0.0227979</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0190082</v>
+        <v>0.0190364</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0240282</v>
+        <v>0.0246654</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0238756</v>
+        <v>0.0241485</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0195027</v>
+        <v>0.0194985</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0281971</v>
+        <v>0.0272768</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0260252</v>
+        <v>0.0257997</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0199257</v>
+        <v>0.0200023</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0321977</v>
+        <v>0.03225</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0292789</v>
+        <v>0.0292385</v>
       </c>
       <c r="D45" t="n">
-        <v>0.020694</v>
+        <v>0.0207793</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0388415</v>
+        <v>0.0383888</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0336523</v>
+        <v>0.0333046</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0217628</v>
+        <v>0.0217918</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04648</v>
+        <v>0.0455648</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0396882</v>
+        <v>0.0395757</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0231294</v>
+        <v>0.02313</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.058305</v>
+        <v>0.0558366</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0488878</v>
+        <v>0.0488724</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0256267</v>
+        <v>0.025489</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0729099</v>
+        <v>0.06990010000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0632752</v>
+        <v>0.06321839999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0294446</v>
+        <v>0.0292739</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.092652</v>
+        <v>0.09081400000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08395660000000001</v>
+        <v>0.0841436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0358499</v>
+        <v>0.0363765</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116645</v>
+        <v>0.116408</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120519</v>
+        <v>0.120901</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0182501</v>
+        <v>0.01826</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141819</v>
+        <v>0.143563</v>
       </c>
       <c r="C52" t="n">
-        <v>0.164494</v>
+        <v>0.164521</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0184604</v>
+        <v>0.0184857</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190212</v>
+        <v>0.0190467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0213206</v>
+        <v>0.0213651</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0187407</v>
+        <v>0.0187441</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203763</v>
+        <v>0.0203675</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0219748</v>
+        <v>0.0220155</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0190437</v>
+        <v>0.0190695</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217277</v>
+        <v>0.022052</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0229064</v>
+        <v>0.022939</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0193514</v>
+        <v>0.0194202</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236711</v>
+        <v>0.0237589</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0238726</v>
+        <v>0.0238919</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0197087</v>
+        <v>0.0197591</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263062</v>
+        <v>0.026612</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0253976</v>
+        <v>0.0253771</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0201868</v>
+        <v>0.0202155</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0298477</v>
+        <v>0.0301625</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0275165</v>
+        <v>0.0277413</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0208148</v>
+        <v>0.0208517</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0340807</v>
+        <v>0.0344354</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0303105</v>
+        <v>0.0304838</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0216163</v>
+        <v>0.0216197</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03975</v>
+        <v>0.0397446</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0343034</v>
+        <v>0.0344325</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0226724</v>
+        <v>0.0227413</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0472159</v>
+        <v>0.0468112</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0403983</v>
+        <v>0.040658</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0243224</v>
+        <v>0.0242657</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0573969</v>
+        <v>0.0566728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0488933</v>
+        <v>0.0492867</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0266818</v>
+        <v>0.0267619</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0715185</v>
+        <v>0.0706478</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0614014</v>
+        <v>0.0615649</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0307607</v>
+        <v>0.0308668</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09036370000000001</v>
+        <v>0.0908081</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08021880000000001</v>
+        <v>0.0803968</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0373394</v>
+        <v>0.0376174</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116762</v>
+        <v>0.116318</v>
       </c>
       <c r="C65" t="n">
-        <v>0.11308</v>
+        <v>0.113417</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0483717</v>
+        <v>0.0486089</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146274</v>
+        <v>0.146966</v>
       </c>
       <c r="C66" t="n">
-        <v>0.160147</v>
+        <v>0.160109</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0186553</v>
+        <v>0.0186718</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199373</v>
+        <v>0.0199742</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0217485</v>
+        <v>0.021781</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0189318</v>
+        <v>0.0189539</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211418</v>
+        <v>0.02152</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0225859</v>
+        <v>0.0225909</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0192916</v>
+        <v>0.0192928</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225957</v>
+        <v>0.0231139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02357</v>
+        <v>0.0235391</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0197106</v>
+        <v>0.0196918</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246208</v>
+        <v>0.0247645</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0247048</v>
+        <v>0.024716</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0201159</v>
+        <v>0.0201567</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270927</v>
+        <v>0.0272834</v>
       </c>
       <c r="C71" t="n">
-        <v>0.026075</v>
+        <v>0.0261027</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0206356</v>
+        <v>0.020656</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303143</v>
+        <v>0.0307513</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0280242</v>
+        <v>0.0279723</v>
       </c>
       <c r="D72" t="n">
-        <v>0.021272</v>
+        <v>0.021213</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345702</v>
+        <v>0.034777</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0308367</v>
+        <v>0.0307907</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0220513</v>
+        <v>0.0220342</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397634</v>
+        <v>0.0399025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0347017</v>
+        <v>0.0346389</v>
       </c>
       <c r="D74" t="n">
-        <v>0.023268</v>
+        <v>0.0231862</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.046271</v>
+        <v>0.0468611</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0401477</v>
+        <v>0.0402198</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0249203</v>
+        <v>0.0248253</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0554742</v>
+        <v>0.0559801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0479764</v>
+        <v>0.0479911</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0272345</v>
+        <v>0.0272334</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0682217</v>
+        <v>0.0688573</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0593902</v>
+        <v>0.0593282</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0307256</v>
+        <v>0.0307464</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0864555</v>
+        <v>0.0867763</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0756405</v>
+        <v>0.07561560000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0363809</v>
+        <v>0.0363474</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11175</v>
+        <v>0.111772</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103244</v>
+        <v>0.103138</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0460268</v>
+        <v>0.0460535</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142257</v>
+        <v>0.143643</v>
       </c>
       <c r="C80" t="n">
-        <v>0.147968</v>
+        <v>0.147867</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0188603</v>
+        <v>0.0189115</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200415</v>
+        <v>0.0201204</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0224056</v>
+        <v>0.0223993</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0191501</v>
+        <v>0.0192318</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0216381</v>
+        <v>0.0211847</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232069</v>
+        <v>0.0232626</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0195536</v>
+        <v>0.0196918</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0232822</v>
+        <v>0.0228847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0241626</v>
+        <v>0.0242196</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0199987</v>
+        <v>0.0200369</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248015</v>
+        <v>0.0251585</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253137</v>
+        <v>0.0253564</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0205111</v>
+        <v>0.0206078</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0271903</v>
+        <v>0.0272353</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268291</v>
+        <v>0.0268495</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0211078</v>
+        <v>0.0212545</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302139</v>
+        <v>0.0304509</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0286848</v>
+        <v>0.0287362</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0218974</v>
+        <v>0.0218994</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.034291</v>
+        <v>0.034362</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310049</v>
+        <v>0.0310705</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0228606</v>
+        <v>0.022836</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392704</v>
+        <v>0.0394827</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0345969</v>
+        <v>0.0345977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0240751</v>
+        <v>0.0240585</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458622</v>
+        <v>0.0456444</v>
       </c>
       <c r="C89" t="n">
-        <v>0.039372</v>
+        <v>0.0393909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0256505</v>
+        <v>0.0255576</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0548053</v>
+        <v>0.0544453</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0467931</v>
+        <v>0.0468012</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0278838</v>
+        <v>0.0279576</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667198</v>
+        <v>0.0667024</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0569562</v>
+        <v>0.0568556</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0310571</v>
+        <v>0.0311178</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08403339999999999</v>
+        <v>0.0834852</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0723987</v>
+        <v>0.0723939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0359778</v>
+        <v>0.0359477</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10766</v>
+        <v>0.106949</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978484</v>
+        <v>0.0977215</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0444093</v>
+        <v>0.044526</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138283</v>
+        <v>0.138244</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139487</v>
+        <v>0.139327</v>
       </c>
       <c r="D94" t="n">
-        <v>0.020645</v>
+        <v>0.0207692</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0207104</v>
+        <v>0.0209144</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0238244</v>
+        <v>0.0237543</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0212648</v>
+        <v>0.0211682</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02173</v>
+        <v>0.0216433</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0249115</v>
+        <v>0.0249158</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0218495</v>
+        <v>0.0217041</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0231597</v>
+        <v>0.023125</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0266521</v>
+        <v>0.0271782</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0223547</v>
+        <v>0.0223697</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250058</v>
+        <v>0.0254217</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0294375</v>
+        <v>0.0300571</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0231361</v>
+        <v>0.0231229</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272539</v>
+        <v>0.0272803</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0326638</v>
+        <v>0.0327136</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0244291</v>
+        <v>0.0245317</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0307433</v>
+        <v>0.0306465</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0360975</v>
+        <v>0.0360578</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0264105</v>
+        <v>0.0265086</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0345166</v>
+        <v>0.0343465</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391391</v>
+        <v>0.0391183</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0292659</v>
+        <v>0.0293638</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039823</v>
+        <v>0.0400844</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0424222</v>
+        <v>0.0424047</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0322595</v>
+        <v>0.0323785</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462334</v>
+        <v>0.0464012</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0459734</v>
+        <v>0.0459695</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0352581</v>
+        <v>0.0353544</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545345</v>
+        <v>0.0546953</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0514468</v>
+        <v>0.0512051</v>
       </c>
       <c r="D104" t="n">
-        <v>0.038332</v>
+        <v>0.0382016</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0652382</v>
+        <v>0.0655611</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0587609</v>
+        <v>0.0587747</v>
       </c>
       <c r="D105" t="n">
-        <v>0.041508</v>
+        <v>0.0414383</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0808064</v>
+        <v>0.0811429</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0714313</v>
+        <v>0.07133539999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0455034</v>
+        <v>0.0456047</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103092</v>
+        <v>0.103138</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0928977</v>
+        <v>0.0930141</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0517817</v>
+        <v>0.0519049</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132309</v>
+        <v>0.132593</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131753</v>
+        <v>0.131701</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323628</v>
+        <v>0.0323184</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168309</v>
+        <v>0.168288</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180846</v>
+        <v>0.180768</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0334202</v>
+        <v>0.0333073</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312439</v>
+        <v>0.0313027</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0383371</v>
+        <v>0.0383268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0341268</v>
+        <v>0.0342094</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0323428</v>
+        <v>0.0327837</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0392824</v>
+        <v>0.0392265</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0348901</v>
+        <v>0.0349728</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0340158</v>
+        <v>0.0341113</v>
       </c>
       <c r="C112" t="n">
-        <v>0.040209</v>
+        <v>0.0401225</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0358851</v>
+        <v>0.035773</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359052</v>
+        <v>0.0360731</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0414064</v>
+        <v>0.0412503</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0367738</v>
+        <v>0.0366419</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0381595</v>
+        <v>0.0383736</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0427704</v>
+        <v>0.0426076</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0376673</v>
+        <v>0.0375443</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408319</v>
+        <v>0.0410416</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0443567</v>
+        <v>0.0442121</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0385768</v>
+        <v>0.0382806</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440146</v>
+        <v>0.0442604</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0465956</v>
+        <v>0.0464812</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0397643</v>
+        <v>0.0396611</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487515</v>
+        <v>0.0490264</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0496146</v>
+        <v>0.0495826</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0410591</v>
+        <v>0.0411006</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553821</v>
+        <v>0.0553611</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0538986</v>
+        <v>0.0537539</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0430323</v>
+        <v>0.0429227</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650408</v>
+        <v>0.06517000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0602095</v>
+        <v>0.0600262</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0455148</v>
+        <v>0.0452875</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794189</v>
+        <v>0.07948520000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0708404</v>
+        <v>0.07097829999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0490665</v>
+        <v>0.0488054</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100028</v>
+        <v>0.100318</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0896964</v>
+        <v>0.0894578</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0546016</v>
+        <v>0.0545239</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.127928</v>
+        <v>0.128335</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122751</v>
+        <v>0.122792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0646234</v>
+        <v>0.0647191</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163812</v>
+        <v>0.164069</v>
       </c>
       <c r="C123" t="n">
-        <v>0.17146</v>
+        <v>0.171339</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0380666</v>
+        <v>0.0378506</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.034014</v>
+        <v>0.033982</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0424469</v>
+        <v>0.0428544</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0388222</v>
+        <v>0.0385635</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355616</v>
+        <v>0.035495</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0433632</v>
+        <v>0.0436685</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0389232</v>
+        <v>0.0393979</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369419</v>
+        <v>0.0367009</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0442091</v>
+        <v>0.0447151</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0402297</v>
+        <v>0.0399236</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385323</v>
+        <v>0.0387189</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0453548</v>
+        <v>0.0459126</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0409764</v>
+        <v>0.0409443</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407862</v>
+        <v>0.0407621</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0469626</v>
+        <v>0.0473518</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0420888</v>
+        <v>0.0417166</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432495</v>
+        <v>0.0433096</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0486016</v>
+        <v>0.0492303</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0429176</v>
+        <v>0.0427956</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0465019</v>
+        <v>0.0462277</v>
       </c>
       <c r="C130" t="n">
-        <v>0.050839</v>
+        <v>0.0516598</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0443302</v>
+        <v>0.0440996</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0523858</v>
+        <v>0.0509017</v>
       </c>
       <c r="C131" t="n">
-        <v>0.053909</v>
+        <v>0.0546445</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0457453</v>
+        <v>0.0455109</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590692</v>
+        <v>0.058595</v>
       </c>
       <c r="C132" t="n">
-        <v>0.058237</v>
+        <v>0.0590594</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0474603</v>
+        <v>0.0471666</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06899180000000001</v>
+        <v>0.0684186</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06477869999999999</v>
+        <v>0.06542100000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0501011</v>
+        <v>0.0498663</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0828528</v>
+        <v>0.0821379</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0746805</v>
+        <v>0.07549649999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0537355</v>
+        <v>0.0534627</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102675</v>
+        <v>0.102056</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0911201</v>
+        <v>0.0919093</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0593498</v>
+        <v>0.0588581</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130106</v>
+        <v>0.129743</v>
       </c>
       <c r="C136" t="n">
-        <v>0.120043</v>
+        <v>0.12126</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0689023</v>
+        <v>0.0683049</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16333</v>
+        <v>0.164426</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166861</v>
+        <v>0.167843</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0535241</v>
+        <v>0.0536734</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0469285</v>
+        <v>0.0468182</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0554151</v>
+        <v>0.0555138</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0542655</v>
+        <v>0.054363</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482892</v>
+        <v>0.0478949</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0564294</v>
+        <v>0.0565416</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0549401</v>
+        <v>0.0550549</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0495857</v>
+        <v>0.0493307</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0575631</v>
+        <v>0.0576324</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0557124</v>
+        <v>0.0556759</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509668</v>
+        <v>0.0508304</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0593031</v>
+        <v>0.0588197</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0569024</v>
+        <v>0.0564193</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0530051</v>
+        <v>0.0529788</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0603426</v>
+        <v>0.0603971</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0571831</v>
+        <v>0.0574116</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0556981</v>
+        <v>0.0613793</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0620928</v>
+        <v>0.0621581</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0581282</v>
+        <v>0.0582762</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0204593</v>
+        <v>0.0232188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0180867</v>
+        <v>0.0205539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0191979</v>
+        <v>0.023767</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0236181</v>
+        <v>0.024943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0179514</v>
+        <v>0.0209135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0193023</v>
+        <v>0.0244712</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0276455</v>
+        <v>0.0293511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0199549</v>
+        <v>0.0239532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0192979</v>
+        <v>0.0261273</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0381987</v>
+        <v>0.0370428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.026048</v>
+        <v>0.025993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0198091</v>
+        <v>0.0287732</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0523715</v>
+        <v>0.0493234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0471549</v>
+        <v>0.0408945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0203621</v>
+        <v>0.0317961</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06931370000000001</v>
+        <v>0.06413870000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0521722</v>
+        <v>0.042698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0224561</v>
+        <v>0.0377775</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.102337</v>
+        <v>0.0892746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0679464</v>
+        <v>0.07679610000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0287482</v>
+        <v>0.0475498</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.124698</v>
+        <v>0.121451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.119094</v>
+        <v>0.111232</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0174511</v>
+        <v>0.0204855</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0168989</v>
+        <v>0.0171703</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0181857</v>
+        <v>0.0198238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0176352</v>
+        <v>0.0207111</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0172542</v>
+        <v>0.0181391</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0187203</v>
+        <v>0.0203213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0178704</v>
+        <v>0.0210001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0177426</v>
+        <v>0.0187745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0195464</v>
+        <v>0.0204751</v>
       </c>
       <c r="D12" t="n">
-        <v>0.018103</v>
+        <v>0.0213905</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183292</v>
+        <v>0.0197081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0196151</v>
+        <v>0.0210012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0183564</v>
+        <v>0.0218177</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.019032</v>
+        <v>0.0207619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0201613</v>
+        <v>0.0210047</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0185126</v>
+        <v>0.0222555</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0215214</v>
+        <v>0.0225611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0206001</v>
+        <v>0.0219641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0188932</v>
+        <v>0.0226899</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0238496</v>
+        <v>0.0244653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0216254</v>
+        <v>0.0232811</v>
       </c>
       <c r="D16" t="n">
-        <v>0.019362</v>
+        <v>0.0235779</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0285781</v>
+        <v>0.0274698</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0226797</v>
+        <v>0.0241798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0196357</v>
+        <v>0.0242651</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0349813</v>
+        <v>0.0328242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0278038</v>
+        <v>0.0281501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0202313</v>
+        <v>0.026078</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0425251</v>
+        <v>0.0399535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0303302</v>
+        <v>0.0323648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.021065</v>
+        <v>0.0277615</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0579111</v>
+        <v>0.0531162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.039336</v>
+        <v>0.0358052</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0222549</v>
+        <v>0.0308285</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0746256</v>
+        <v>0.0681828</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0563163</v>
+        <v>0.0636538</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0250051</v>
+        <v>0.0364348</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.100453</v>
+        <v>0.0934075</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08237129999999999</v>
+        <v>0.08114490000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0319431</v>
+        <v>0.044592</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124051</v>
+        <v>0.121853</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133302</v>
+        <v>0.122736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0173257</v>
+        <v>0.0206076</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165467</v>
+        <v>0.0171569</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0188726</v>
+        <v>0.0208769</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0175673</v>
+        <v>0.0208576</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172259</v>
+        <v>0.0180517</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0193075</v>
+        <v>0.0213129</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0177289</v>
+        <v>0.0210974</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0181033</v>
+        <v>0.0187211</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0198688</v>
+        <v>0.0219826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.018035</v>
+        <v>0.0213619</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0191399</v>
+        <v>0.0202738</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0205306</v>
+        <v>0.0231517</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0184105</v>
+        <v>0.0217635</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.020585</v>
+        <v>0.0218223</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0213187</v>
+        <v>0.0234641</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0187705</v>
+        <v>0.0221514</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0227217</v>
+        <v>0.0238959</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0222761</v>
+        <v>0.0243879</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0191132</v>
+        <v>0.0227053</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0252427</v>
+        <v>0.0263011</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0235815</v>
+        <v>0.0259744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0194772</v>
+        <v>0.0234026</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0304562</v>
+        <v>0.0310537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0256742</v>
+        <v>0.0283613</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0201058</v>
+        <v>0.0244613</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0364267</v>
+        <v>0.0355877</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0296622</v>
+        <v>0.0318824</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0208287</v>
+        <v>0.0257885</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0454163</v>
+        <v>0.0447195</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0373852</v>
+        <v>0.0378481</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0217637</v>
+        <v>0.0276449</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566542</v>
+        <v>0.0554863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0455855</v>
+        <v>0.0460157</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0235661</v>
+        <v>0.0306223</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0735494</v>
+        <v>0.0719407</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0606211</v>
+        <v>0.0594302</v>
       </c>
       <c r="D35" t="n">
-        <v>0.027564</v>
+        <v>0.0355002</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0944797</v>
+        <v>0.09359149999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08738949999999999</v>
+        <v>0.0837648</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0350477</v>
+        <v>0.0438001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118396</v>
+        <v>0.119954</v>
       </c>
       <c r="C37" t="n">
-        <v>0.127277</v>
+        <v>0.122944</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0176521</v>
+        <v>0.0211332</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0172469</v>
+        <v>0.0174327</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0199159</v>
+        <v>0.022085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0178565</v>
+        <v>0.0213059</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179941</v>
+        <v>0.0183663</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0204091</v>
+        <v>0.0225629</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0180672</v>
+        <v>0.0215508</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189329</v>
+        <v>0.0194753</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0210374</v>
+        <v>0.0232481</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0183574</v>
+        <v>0.0218494</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0203684</v>
+        <v>0.0206597</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0216536</v>
+        <v>0.0239007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0186439</v>
+        <v>0.0222108</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220583</v>
+        <v>0.0227094</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0227979</v>
+        <v>0.0250312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0190364</v>
+        <v>0.0226861</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246654</v>
+        <v>0.0247601</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0241485</v>
+        <v>0.0264597</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0194985</v>
+        <v>0.0232402</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0272768</v>
+        <v>0.0275927</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0257997</v>
+        <v>0.0282741</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0200023</v>
+        <v>0.0239903</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03225</v>
+        <v>0.0315609</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0292385</v>
+        <v>0.0314321</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0207793</v>
+        <v>0.0249518</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0383888</v>
+        <v>0.0370732</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0333046</v>
+        <v>0.0359566</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0217918</v>
+        <v>0.0264211</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0455648</v>
+        <v>0.044918</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0395757</v>
+        <v>0.041454</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02313</v>
+        <v>0.0283861</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0558366</v>
+        <v>0.0557657</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0488724</v>
+        <v>0.0496837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.025489</v>
+        <v>0.0314676</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06990010000000001</v>
+        <v>0.0702941</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06321839999999999</v>
+        <v>0.0637776</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0292739</v>
+        <v>0.0356699</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09081400000000001</v>
+        <v>0.0907366</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0841436</v>
+        <v>0.0829126</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0363765</v>
+        <v>0.0427348</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116408</v>
+        <v>0.117297</v>
       </c>
       <c r="C51" t="n">
-        <v>0.120901</v>
+        <v>0.116605</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01826</v>
+        <v>0.0219902</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143563</v>
+        <v>0.143116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.164521</v>
+        <v>0.162541</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0184857</v>
+        <v>0.0221296</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190467</v>
+        <v>0.0194589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0213651</v>
+        <v>0.0237426</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0187441</v>
+        <v>0.0224</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203675</v>
+        <v>0.0206749</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0220155</v>
+        <v>0.0244344</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0190695</v>
+        <v>0.0227971</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.022052</v>
+        <v>0.0222774</v>
       </c>
       <c r="C55" t="n">
-        <v>0.022939</v>
+        <v>0.0253514</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0194202</v>
+        <v>0.0231178</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237589</v>
+        <v>0.0243239</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0238919</v>
+        <v>0.0263797</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0197591</v>
+        <v>0.0235649</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026612</v>
+        <v>0.0269124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0253771</v>
+        <v>0.0278943</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0202155</v>
+        <v>0.0241135</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0301625</v>
+        <v>0.0299909</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0277413</v>
+        <v>0.0301436</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0208517</v>
+        <v>0.0249005</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0344354</v>
+        <v>0.0337622</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0304838</v>
+        <v>0.0328947</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0216197</v>
+        <v>0.0258214</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397446</v>
+        <v>0.0393697</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0344325</v>
+        <v>0.0367423</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0227413</v>
+        <v>0.0270965</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468112</v>
+        <v>0.0466653</v>
       </c>
       <c r="C61" t="n">
-        <v>0.040658</v>
+        <v>0.0427495</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0242657</v>
+        <v>0.0289548</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0566728</v>
+        <v>0.0570475</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0492867</v>
+        <v>0.0510494</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0267619</v>
+        <v>0.0317082</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0706478</v>
+        <v>0.071154</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0615649</v>
+        <v>0.062782</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0308668</v>
+        <v>0.0361614</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0908081</v>
+        <v>0.09106400000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0803968</v>
+        <v>0.0802253</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0376174</v>
+        <v>0.0429141</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116318</v>
+        <v>0.117267</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113417</v>
+        <v>0.110628</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0486089</v>
+        <v>0.0543771</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146966</v>
+        <v>0.148112</v>
       </c>
       <c r="C66" t="n">
-        <v>0.160109</v>
+        <v>0.157214</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0186718</v>
+        <v>0.0225278</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199742</v>
+        <v>0.0199413</v>
       </c>
       <c r="C67" t="n">
-        <v>0.021781</v>
+        <v>0.0244683</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0189539</v>
+        <v>0.0228038</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02152</v>
+        <v>0.0212269</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0225909</v>
+        <v>0.0253541</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0192928</v>
+        <v>0.0231738</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0231139</v>
+        <v>0.022822</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0235391</v>
+        <v>0.0262559</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0196918</v>
+        <v>0.0235992</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247645</v>
+        <v>0.0245934</v>
       </c>
       <c r="C70" t="n">
-        <v>0.024716</v>
+        <v>0.0274308</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0201567</v>
+        <v>0.0240332</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0272834</v>
+        <v>0.027117</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0261027</v>
+        <v>0.0287891</v>
       </c>
       <c r="D71" t="n">
-        <v>0.020656</v>
+        <v>0.0245936</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307513</v>
+        <v>0.0305273</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0279723</v>
+        <v>0.0307817</v>
       </c>
       <c r="D72" t="n">
-        <v>0.021213</v>
+        <v>0.0252626</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.034777</v>
+        <v>0.0344738</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0307907</v>
+        <v>0.0335554</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0220342</v>
+        <v>0.0262183</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399025</v>
+        <v>0.0395694</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0346389</v>
+        <v>0.037344</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0231862</v>
+        <v>0.0274787</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0468611</v>
+        <v>0.0462059</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0402198</v>
+        <v>0.0428221</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0248253</v>
+        <v>0.0293358</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559801</v>
+        <v>0.0552133</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0479911</v>
+        <v>0.0503771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0272334</v>
+        <v>0.0318123</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0688573</v>
+        <v>0.0679256</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0593282</v>
+        <v>0.0611624</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0307464</v>
+        <v>0.0356571</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0867763</v>
+        <v>0.0857192</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07561560000000001</v>
+        <v>0.0762586</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0363474</v>
+        <v>0.0415557</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111772</v>
+        <v>0.110817</v>
       </c>
       <c r="C79" t="n">
-        <v>0.103138</v>
+        <v>0.101828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0460535</v>
+        <v>0.0515316</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143643</v>
+        <v>0.143326</v>
       </c>
       <c r="C80" t="n">
-        <v>0.147867</v>
+        <v>0.144402</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0189115</v>
+        <v>0.0228528</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0201204</v>
+        <v>0.020058</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0223993</v>
+        <v>0.0253143</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0192318</v>
+        <v>0.0231509</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0211847</v>
+        <v>0.0212937</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0232626</v>
+        <v>0.0261505</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0196918</v>
+        <v>0.0235577</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228847</v>
+        <v>0.0230174</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0242196</v>
+        <v>0.0271464</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0200369</v>
+        <v>0.0240163</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0251585</v>
+        <v>0.0247202</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0253564</v>
+        <v>0.0283761</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0206078</v>
+        <v>0.0245517</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272353</v>
+        <v>0.0274717</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0268495</v>
+        <v>0.0298852</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0212545</v>
+        <v>0.0251847</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304509</v>
+        <v>0.0303406</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0287362</v>
+        <v>0.0317696</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0218994</v>
+        <v>0.0259899</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.034362</v>
+        <v>0.0342141</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0310705</v>
+        <v>0.0341525</v>
       </c>
       <c r="D87" t="n">
-        <v>0.022836</v>
+        <v>0.0270954</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394827</v>
+        <v>0.0392665</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0345977</v>
+        <v>0.0376373</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0240585</v>
+        <v>0.0283066</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0456444</v>
+        <v>0.0457497</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0393909</v>
+        <v>0.0423057</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0255576</v>
+        <v>0.03003</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544453</v>
+        <v>0.0546021</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0468012</v>
+        <v>0.049453</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0279576</v>
+        <v>0.0323339</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667024</v>
+        <v>0.0665692</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0568556</v>
+        <v>0.0590967</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0311178</v>
+        <v>0.0357719</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0834852</v>
+        <v>0.0835886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0723939</v>
+        <v>0.07368669999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0359477</v>
+        <v>0.0409802</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106949</v>
+        <v>0.107395</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0977215</v>
+        <v>0.09723370000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.044526</v>
+        <v>0.0499241</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138244</v>
+        <v>0.138317</v>
       </c>
       <c r="C94" t="n">
-        <v>0.139327</v>
+        <v>0.136305</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0207692</v>
+        <v>0.0246267</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0209144</v>
+        <v>0.0210816</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0237543</v>
+        <v>0.0269794</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0211682</v>
+        <v>0.0251741</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216433</v>
+        <v>0.0218143</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0249158</v>
+        <v>0.0282616</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0217041</v>
+        <v>0.0256812</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023125</v>
+        <v>0.0230427</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0271782</v>
+        <v>0.0304444</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0223697</v>
+        <v>0.0262964</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0254217</v>
+        <v>0.0251921</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0300571</v>
+        <v>0.0331726</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0231229</v>
+        <v>0.027099</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272803</v>
+        <v>0.027143</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0327136</v>
+        <v>0.0367129</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0245317</v>
+        <v>0.0286589</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0306465</v>
+        <v>0.0304006</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0360578</v>
+        <v>0.0402665</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0265086</v>
+        <v>0.0309737</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0343465</v>
+        <v>0.0344421</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0391183</v>
+        <v>0.0436124</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0293638</v>
+        <v>0.0338763</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0400844</v>
+        <v>0.0395804</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0424047</v>
+        <v>0.0469963</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0323785</v>
+        <v>0.0370961</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464012</v>
+        <v>0.046292</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0459695</v>
+        <v>0.0508153</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0353544</v>
+        <v>0.040199</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546953</v>
+        <v>0.0543812</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0512051</v>
+        <v>0.0560754</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0382016</v>
+        <v>0.0435247</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0655611</v>
+        <v>0.0653686</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0587747</v>
+        <v>0.0630652</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0414383</v>
+        <v>0.0470402</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0811429</v>
+        <v>0.08130610000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07133539999999999</v>
+        <v>0.0743915</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0456047</v>
+        <v>0.0516592</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103138</v>
+        <v>0.103561</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0930141</v>
+        <v>0.09358229999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0519049</v>
+        <v>0.0581776</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132593</v>
+        <v>0.132956</v>
       </c>
       <c r="C108" t="n">
-        <v>0.131701</v>
+        <v>0.129086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0323184</v>
+        <v>0.0371867</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168288</v>
+        <v>0.169559</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180768</v>
+        <v>0.181006</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0333073</v>
+        <v>0.0383143</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313027</v>
+        <v>0.0309023</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0383268</v>
+        <v>0.0434052</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0342094</v>
+        <v>0.0394364</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327837</v>
+        <v>0.0326571</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0392265</v>
+        <v>0.0446779</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0349728</v>
+        <v>0.0403431</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341113</v>
+        <v>0.0341815</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0401225</v>
+        <v>0.0454854</v>
       </c>
       <c r="D112" t="n">
-        <v>0.035773</v>
+        <v>0.0411575</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360731</v>
+        <v>0.0357887</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0412503</v>
+        <v>0.0467057</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0366419</v>
+        <v>0.0419411</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383736</v>
+        <v>0.0379628</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0426076</v>
+        <v>0.0483386</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0375443</v>
+        <v>0.0432002</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0410416</v>
+        <v>0.0407112</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0442121</v>
+        <v>0.0501808</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0382806</v>
+        <v>0.0444333</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442604</v>
+        <v>0.0440928</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0464812</v>
+        <v>0.0524846</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0396611</v>
+        <v>0.0454931</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0490264</v>
+        <v>0.0487413</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0495826</v>
+        <v>0.0554056</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0411006</v>
+        <v>0.0471422</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553611</v>
+        <v>0.0553081</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0537539</v>
+        <v>0.0598454</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0429227</v>
+        <v>0.0495503</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06517000000000001</v>
+        <v>0.06529799999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0600262</v>
+        <v>0.0658575</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0452875</v>
+        <v>0.051985</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07948520000000001</v>
+        <v>0.0796418</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07097829999999999</v>
+        <v>0.0753933</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0488054</v>
+        <v>0.0558603</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100318</v>
+        <v>0.100455</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0894578</v>
+        <v>0.0918356</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0545239</v>
+        <v>0.0615748</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128335</v>
+        <v>0.128647</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122792</v>
+        <v>0.122203</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0647191</v>
+        <v>0.0716677</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164069</v>
+        <v>0.164229</v>
       </c>
       <c r="C123" t="n">
-        <v>0.171339</v>
+        <v>0.170198</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0378506</v>
+        <v>0.0446253</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.033982</v>
+        <v>0.0345292</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0428544</v>
+        <v>0.0484819</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0385635</v>
+        <v>0.0443317</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035495</v>
+        <v>0.0356853</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0436685</v>
+        <v>0.0497669</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0393979</v>
+        <v>0.0461887</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0367009</v>
+        <v>0.0368216</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0447151</v>
+        <v>0.0506522</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0399236</v>
+        <v>0.0466018</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387189</v>
+        <v>0.0383773</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0459126</v>
+        <v>0.0519731</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0409443</v>
+        <v>0.0475657</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407621</v>
+        <v>0.0405735</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0473518</v>
+        <v>0.053394</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0417166</v>
+        <v>0.0490105</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433096</v>
+        <v>0.0431262</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0492303</v>
+        <v>0.0554807</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0427956</v>
+        <v>0.0501298</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0462277</v>
+        <v>0.0467833</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0516598</v>
+        <v>0.0578232</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0440996</v>
+        <v>0.0514386</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0509017</v>
+        <v>0.0511224</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0546445</v>
+        <v>0.0613692</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0455109</v>
+        <v>0.0526242</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.058595</v>
+        <v>0.0572531</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0590594</v>
+        <v>0.06565169999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0471666</v>
+        <v>0.0550249</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0684186</v>
+        <v>0.0682083</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06542100000000001</v>
+        <v>0.0712329</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0498663</v>
+        <v>0.0577079</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0821379</v>
+        <v>0.082172</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07549649999999999</v>
+        <v>0.0805602</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0534627</v>
+        <v>0.0614936</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102056</v>
+        <v>0.10224</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0919093</v>
+        <v>0.0954647</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0588581</v>
+        <v>0.06730700000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129743</v>
+        <v>0.12976</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12126</v>
+        <v>0.121869</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0683049</v>
+        <v>0.0768379</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164426</v>
+        <v>0.163878</v>
       </c>
       <c r="C137" t="n">
-        <v>0.167843</v>
+        <v>0.166626</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0536734</v>
+        <v>0.0638953</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0468182</v>
+        <v>0.0472203</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0555138</v>
+        <v>0.06347079999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.054363</v>
+        <v>0.06469809999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478949</v>
+        <v>0.0486964</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0565416</v>
+        <v>0.0644484</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0550549</v>
+        <v>0.0651719</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493307</v>
+        <v>0.0493833</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0576324</v>
+        <v>0.0656873</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0556759</v>
+        <v>0.0660814</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0508304</v>
+        <v>0.0509577</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0588197</v>
+        <v>0.06702039999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0564193</v>
+        <v>0.06713719999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529788</v>
+        <v>0.0527938</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0603971</v>
+        <v>0.06852179999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0574116</v>
+        <v>0.0680118</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0613793</v>
+        <v>0.0555188</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0621581</v>
+        <v>0.07026499999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0582762</v>
+        <v>0.0689168</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0232188</v>
+        <v>0.0186946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0205539</v>
+        <v>0.024947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.023767</v>
+        <v>0.0234456</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.024943</v>
+        <v>0.0208325</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209135</v>
+        <v>0.0264336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0244712</v>
+        <v>0.0238899</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0293511</v>
+        <v>0.0256509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0239532</v>
+        <v>0.0342771</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0261273</v>
+        <v>0.0254757</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0370428</v>
+        <v>0.0346413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.025993</v>
+        <v>0.0388587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0287732</v>
+        <v>0.0277705</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0493234</v>
+        <v>0.046048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0408945</v>
+        <v>0.0485649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0317961</v>
+        <v>0.0305004</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06413870000000001</v>
+        <v>0.06711689999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.042698</v>
+        <v>0.0689958</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0377775</v>
+        <v>0.0358799</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0892746</v>
+        <v>0.0922298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07679610000000001</v>
+        <v>0.0893868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0475498</v>
+        <v>0.0450077</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.121451</v>
+        <v>0.115763</v>
       </c>
       <c r="C9" t="n">
-        <v>0.111232</v>
+        <v>0.129507</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0204855</v>
+        <v>0.0206567</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0171703</v>
+        <v>0.0164859</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198238</v>
+        <v>0.0208153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0207111</v>
+        <v>0.020629</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0181391</v>
+        <v>0.0169665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0203213</v>
+        <v>0.0212039</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0210001</v>
+        <v>0.0210462</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0187745</v>
+        <v>0.0173776</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0204751</v>
+        <v>0.022231</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0213905</v>
+        <v>0.0214347</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0197081</v>
+        <v>0.0181496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0210012</v>
+        <v>0.0226882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0218177</v>
+        <v>0.0217338</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0207619</v>
+        <v>0.01918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0210047</v>
+        <v>0.0239227</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0222555</v>
+        <v>0.0221131</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0225611</v>
+        <v>0.0207701</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0219641</v>
+        <v>0.0247782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0226899</v>
+        <v>0.0225847</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0244653</v>
+        <v>0.0222926</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0232811</v>
+        <v>0.027268</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0235779</v>
+        <v>0.0234111</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0274698</v>
+        <v>0.0262896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0241798</v>
+        <v>0.0290929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0242651</v>
+        <v>0.0238249</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0328242</v>
+        <v>0.03088</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0281501</v>
+        <v>0.0355393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.026078</v>
+        <v>0.0254606</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0399535</v>
+        <v>0.0419631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0323648</v>
+        <v>0.038638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0277615</v>
+        <v>0.0269878</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0531162</v>
+        <v>0.0535407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0358052</v>
+        <v>0.0524672</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0308285</v>
+        <v>0.029792</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0681828</v>
+        <v>0.0712284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0636538</v>
+        <v>0.06459529999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0364348</v>
+        <v>0.0349452</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0934075</v>
+        <v>0.093944</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08114490000000001</v>
+        <v>0.08827939999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.044592</v>
+        <v>0.04312</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121853</v>
+        <v>0.120782</v>
       </c>
       <c r="C23" t="n">
-        <v>0.122736</v>
+        <v>0.133335</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0206076</v>
+        <v>0.0205244</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0171569</v>
+        <v>0.0165174</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0208769</v>
+        <v>0.0215603</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0208576</v>
+        <v>0.0207678</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0180517</v>
+        <v>0.0171817</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213129</v>
+        <v>0.0220801</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210974</v>
+        <v>0.02097</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0187211</v>
+        <v>0.0179648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0219826</v>
+        <v>0.0228971</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0213619</v>
+        <v>0.0212871</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0202738</v>
+        <v>0.0190907</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0231517</v>
+        <v>0.0238426</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0217635</v>
+        <v>0.0217047</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0218223</v>
+        <v>0.0200089</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0234641</v>
+        <v>0.0248291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221514</v>
+        <v>0.0220505</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0238959</v>
+        <v>0.0230686</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0243879</v>
+        <v>0.0261395</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0227053</v>
+        <v>0.022533</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0263011</v>
+        <v>0.0256372</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0259744</v>
+        <v>0.0282724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0234026</v>
+        <v>0.0231166</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0310537</v>
+        <v>0.029845</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0283613</v>
+        <v>0.0308657</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0244613</v>
+        <v>0.0240659</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0355877</v>
+        <v>0.0360777</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0318824</v>
+        <v>0.0349368</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0257885</v>
+        <v>0.0252337</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0447195</v>
+        <v>0.0444849</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0378481</v>
+        <v>0.0412685</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0276449</v>
+        <v>0.0270995</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0554863</v>
+        <v>0.0552201</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0460157</v>
+        <v>0.0503658</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0306223</v>
+        <v>0.0298484</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0719407</v>
+        <v>0.0710515</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0594302</v>
+        <v>0.0634831</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0355002</v>
+        <v>0.0345535</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09359149999999999</v>
+        <v>0.0920566</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0837648</v>
+        <v>0.0894359</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0438001</v>
+        <v>0.0426633</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119954</v>
+        <v>0.118157</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122944</v>
+        <v>0.128006</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0211332</v>
+        <v>0.0210661</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0174327</v>
+        <v>0.0169862</v>
       </c>
       <c r="C38" t="n">
-        <v>0.022085</v>
+        <v>0.022753</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0213059</v>
+        <v>0.0212819</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0183663</v>
+        <v>0.0176243</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0225629</v>
+        <v>0.0231713</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215508</v>
+        <v>0.0215281</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0194753</v>
+        <v>0.0185177</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0232481</v>
+        <v>0.0239781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0218494</v>
+        <v>0.0218228</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0206597</v>
+        <v>0.0197292</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239007</v>
+        <v>0.0248254</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0222108</v>
+        <v>0.0221504</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0227094</v>
+        <v>0.0219076</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250312</v>
+        <v>0.0261736</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0226861</v>
+        <v>0.0225833</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0247601</v>
+        <v>0.0237552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0264597</v>
+        <v>0.0276034</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0232402</v>
+        <v>0.0231692</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0275927</v>
+        <v>0.0274999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0282741</v>
+        <v>0.0294068</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0239903</v>
+        <v>0.0238071</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0315609</v>
+        <v>0.0317368</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0314321</v>
+        <v>0.0326857</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0249518</v>
+        <v>0.0247135</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0370732</v>
+        <v>0.0378542</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0359566</v>
+        <v>0.0372184</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0264211</v>
+        <v>0.026118</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.044918</v>
+        <v>0.0452257</v>
       </c>
       <c r="C47" t="n">
-        <v>0.041454</v>
+        <v>0.0429549</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0283861</v>
+        <v>0.0280659</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0557657</v>
+        <v>0.0560886</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0496837</v>
+        <v>0.0515628</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0314676</v>
+        <v>0.0309684</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0702941</v>
+        <v>0.0706965</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0637776</v>
+        <v>0.0650715</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0356699</v>
+        <v>0.0351659</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0907366</v>
+        <v>0.09249830000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0829126</v>
+        <v>0.08467909999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0427348</v>
+        <v>0.0420948</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117297</v>
+        <v>0.118664</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116605</v>
+        <v>0.117573</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0219902</v>
+        <v>0.0218758</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143116</v>
+        <v>0.143157</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162541</v>
+        <v>0.163027</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0221296</v>
+        <v>0.0221158</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0194589</v>
+        <v>0.0191241</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0237426</v>
+        <v>0.0241127</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0224</v>
+        <v>0.0223982</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0206749</v>
+        <v>0.0204647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0244344</v>
+        <v>0.0248146</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227971</v>
+        <v>0.0227236</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0222774</v>
+        <v>0.0217633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253514</v>
+        <v>0.0258758</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0231178</v>
+        <v>0.0230694</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0243239</v>
+        <v>0.0236307</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0263797</v>
+        <v>0.0269463</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0235649</v>
+        <v>0.0234789</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0269124</v>
+        <v>0.0261364</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0278943</v>
+        <v>0.0285727</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0241135</v>
+        <v>0.0239703</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0299909</v>
+        <v>0.0294058</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301436</v>
+        <v>0.0308495</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0249005</v>
+        <v>0.024736</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0337622</v>
+        <v>0.034446</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0328947</v>
+        <v>0.0334184</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0258214</v>
+        <v>0.0256587</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0393697</v>
+        <v>0.0392218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0367423</v>
+        <v>0.0372909</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0270965</v>
+        <v>0.0268856</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0466653</v>
+        <v>0.0466474</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0427495</v>
+        <v>0.0432055</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0289548</v>
+        <v>0.0287872</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0570475</v>
+        <v>0.0564698</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0510494</v>
+        <v>0.0513208</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0317082</v>
+        <v>0.0315506</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.071154</v>
+        <v>0.0703867</v>
       </c>
       <c r="C63" t="n">
-        <v>0.062782</v>
+        <v>0.06318600000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0361614</v>
+        <v>0.0358238</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09106400000000001</v>
+        <v>0.0902776</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0802253</v>
+        <v>0.08069220000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0429141</v>
+        <v>0.0426868</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117267</v>
+        <v>0.116938</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110628</v>
+        <v>0.111171</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0543771</v>
+        <v>0.0540363</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148112</v>
+        <v>0.147114</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157214</v>
+        <v>0.157314</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225278</v>
+        <v>0.0225216</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199413</v>
+        <v>0.019743</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0244683</v>
+        <v>0.0246502</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228038</v>
+        <v>0.0228009</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212269</v>
+        <v>0.0211654</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253541</v>
+        <v>0.0254882</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0231738</v>
+        <v>0.0231574</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.022822</v>
+        <v>0.0229306</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262559</v>
+        <v>0.0264813</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0235992</v>
+        <v>0.023565</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245934</v>
+        <v>0.0247515</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274308</v>
+        <v>0.027721</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0240332</v>
+        <v>0.0240469</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.027117</v>
+        <v>0.0273224</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0287891</v>
+        <v>0.0291342</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0245936</v>
+        <v>0.0245568</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305273</v>
+        <v>0.0306713</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0307817</v>
+        <v>0.0311127</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0252626</v>
+        <v>0.0252432</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0344738</v>
+        <v>0.0346971</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335554</v>
+        <v>0.0339495</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0262183</v>
+        <v>0.0261575</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0395694</v>
+        <v>0.0400004</v>
       </c>
       <c r="C74" t="n">
-        <v>0.037344</v>
+        <v>0.0377599</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0274787</v>
+        <v>0.0274018</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0462059</v>
+        <v>0.0467607</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0428221</v>
+        <v>0.0431344</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0293358</v>
+        <v>0.0292294</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0552133</v>
+        <v>0.0562669</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0503771</v>
+        <v>0.0505956</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0318123</v>
+        <v>0.0316842</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0679256</v>
+        <v>0.0689314</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611624</v>
+        <v>0.0613541</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0356571</v>
+        <v>0.0355396</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0857192</v>
+        <v>0.08709020000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0762586</v>
+        <v>0.07640130000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0415557</v>
+        <v>0.0414171</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.110817</v>
+        <v>0.111964</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101828</v>
+        <v>0.101969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0515316</v>
+        <v>0.0513609</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143326</v>
+        <v>0.143048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144402</v>
+        <v>0.14451</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228528</v>
+        <v>0.0227747</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020058</v>
+        <v>0.0202643</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253143</v>
+        <v>0.0254026</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231509</v>
+        <v>0.0231517</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212937</v>
+        <v>0.021593</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261505</v>
+        <v>0.026285</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235577</v>
+        <v>0.0235165</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0230174</v>
+        <v>0.0232281</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271464</v>
+        <v>0.0272771</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240163</v>
+        <v>0.0239329</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247202</v>
+        <v>0.0250448</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283761</v>
+        <v>0.028439</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0245517</v>
+        <v>0.024455</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274717</v>
+        <v>0.0272856</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298852</v>
+        <v>0.0299607</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0251847</v>
+        <v>0.0251291</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303406</v>
+        <v>0.0303539</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0317696</v>
+        <v>0.0318013</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0259899</v>
+        <v>0.0259319</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342141</v>
+        <v>0.0346081</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341525</v>
+        <v>0.0342033</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0270954</v>
+        <v>0.026826</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392665</v>
+        <v>0.0396521</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0376373</v>
+        <v>0.0377722</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0283066</v>
+        <v>0.0281669</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0457497</v>
+        <v>0.0463536</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423057</v>
+        <v>0.0425459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03003</v>
+        <v>0.0298424</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546021</v>
+        <v>0.0547942</v>
       </c>
       <c r="C90" t="n">
-        <v>0.049453</v>
+        <v>0.0496772</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0323339</v>
+        <v>0.0322619</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0665692</v>
+        <v>0.06682200000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0590967</v>
+        <v>0.0595776</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0357719</v>
+        <v>0.0356612</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0835886</v>
+        <v>0.0841355</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07368669999999999</v>
+        <v>0.074337</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0409802</v>
+        <v>0.041102</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107395</v>
+        <v>0.107771</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09723370000000001</v>
+        <v>0.0981025</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0499241</v>
+        <v>0.0498581</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138317</v>
+        <v>0.137615</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136305</v>
+        <v>0.137051</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0246267</v>
+        <v>0.0246875</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0210816</v>
+        <v>0.0205784</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0269794</v>
+        <v>0.0270601</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0251741</v>
+        <v>0.0252614</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218143</v>
+        <v>0.0220814</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282616</v>
+        <v>0.0282103</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0256812</v>
+        <v>0.0258538</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0230427</v>
+        <v>0.0232196</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0304444</v>
+        <v>0.0303635</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0262964</v>
+        <v>0.0263628</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251921</v>
+        <v>0.025362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331726</v>
+        <v>0.0331422</v>
       </c>
       <c r="D98" t="n">
-        <v>0.027099</v>
+        <v>0.0272378</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027143</v>
+        <v>0.0277634</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0367129</v>
+        <v>0.0367934</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0286589</v>
+        <v>0.0284547</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0304006</v>
+        <v>0.0305364</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0402665</v>
+        <v>0.0404938</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0309737</v>
+        <v>0.030768</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344421</v>
+        <v>0.0346455</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0436124</v>
+        <v>0.0437531</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0338763</v>
+        <v>0.0339471</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0395804</v>
+        <v>0.0398966</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0469963</v>
+        <v>0.0471735</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0370961</v>
+        <v>0.0372698</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046292</v>
+        <v>0.046583</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0508153</v>
+        <v>0.0510106</v>
       </c>
       <c r="D103" t="n">
-        <v>0.040199</v>
+        <v>0.0404301</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543812</v>
+        <v>0.0548014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560754</v>
+        <v>0.0560863</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0435247</v>
+        <v>0.0438765</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653686</v>
+        <v>0.0656216</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630652</v>
+        <v>0.0630825</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0470402</v>
+        <v>0.0473126</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08130610000000001</v>
+        <v>0.0813234</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743915</v>
+        <v>0.07425089999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0516592</v>
+        <v>0.051947</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103561</v>
+        <v>0.103316</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09358229999999999</v>
+        <v>0.0935337</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0581776</v>
+        <v>0.0583133</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132956</v>
+        <v>0.13256</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129086</v>
+        <v>0.129243</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0371867</v>
+        <v>0.037205</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169559</v>
+        <v>0.169052</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181006</v>
+        <v>0.180682</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0383143</v>
+        <v>0.0383864</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0309023</v>
+        <v>0.0315167</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0434052</v>
+        <v>0.0432877</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0394364</v>
+        <v>0.0392271</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0326571</v>
+        <v>0.0328376</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0446779</v>
+        <v>0.0443537</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0403431</v>
+        <v>0.040152</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341815</v>
+        <v>0.0341556</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0454854</v>
+        <v>0.0455034</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0411575</v>
+        <v>0.041169</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0357887</v>
+        <v>0.0357581</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0467057</v>
+        <v>0.0467422</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0419411</v>
+        <v>0.0421324</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0379628</v>
+        <v>0.0384534</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0483386</v>
+        <v>0.0481611</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0432002</v>
+        <v>0.0431017</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407112</v>
+        <v>0.040982</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0501808</v>
+        <v>0.0499756</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0444333</v>
+        <v>0.0441996</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440928</v>
+        <v>0.0440895</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0524846</v>
+        <v>0.0522745</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0454931</v>
+        <v>0.0455439</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487413</v>
+        <v>0.0488594</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0554056</v>
+        <v>0.0551755</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0471422</v>
+        <v>0.047155</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553081</v>
+        <v>0.0554215</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0598454</v>
+        <v>0.0592884</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0495503</v>
+        <v>0.0491771</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06529799999999999</v>
+        <v>0.06498719999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0658575</v>
+        <v>0.0652885</v>
       </c>
       <c r="D119" t="n">
-        <v>0.051985</v>
+        <v>0.0518883</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0796418</v>
+        <v>0.0794739</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0753933</v>
+        <v>0.0749346</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0558603</v>
+        <v>0.0555975</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100455</v>
+        <v>0.100312</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0918356</v>
+        <v>0.0912036</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0615748</v>
+        <v>0.0615015</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128647</v>
+        <v>0.128248</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122203</v>
+        <v>0.121487</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0716677</v>
+        <v>0.07130069999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164229</v>
+        <v>0.162711</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170198</v>
+        <v>0.169584</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0446253</v>
+        <v>0.043566</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345292</v>
+        <v>0.0341483</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0484819</v>
+        <v>0.0485088</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0443317</v>
+        <v>0.0457485</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356853</v>
+        <v>0.0352055</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0497669</v>
+        <v>0.0494048</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0461887</v>
+        <v>0.0464937</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0368216</v>
+        <v>0.0365767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0506522</v>
+        <v>0.0505736</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0466018</v>
+        <v>0.0467873</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383773</v>
+        <v>0.0382598</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0519731</v>
+        <v>0.0518782</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0475657</v>
+        <v>0.0481028</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0405735</v>
+        <v>0.0404168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.053394</v>
+        <v>0.0535917</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0490105</v>
+        <v>0.0486476</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431262</v>
+        <v>0.0432337</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0554807</v>
+        <v>0.055831</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0501298</v>
+        <v>0.0499416</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467833</v>
+        <v>0.0468061</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0578232</v>
+        <v>0.0581519</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0514386</v>
+        <v>0.0516849</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0511224</v>
+        <v>0.050929</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0613692</v>
+        <v>0.0607614</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0526242</v>
+        <v>0.0534276</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0572531</v>
+        <v>0.0592584</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06565169999999999</v>
+        <v>0.064775</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0550249</v>
+        <v>0.0552896</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0682083</v>
+        <v>0.0679625</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0712329</v>
+        <v>0.07098889999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0577079</v>
+        <v>0.0580538</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.082172</v>
+        <v>0.08199670000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0805602</v>
+        <v>0.0801538</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0614936</v>
+        <v>0.0612614</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.10224</v>
+        <v>0.102052</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0954647</v>
+        <v>0.0957327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06730700000000001</v>
+        <v>0.06680560000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.12976</v>
+        <v>0.129562</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121869</v>
+        <v>0.12145</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0768379</v>
+        <v>0.0772366</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163878</v>
+        <v>0.163182</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166626</v>
+        <v>0.166426</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0638953</v>
+        <v>0.0638862</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0472203</v>
+        <v>0.0470113</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06347079999999999</v>
+        <v>0.06352289999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06469809999999999</v>
+        <v>0.0647977</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0486964</v>
+        <v>0.0479224</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0644484</v>
+        <v>0.064549</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0651719</v>
+        <v>0.0652663</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493833</v>
+        <v>0.0493556</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0656873</v>
+        <v>0.0657046</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0660814</v>
+        <v>0.0662913</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509577</v>
+        <v>0.0507911</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06702039999999999</v>
+        <v>0.0670499</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06713719999999999</v>
+        <v>0.06696299999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0527938</v>
+        <v>0.0529637</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06852179999999999</v>
+        <v>0.0686064</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0680118</v>
+        <v>0.0680906</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0555188</v>
+        <v>0.0559707</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07026499999999999</v>
+        <v>0.07057289999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0689168</v>
+        <v>0.06891890000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0186946</v>
+        <v>0.0177347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.024947</v>
+        <v>0.0281637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0234456</v>
+        <v>0.0250893</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0208325</v>
+        <v>0.0188852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0264336</v>
+        <v>0.0303387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0238899</v>
+        <v>0.026459</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0256509</v>
+        <v>0.0234555</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0342771</v>
+        <v>0.0343874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0254757</v>
+        <v>0.0281826</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0346413</v>
+        <v>0.0338857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0388587</v>
+        <v>0.0402264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277705</v>
+        <v>0.0301669</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.046048</v>
+        <v>0.0472317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0485649</v>
+        <v>0.0512406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0305004</v>
+        <v>0.0330464</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0575473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0689958</v>
+        <v>0.0595602</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0358799</v>
+        <v>0.0400324</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0922298</v>
+        <v>0.0891636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0893868</v>
+        <v>0.0203069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0450077</v>
+        <v>0.0515425</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115763</v>
+        <v>0.114971</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129507</v>
+        <v>0.0208109</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0206567</v>
+        <v>0.0219549</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0164859</v>
+        <v>0.0165384</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208153</v>
+        <v>0.0212582</v>
       </c>
       <c r="D10" t="n">
-        <v>0.020629</v>
+        <v>0.0220185</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169665</v>
+        <v>0.0169788</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0212039</v>
+        <v>0.0219184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0210462</v>
+        <v>0.0223959</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173776</v>
+        <v>0.017486</v>
       </c>
       <c r="C12" t="n">
-        <v>0.022231</v>
+        <v>0.0229526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214347</v>
+        <v>0.0226063</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0181496</v>
+        <v>0.0179473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0226882</v>
+        <v>0.0241664</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217338</v>
+        <v>0.022828</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01918</v>
+        <v>0.0190006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0239227</v>
+        <v>0.0254836</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0221131</v>
+        <v>0.0232419</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0207701</v>
+        <v>0.0210354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0247782</v>
+        <v>0.0273195</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0225847</v>
+        <v>0.0238637</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0222926</v>
+        <v>0.0232111</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027268</v>
+        <v>0.0296545</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0234111</v>
+        <v>0.0243176</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0262896</v>
+        <v>0.0273704</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0290929</v>
+        <v>0.0332014</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0238249</v>
+        <v>0.0252184</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03088</v>
+        <v>0.033242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0355393</v>
+        <v>0.0379014</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0254606</v>
+        <v>0.0262676</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0419631</v>
+        <v>0.0424186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.038638</v>
+        <v>0.0448099</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0269878</v>
+        <v>0.0283896</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0535407</v>
+        <v>0.0554736</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0524672</v>
+        <v>0.0539658</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029792</v>
+        <v>0.0314271</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0712284</v>
+        <v>0.0712052</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06459529999999999</v>
+        <v>0.06603249999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0349452</v>
+        <v>0.0373705</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.093944</v>
+        <v>0.095737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08827939999999999</v>
+        <v>0.020671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04312</v>
+        <v>0.0483472</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120782</v>
+        <v>0.120816</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133335</v>
+        <v>0.0211785</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0205244</v>
+        <v>0.0216108</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165174</v>
+        <v>0.0166553</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215603</v>
+        <v>0.0218233</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0207678</v>
+        <v>0.0218212</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171817</v>
+        <v>0.0171951</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220801</v>
+        <v>0.0225927</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02097</v>
+        <v>0.0221418</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179648</v>
+        <v>0.0178482</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0228971</v>
+        <v>0.0234831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0212871</v>
+        <v>0.0223588</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0190907</v>
+        <v>0.0186904</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0238426</v>
+        <v>0.0247358</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0217047</v>
+        <v>0.0227307</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200089</v>
+        <v>0.0199208</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0248291</v>
+        <v>0.0261932</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0220505</v>
+        <v>0.0232391</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0230686</v>
+        <v>0.0220798</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0261395</v>
+        <v>0.0277728</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022533</v>
+        <v>0.0238749</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0256372</v>
+        <v>0.0261723</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0282724</v>
+        <v>0.0302705</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0231166</v>
+        <v>0.0245752</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029845</v>
+        <v>0.0299174</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0308657</v>
+        <v>0.0337553</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240659</v>
+        <v>0.0255408</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0360777</v>
+        <v>0.0360282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0349368</v>
+        <v>0.038208</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0252337</v>
+        <v>0.026853</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0444849</v>
+        <v>0.0442657</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0412685</v>
+        <v>0.0438485</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0270995</v>
+        <v>0.0288755</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0552201</v>
+        <v>0.0555848</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0503658</v>
+        <v>0.053142</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0298484</v>
+        <v>0.0325576</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0710515</v>
+        <v>0.07283770000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0634831</v>
+        <v>0.06538140000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0345535</v>
+        <v>0.0370074</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0920566</v>
+        <v>0.0951668</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0894359</v>
+        <v>0.081438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0426633</v>
+        <v>0.0451778</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118157</v>
+        <v>0.118945</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128006</v>
+        <v>0.0211673</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0210661</v>
+        <v>0.0225246</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169862</v>
+        <v>0.0173426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.022753</v>
+        <v>0.0217646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0212819</v>
+        <v>0.022845</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176243</v>
+        <v>0.0180617</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0231713</v>
+        <v>0.0225445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215281</v>
+        <v>0.0231005</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185177</v>
+        <v>0.018949</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0239781</v>
+        <v>0.0235978</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0218228</v>
+        <v>0.0234427</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0197292</v>
+        <v>0.020392</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0248254</v>
+        <v>0.0247356</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0221504</v>
+        <v>0.0238108</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219076</v>
+        <v>0.0223588</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0261736</v>
+        <v>0.0261785</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0225833</v>
+        <v>0.0242156</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0237552</v>
+        <v>0.024542</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0276034</v>
+        <v>0.028181</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231692</v>
+        <v>0.0247109</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274999</v>
+        <v>0.0279483</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0294068</v>
+        <v>0.0306195</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0238071</v>
+        <v>0.0253455</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0317368</v>
+        <v>0.0324731</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0326857</v>
+        <v>0.0343078</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247135</v>
+        <v>0.0263488</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0378542</v>
+        <v>0.0380715</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0372184</v>
+        <v>0.0390459</v>
       </c>
       <c r="D46" t="n">
-        <v>0.026118</v>
+        <v>0.0275133</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0452257</v>
+        <v>0.0466525</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0429549</v>
+        <v>0.0453654</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0280659</v>
+        <v>0.0294802</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0560886</v>
+        <v>0.056909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0515628</v>
+        <v>0.0534848</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0309684</v>
+        <v>0.0325566</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0706965</v>
+        <v>0.0714974</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0650715</v>
+        <v>0.0640006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0351659</v>
+        <v>0.0372371</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09249830000000001</v>
+        <v>0.0912895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08467909999999999</v>
+        <v>0.0778128</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0420948</v>
+        <v>0.0445091</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118664</v>
+        <v>0.117883</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117573</v>
+        <v>0.0213048</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0218758</v>
+        <v>0.0233299</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143157</v>
+        <v>0.142422</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163027</v>
+        <v>0.0219901</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0221158</v>
+        <v>0.0235644</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191241</v>
+        <v>0.019195</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0241127</v>
+        <v>0.0226809</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223982</v>
+        <v>0.0237683</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204647</v>
+        <v>0.0203607</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0248146</v>
+        <v>0.0235119</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227236</v>
+        <v>0.0240722</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217633</v>
+        <v>0.0218136</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0258758</v>
+        <v>0.0248035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0230694</v>
+        <v>0.0244168</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236307</v>
+        <v>0.0236284</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0269463</v>
+        <v>0.0261888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0234789</v>
+        <v>0.0249086</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261364</v>
+        <v>0.0264708</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0285727</v>
+        <v>0.0281</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0239703</v>
+        <v>0.0254511</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0294058</v>
+        <v>0.0297098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0308495</v>
+        <v>0.0307155</v>
       </c>
       <c r="D58" t="n">
-        <v>0.024736</v>
+        <v>0.0261448</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.034446</v>
+        <v>0.0338513</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0334184</v>
+        <v>0.0340517</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0256587</v>
+        <v>0.027135</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0392218</v>
+        <v>0.0398965</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0372909</v>
+        <v>0.039017</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0268856</v>
+        <v>0.0284505</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0466474</v>
+        <v>0.0472513</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0432055</v>
+        <v>0.0450472</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0287872</v>
+        <v>0.0303024</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0564698</v>
+        <v>0.0571737</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0513208</v>
+        <v>0.0537333</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0315506</v>
+        <v>0.0330686</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0703867</v>
+        <v>0.0718768</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06318600000000001</v>
+        <v>0.0640087</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0358238</v>
+        <v>0.0376382</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0902776</v>
+        <v>0.09075809999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08069220000000001</v>
+        <v>0.0761191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0426868</v>
+        <v>0.0447934</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116938</v>
+        <v>0.116281</v>
       </c>
       <c r="C65" t="n">
-        <v>0.111171</v>
+        <v>0.0215671</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0540363</v>
+        <v>0.057162</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147114</v>
+        <v>0.146073</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157314</v>
+        <v>0.022204</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225216</v>
+        <v>0.024014</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.019743</v>
+        <v>0.0198702</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0246502</v>
+        <v>0.0229249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228009</v>
+        <v>0.0243849</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211654</v>
+        <v>0.0212214</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0254882</v>
+        <v>0.0238263</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0231574</v>
+        <v>0.02468</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229306</v>
+        <v>0.0226574</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0264813</v>
+        <v>0.0250022</v>
       </c>
       <c r="D69" t="n">
-        <v>0.023565</v>
+        <v>0.0250072</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247515</v>
+        <v>0.0247929</v>
       </c>
       <c r="C70" t="n">
-        <v>0.027721</v>
+        <v>0.0265029</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0240469</v>
+        <v>0.02551</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273224</v>
+        <v>0.0271637</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291342</v>
+        <v>0.0283501</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0245568</v>
+        <v>0.0259831</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306713</v>
+        <v>0.0304312</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0311127</v>
+        <v>0.0309632</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0252432</v>
+        <v>0.0267313</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346971</v>
+        <v>0.0345894</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0339495</v>
+        <v>0.0342816</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0261575</v>
+        <v>0.0276698</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0400004</v>
+        <v>0.0396103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0377599</v>
+        <v>0.0384953</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0274018</v>
+        <v>0.0288476</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467607</v>
+        <v>0.0467754</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0431344</v>
+        <v>0.0444329</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0292294</v>
+        <v>0.0307247</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0562669</v>
+        <v>0.0560361</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0505956</v>
+        <v>0.0524612</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0316842</v>
+        <v>0.0333151</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689314</v>
+        <v>0.0688766</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0613541</v>
+        <v>0.0624264</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0355396</v>
+        <v>0.0375379</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08709020000000001</v>
+        <v>0.08715820000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07640130000000001</v>
+        <v>0.0748988</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0414171</v>
+        <v>0.043859</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111964</v>
+        <v>0.111126</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101969</v>
+        <v>0.025562</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0513609</v>
+        <v>0.0545188</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143048</v>
+        <v>0.142408</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14451</v>
+        <v>0.0275782</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0227747</v>
+        <v>0.0242604</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0202643</v>
+        <v>0.0204979</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0254026</v>
+        <v>0.0280806</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231517</v>
+        <v>0.0245599</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.021593</v>
+        <v>0.021371</v>
       </c>
       <c r="C82" t="n">
-        <v>0.026285</v>
+        <v>0.0285806</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235165</v>
+        <v>0.0248882</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0232281</v>
+        <v>0.0231017</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272771</v>
+        <v>0.0282565</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0239329</v>
+        <v>0.025275</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0250448</v>
+        <v>0.0250312</v>
       </c>
       <c r="C84" t="n">
-        <v>0.028439</v>
+        <v>0.0294624</v>
       </c>
       <c r="D84" t="n">
-        <v>0.024455</v>
+        <v>0.0257971</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272856</v>
+        <v>0.0273671</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0299607</v>
+        <v>0.0308743</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0251291</v>
+        <v>0.02637</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303539</v>
+        <v>0.030302</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318013</v>
+        <v>0.0341176</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0259319</v>
+        <v>0.027152</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0346081</v>
+        <v>0.0342767</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0342033</v>
+        <v>0.0361708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.026826</v>
+        <v>0.0281046</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0396521</v>
+        <v>0.0392133</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377722</v>
+        <v>0.0410182</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0281669</v>
+        <v>0.0295407</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0463536</v>
+        <v>0.0459474</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425459</v>
+        <v>0.0463375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0298424</v>
+        <v>0.0311837</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0547942</v>
+        <v>0.0545635</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0496772</v>
+        <v>0.0537404</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0322619</v>
+        <v>0.0336176</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06682200000000001</v>
+        <v>0.066873</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595776</v>
+        <v>0.06263730000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0356612</v>
+        <v>0.0371264</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0841355</v>
+        <v>0.08354640000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.074337</v>
+        <v>0.0750686</v>
       </c>
       <c r="D92" t="n">
-        <v>0.041102</v>
+        <v>0.0426593</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107771</v>
+        <v>0.106964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0981025</v>
+        <v>0.09099740000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0498581</v>
+        <v>0.0519684</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137615</v>
+        <v>0.137477</v>
       </c>
       <c r="C94" t="n">
-        <v>0.137051</v>
+        <v>0.0543355</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0246875</v>
+        <v>0.0258587</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205784</v>
+        <v>0.0212266</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270601</v>
+        <v>0.055378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0252614</v>
+        <v>0.0264334</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220814</v>
+        <v>0.0219642</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282103</v>
+        <v>0.0553167</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0258538</v>
+        <v>0.0269028</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0232196</v>
+        <v>0.0233059</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0303635</v>
+        <v>0.0560005</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0263628</v>
+        <v>0.0275923</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.025362</v>
+        <v>0.024965</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331422</v>
+        <v>0.0571877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0272378</v>
+        <v>0.0285702</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277634</v>
+        <v>0.027507</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0367934</v>
+        <v>0.0572869</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0284547</v>
+        <v>0.0300087</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305364</v>
+        <v>0.0303621</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404938</v>
+        <v>0.059316</v>
       </c>
       <c r="D100" t="n">
-        <v>0.030768</v>
+        <v>0.0323097</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346455</v>
+        <v>0.0349354</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437531</v>
+        <v>0.0627822</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0339471</v>
+        <v>0.0365878</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398966</v>
+        <v>0.0402101</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471735</v>
+        <v>0.0641979</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0372698</v>
+        <v>0.0391818</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046583</v>
+        <v>0.0463648</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0510106</v>
+        <v>0.0676554</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0404301</v>
+        <v>0.0416919</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0548014</v>
+        <v>0.0548707</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560863</v>
+        <v>0.0737056</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0438765</v>
+        <v>0.0450736</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656216</v>
+        <v>0.0654704</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630825</v>
+        <v>0.0815784</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0473126</v>
+        <v>0.0484289</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0813234</v>
+        <v>0.0815046</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07425089999999999</v>
+        <v>0.0931374</v>
       </c>
       <c r="D106" t="n">
-        <v>0.051947</v>
+        <v>0.0531234</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103316</v>
+        <v>0.103387</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0935337</v>
+        <v>0.108481</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0583133</v>
+        <v>0.059985</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13256</v>
+        <v>0.132347</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129243</v>
+        <v>0.0822619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.037205</v>
+        <v>0.0387026</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169052</v>
+        <v>0.16884</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180682</v>
+        <v>0.082784</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0383864</v>
+        <v>0.039979</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0315167</v>
+        <v>0.031373</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432877</v>
+        <v>0.08355269999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0392271</v>
+        <v>0.0407366</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328376</v>
+        <v>0.032779</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0443537</v>
+        <v>0.08275150000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.040152</v>
+        <v>0.0414101</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341556</v>
+        <v>0.0342392</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0455034</v>
+        <v>0.0835095</v>
       </c>
       <c r="D112" t="n">
-        <v>0.041169</v>
+        <v>0.0421872</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0357581</v>
+        <v>0.036179</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0467422</v>
+        <v>0.0843792</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0421324</v>
+        <v>0.0431039</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384534</v>
+        <v>0.0382276</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0481611</v>
+        <v>0.0856725</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0431017</v>
+        <v>0.0440965</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040982</v>
+        <v>0.0406218</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0499756</v>
+        <v>0.0874267</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0441996</v>
+        <v>0.0454494</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440895</v>
+        <v>0.0440363</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0522745</v>
+        <v>0.0900903</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0455439</v>
+        <v>0.046805</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488594</v>
+        <v>0.0485942</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551755</v>
+        <v>0.093279</v>
       </c>
       <c r="D117" t="n">
-        <v>0.047155</v>
+        <v>0.0482005</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554215</v>
+        <v>0.0553814</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592884</v>
+        <v>0.09896530000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0491771</v>
+        <v>0.0502533</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06498719999999999</v>
+        <v>0.06523229999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652885</v>
+        <v>0.106256</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0518883</v>
+        <v>0.0531382</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794739</v>
+        <v>0.0794011</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749346</v>
+        <v>0.117781</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0555975</v>
+        <v>0.0571138</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100312</v>
+        <v>0.100166</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912036</v>
+        <v>0.133615</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0615015</v>
+        <v>0.0631661</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128248</v>
+        <v>0.128268</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121487</v>
+        <v>0.093722</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07130069999999999</v>
+        <v>0.0734669</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162711</v>
+        <v>0.163701</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169584</v>
+        <v>0.094073</v>
       </c>
       <c r="D123" t="n">
-        <v>0.043566</v>
+        <v>0.045661</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341483</v>
+        <v>0.0346198</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0485088</v>
+        <v>0.0945521</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0457485</v>
+        <v>0.0461072</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0352055</v>
+        <v>0.0354654</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0494048</v>
+        <v>0.0951642</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0464937</v>
+        <v>0.047175</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0365767</v>
+        <v>0.0366085</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0505736</v>
+        <v>0.09592340000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0467873</v>
+        <v>0.0476817</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0382598</v>
+        <v>0.0388945</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0518782</v>
+        <v>0.09669759999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0481028</v>
+        <v>0.0488919</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404168</v>
+        <v>0.0409798</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0535917</v>
+        <v>0.100979</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0486476</v>
+        <v>0.0497329</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432337</v>
+        <v>0.0433231</v>
       </c>
       <c r="C129" t="n">
-        <v>0.055831</v>
+        <v>0.0998585</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0499416</v>
+        <v>0.0514961</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468061</v>
+        <v>0.0478824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0581519</v>
+        <v>0.106291</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0516849</v>
+        <v>0.0522748</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.050929</v>
+        <v>0.0522531</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0607614</v>
+        <v>0.106045</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0534276</v>
+        <v>0.0539706</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592584</v>
+        <v>0.0589284</v>
       </c>
       <c r="C132" t="n">
-        <v>0.064775</v>
+        <v>0.114325</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0552896</v>
+        <v>0.0561519</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0679625</v>
+        <v>0.0684761</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07098889999999999</v>
+        <v>0.118703</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0580538</v>
+        <v>0.0589165</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08199670000000001</v>
+        <v>0.08256520000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0801538</v>
+        <v>0.132586</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0612614</v>
+        <v>0.0627973</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102052</v>
+        <v>0.102351</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0957327</v>
+        <v>0.144449</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06680560000000001</v>
+        <v>0.06854</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129562</v>
+        <v>0.129668</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12145</v>
+        <v>0.100829</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0772366</v>
+        <v>0.0781154</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163182</v>
+        <v>0.164095</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166426</v>
+        <v>0.101255</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0638862</v>
+        <v>0.0641977</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470113</v>
+        <v>0.0467531</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06352289999999999</v>
+        <v>0.101684</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0647977</v>
+        <v>0.0653511</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479224</v>
+        <v>0.0489469</v>
       </c>
       <c r="C139" t="n">
-        <v>0.064549</v>
+        <v>0.102426</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0652663</v>
+        <v>0.0658188</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493556</v>
+        <v>0.0492735</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0657046</v>
+        <v>0.103294</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0662913</v>
+        <v>0.0669466</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507911</v>
+        <v>0.0513704</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0670499</v>
+        <v>0.104327</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06696299999999999</v>
+        <v>0.0672373</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529637</v>
+        <v>0.0529331</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0686064</v>
+        <v>0.108111</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0680906</v>
+        <v>0.0686155</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0559707</v>
+        <v>0.0552064</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07057289999999999</v>
+        <v>0.107678</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06891890000000001</v>
+        <v>0.0692349</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0186946</v>
+        <v>0.0196892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.024947</v>
+        <v>0.0205489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0234456</v>
+        <v>0.023324</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0208325</v>
+        <v>0.0225933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0264336</v>
+        <v>0.0213924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0238899</v>
+        <v>0.0241176</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0256509</v>
+        <v>0.0263505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0342771</v>
+        <v>0.0229427</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0254757</v>
+        <v>0.0255223</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0346413</v>
+        <v>0.0350684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0388587</v>
+        <v>0.0248822</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0277705</v>
+        <v>0.0279774</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.046048</v>
+        <v>0.0493659</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0485649</v>
+        <v>0.0310223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0305004</v>
+        <v>0.0305618</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0677551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0689958</v>
+        <v>0.0487698</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0358799</v>
+        <v>0.0364061</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0922298</v>
+        <v>0.09178459999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0893868</v>
+        <v>0.07724209999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0450077</v>
+        <v>0.0455345</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115763</v>
+        <v>0.118037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.129507</v>
+        <v>0.107397</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0206567</v>
+        <v>0.0206157</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0164859</v>
+        <v>0.0162904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0208153</v>
+        <v>0.0195115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.020629</v>
+        <v>0.0206132</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169665</v>
+        <v>0.016671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0212039</v>
+        <v>0.0199556</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0210462</v>
+        <v>0.0209495</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173776</v>
+        <v>0.0172172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.022231</v>
+        <v>0.0201979</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214347</v>
+        <v>0.0213162</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0181496</v>
+        <v>0.0177089</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0226882</v>
+        <v>0.0205002</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217338</v>
+        <v>0.0216787</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01918</v>
+        <v>0.0186875</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0239227</v>
+        <v>0.0211912</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0221131</v>
+        <v>0.0220516</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0207701</v>
+        <v>0.0201073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0247782</v>
+        <v>0.0217381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0225847</v>
+        <v>0.0227572</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0222926</v>
+        <v>0.0220044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.027268</v>
+        <v>0.0234882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0234111</v>
+        <v>0.0234176</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0262896</v>
+        <v>0.025864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0290929</v>
+        <v>0.0249838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0238249</v>
+        <v>0.0240275</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03088</v>
+        <v>0.030922</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0355393</v>
+        <v>0.0282733</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0254606</v>
+        <v>0.0255136</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0419631</v>
+        <v>0.0388726</v>
       </c>
       <c r="C19" t="n">
-        <v>0.038638</v>
+        <v>0.0322835</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0269878</v>
+        <v>0.0272644</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0535407</v>
+        <v>0.0504449</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0524672</v>
+        <v>0.0386759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.029792</v>
+        <v>0.0301811</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0712284</v>
+        <v>0.0687712</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06459529999999999</v>
+        <v>0.0537871</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0349452</v>
+        <v>0.0355042</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.093944</v>
+        <v>0.091865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08827939999999999</v>
+        <v>0.0774474</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04312</v>
+        <v>0.0433814</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120782</v>
+        <v>0.119715</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133335</v>
+        <v>0.129961</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0205244</v>
+        <v>0.0205819</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165174</v>
+        <v>0.0164073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0215603</v>
+        <v>0.0206024</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0207678</v>
+        <v>0.0208776</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171817</v>
+        <v>0.01698</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0220801</v>
+        <v>0.0209402</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02097</v>
+        <v>0.0210307</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179648</v>
+        <v>0.0177916</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0228971</v>
+        <v>0.021643</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0212871</v>
+        <v>0.0213886</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0190907</v>
+        <v>0.0186291</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0238426</v>
+        <v>0.0222319</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0217047</v>
+        <v>0.0217956</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200089</v>
+        <v>0.0198841</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0248291</v>
+        <v>0.0229706</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0220505</v>
+        <v>0.0221628</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0230686</v>
+        <v>0.0219491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0261395</v>
+        <v>0.0241918</v>
       </c>
       <c r="D29" t="n">
-        <v>0.022533</v>
+        <v>0.0226389</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0256372</v>
+        <v>0.0243691</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0282724</v>
+        <v>0.0256657</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0231166</v>
+        <v>0.0232113</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.029845</v>
+        <v>0.0291217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0308657</v>
+        <v>0.0280205</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0240659</v>
+        <v>0.0242058</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0360777</v>
+        <v>0.0353483</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0349368</v>
+        <v>0.0319015</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0252337</v>
+        <v>0.0253839</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0444849</v>
+        <v>0.0435022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0412685</v>
+        <v>0.0377995</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0270995</v>
+        <v>0.0272804</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0552201</v>
+        <v>0.0539581</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0503658</v>
+        <v>0.0445737</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0298484</v>
+        <v>0.0299802</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0710515</v>
+        <v>0.0698913</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0634831</v>
+        <v>0.0575463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0345535</v>
+        <v>0.0347925</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0920566</v>
+        <v>0.0919883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0894359</v>
+        <v>0.0827893</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0426633</v>
+        <v>0.0426618</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118157</v>
+        <v>0.119176</v>
       </c>
       <c r="C37" t="n">
-        <v>0.128006</v>
+        <v>0.122576</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0210661</v>
+        <v>0.0211012</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169862</v>
+        <v>0.0169162</v>
       </c>
       <c r="C38" t="n">
-        <v>0.022753</v>
+        <v>0.0220351</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0212819</v>
+        <v>0.0213272</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176243</v>
+        <v>0.0176988</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0231713</v>
+        <v>0.0224762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215281</v>
+        <v>0.0215517</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185177</v>
+        <v>0.0186059</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0239781</v>
+        <v>0.0231545</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0218228</v>
+        <v>0.021849</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0197292</v>
+        <v>0.0198314</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0248254</v>
+        <v>0.0239316</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0221504</v>
+        <v>0.022166</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219076</v>
+        <v>0.0217726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0261736</v>
+        <v>0.0250637</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0225833</v>
+        <v>0.0226333</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0237552</v>
+        <v>0.0245225</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0276034</v>
+        <v>0.0263924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231692</v>
+        <v>0.0231982</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274999</v>
+        <v>0.0284653</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0294068</v>
+        <v>0.0282397</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0238071</v>
+        <v>0.0237844</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0317368</v>
+        <v>0.0319148</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0326857</v>
+        <v>0.0312003</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247135</v>
+        <v>0.0247748</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0378542</v>
+        <v>0.0391053</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0372184</v>
+        <v>0.0359621</v>
       </c>
       <c r="D46" t="n">
-        <v>0.026118</v>
+        <v>0.0261384</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0452257</v>
+        <v>0.0462096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0429549</v>
+        <v>0.0407115</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0280659</v>
+        <v>0.0280823</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0560886</v>
+        <v>0.0558967</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0515628</v>
+        <v>0.0489897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0309684</v>
+        <v>0.0309911</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0706965</v>
+        <v>0.0708762</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0650715</v>
+        <v>0.062497</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0351659</v>
+        <v>0.0351995</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09249830000000001</v>
+        <v>0.0909027</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08467909999999999</v>
+        <v>0.08147550000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0420948</v>
+        <v>0.0420517</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118664</v>
+        <v>0.117657</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117573</v>
+        <v>0.115397</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0218758</v>
+        <v>0.0218918</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143157</v>
+        <v>0.142681</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163027</v>
+        <v>0.162239</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0221158</v>
+        <v>0.0221295</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191241</v>
+        <v>0.0189745</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0241127</v>
+        <v>0.0238257</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223982</v>
+        <v>0.0223626</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204647</v>
+        <v>0.0202466</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0248146</v>
+        <v>0.0244567</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227236</v>
+        <v>0.0227371</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217633</v>
+        <v>0.0215816</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0258758</v>
+        <v>0.0253024</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0230694</v>
+        <v>0.0230919</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236307</v>
+        <v>0.0233749</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0269463</v>
+        <v>0.0262653</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0234789</v>
+        <v>0.0235157</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261364</v>
+        <v>0.0262824</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0285727</v>
+        <v>0.0279765</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0239703</v>
+        <v>0.0240472</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0294058</v>
+        <v>0.0297446</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0308495</v>
+        <v>0.0301437</v>
       </c>
       <c r="D58" t="n">
-        <v>0.024736</v>
+        <v>0.0248084</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.034446</v>
+        <v>0.0339891</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0334184</v>
+        <v>0.0329383</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0256587</v>
+        <v>0.0256817</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0392218</v>
+        <v>0.0396425</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0372909</v>
+        <v>0.036643</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0268856</v>
+        <v>0.0269215</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0466474</v>
+        <v>0.0468955</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0432055</v>
+        <v>0.0428207</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0287872</v>
+        <v>0.0287971</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0564698</v>
+        <v>0.0566949</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0513208</v>
+        <v>0.0505911</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0315506</v>
+        <v>0.0316208</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0703867</v>
+        <v>0.0708104</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06318600000000001</v>
+        <v>0.0624123</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0358238</v>
+        <v>0.0358991</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0902776</v>
+        <v>0.09035840000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08069220000000001</v>
+        <v>0.0798585</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0426868</v>
+        <v>0.0426408</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116938</v>
+        <v>0.117739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.111171</v>
+        <v>0.110161</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0540363</v>
+        <v>0.0540295</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147114</v>
+        <v>0.148379</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157314</v>
+        <v>0.156852</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225216</v>
+        <v>0.0225534</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.019743</v>
+        <v>0.0198587</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0246502</v>
+        <v>0.0245036</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228009</v>
+        <v>0.0228295</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211654</v>
+        <v>0.0211521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0254882</v>
+        <v>0.0253756</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0231574</v>
+        <v>0.0231727</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229306</v>
+        <v>0.0227559</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0264813</v>
+        <v>0.0262791</v>
       </c>
       <c r="D69" t="n">
-        <v>0.023565</v>
+        <v>0.0235856</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247515</v>
+        <v>0.0247302</v>
       </c>
       <c r="C70" t="n">
-        <v>0.027721</v>
+        <v>0.0273832</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0240469</v>
+        <v>0.024006</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273224</v>
+        <v>0.0274592</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291342</v>
+        <v>0.0288735</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0245568</v>
+        <v>0.0245681</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306713</v>
+        <v>0.0307824</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0311127</v>
+        <v>0.0308571</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0252432</v>
+        <v>0.0252461</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346971</v>
+        <v>0.0346611</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0339495</v>
+        <v>0.0336517</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0261575</v>
+        <v>0.0261884</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0400004</v>
+        <v>0.040013</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0377599</v>
+        <v>0.0374232</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0274018</v>
+        <v>0.0274034</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467607</v>
+        <v>0.046688</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0431344</v>
+        <v>0.0428836</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0292294</v>
+        <v>0.029329</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0562669</v>
+        <v>0.0558292</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0505956</v>
+        <v>0.0504216</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0316842</v>
+        <v>0.0317144</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689314</v>
+        <v>0.0689227</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0613541</v>
+        <v>0.0610859</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0355396</v>
+        <v>0.0355741</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08709020000000001</v>
+        <v>0.08752310000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07640130000000001</v>
+        <v>0.076267</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0414171</v>
+        <v>0.0414191</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111964</v>
+        <v>0.112698</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101969</v>
+        <v>0.101785</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0513609</v>
+        <v>0.0513338</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143048</v>
+        <v>0.144329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14451</v>
+        <v>0.143919</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0227747</v>
+        <v>0.0228338</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0202643</v>
+        <v>0.0200312</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0254026</v>
+        <v>0.025427</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231517</v>
+        <v>0.0231491</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.021593</v>
+        <v>0.0215101</v>
       </c>
       <c r="C82" t="n">
-        <v>0.026285</v>
+        <v>0.0263597</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235165</v>
+        <v>0.0235808</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0232281</v>
+        <v>0.0229536</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272771</v>
+        <v>0.0272239</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0239329</v>
+        <v>0.0240226</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0250448</v>
+        <v>0.0252999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.028439</v>
+        <v>0.0284965</v>
       </c>
       <c r="D84" t="n">
-        <v>0.024455</v>
+        <v>0.024575</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272856</v>
+        <v>0.0272228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0299607</v>
+        <v>0.030046</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0251291</v>
+        <v>0.0252104</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303539</v>
+        <v>0.0307241</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318013</v>
+        <v>0.0319543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0259319</v>
+        <v>0.0260306</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0346081</v>
+        <v>0.0344081</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0342033</v>
+        <v>0.0343624</v>
       </c>
       <c r="D87" t="n">
-        <v>0.026826</v>
+        <v>0.0268637</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0396521</v>
+        <v>0.0394968</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377722</v>
+        <v>0.0377565</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0281669</v>
+        <v>0.028257</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0463536</v>
+        <v>0.0455642</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425459</v>
+        <v>0.0423902</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0298424</v>
+        <v>0.0299584</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0547942</v>
+        <v>0.0545238</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0496772</v>
+        <v>0.049755</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0322619</v>
+        <v>0.0323423</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06682200000000001</v>
+        <v>0.0659645</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595776</v>
+        <v>0.0595405</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0356612</v>
+        <v>0.0357175</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0841355</v>
+        <v>0.08321149999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.074337</v>
+        <v>0.0743384</v>
       </c>
       <c r="D92" t="n">
-        <v>0.041102</v>
+        <v>0.0409061</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107771</v>
+        <v>0.106777</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0981025</v>
+        <v>0.0980013</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0498581</v>
+        <v>0.0498072</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137615</v>
+        <v>0.137605</v>
       </c>
       <c r="C94" t="n">
-        <v>0.137051</v>
+        <v>0.137147</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0246875</v>
+        <v>0.0246083</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205784</v>
+        <v>0.0205711</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270601</v>
+        <v>0.0269737</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0252614</v>
+        <v>0.0252306</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220814</v>
+        <v>0.0220057</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282103</v>
+        <v>0.0282769</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0258538</v>
+        <v>0.0258271</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0232196</v>
+        <v>0.0234947</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0303635</v>
+        <v>0.0299495</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0263628</v>
+        <v>0.0263848</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.025362</v>
+        <v>0.0254507</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331422</v>
+        <v>0.0328327</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0272378</v>
+        <v>0.0272007</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277634</v>
+        <v>0.0277064</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0367934</v>
+        <v>0.0366016</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0284547</v>
+        <v>0.0284362</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0305364</v>
+        <v>0.0302147</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404938</v>
+        <v>0.0404394</v>
       </c>
       <c r="D100" t="n">
-        <v>0.030768</v>
+        <v>0.0306796</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346455</v>
+        <v>0.0346278</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437531</v>
+        <v>0.0439235</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0339471</v>
+        <v>0.0338944</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398966</v>
+        <v>0.0398852</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471735</v>
+        <v>0.0471717</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0372698</v>
+        <v>0.0370951</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046583</v>
+        <v>0.046509</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0510106</v>
+        <v>0.0510048</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0404301</v>
+        <v>0.0403571</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0548014</v>
+        <v>0.0547851</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560863</v>
+        <v>0.056193</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0438765</v>
+        <v>0.0436828</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0656216</v>
+        <v>0.0654656</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630825</v>
+        <v>0.0631578</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0473126</v>
+        <v>0.0470715</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0813234</v>
+        <v>0.0811883</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07425089999999999</v>
+        <v>0.07441589999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.051947</v>
+        <v>0.0517152</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103316</v>
+        <v>0.103083</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0935337</v>
+        <v>0.09375699999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0583133</v>
+        <v>0.0582156</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13256</v>
+        <v>0.132711</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129243</v>
+        <v>0.12943</v>
       </c>
       <c r="D108" t="n">
-        <v>0.037205</v>
+        <v>0.0372642</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169052</v>
+        <v>0.169165</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180682</v>
+        <v>0.181549</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0383864</v>
+        <v>0.0383043</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0315167</v>
+        <v>0.0312635</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432877</v>
+        <v>0.0431696</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0392271</v>
+        <v>0.0393219</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328376</v>
+        <v>0.0328041</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0443537</v>
+        <v>0.0442537</v>
       </c>
       <c r="D111" t="n">
-        <v>0.040152</v>
+        <v>0.040138</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341556</v>
+        <v>0.0345031</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0455034</v>
+        <v>0.0453602</v>
       </c>
       <c r="D112" t="n">
-        <v>0.041169</v>
+        <v>0.0411429</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0357581</v>
+        <v>0.0358234</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0467422</v>
+        <v>0.046713</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0421324</v>
+        <v>0.0420559</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384534</v>
+        <v>0.0382732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0481611</v>
+        <v>0.0480702</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0431017</v>
+        <v>0.0431292</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040982</v>
+        <v>0.0408668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0499756</v>
+        <v>0.0498506</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0441996</v>
+        <v>0.0441939</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440895</v>
+        <v>0.0442197</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0522745</v>
+        <v>0.0521857</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0455439</v>
+        <v>0.045535</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488594</v>
+        <v>0.0488549</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551755</v>
+        <v>0.0551381</v>
       </c>
       <c r="D117" t="n">
-        <v>0.047155</v>
+        <v>0.0470023</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554215</v>
+        <v>0.055362</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592884</v>
+        <v>0.0593971</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0491771</v>
+        <v>0.0491187</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06498719999999999</v>
+        <v>0.06493019999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652885</v>
+        <v>0.0652823</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0518883</v>
+        <v>0.0519235</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794739</v>
+        <v>0.0792839</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749346</v>
+        <v>0.0749734</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0555975</v>
+        <v>0.0556432</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100312</v>
+        <v>0.10012</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912036</v>
+        <v>0.09127399999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0615015</v>
+        <v>0.0612847</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128248</v>
+        <v>0.128333</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121487</v>
+        <v>0.121677</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07130069999999999</v>
+        <v>0.0713792</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162711</v>
+        <v>0.163958</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169584</v>
+        <v>0.169969</v>
       </c>
       <c r="D123" t="n">
-        <v>0.043566</v>
+        <v>0.0445775</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341483</v>
+        <v>0.0345405</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0485088</v>
+        <v>0.04879</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0457485</v>
+        <v>0.0451801</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0352055</v>
+        <v>0.035476</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0494048</v>
+        <v>0.049761</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0464937</v>
+        <v>0.0460846</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0365767</v>
+        <v>0.0371607</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0505736</v>
+        <v>0.050926</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0467873</v>
+        <v>0.0469141</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0382598</v>
+        <v>0.0387162</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0518782</v>
+        <v>0.0515014</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0481028</v>
+        <v>0.0478945</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404168</v>
+        <v>0.0407365</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0535917</v>
+        <v>0.0537458</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0486476</v>
+        <v>0.0489231</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432337</v>
+        <v>0.0434058</v>
       </c>
       <c r="C129" t="n">
-        <v>0.055831</v>
+        <v>0.0556758</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0499416</v>
+        <v>0.0499849</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468061</v>
+        <v>0.0468695</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0581519</v>
+        <v>0.0580401</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0516849</v>
+        <v>0.0515543</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.050929</v>
+        <v>0.0520402</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0607614</v>
+        <v>0.0604226</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0534276</v>
+        <v>0.0528673</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592584</v>
+        <v>0.0580089</v>
       </c>
       <c r="C132" t="n">
-        <v>0.064775</v>
+        <v>0.065459</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0552896</v>
+        <v>0.0551155</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0679625</v>
+        <v>0.06781280000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07098889999999999</v>
+        <v>0.0707305</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0580538</v>
+        <v>0.0577754</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08199670000000001</v>
+        <v>0.0816269</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0801538</v>
+        <v>0.079781</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0612614</v>
+        <v>0.0614089</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102052</v>
+        <v>0.101517</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0957327</v>
+        <v>0.0956724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06680560000000001</v>
+        <v>0.0670631</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129562</v>
+        <v>0.128787</v>
       </c>
       <c r="C136" t="n">
-        <v>0.12145</v>
+        <v>0.122354</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0772366</v>
+        <v>0.07677639999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163182</v>
+        <v>0.164031</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166426</v>
+        <v>0.165077</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0638862</v>
+        <v>0.06333950000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470113</v>
+        <v>0.0470549</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06352289999999999</v>
+        <v>0.0632079</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0647977</v>
+        <v>0.0640231</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479224</v>
+        <v>0.0480791</v>
       </c>
       <c r="C139" t="n">
-        <v>0.064549</v>
+        <v>0.0642736</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0652663</v>
+        <v>0.0649166</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493556</v>
+        <v>0.0495321</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0657046</v>
+        <v>0.0655254</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0662913</v>
+        <v>0.0657495</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0507911</v>
+        <v>0.0505193</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0670499</v>
+        <v>0.0669608</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06696299999999999</v>
+        <v>0.0667801</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529637</v>
+        <v>0.0525535</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0686064</v>
+        <v>0.06899719999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0680906</v>
+        <v>0.0679761</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0559707</v>
+        <v>0.0558117</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07057289999999999</v>
+        <v>0.0705062</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06891890000000001</v>
+        <v>0.06865980000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0196892</v>
+        <v>0.017425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0205489</v>
+        <v>0.0206706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.023324</v>
+        <v>0.0214614</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0225933</v>
+        <v>0.0180827</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0213924</v>
+        <v>0.0209324</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0241176</v>
+        <v>0.0218265</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0263505</v>
+        <v>0.0196227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0229427</v>
+        <v>0.0204691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0255223</v>
+        <v>0.0228491</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0350684</v>
+        <v>0.0314211</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0248822</v>
+        <v>0.0251449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0279774</v>
+        <v>0.024596</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0493659</v>
+        <v>0.0431821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0310223</v>
+        <v>0.0419342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0305618</v>
+        <v>0.0267109</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0677551</v>
+        <v>0.06787360000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0487698</v>
+        <v>0.0492547</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0364061</v>
+        <v>0.0306805</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09178459999999999</v>
+        <v>0.0930593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07724209999999999</v>
+        <v>0.0642839</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0455345</v>
+        <v>0.0384947</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118037</v>
+        <v>0.119024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107397</v>
+        <v>0.116925</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0206157</v>
+        <v>0.0190575</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162904</v>
+        <v>0.0166784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0195115</v>
+        <v>0.0198381</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0206132</v>
+        <v>0.019441</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016671</v>
+        <v>0.0174032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0199556</v>
+        <v>0.0200579</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0209495</v>
+        <v>0.0195882</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172172</v>
+        <v>0.0177187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0201979</v>
+        <v>0.0206072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0213162</v>
+        <v>0.020052</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177089</v>
+        <v>0.0183299</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0205002</v>
+        <v>0.0208742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0216787</v>
+        <v>0.0204884</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0186875</v>
+        <v>0.0193331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0211912</v>
+        <v>0.0215394</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220516</v>
+        <v>0.0206399</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0201073</v>
+        <v>0.020042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0217381</v>
+        <v>0.0221123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0227572</v>
+        <v>0.0208694</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0220044</v>
+        <v>0.0239178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0234882</v>
+        <v>0.0233323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0234176</v>
+        <v>0.0216712</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.025864</v>
+        <v>0.0285533</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0249838</v>
+        <v>0.0249411</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0240275</v>
+        <v>0.0222804</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.030922</v>
+        <v>0.0337364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0282733</v>
+        <v>0.0279257</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0255136</v>
+        <v>0.0238511</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0388726</v>
+        <v>0.0432248</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0322835</v>
+        <v>0.033191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0272644</v>
+        <v>0.0249946</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0504449</v>
+        <v>0.0544961</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0386759</v>
+        <v>0.0395719</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0301811</v>
+        <v>0.0275299</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0687712</v>
+        <v>0.0737444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0537871</v>
+        <v>0.0564518</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0355042</v>
+        <v>0.0323154</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.091865</v>
+        <v>0.0992936</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0774474</v>
+        <v>0.0802905</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0433814</v>
+        <v>0.0399265</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119715</v>
+        <v>0.124628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129961</v>
+        <v>0.123206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0205819</v>
+        <v>0.0191891</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164073</v>
+        <v>0.0165182</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0206024</v>
+        <v>0.020743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0208776</v>
+        <v>0.0194224</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01698</v>
+        <v>0.016968</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0209402</v>
+        <v>0.0212466</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0210307</v>
+        <v>0.0196631</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0177916</v>
+        <v>0.0176458</v>
       </c>
       <c r="C26" t="n">
-        <v>0.021643</v>
+        <v>0.0217605</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0213886</v>
+        <v>0.0199786</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186291</v>
+        <v>0.0184619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0222319</v>
+        <v>0.022438</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0217956</v>
+        <v>0.0203327</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0198841</v>
+        <v>0.0196682</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229706</v>
+        <v>0.023323</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0221628</v>
+        <v>0.0206966</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0219491</v>
+        <v>0.0215768</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0241918</v>
+        <v>0.0242686</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226389</v>
+        <v>0.0212738</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0243691</v>
+        <v>0.0250386</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0256657</v>
+        <v>0.0260817</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0232113</v>
+        <v>0.0218031</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0291217</v>
+        <v>0.0294928</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0280205</v>
+        <v>0.02782</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0242058</v>
+        <v>0.0227664</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0353483</v>
+        <v>0.035506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0319015</v>
+        <v>0.0314293</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0253839</v>
+        <v>0.0238616</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0435022</v>
+        <v>0.0439142</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0377995</v>
+        <v>0.0375393</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0272804</v>
+        <v>0.0256152</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0539581</v>
+        <v>0.0533982</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0445737</v>
+        <v>0.045723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0299802</v>
+        <v>0.0281364</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0698913</v>
+        <v>0.07197770000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0575463</v>
+        <v>0.0596833</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0347925</v>
+        <v>0.0327094</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0919883</v>
+        <v>0.09277489999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0827893</v>
+        <v>0.0852977</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0426618</v>
+        <v>0.04075</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119176</v>
+        <v>0.118841</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122576</v>
+        <v>0.120738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0211012</v>
+        <v>0.0198157</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169162</v>
+        <v>0.0168486</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0220351</v>
+        <v>0.0220758</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0213272</v>
+        <v>0.0200296</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176988</v>
+        <v>0.0176477</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0224762</v>
+        <v>0.0224798</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0215517</v>
+        <v>0.0202701</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0186059</v>
+        <v>0.0185707</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0231545</v>
+        <v>0.0230798</v>
       </c>
       <c r="D40" t="n">
-        <v>0.021849</v>
+        <v>0.0205756</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0198314</v>
+        <v>0.0199694</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239316</v>
+        <v>0.0238746</v>
       </c>
       <c r="D41" t="n">
-        <v>0.022166</v>
+        <v>0.0208687</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0217726</v>
+        <v>0.0214645</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250637</v>
+        <v>0.0249474</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0226333</v>
+        <v>0.0212928</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0245225</v>
+        <v>0.0239714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0263924</v>
+        <v>0.0265063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0231982</v>
+        <v>0.0219073</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0284653</v>
+        <v>0.0270884</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0282397</v>
+        <v>0.0280865</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0237844</v>
+        <v>0.02255</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0319148</v>
+        <v>0.0321452</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0312003</v>
+        <v>0.0311327</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0247748</v>
+        <v>0.0234802</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0391053</v>
+        <v>0.037261</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0359621</v>
+        <v>0.0352817</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0261384</v>
+        <v>0.0248306</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0462096</v>
+        <v>0.045336</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0407115</v>
+        <v>0.0408931</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0280823</v>
+        <v>0.0267351</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0558967</v>
+        <v>0.0550761</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0489897</v>
+        <v>0.0495802</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0309911</v>
+        <v>0.0296221</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0708762</v>
+        <v>0.069578</v>
       </c>
       <c r="C49" t="n">
-        <v>0.062497</v>
+        <v>0.0636618</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0351995</v>
+        <v>0.033803</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0909027</v>
+        <v>0.09064899999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08147550000000001</v>
+        <v>0.082896</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0420517</v>
+        <v>0.0406489</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117657</v>
+        <v>0.117849</v>
       </c>
       <c r="C51" t="n">
-        <v>0.115397</v>
+        <v>0.116156</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0218918</v>
+        <v>0.0206791</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142681</v>
+        <v>0.141868</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162239</v>
+        <v>0.162873</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0221295</v>
+        <v>0.020911</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0189745</v>
+        <v>0.0190684</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238257</v>
+        <v>0.0238134</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0223626</v>
+        <v>0.0211915</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202466</v>
+        <v>0.0203926</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0244567</v>
+        <v>0.024394</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0227371</v>
+        <v>0.0215451</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0215816</v>
+        <v>0.021882</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253024</v>
+        <v>0.0254148</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0230919</v>
+        <v>0.0219105</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0233749</v>
+        <v>0.0237145</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0262653</v>
+        <v>0.0263342</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0235157</v>
+        <v>0.0222691</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0262824</v>
+        <v>0.026164</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0279765</v>
+        <v>0.0277739</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0240472</v>
+        <v>0.0228451</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297446</v>
+        <v>0.0294225</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301437</v>
+        <v>0.0301366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0248084</v>
+        <v>0.0236352</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0339891</v>
+        <v>0.0341655</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0329383</v>
+        <v>0.0326754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0256817</v>
+        <v>0.0245357</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0396425</v>
+        <v>0.0397404</v>
       </c>
       <c r="C60" t="n">
-        <v>0.036643</v>
+        <v>0.0366264</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0269215</v>
+        <v>0.0257377</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468955</v>
+        <v>0.0470877</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0428207</v>
+        <v>0.042593</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0287971</v>
+        <v>0.0276168</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0566949</v>
+        <v>0.0563039</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0505911</v>
+        <v>0.0508575</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0316208</v>
+        <v>0.0304161</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0708104</v>
+        <v>0.0703308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0624123</v>
+        <v>0.06283950000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0358991</v>
+        <v>0.034778</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09035840000000001</v>
+        <v>0.08969290000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0798585</v>
+        <v>0.08050740000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0426408</v>
+        <v>0.0413776</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117739</v>
+        <v>0.115824</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110161</v>
+        <v>0.110533</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0540295</v>
+        <v>0.0524247</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148379</v>
+        <v>0.147895</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156852</v>
+        <v>0.157072</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0225534</v>
+        <v>0.0213344</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198587</v>
+        <v>0.0198291</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245036</v>
+        <v>0.0244669</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0228295</v>
+        <v>0.0216939</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211521</v>
+        <v>0.0209923</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253756</v>
+        <v>0.025271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0231727</v>
+        <v>0.0220901</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227559</v>
+        <v>0.0225464</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262791</v>
+        <v>0.0261769</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0235856</v>
+        <v>0.0223993</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247302</v>
+        <v>0.0246753</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0273832</v>
+        <v>0.0273272</v>
       </c>
       <c r="D70" t="n">
-        <v>0.024006</v>
+        <v>0.0228711</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0274592</v>
+        <v>0.0271931</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0288735</v>
+        <v>0.028668</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0245681</v>
+        <v>0.0234089</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0307824</v>
+        <v>0.0304533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308571</v>
+        <v>0.0308121</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0252461</v>
+        <v>0.0241404</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346611</v>
+        <v>0.0346801</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0336517</v>
+        <v>0.0335387</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0261884</v>
+        <v>0.0250442</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.040013</v>
+        <v>0.0399658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0374232</v>
+        <v>0.0373668</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0274034</v>
+        <v>0.0262585</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.046688</v>
+        <v>0.0466829</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0428836</v>
+        <v>0.0428377</v>
       </c>
       <c r="D75" t="n">
-        <v>0.029329</v>
+        <v>0.0281272</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0558292</v>
+        <v>0.0560458</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504216</v>
+        <v>0.0503467</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0317144</v>
+        <v>0.0307087</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689227</v>
+        <v>0.0688893</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0610859</v>
+        <v>0.0611348</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0355741</v>
+        <v>0.034601</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08752310000000001</v>
+        <v>0.08689230000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.076267</v>
+        <v>0.0763022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0414191</v>
+        <v>0.0404297</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112698</v>
+        <v>0.112334</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101785</v>
+        <v>0.101884</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0513338</v>
+        <v>0.0503454</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144329</v>
+        <v>0.144282</v>
       </c>
       <c r="C80" t="n">
-        <v>0.143919</v>
+        <v>0.144338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0228338</v>
+        <v>0.0216639</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200312</v>
+        <v>0.0204151</v>
       </c>
       <c r="C81" t="n">
-        <v>0.025427</v>
+        <v>0.0252622</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0231491</v>
+        <v>0.0220477</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0215101</v>
+        <v>0.0214533</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0263597</v>
+        <v>0.0261231</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0235808</v>
+        <v>0.0223499</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0229536</v>
+        <v>0.0232602</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272239</v>
+        <v>0.0271856</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0240226</v>
+        <v>0.0227627</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0252999</v>
+        <v>0.0252005</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0284965</v>
+        <v>0.0283416</v>
       </c>
       <c r="D84" t="n">
-        <v>0.024575</v>
+        <v>0.0234261</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272228</v>
+        <v>0.0274968</v>
       </c>
       <c r="C85" t="n">
-        <v>0.030046</v>
+        <v>0.0298451</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0252104</v>
+        <v>0.0240511</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0307241</v>
+        <v>0.0305809</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0319543</v>
+        <v>0.0318339</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0260306</v>
+        <v>0.0247307</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0344081</v>
+        <v>0.0342401</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0343624</v>
+        <v>0.0341429</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0268637</v>
+        <v>0.0257507</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394968</v>
+        <v>0.0393879</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377565</v>
+        <v>0.0376069</v>
       </c>
       <c r="D88" t="n">
-        <v>0.028257</v>
+        <v>0.0271522</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455642</v>
+        <v>0.0458516</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423902</v>
+        <v>0.0423439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0299584</v>
+        <v>0.0287487</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545238</v>
+        <v>0.0546199</v>
       </c>
       <c r="C90" t="n">
-        <v>0.049755</v>
+        <v>0.0494619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0323423</v>
+        <v>0.0312012</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0659645</v>
+        <v>0.0668932</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595405</v>
+        <v>0.0591469</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0357175</v>
+        <v>0.034574</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08321149999999999</v>
+        <v>0.0836688</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0743384</v>
+        <v>0.0736048</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0409061</v>
+        <v>0.039735</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106777</v>
+        <v>0.107115</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0980013</v>
+        <v>0.0970897</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0498072</v>
+        <v>0.048747</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137605</v>
+        <v>0.138463</v>
       </c>
       <c r="C94" t="n">
-        <v>0.137147</v>
+        <v>0.136467</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0246083</v>
+        <v>0.0234684</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205711</v>
+        <v>0.0205464</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0269737</v>
+        <v>0.0270055</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0252306</v>
+        <v>0.0238774</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220057</v>
+        <v>0.0216911</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282769</v>
+        <v>0.0281164</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0258271</v>
+        <v>0.0243885</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0234947</v>
+        <v>0.023095</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0299495</v>
+        <v>0.0302593</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0263848</v>
+        <v>0.0248886</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0254507</v>
+        <v>0.024923</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0328327</v>
+        <v>0.0347161</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0272007</v>
+        <v>0.0259553</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277064</v>
+        <v>0.0271646</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0366016</v>
+        <v>0.0370615</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0284362</v>
+        <v>0.0273105</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302147</v>
+        <v>0.0307002</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404394</v>
+        <v>0.0404177</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0306796</v>
+        <v>0.0293113</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346278</v>
+        <v>0.0346792</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0439235</v>
+        <v>0.0437721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0338944</v>
+        <v>0.0324039</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398852</v>
+        <v>0.039814</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471717</v>
+        <v>0.0471588</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0370951</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.046509</v>
+        <v>0.0461639</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0510048</v>
+        <v>0.0509933</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0403571</v>
+        <v>0.0385039</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0547851</v>
+        <v>0.0543756</v>
       </c>
       <c r="C104" t="n">
-        <v>0.056193</v>
+        <v>0.0560601</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0436828</v>
+        <v>0.0419371</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654656</v>
+        <v>0.0653458</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0631578</v>
+        <v>0.0632561</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0470715</v>
+        <v>0.0453198</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0811883</v>
+        <v>0.0810945</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07441589999999999</v>
+        <v>0.0743244</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0517152</v>
+        <v>0.0493487</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103083</v>
+        <v>0.103557</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09375699999999999</v>
+        <v>0.09374390000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0582156</v>
+        <v>0.0556544</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132711</v>
+        <v>0.13302</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12943</v>
+        <v>0.129173</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0372642</v>
+        <v>0.0354406</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169165</v>
+        <v>0.168949</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181549</v>
+        <v>0.180957</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0383043</v>
+        <v>0.0360628</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312635</v>
+        <v>0.0310321</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431696</v>
+        <v>0.0432798</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0393219</v>
+        <v>0.0372171</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328041</v>
+        <v>0.0328186</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0442537</v>
+        <v>0.0441847</v>
       </c>
       <c r="D111" t="n">
-        <v>0.040138</v>
+        <v>0.0380264</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345031</v>
+        <v>0.0343456</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453602</v>
+        <v>0.0453713</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0411429</v>
+        <v>0.0389397</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358234</v>
+        <v>0.0360997</v>
       </c>
       <c r="C113" t="n">
-        <v>0.046713</v>
+        <v>0.0466586</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0420559</v>
+        <v>0.0397689</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382732</v>
+        <v>0.0383142</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480702</v>
+        <v>0.0480467</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0431292</v>
+        <v>0.0407797</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0408668</v>
+        <v>0.0409179</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498506</v>
+        <v>0.0498197</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0441939</v>
+        <v>0.0418856</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442197</v>
+        <v>0.0440551</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0521857</v>
+        <v>0.0520291</v>
       </c>
       <c r="D116" t="n">
-        <v>0.045535</v>
+        <v>0.0429975</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488549</v>
+        <v>0.0486264</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551381</v>
+        <v>0.0552728</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0470023</v>
+        <v>0.0446934</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.055362</v>
+        <v>0.0555065</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0593971</v>
+        <v>0.0593345</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0491187</v>
+        <v>0.046567</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06493019999999999</v>
+        <v>0.06509760000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652823</v>
+        <v>0.06544220000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0519235</v>
+        <v>0.0490486</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0792839</v>
+        <v>0.0793421</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749734</v>
+        <v>0.0748456</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0556432</v>
+        <v>0.0527986</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10012</v>
+        <v>0.100352</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09127399999999999</v>
+        <v>0.0912905</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0612847</v>
+        <v>0.0584299</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128333</v>
+        <v>0.128511</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121677</v>
+        <v>0.121577</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0713792</v>
+        <v>0.0681272</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163958</v>
+        <v>0.164349</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169969</v>
+        <v>0.169823</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0445775</v>
+        <v>0.0409737</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345405</v>
+        <v>0.0342209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04879</v>
+        <v>0.0483378</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0451801</v>
+        <v>0.041305</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035476</v>
+        <v>0.0357636</v>
       </c>
       <c r="C125" t="n">
-        <v>0.049761</v>
+        <v>0.0493605</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0460846</v>
+        <v>0.0419721</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371607</v>
+        <v>0.0365901</v>
       </c>
       <c r="C126" t="n">
-        <v>0.050926</v>
+        <v>0.0507273</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0469141</v>
+        <v>0.0441417</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387162</v>
+        <v>0.0387116</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0515014</v>
+        <v>0.0523603</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0478945</v>
+        <v>0.045051</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0407365</v>
+        <v>0.0404963</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0537458</v>
+        <v>0.0535247</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0489231</v>
+        <v>0.0460341</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0434058</v>
+        <v>0.0431472</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0556758</v>
+        <v>0.0557908</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0499849</v>
+        <v>0.0470292</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468695</v>
+        <v>0.0463428</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0580401</v>
+        <v>0.0578598</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0515543</v>
+        <v>0.0482488</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0520402</v>
+        <v>0.0509776</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0604226</v>
+        <v>0.0613576</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0528673</v>
+        <v>0.049566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0580089</v>
+        <v>0.0585568</v>
       </c>
       <c r="C132" t="n">
-        <v>0.065459</v>
+        <v>0.0652464</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0551155</v>
+        <v>0.0513835</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06781280000000001</v>
+        <v>0.0680153</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0707305</v>
+        <v>0.0712706</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0577754</v>
+        <v>0.0546454</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0816269</v>
+        <v>0.081673</v>
       </c>
       <c r="C134" t="n">
-        <v>0.079781</v>
+        <v>0.0805587</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0614089</v>
+        <v>0.0581071</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101517</v>
+        <v>0.101628</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0956724</v>
+        <v>0.0957055</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0670631</v>
+        <v>0.0632114</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.128787</v>
+        <v>0.129747</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122354</v>
+        <v>0.121841</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07677639999999999</v>
+        <v>0.0732652</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164031</v>
+        <v>0.163547</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165077</v>
+        <v>0.166069</v>
       </c>
       <c r="D137" t="n">
-        <v>0.06333950000000001</v>
+        <v>0.0590749</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470549</v>
+        <v>0.0470979</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0632079</v>
+        <v>0.0632178</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0640231</v>
+        <v>0.059747</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0480791</v>
+        <v>0.0478108</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0642736</v>
+        <v>0.0643379</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0649166</v>
+        <v>0.0604569</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0495321</v>
+        <v>0.0494619</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0655254</v>
+        <v>0.0654817</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0657495</v>
+        <v>0.0612487</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0505193</v>
+        <v>0.0510391</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0669608</v>
+        <v>0.06947159999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0667801</v>
+        <v>0.061809</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0525535</v>
+        <v>0.0528946</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06899719999999999</v>
+        <v>0.0684254</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0679761</v>
+        <v>0.06297229999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558117</v>
+        <v>0.0558198</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0705062</v>
+        <v>0.0702478</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06865980000000001</v>
+        <v>0.0638128</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.017425</v>
+        <v>0.0186489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0206706</v>
+        <v>0.0207868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0214614</v>
+        <v>0.0213832</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0180827</v>
+        <v>0.0232156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209324</v>
+        <v>0.021798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0218265</v>
+        <v>0.0217935</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0196227</v>
+        <v>0.0283954</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0204691</v>
+        <v>0.0230292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0228491</v>
+        <v>0.0227268</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0314211</v>
+        <v>0.0324245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0251449</v>
+        <v>0.0253911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.024596</v>
+        <v>0.02484</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0431821</v>
+        <v>0.0498313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0419342</v>
+        <v>0.0311269</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0267109</v>
+        <v>0.026876</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06787360000000001</v>
+        <v>0.0632822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0492547</v>
+        <v>0.0510533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0306805</v>
+        <v>0.0303418</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0930593</v>
+        <v>0.0907845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0642839</v>
+        <v>0.0628068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0384947</v>
+        <v>0.0378458</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119024</v>
+        <v>0.118843</v>
       </c>
       <c r="C9" t="n">
-        <v>0.116925</v>
+        <v>0.105961</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0190575</v>
+        <v>0.0190703</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0166784</v>
+        <v>0.0163718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198381</v>
+        <v>0.0198199</v>
       </c>
       <c r="D10" t="n">
-        <v>0.019441</v>
+        <v>0.019289</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0174032</v>
+        <v>0.0167571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0200579</v>
+        <v>0.0201908</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0195882</v>
+        <v>0.01959</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0177187</v>
+        <v>0.0173754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0206072</v>
+        <v>0.0206704</v>
       </c>
       <c r="D12" t="n">
-        <v>0.020052</v>
+        <v>0.0199444</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183299</v>
+        <v>0.0180238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0208742</v>
+        <v>0.0210503</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0204884</v>
+        <v>0.0203222</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0193331</v>
+        <v>0.0191632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0215394</v>
+        <v>0.0214882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0206399</v>
+        <v>0.0205685</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.020042</v>
+        <v>0.0204397</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221123</v>
+        <v>0.0218656</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0208694</v>
+        <v>0.0208884</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0239178</v>
+        <v>0.0217262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0233323</v>
+        <v>0.0233345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0216712</v>
+        <v>0.0217298</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0285533</v>
+        <v>0.0260285</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0249411</v>
+        <v>0.0249009</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0222804</v>
+        <v>0.0222321</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0337364</v>
+        <v>0.0314963</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0279257</v>
+        <v>0.0289146</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0238511</v>
+        <v>0.0236133</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0432248</v>
+        <v>0.0407697</v>
       </c>
       <c r="C19" t="n">
-        <v>0.033191</v>
+        <v>0.0402298</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0249946</v>
+        <v>0.0250322</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0544961</v>
+        <v>0.0521287</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0395719</v>
+        <v>0.0400323</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0275299</v>
+        <v>0.0276783</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0737444</v>
+        <v>0.06944980000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0564518</v>
+        <v>0.0650958</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0323154</v>
+        <v>0.0318694</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0992936</v>
+        <v>0.0942798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0802905</v>
+        <v>0.08048959999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0399265</v>
+        <v>0.0397278</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124628</v>
+        <v>0.117364</v>
       </c>
       <c r="C23" t="n">
-        <v>0.123206</v>
+        <v>0.127782</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0191891</v>
+        <v>0.0192117</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165182</v>
+        <v>0.0162627</v>
       </c>
       <c r="C24" t="n">
-        <v>0.020743</v>
+        <v>0.0207346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0194224</v>
+        <v>0.019433</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.016968</v>
+        <v>0.0169338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0212466</v>
+        <v>0.0211356</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0196631</v>
+        <v>0.0196654</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0176458</v>
+        <v>0.0177129</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0217605</v>
+        <v>0.0217764</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0199786</v>
+        <v>0.0199637</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0184619</v>
+        <v>0.018575</v>
       </c>
       <c r="C27" t="n">
-        <v>0.022438</v>
+        <v>0.0223529</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0203327</v>
+        <v>0.0203448</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0196682</v>
+        <v>0.0201232</v>
       </c>
       <c r="C28" t="n">
-        <v>0.023323</v>
+        <v>0.0233307</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0206966</v>
+        <v>0.0206933</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0215768</v>
+        <v>0.0225983</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0242686</v>
+        <v>0.024107</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212738</v>
+        <v>0.0212904</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0250386</v>
+        <v>0.0259831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0260817</v>
+        <v>0.0260151</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0218031</v>
+        <v>0.0218152</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0294928</v>
+        <v>0.0310991</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02782</v>
+        <v>0.0280054</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0227664</v>
+        <v>0.0227709</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.035506</v>
+        <v>0.0353303</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0314293</v>
+        <v>0.0313618</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0238616</v>
+        <v>0.0238614</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0439142</v>
+        <v>0.0444741</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0375393</v>
+        <v>0.0375607</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0256152</v>
+        <v>0.0256184</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0533982</v>
+        <v>0.0570228</v>
       </c>
       <c r="C34" t="n">
-        <v>0.045723</v>
+        <v>0.0463367</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0281364</v>
+        <v>0.0281331</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07197770000000001</v>
+        <v>0.07221370000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0596833</v>
+        <v>0.0589717</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0327094</v>
+        <v>0.0328492</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09277489999999999</v>
+        <v>0.09359240000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0852977</v>
+        <v>0.0839353</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04075</v>
+        <v>0.0409992</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118841</v>
+        <v>0.118662</v>
       </c>
       <c r="C37" t="n">
-        <v>0.120738</v>
+        <v>0.121583</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0198157</v>
+        <v>0.0198389</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0168486</v>
+        <v>0.01713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0220758</v>
+        <v>0.0220839</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200296</v>
+        <v>0.0200306</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176477</v>
+        <v>0.0178523</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0224798</v>
+        <v>0.0224408</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202701</v>
+        <v>0.0202684</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185707</v>
+        <v>0.0189676</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0230798</v>
+        <v>0.0231505</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0205756</v>
+        <v>0.0206006</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199694</v>
+        <v>0.0202141</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238746</v>
+        <v>0.0238473</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0208687</v>
+        <v>0.0208783</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0214645</v>
+        <v>0.0219545</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0249474</v>
+        <v>0.0250461</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212928</v>
+        <v>0.0212961</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0239714</v>
+        <v>0.0243013</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0265063</v>
+        <v>0.0264749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0219073</v>
+        <v>0.0219003</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0270884</v>
+        <v>0.0279098</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0280865</v>
+        <v>0.0283043</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02255</v>
+        <v>0.0225366</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0321452</v>
+        <v>0.0319047</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0311327</v>
+        <v>0.0312971</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234802</v>
+        <v>0.0235108</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.037261</v>
+        <v>0.0378357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0352817</v>
+        <v>0.0354874</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0248306</v>
+        <v>0.0248231</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.045336</v>
+        <v>0.044831</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0408931</v>
+        <v>0.0416854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0267351</v>
+        <v>0.0267609</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0550761</v>
+        <v>0.0562974</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0495802</v>
+        <v>0.0497524</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0296221</v>
+        <v>0.0296437</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.069578</v>
+        <v>0.0708042</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0636618</v>
+        <v>0.0646306</v>
       </c>
       <c r="D49" t="n">
-        <v>0.033803</v>
+        <v>0.0337854</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09064899999999999</v>
+        <v>0.0932393</v>
       </c>
       <c r="C50" t="n">
-        <v>0.082896</v>
+        <v>0.08396240000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0406489</v>
+        <v>0.0405825</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117849</v>
+        <v>0.117524</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116156</v>
+        <v>0.116048</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0206791</v>
+        <v>0.0207372</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141868</v>
+        <v>0.142651</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162873</v>
+        <v>0.162527</v>
       </c>
       <c r="D52" t="n">
-        <v>0.020911</v>
+        <v>0.0209451</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190684</v>
+        <v>0.0191191</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238134</v>
+        <v>0.0237999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0211915</v>
+        <v>0.0211992</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203926</v>
+        <v>0.0202185</v>
       </c>
       <c r="C54" t="n">
-        <v>0.024394</v>
+        <v>0.0243634</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215451</v>
+        <v>0.0215531</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021882</v>
+        <v>0.021745</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254148</v>
+        <v>0.0252771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0219105</v>
+        <v>0.0218997</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237145</v>
+        <v>0.023701</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0263342</v>
+        <v>0.0262969</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0222691</v>
+        <v>0.0223091</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026164</v>
+        <v>0.0264434</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0277739</v>
+        <v>0.0278864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0228451</v>
+        <v>0.0228379</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0294225</v>
+        <v>0.0297471</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301366</v>
+        <v>0.0300827</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0236352</v>
+        <v>0.0235831</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0341655</v>
+        <v>0.0338117</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0326754</v>
+        <v>0.0325678</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0245357</v>
+        <v>0.0244814</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0397404</v>
+        <v>0.0392948</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0366264</v>
+        <v>0.0365457</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0257377</v>
+        <v>0.0257116</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0470877</v>
+        <v>0.0468503</v>
       </c>
       <c r="C61" t="n">
-        <v>0.042593</v>
+        <v>0.0424175</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0276168</v>
+        <v>0.0276333</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0563039</v>
+        <v>0.0560382</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0508575</v>
+        <v>0.0508742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0304161</v>
+        <v>0.030392</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0703308</v>
+        <v>0.06910529999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06283950000000001</v>
+        <v>0.06271359999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.034778</v>
+        <v>0.0347503</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08969290000000001</v>
+        <v>0.0887269</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08050740000000001</v>
+        <v>0.08013770000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0413776</v>
+        <v>0.0412929</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115824</v>
+        <v>0.114333</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110533</v>
+        <v>0.110415</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0524247</v>
+        <v>0.0524028</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147895</v>
+        <v>0.146567</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157072</v>
+        <v>0.156749</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0213344</v>
+        <v>0.0213432</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198291</v>
+        <v>0.0195041</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0244669</v>
+        <v>0.0243983</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216939</v>
+        <v>0.0216502</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209923</v>
+        <v>0.0209272</v>
       </c>
       <c r="C68" t="n">
-        <v>0.025271</v>
+        <v>0.025286</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0220901</v>
+        <v>0.021944</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225464</v>
+        <v>0.0223342</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0261769</v>
+        <v>0.0261928</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0223993</v>
+        <v>0.0223578</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246753</v>
+        <v>0.0242194</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0273272</v>
+        <v>0.0273402</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0228711</v>
+        <v>0.0228635</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271931</v>
+        <v>0.0268842</v>
       </c>
       <c r="C71" t="n">
-        <v>0.028668</v>
+        <v>0.0287958</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0234089</v>
+        <v>0.023407</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304533</v>
+        <v>0.0302039</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308121</v>
+        <v>0.0308078</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0241404</v>
+        <v>0.0241539</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346801</v>
+        <v>0.0341581</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335387</v>
+        <v>0.0335272</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0250442</v>
+        <v>0.0250258</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399658</v>
+        <v>0.0391885</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0373668</v>
+        <v>0.0372939</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0262585</v>
+        <v>0.0263236</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466829</v>
+        <v>0.0460359</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0428377</v>
+        <v>0.0428203</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0281272</v>
+        <v>0.0281724</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560458</v>
+        <v>0.0557296</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0503467</v>
+        <v>0.0504158</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0307087</v>
+        <v>0.0307544</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0688893</v>
+        <v>0.0685825</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611348</v>
+        <v>0.0611085</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034601</v>
+        <v>0.0345853</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08689230000000001</v>
+        <v>0.0869347</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763022</v>
+        <v>0.0763366</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0404297</v>
+        <v>0.0404681</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112334</v>
+        <v>0.11194</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101884</v>
+        <v>0.101913</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0503454</v>
+        <v>0.0504679</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144282</v>
+        <v>0.143431</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144338</v>
+        <v>0.144133</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0216639</v>
+        <v>0.0217204</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0204151</v>
+        <v>0.0200524</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0252622</v>
+        <v>0.0253929</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0220477</v>
+        <v>0.0221187</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214533</v>
+        <v>0.0214425</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261231</v>
+        <v>0.0262098</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0223499</v>
+        <v>0.0225306</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0232602</v>
+        <v>0.0228745</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271856</v>
+        <v>0.0272064</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0227627</v>
+        <v>0.0229053</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0252005</v>
+        <v>0.025134</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283416</v>
+        <v>0.0283722</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0234261</v>
+        <v>0.0234708</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274968</v>
+        <v>0.0273403</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298451</v>
+        <v>0.0298506</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0240511</v>
+        <v>0.0241054</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0305809</v>
+        <v>0.0304355</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318339</v>
+        <v>0.0318066</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0247307</v>
+        <v>0.0248904</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342401</v>
+        <v>0.0343658</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341429</v>
+        <v>0.0341831</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0257507</v>
+        <v>0.0257891</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393879</v>
+        <v>0.0393762</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0376069</v>
+        <v>0.0375968</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0271522</v>
+        <v>0.0270905</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458516</v>
+        <v>0.0458659</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423439</v>
+        <v>0.0423127</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0287487</v>
+        <v>0.0287629</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0546199</v>
+        <v>0.0544939</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0494619</v>
+        <v>0.0494034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0312012</v>
+        <v>0.031171</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0668932</v>
+        <v>0.0665109</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0591469</v>
+        <v>0.0590572</v>
       </c>
       <c r="D91" t="n">
-        <v>0.034574</v>
+        <v>0.0346441</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0836688</v>
+        <v>0.0838983</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0736048</v>
+        <v>0.0736448</v>
       </c>
       <c r="D92" t="n">
-        <v>0.039735</v>
+        <v>0.0397423</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107115</v>
+        <v>0.107178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0970897</v>
+        <v>0.09718599999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.048747</v>
+        <v>0.0486863</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138463</v>
+        <v>0.138905</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136467</v>
+        <v>0.136292</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0234684</v>
+        <v>0.023352</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205464</v>
+        <v>0.0209228</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270055</v>
+        <v>0.0271083</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0238774</v>
+        <v>0.0238038</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216911</v>
+        <v>0.021753</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0281164</v>
+        <v>0.0284006</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0243885</v>
+        <v>0.0244228</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023095</v>
+        <v>0.0237617</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0302593</v>
+        <v>0.0304241</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0248886</v>
+        <v>0.0251046</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.024923</v>
+        <v>0.0250234</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0347161</v>
+        <v>0.033361</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0259553</v>
+        <v>0.0258222</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0271646</v>
+        <v>0.0272629</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0370615</v>
+        <v>0.036968</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0273105</v>
+        <v>0.0272485</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0307002</v>
+        <v>0.0304635</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404177</v>
+        <v>0.0404754</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0293113</v>
+        <v>0.0292834</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346792</v>
+        <v>0.0347848</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437721</v>
+        <v>0.0437827</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0324039</v>
+        <v>0.0321085</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039814</v>
+        <v>0.0397841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471588</v>
+        <v>0.0472254</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0355</v>
+        <v>0.0352971</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0461639</v>
+        <v>0.0460158</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509933</v>
+        <v>0.0508658</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0385039</v>
+        <v>0.0382804</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543756</v>
+        <v>0.0541909</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560601</v>
+        <v>0.0559938</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0419371</v>
+        <v>0.0414312</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653458</v>
+        <v>0.06556960000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0632561</v>
+        <v>0.0632134</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0453198</v>
+        <v>0.0449902</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0810945</v>
+        <v>0.0806091</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743244</v>
+        <v>0.0744528</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0493487</v>
+        <v>0.0493748</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103557</v>
+        <v>0.103055</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09374390000000001</v>
+        <v>0.0937504</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0556544</v>
+        <v>0.0557692</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13302</v>
+        <v>0.132786</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129173</v>
+        <v>0.129192</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0354406</v>
+        <v>0.0352761</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168949</v>
+        <v>0.168491</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180957</v>
+        <v>0.18092</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0360628</v>
+        <v>0.0362619</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310321</v>
+        <v>0.0310197</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432798</v>
+        <v>0.0432771</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0372171</v>
+        <v>0.0372971</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0328186</v>
+        <v>0.0329627</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441847</v>
+        <v>0.044178</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0380264</v>
+        <v>0.0381014</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0343456</v>
+        <v>0.0342372</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453713</v>
+        <v>0.046006</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0389397</v>
+        <v>0.0389858</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360997</v>
+        <v>0.0359551</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0466586</v>
+        <v>0.0464169</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0397689</v>
+        <v>0.0399195</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383142</v>
+        <v>0.038254</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480467</v>
+        <v>0.0480288</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0407797</v>
+        <v>0.0407534</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409179</v>
+        <v>0.0409447</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498197</v>
+        <v>0.0498811</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0418856</v>
+        <v>0.0418056</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440551</v>
+        <v>0.0441924</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0520291</v>
+        <v>0.0521334</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0429975</v>
+        <v>0.0431352</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486264</v>
+        <v>0.0488331</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0552728</v>
+        <v>0.0550649</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0446934</v>
+        <v>0.0444943</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0555065</v>
+        <v>0.055239</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0593345</v>
+        <v>0.0592765</v>
       </c>
       <c r="D118" t="n">
-        <v>0.046567</v>
+        <v>0.0464018</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06509760000000001</v>
+        <v>0.06479989999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06544220000000001</v>
+        <v>0.06512419999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0490486</v>
+        <v>0.0490202</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0793421</v>
+        <v>0.0794053</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0748456</v>
+        <v>0.0749194</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0527986</v>
+        <v>0.0527899</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100352</v>
+        <v>0.100075</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912905</v>
+        <v>0.0913147</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0584299</v>
+        <v>0.0584153</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128511</v>
+        <v>0.12843</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121577</v>
+        <v>0.121665</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0681272</v>
+        <v>0.0680999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164349</v>
+        <v>0.164393</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169823</v>
+        <v>0.169794</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0409737</v>
+        <v>0.041807</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342209</v>
+        <v>0.0341168</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0483378</v>
+        <v>0.0484555</v>
       </c>
       <c r="D124" t="n">
-        <v>0.041305</v>
+        <v>0.0415643</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357636</v>
+        <v>0.03556</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0493605</v>
+        <v>0.0499916</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0419721</v>
+        <v>0.0432521</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0365901</v>
+        <v>0.0369289</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0507273</v>
+        <v>0.0508625</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0441417</v>
+        <v>0.0437545</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387116</v>
+        <v>0.0389541</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0523603</v>
+        <v>0.0523969</v>
       </c>
       <c r="D127" t="n">
-        <v>0.045051</v>
+        <v>0.0450828</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404963</v>
+        <v>0.0405043</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0535247</v>
+        <v>0.0537911</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0460341</v>
+        <v>0.045965</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431472</v>
+        <v>0.0430639</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0557908</v>
+        <v>0.0556886</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0470292</v>
+        <v>0.046761</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0463428</v>
+        <v>0.0466291</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0578598</v>
+        <v>0.0580643</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0482488</v>
+        <v>0.0484013</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0509776</v>
+        <v>0.0522344</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0613576</v>
+        <v>0.0611836</v>
       </c>
       <c r="D131" t="n">
-        <v>0.049566</v>
+        <v>0.049585</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0585568</v>
+        <v>0.0585577</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0652464</v>
+        <v>0.06506190000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0513835</v>
+        <v>0.0516096</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0680153</v>
+        <v>0.06780310000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0712706</v>
+        <v>0.07103039999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0546454</v>
+        <v>0.054039</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.081673</v>
+        <v>0.0817561</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0805587</v>
+        <v>0.0810226</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0581071</v>
+        <v>0.058012</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101628</v>
+        <v>0.101731</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0957055</v>
+        <v>0.09596499999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0632114</v>
+        <v>0.06342689999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129747</v>
+        <v>0.129865</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121841</v>
+        <v>0.122043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0732652</v>
+        <v>0.073347</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163547</v>
+        <v>0.165831</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166069</v>
+        <v>0.166555</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0590749</v>
+        <v>0.0586563</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470979</v>
+        <v>0.0470199</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0632178</v>
+        <v>0.0631698</v>
       </c>
       <c r="D138" t="n">
-        <v>0.059747</v>
+        <v>0.0595312</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478108</v>
+        <v>0.0481701</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0643379</v>
+        <v>0.0640777</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0604569</v>
+        <v>0.0600348</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494619</v>
+        <v>0.0495886</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0654817</v>
+        <v>0.06526469999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0612487</v>
+        <v>0.0609479</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510391</v>
+        <v>0.0505855</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06947159999999999</v>
+        <v>0.0666134</v>
       </c>
       <c r="D141" t="n">
-        <v>0.061809</v>
+        <v>0.0618539</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0528946</v>
+        <v>0.0530862</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0684254</v>
+        <v>0.0681807</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06297229999999999</v>
+        <v>0.0626736</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558198</v>
+        <v>0.0553827</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0702478</v>
+        <v>0.0701045</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0638128</v>
+        <v>0.06363820000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0186489</v>
+        <v>0.0187688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0207868</v>
+        <v>0.0205691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213832</v>
+        <v>0.0213433</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0232156</v>
+        <v>0.022503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.021798</v>
+        <v>0.0215137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0217935</v>
+        <v>0.021777</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0283954</v>
+        <v>0.0280381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0230292</v>
+        <v>0.022387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0227268</v>
+        <v>0.0230225</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0324245</v>
+        <v>0.0366591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0253911</v>
+        <v>0.0268249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02484</v>
+        <v>0.0246493</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0498313</v>
+        <v>0.0447063</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0311269</v>
+        <v>0.0473203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.026876</v>
+        <v>0.0269076</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0632822</v>
+        <v>0.0660319</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0510533</v>
+        <v>0.0508533</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0303418</v>
+        <v>0.0304566</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0907845</v>
+        <v>0.0854852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0628068</v>
+        <v>0.0804687</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0378458</v>
+        <v>0.0376512</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118843</v>
+        <v>0.116171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105961</v>
+        <v>0.126633</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0190703</v>
+        <v>0.0192937</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163718</v>
+        <v>0.0165244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0198199</v>
+        <v>0.019932</v>
       </c>
       <c r="D10" t="n">
-        <v>0.019289</v>
+        <v>0.0194483</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167571</v>
+        <v>0.0169325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0201908</v>
+        <v>0.0201109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01959</v>
+        <v>0.0196849</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173754</v>
+        <v>0.0173425</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0206704</v>
+        <v>0.0204662</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0199444</v>
+        <v>0.0198471</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180238</v>
+        <v>0.0179157</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0210503</v>
+        <v>0.0207391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0203222</v>
+        <v>0.0202743</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0191632</v>
+        <v>0.018759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0214882</v>
+        <v>0.0216582</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205685</v>
+        <v>0.0205887</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204397</v>
+        <v>0.0192391</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0218656</v>
+        <v>0.0213564</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0208884</v>
+        <v>0.0209891</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0217262</v>
+        <v>0.0216241</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0233345</v>
+        <v>0.0232475</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0217298</v>
+        <v>0.0217399</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0260285</v>
+        <v>0.0266886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0249009</v>
+        <v>0.0246573</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0222321</v>
+        <v>0.0223383</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0314963</v>
+        <v>0.0316265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0289146</v>
+        <v>0.0276818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0236133</v>
+        <v>0.0236961</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0407697</v>
+        <v>0.0402736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0402298</v>
+        <v>0.0310256</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0250322</v>
+        <v>0.0251209</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0521287</v>
+        <v>0.0528824</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0400323</v>
+        <v>0.0394641</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0276783</v>
+        <v>0.0274718</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06944980000000001</v>
+        <v>0.07129539999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0650958</v>
+        <v>0.0544396</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0318694</v>
+        <v>0.0320999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0942798</v>
+        <v>0.0950631</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08048959999999999</v>
+        <v>0.07907069999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0397278</v>
+        <v>0.0396368</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.117364</v>
+        <v>0.123308</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127782</v>
+        <v>0.125827</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0192117</v>
+        <v>0.019163</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0162627</v>
+        <v>0.0164206</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0207346</v>
+        <v>0.0207147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.019433</v>
+        <v>0.0194337</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0169338</v>
+        <v>0.0172286</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0211356</v>
+        <v>0.0212345</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0196654</v>
+        <v>0.0196453</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0177129</v>
+        <v>0.0178646</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0217764</v>
+        <v>0.0216947</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0199637</v>
+        <v>0.0199738</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018575</v>
+        <v>0.0185674</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0223529</v>
+        <v>0.0223938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0203448</v>
+        <v>0.0203364</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201232</v>
+        <v>0.0201329</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0233307</v>
+        <v>0.0232904</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0206933</v>
+        <v>0.0206939</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0225983</v>
+        <v>0.0217399</v>
       </c>
       <c r="C29" t="n">
-        <v>0.024107</v>
+        <v>0.024362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212904</v>
+        <v>0.0212545</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0259831</v>
+        <v>0.0252447</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0260151</v>
+        <v>0.0260649</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0218152</v>
+        <v>0.0218471</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0310991</v>
+        <v>0.0288431</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0280054</v>
+        <v>0.0282104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0227709</v>
+        <v>0.0227625</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0353303</v>
+        <v>0.034547</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0313618</v>
+        <v>0.0316516</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0238614</v>
+        <v>0.0239016</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0444741</v>
+        <v>0.0423339</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0375607</v>
+        <v>0.0366957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0256184</v>
+        <v>0.0256454</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0570228</v>
+        <v>0.0541105</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0463367</v>
+        <v>0.0461831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0281331</v>
+        <v>0.0280818</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07221370000000001</v>
+        <v>0.07027070000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0589717</v>
+        <v>0.0595749</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0328492</v>
+        <v>0.0328481</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09359240000000001</v>
+        <v>0.08958389999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0839353</v>
+        <v>0.0831437</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0409992</v>
+        <v>0.0408005</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118662</v>
+        <v>0.116506</v>
       </c>
       <c r="C37" t="n">
-        <v>0.121583</v>
+        <v>0.12127</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0198389</v>
+        <v>0.0198147</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01713</v>
+        <v>0.0170022</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0220839</v>
+        <v>0.0220279</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200306</v>
+        <v>0.0200186</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178523</v>
+        <v>0.0176771</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0224408</v>
+        <v>0.0224655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202684</v>
+        <v>0.0202849</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0189676</v>
+        <v>0.0185895</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0231505</v>
+        <v>0.0231357</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0206006</v>
+        <v>0.0205948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202141</v>
+        <v>0.0199019</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238473</v>
+        <v>0.0238315</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0208783</v>
+        <v>0.0208726</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0219545</v>
+        <v>0.0215925</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250461</v>
+        <v>0.0250697</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212961</v>
+        <v>0.0212664</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0243013</v>
+        <v>0.0238768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0264749</v>
+        <v>0.0263424</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0219003</v>
+        <v>0.0218798</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0279098</v>
+        <v>0.0267803</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0283043</v>
+        <v>0.0283214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0225366</v>
+        <v>0.022528</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0319047</v>
+        <v>0.0310507</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0312971</v>
+        <v>0.0313919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0235108</v>
+        <v>0.0234859</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0378357</v>
+        <v>0.036858</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0354874</v>
+        <v>0.0356971</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0248231</v>
+        <v>0.024844</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.044831</v>
+        <v>0.0444346</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0416854</v>
+        <v>0.0413264</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0267609</v>
+        <v>0.0267185</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0562974</v>
+        <v>0.054744</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0497524</v>
+        <v>0.0498181</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0296437</v>
+        <v>0.0296044</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0708042</v>
+        <v>0.06916940000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0646306</v>
+        <v>0.0640778</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0337854</v>
+        <v>0.0338156</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0932393</v>
+        <v>0.0895773</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08396240000000001</v>
+        <v>0.0831639</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0405825</v>
+        <v>0.0405977</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117524</v>
+        <v>0.116472</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116048</v>
+        <v>0.115457</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0207372</v>
+        <v>0.0207076</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142651</v>
+        <v>0.141921</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162527</v>
+        <v>0.16257</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0209451</v>
+        <v>0.0209084</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191191</v>
+        <v>0.0191973</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0237999</v>
+        <v>0.0237986</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0211992</v>
+        <v>0.0212654</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202185</v>
+        <v>0.0202882</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0243634</v>
+        <v>0.0243807</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215531</v>
+        <v>0.0215993</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021745</v>
+        <v>0.0218146</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0252771</v>
+        <v>0.0253401</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0218997</v>
+        <v>0.0219866</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.023701</v>
+        <v>0.0237427</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0262969</v>
+        <v>0.0264209</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0223091</v>
+        <v>0.022307</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0264434</v>
+        <v>0.0263241</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0278864</v>
+        <v>0.0278992</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0228379</v>
+        <v>0.022824</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297471</v>
+        <v>0.0295087</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0300827</v>
+        <v>0.0301343</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0235831</v>
+        <v>0.0236048</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338117</v>
+        <v>0.0338681</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0325678</v>
+        <v>0.0326761</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0244814</v>
+        <v>0.0245396</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0392948</v>
+        <v>0.0393866</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0365457</v>
+        <v>0.0366691</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0257116</v>
+        <v>0.0257685</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468503</v>
+        <v>0.0463326</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0424175</v>
+        <v>0.0427367</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0276333</v>
+        <v>0.0276237</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0560382</v>
+        <v>0.0561297</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0508742</v>
+        <v>0.0508938</v>
       </c>
       <c r="D62" t="n">
-        <v>0.030392</v>
+        <v>0.0304419</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06910529999999999</v>
+        <v>0.0708985</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06271359999999999</v>
+        <v>0.06273769999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0347503</v>
+        <v>0.0347636</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0887269</v>
+        <v>0.08916259999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08013770000000001</v>
+        <v>0.0802865</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0412929</v>
+        <v>0.0413248</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.114333</v>
+        <v>0.115707</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110415</v>
+        <v>0.110473</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0524028</v>
+        <v>0.0524273</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146567</v>
+        <v>0.147085</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156749</v>
+        <v>0.157309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0213432</v>
+        <v>0.0213648</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0195041</v>
+        <v>0.0196158</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0243983</v>
+        <v>0.0245186</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216502</v>
+        <v>0.0216446</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209272</v>
+        <v>0.0209649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.025286</v>
+        <v>0.0252814</v>
       </c>
       <c r="D68" t="n">
-        <v>0.021944</v>
+        <v>0.022055</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0223342</v>
+        <v>0.0224</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0261928</v>
+        <v>0.0262781</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0223578</v>
+        <v>0.0224113</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0242194</v>
+        <v>0.0243</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0273402</v>
+        <v>0.0273557</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0228635</v>
+        <v>0.0228531</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0268842</v>
+        <v>0.0267498</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0287958</v>
+        <v>0.0287546</v>
       </c>
       <c r="D71" t="n">
-        <v>0.023407</v>
+        <v>0.0234337</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0302039</v>
+        <v>0.0299719</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308078</v>
+        <v>0.0307193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0241539</v>
+        <v>0.0241513</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0341581</v>
+        <v>0.0340807</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335272</v>
+        <v>0.0335221</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0250258</v>
+        <v>0.0250661</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0391885</v>
+        <v>0.0395005</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0372939</v>
+        <v>0.0374146</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0263236</v>
+        <v>0.0263489</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0460359</v>
+        <v>0.0463148</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0428203</v>
+        <v>0.0427711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0281724</v>
+        <v>0.0281823</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0557296</v>
+        <v>0.0555741</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504158</v>
+        <v>0.0504024</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0307544</v>
+        <v>0.0307206</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0685825</v>
+        <v>0.068521</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611085</v>
+        <v>0.0611807</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0345853</v>
+        <v>0.034602</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0869347</v>
+        <v>0.08700189999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763366</v>
+        <v>0.0763317</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0404681</v>
+        <v>0.0404336</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11194</v>
+        <v>0.111947</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101913</v>
+        <v>0.101908</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0504679</v>
+        <v>0.0504965</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143431</v>
+        <v>0.144213</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144133</v>
+        <v>0.14436</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0217204</v>
+        <v>0.0217627</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200524</v>
+        <v>0.0199807</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253929</v>
+        <v>0.0253801</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0221187</v>
+        <v>0.0219921</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214425</v>
+        <v>0.0213688</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0262098</v>
+        <v>0.0262369</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0225306</v>
+        <v>0.0223762</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228745</v>
+        <v>0.0227371</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272064</v>
+        <v>0.0271538</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0229053</v>
+        <v>0.0228205</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.025134</v>
+        <v>0.0247351</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283722</v>
+        <v>0.028341</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0234708</v>
+        <v>0.0234038</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0273403</v>
+        <v>0.0274221</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298506</v>
+        <v>0.0298742</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0241054</v>
+        <v>0.0240162</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304355</v>
+        <v>0.0303751</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318066</v>
+        <v>0.0318237</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0248904</v>
+        <v>0.0247881</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343658</v>
+        <v>0.0341622</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341831</v>
+        <v>0.0341399</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0257891</v>
+        <v>0.0257151</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393762</v>
+        <v>0.0391821</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0375968</v>
+        <v>0.0376122</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0270905</v>
+        <v>0.0271182</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458659</v>
+        <v>0.0455663</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423127</v>
+        <v>0.0423832</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0287629</v>
+        <v>0.0287837</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544939</v>
+        <v>0.0545329</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0494034</v>
+        <v>0.0494682</v>
       </c>
       <c r="D90" t="n">
-        <v>0.031171</v>
+        <v>0.0311475</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0665109</v>
+        <v>0.0663876</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0590572</v>
+        <v>0.0591721</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0346441</v>
+        <v>0.0345039</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0838983</v>
+        <v>0.08357340000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0736448</v>
+        <v>0.073572</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0397423</v>
+        <v>0.039906</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107178</v>
+        <v>0.107215</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09718599999999999</v>
+        <v>0.0972765</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0486863</v>
+        <v>0.0488455</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138905</v>
+        <v>0.137872</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136292</v>
+        <v>0.136247</v>
       </c>
       <c r="D94" t="n">
-        <v>0.023352</v>
+        <v>0.0233165</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0209228</v>
+        <v>0.0206117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0271083</v>
+        <v>0.02689</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0238038</v>
+        <v>0.0237679</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.021753</v>
+        <v>0.0216676</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0284006</v>
+        <v>0.028142</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0244228</v>
+        <v>0.0243586</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0237617</v>
+        <v>0.0231689</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0304241</v>
+        <v>0.0300217</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0251046</v>
+        <v>0.0250307</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0250234</v>
+        <v>0.0251367</v>
       </c>
       <c r="C98" t="n">
-        <v>0.033361</v>
+        <v>0.0330421</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0258222</v>
+        <v>0.0256677</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272629</v>
+        <v>0.0277109</v>
       </c>
       <c r="C99" t="n">
-        <v>0.036968</v>
+        <v>0.0366247</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0272485</v>
+        <v>0.0271874</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0304635</v>
+        <v>0.0303698</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404754</v>
+        <v>0.04051</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0292834</v>
+        <v>0.0291937</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347848</v>
+        <v>0.0344418</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437827</v>
+        <v>0.0438612</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0321085</v>
+        <v>0.0320881</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397841</v>
+        <v>0.0398086</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0472254</v>
+        <v>0.0472696</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0352971</v>
+        <v>0.0354375</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0460158</v>
+        <v>0.0463926</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0508658</v>
+        <v>0.0513367</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0382804</v>
+        <v>0.03869</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0541909</v>
+        <v>0.0540853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0559938</v>
+        <v>0.056106</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0414312</v>
+        <v>0.041863</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06556960000000001</v>
+        <v>0.0653609</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0632134</v>
+        <v>0.0631717</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0449902</v>
+        <v>0.045086</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0806091</v>
+        <v>0.0807303</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0744528</v>
+        <v>0.0743774</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0493748</v>
+        <v>0.0493902</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103055</v>
+        <v>0.102685</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0937504</v>
+        <v>0.093671</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0557692</v>
+        <v>0.0558721</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132786</v>
+        <v>0.13241</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129192</v>
+        <v>0.129376</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0352761</v>
+        <v>0.0354259</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168491</v>
+        <v>0.168428</v>
       </c>
       <c r="C109" t="n">
-        <v>0.18092</v>
+        <v>0.1811</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0362619</v>
+        <v>0.0363972</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0310197</v>
+        <v>0.0312774</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432771</v>
+        <v>0.0432078</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0372971</v>
+        <v>0.0373553</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329627</v>
+        <v>0.0326629</v>
       </c>
       <c r="C111" t="n">
-        <v>0.044178</v>
+        <v>0.0443638</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0381014</v>
+        <v>0.0382834</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342372</v>
+        <v>0.0346123</v>
       </c>
       <c r="C112" t="n">
-        <v>0.046006</v>
+        <v>0.0455032</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0389858</v>
+        <v>0.0390072</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359551</v>
+        <v>0.0364267</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0464169</v>
+        <v>0.0467829</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0399195</v>
+        <v>0.0398735</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.038254</v>
+        <v>0.0382385</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480288</v>
+        <v>0.048099</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0407534</v>
+        <v>0.0408593</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0409447</v>
+        <v>0.0406978</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498811</v>
+        <v>0.049944</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0418056</v>
+        <v>0.0418364</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0441924</v>
+        <v>0.0442227</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0521334</v>
+        <v>0.0522482</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0431352</v>
+        <v>0.0430375</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488331</v>
+        <v>0.0486239</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0550649</v>
+        <v>0.0552485</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0444943</v>
+        <v>0.0444225</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.055239</v>
+        <v>0.0552267</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592765</v>
+        <v>0.0594902</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0464018</v>
+        <v>0.046848</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06479989999999999</v>
+        <v>0.0649262</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06512419999999999</v>
+        <v>0.0656655</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0490202</v>
+        <v>0.0492829</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794053</v>
+        <v>0.0797062</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749194</v>
+        <v>0.0749167</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0527899</v>
+        <v>0.0527824</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100075</v>
+        <v>0.100202</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0913147</v>
+        <v>0.0912234</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0584153</v>
+        <v>0.0583774</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.12843</v>
+        <v>0.128309</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121665</v>
+        <v>0.121673</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0680999</v>
+        <v>0.0682035</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164393</v>
+        <v>0.164203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169794</v>
+        <v>0.169748</v>
       </c>
       <c r="D123" t="n">
-        <v>0.041807</v>
+        <v>0.0408722</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341168</v>
+        <v>0.0342083</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0484555</v>
+        <v>0.0486246</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0415643</v>
+        <v>0.0423592</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03556</v>
+        <v>0.03532</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0499916</v>
+        <v>0.0495701</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0432521</v>
+        <v>0.0422417</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369289</v>
+        <v>0.0365948</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0508625</v>
+        <v>0.0510489</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0437545</v>
+        <v>0.0438765</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0389541</v>
+        <v>0.0385493</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0523969</v>
+        <v>0.0521764</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0450828</v>
+        <v>0.044844</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0405043</v>
+        <v>0.0404825</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0537911</v>
+        <v>0.0537481</v>
       </c>
       <c r="D128" t="n">
-        <v>0.045965</v>
+        <v>0.0456268</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0430639</v>
+        <v>0.04337</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0556886</v>
+        <v>0.0557254</v>
       </c>
       <c r="D129" t="n">
-        <v>0.046761</v>
+        <v>0.0467514</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0466291</v>
+        <v>0.0468534</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0580643</v>
+        <v>0.0580178</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0484013</v>
+        <v>0.048133</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0522344</v>
+        <v>0.0507151</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0611836</v>
+        <v>0.0615712</v>
       </c>
       <c r="D131" t="n">
-        <v>0.049585</v>
+        <v>0.0496921</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0585577</v>
+        <v>0.057161</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06506190000000001</v>
+        <v>0.06542920000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0516096</v>
+        <v>0.051355</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06780310000000001</v>
+        <v>0.06786499999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07103039999999999</v>
+        <v>0.0715065</v>
       </c>
       <c r="D133" t="n">
-        <v>0.054039</v>
+        <v>0.0541067</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0817561</v>
+        <v>0.0815024</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0810226</v>
+        <v>0.081319</v>
       </c>
       <c r="D134" t="n">
-        <v>0.058012</v>
+        <v>0.0575891</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101731</v>
+        <v>0.100927</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09596499999999999</v>
+        <v>0.0956973</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06342689999999999</v>
+        <v>0.06302000000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129865</v>
+        <v>0.1287</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122043</v>
+        <v>0.122508</v>
       </c>
       <c r="D136" t="n">
-        <v>0.073347</v>
+        <v>0.0727264</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165831</v>
+        <v>0.163073</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166555</v>
+        <v>0.166825</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0586563</v>
+        <v>0.0588238</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470199</v>
+        <v>0.0475006</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0631698</v>
+        <v>0.0632981</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0595312</v>
+        <v>0.0597579</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0481701</v>
+        <v>0.0484204</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0640777</v>
+        <v>0.06417920000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0600348</v>
+        <v>0.0603416</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0495886</v>
+        <v>0.0494083</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06526469999999999</v>
+        <v>0.06548660000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0609479</v>
+        <v>0.0612109</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0505855</v>
+        <v>0.0513216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0666134</v>
+        <v>0.0667257</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0618539</v>
+        <v>0.0617767</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0530862</v>
+        <v>0.053439</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0681807</v>
+        <v>0.06841120000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0626736</v>
+        <v>0.063003</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0553827</v>
+        <v>0.0557373</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0701045</v>
+        <v>0.07030649999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06363820000000001</v>
+        <v>0.0637962</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0187688</v>
+        <v>0.0192032</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0205691</v>
+        <v>0.0224355</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0213433</v>
+        <v>0.0219281</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.022503</v>
+        <v>0.0213742</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0215137</v>
+        <v>0.0229022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.021777</v>
+        <v>0.0223052</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0280381</v>
+        <v>0.0266454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.022387</v>
+        <v>0.0253475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0230225</v>
+        <v>0.0232633</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0366591</v>
+        <v>0.0370721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0268249</v>
+        <v>0.0274222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0246493</v>
+        <v>0.0253065</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0447063</v>
+        <v>0.0503008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0473203</v>
+        <v>0.0442359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0269076</v>
+        <v>0.0268668</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0660319</v>
+        <v>0.0698302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0508533</v>
+        <v>0.0590086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0304566</v>
+        <v>0.0310563</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0854852</v>
+        <v>0.0938113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0804687</v>
+        <v>0.0815012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0376512</v>
+        <v>0.0384902</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.116171</v>
+        <v>0.119174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.126633</v>
+        <v>0.106295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0192937</v>
+        <v>0.0538623</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165244</v>
+        <v>0.0165327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.019932</v>
+        <v>0.0203901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0194483</v>
+        <v>0.0193561</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169325</v>
+        <v>0.0171456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0201109</v>
+        <v>0.0206267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0196849</v>
+        <v>0.019829</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173425</v>
+        <v>0.0176652</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0204662</v>
+        <v>0.0212687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198471</v>
+        <v>0.0201766</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179157</v>
+        <v>0.0180958</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0207391</v>
+        <v>0.0218438</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0202743</v>
+        <v>0.0206024</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018759</v>
+        <v>0.0189162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0216582</v>
+        <v>0.0224658</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0205887</v>
+        <v>0.0209189</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0192391</v>
+        <v>0.0212116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0213564</v>
+        <v>0.0226646</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0209891</v>
+        <v>0.0213216</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0216241</v>
+        <v>0.0236443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0232475</v>
+        <v>0.0249771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0217399</v>
+        <v>0.0219913</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0266886</v>
+        <v>0.0276235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0246573</v>
+        <v>0.0261932</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0223383</v>
+        <v>0.0226218</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0316265</v>
+        <v>0.0330883</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0276818</v>
+        <v>0.0294061</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0236961</v>
+        <v>0.0237087</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0402736</v>
+        <v>0.045476</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0310256</v>
+        <v>0.0330071</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0251209</v>
+        <v>0.025124</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0528824</v>
+        <v>0.0538912</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0394641</v>
+        <v>0.0460547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0274718</v>
+        <v>0.0273382</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07129539999999999</v>
+        <v>0.0726449</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0544396</v>
+        <v>0.0546579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0320999</v>
+        <v>0.0316134</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0950631</v>
+        <v>0.0971139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07907069999999999</v>
+        <v>0.0776318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0396368</v>
+        <v>0.0382831</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123308</v>
+        <v>0.121974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.125827</v>
+        <v>0.121552</v>
       </c>
       <c r="D23" t="n">
-        <v>0.019163</v>
+        <v>0.0539376</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164206</v>
+        <v>0.0168068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0207147</v>
+        <v>0.021214</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0194337</v>
+        <v>0.0194959</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172286</v>
+        <v>0.017424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0212345</v>
+        <v>0.0216743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0196453</v>
+        <v>0.0197001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178646</v>
+        <v>0.0178124</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0216947</v>
+        <v>0.0221967</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0199738</v>
+        <v>0.0200345</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0185674</v>
+        <v>0.0188987</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0223938</v>
+        <v>0.0230721</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0203364</v>
+        <v>0.0204121</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201329</v>
+        <v>0.020306</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0232904</v>
+        <v>0.0239126</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0206939</v>
+        <v>0.0207743</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0217399</v>
+        <v>0.0226699</v>
       </c>
       <c r="C29" t="n">
-        <v>0.024362</v>
+        <v>0.0249412</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212545</v>
+        <v>0.0212617</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0252447</v>
+        <v>0.0249523</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0260649</v>
+        <v>0.0270648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0218471</v>
+        <v>0.0217728</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0288431</v>
+        <v>0.0292063</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0282104</v>
+        <v>0.0289175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0227625</v>
+        <v>0.0226895</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.034547</v>
+        <v>0.0353898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0316516</v>
+        <v>0.0326066</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0239016</v>
+        <v>0.0237189</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0423339</v>
+        <v>0.0432839</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0366957</v>
+        <v>0.0379825</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0256454</v>
+        <v>0.025442</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0541105</v>
+        <v>0.0549375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0461831</v>
+        <v>0.0452533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0280818</v>
+        <v>0.0278585</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07027070000000001</v>
+        <v>0.0715985</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0595749</v>
+        <v>0.0582977</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0328481</v>
+        <v>0.0319283</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08958389999999999</v>
+        <v>0.0942321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0831437</v>
+        <v>0.0868905</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0408005</v>
+        <v>0.0388426</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116506</v>
+        <v>0.11889</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12127</v>
+        <v>0.125738</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0198147</v>
+        <v>0.05216</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170022</v>
+        <v>0.0169915</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0220279</v>
+        <v>0.0223819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200186</v>
+        <v>0.0200872</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176771</v>
+        <v>0.0176823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0224655</v>
+        <v>0.0228014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202849</v>
+        <v>0.020295</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0185895</v>
+        <v>0.01871</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0231357</v>
+        <v>0.0234344</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0205948</v>
+        <v>0.020595</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199019</v>
+        <v>0.0202585</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0238315</v>
+        <v>0.024176</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0208726</v>
+        <v>0.0209013</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0215925</v>
+        <v>0.0221948</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250697</v>
+        <v>0.0253358</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212664</v>
+        <v>0.0212947</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0238768</v>
+        <v>0.024003</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0263424</v>
+        <v>0.0268108</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0218798</v>
+        <v>0.0218817</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0267803</v>
+        <v>0.0271824</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0283214</v>
+        <v>0.0284916</v>
       </c>
       <c r="D44" t="n">
-        <v>0.022528</v>
+        <v>0.0224757</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0310507</v>
+        <v>0.0317133</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0313919</v>
+        <v>0.031563</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234859</v>
+        <v>0.0234356</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.036858</v>
+        <v>0.0380306</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0356971</v>
+        <v>0.0350387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.024844</v>
+        <v>0.0246914</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0444346</v>
+        <v>0.0449036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0413264</v>
+        <v>0.0408829</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0267185</v>
+        <v>0.026463</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.054744</v>
+        <v>0.0560763</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0498181</v>
+        <v>0.0495657</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0296044</v>
+        <v>0.0291752</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06916940000000001</v>
+        <v>0.07041699999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0640778</v>
+        <v>0.06306929999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0338156</v>
+        <v>0.0330502</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0895773</v>
+        <v>0.09167169999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0831639</v>
+        <v>0.0823965</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0405977</v>
+        <v>0.0394406</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116472</v>
+        <v>0.117461</v>
       </c>
       <c r="C51" t="n">
-        <v>0.115457</v>
+        <v>0.116227</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0207076</v>
+        <v>0.0514631</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141921</v>
+        <v>0.142897</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16257</v>
+        <v>0.163252</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0209084</v>
+        <v>0.0735451</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0191973</v>
+        <v>0.0192169</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0237986</v>
+        <v>0.0238962</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0212654</v>
+        <v>0.0212657</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0202882</v>
+        <v>0.020403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0243807</v>
+        <v>0.0245015</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215993</v>
+        <v>0.0215833</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218146</v>
+        <v>0.0219909</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253401</v>
+        <v>0.0255103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0219866</v>
+        <v>0.0219565</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237427</v>
+        <v>0.0239456</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264209</v>
+        <v>0.0264713</v>
       </c>
       <c r="D56" t="n">
-        <v>0.022307</v>
+        <v>0.0223333</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263241</v>
+        <v>0.0264337</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0278992</v>
+        <v>0.0279715</v>
       </c>
       <c r="D57" t="n">
-        <v>0.022824</v>
+        <v>0.0228291</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295087</v>
+        <v>0.0296601</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301343</v>
+        <v>0.0301697</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0236048</v>
+        <v>0.0235043</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338681</v>
+        <v>0.0340081</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0326761</v>
+        <v>0.0327219</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0245396</v>
+        <v>0.0243863</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0393866</v>
+        <v>0.0399907</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0366691</v>
+        <v>0.0364001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0257685</v>
+        <v>0.0255494</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0463326</v>
+        <v>0.0470546</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0427367</v>
+        <v>0.0423685</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0276237</v>
+        <v>0.0273117</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0561297</v>
+        <v>0.0564287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0508938</v>
+        <v>0.0504913</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0304419</v>
+        <v>0.0299447</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0708985</v>
+        <v>0.0707913</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06273769999999999</v>
+        <v>0.0621119</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0347636</v>
+        <v>0.0342164</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08916259999999999</v>
+        <v>0.089962</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0802865</v>
+        <v>0.0799748</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0413248</v>
+        <v>0.0407669</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115707</v>
+        <v>0.115563</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110473</v>
+        <v>0.110355</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0524273</v>
+        <v>0.0521182</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147085</v>
+        <v>0.147952</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157309</v>
+        <v>0.157419</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0213648</v>
+        <v>0.0728125</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0196158</v>
+        <v>0.0198752</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245186</v>
+        <v>0.0245376</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216446</v>
+        <v>0.0216161</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209649</v>
+        <v>0.0211953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0252814</v>
+        <v>0.0253384</v>
       </c>
       <c r="D68" t="n">
-        <v>0.022055</v>
+        <v>0.0220138</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0224</v>
+        <v>0.0227307</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262781</v>
+        <v>0.0263138</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0224113</v>
+        <v>0.0224048</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0243</v>
+        <v>0.0247771</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0273557</v>
+        <v>0.0274014</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0228531</v>
+        <v>0.0227682</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0267498</v>
+        <v>0.0271336</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0287546</v>
+        <v>0.0288227</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0234337</v>
+        <v>0.0233384</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0299719</v>
+        <v>0.0305945</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0307193</v>
+        <v>0.0307914</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0241513</v>
+        <v>0.0240041</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0340807</v>
+        <v>0.0345041</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335221</v>
+        <v>0.03361</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0250661</v>
+        <v>0.0248559</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0395005</v>
+        <v>0.0396804</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0374146</v>
+        <v>0.0371949</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0263489</v>
+        <v>0.0261307</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0463148</v>
+        <v>0.0466946</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0427711</v>
+        <v>0.0425993</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0281823</v>
+        <v>0.0278245</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0555741</v>
+        <v>0.0559027</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504024</v>
+        <v>0.0501832</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0307206</v>
+        <v>0.0304165</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068521</v>
+        <v>0.0689611</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611807</v>
+        <v>0.0610428</v>
       </c>
       <c r="D77" t="n">
-        <v>0.034602</v>
+        <v>0.0341667</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08700189999999999</v>
+        <v>0.08728470000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763317</v>
+        <v>0.0761401</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0404336</v>
+        <v>0.0399623</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111947</v>
+        <v>0.112516</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101908</v>
+        <v>0.102335</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0504965</v>
+        <v>0.0511139</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144213</v>
+        <v>0.15108</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14436</v>
+        <v>0.153299</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0217627</v>
+        <v>0.0771506</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199807</v>
+        <v>0.0233447</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253801</v>
+        <v>0.0347786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0219921</v>
+        <v>0.0265682</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213688</v>
+        <v>0.0244199</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0262369</v>
+        <v>0.0362215</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0223762</v>
+        <v>0.0230469</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0227371</v>
+        <v>0.0228233</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271538</v>
+        <v>0.0271132</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0228205</v>
+        <v>0.0227995</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247351</v>
+        <v>0.0249659</v>
       </c>
       <c r="C84" t="n">
-        <v>0.028341</v>
+        <v>0.0283366</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0234038</v>
+        <v>0.0232595</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274221</v>
+        <v>0.0272009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298742</v>
+        <v>0.0298301</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0240162</v>
+        <v>0.0238873</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303751</v>
+        <v>0.0301694</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318237</v>
+        <v>0.0317485</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0247881</v>
+        <v>0.0247079</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341622</v>
+        <v>0.0343311</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341399</v>
+        <v>0.0341553</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0257151</v>
+        <v>0.025578</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0391821</v>
+        <v>0.0389898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0376122</v>
+        <v>0.0377253</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0271182</v>
+        <v>0.026815</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455663</v>
+        <v>0.0455576</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423832</v>
+        <v>0.0425495</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0287837</v>
+        <v>0.0284529</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545329</v>
+        <v>0.0542485</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0494682</v>
+        <v>0.0498232</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0311475</v>
+        <v>0.0308376</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0663876</v>
+        <v>0.06607010000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0591721</v>
+        <v>0.0595336</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0345039</v>
+        <v>0.0343211</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08357340000000001</v>
+        <v>0.0829852</v>
       </c>
       <c r="C92" t="n">
-        <v>0.073572</v>
+        <v>0.0741536</v>
       </c>
       <c r="D92" t="n">
-        <v>0.039906</v>
+        <v>0.0395385</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107215</v>
+        <v>0.10702</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0972765</v>
+        <v>0.097882</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0488455</v>
+        <v>0.0484086</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137872</v>
+        <v>0.137903</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136247</v>
+        <v>0.13637</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0233165</v>
+        <v>0.0646028</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0206117</v>
+        <v>0.0208324</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02689</v>
+        <v>0.0270334</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0237679</v>
+        <v>0.0236629</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216676</v>
+        <v>0.0222893</v>
       </c>
       <c r="C96" t="n">
-        <v>0.028142</v>
+        <v>0.0282558</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0243586</v>
+        <v>0.0240936</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0231689</v>
+        <v>0.0236555</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0300217</v>
+        <v>0.0303013</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0250307</v>
+        <v>0.024522</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251367</v>
+        <v>0.0251669</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0330421</v>
+        <v>0.0331456</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0256677</v>
+        <v>0.0250428</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0277109</v>
+        <v>0.0272386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0366247</v>
+        <v>0.0366422</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0271874</v>
+        <v>0.0257812</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303698</v>
+        <v>0.0304779</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04051</v>
+        <v>0.0403411</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0291937</v>
+        <v>0.0269492</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0344418</v>
+        <v>0.0343875</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0438612</v>
+        <v>0.0436875</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0320881</v>
+        <v>0.0290058</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398086</v>
+        <v>0.039772</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0472696</v>
+        <v>0.0470897</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0354375</v>
+        <v>0.0320197</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463926</v>
+        <v>0.0462683</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0513367</v>
+        <v>0.0509213</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03869</v>
+        <v>0.03565</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0540853</v>
+        <v>0.0544776</v>
       </c>
       <c r="C104" t="n">
-        <v>0.056106</v>
+        <v>0.0561001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.041863</v>
+        <v>0.0396037</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0653609</v>
+        <v>0.06498619999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0631717</v>
+        <v>0.0630317</v>
       </c>
       <c r="D105" t="n">
-        <v>0.045086</v>
+        <v>0.0435914</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0807303</v>
+        <v>0.0807528</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743774</v>
+        <v>0.0742831</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0493902</v>
+        <v>0.0485033</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102685</v>
+        <v>0.102807</v>
       </c>
       <c r="C107" t="n">
-        <v>0.093671</v>
+        <v>0.093545</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0558721</v>
+        <v>0.0551306</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.13241</v>
+        <v>0.132604</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129376</v>
+        <v>0.129241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0354259</v>
+        <v>0.06679359999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168428</v>
+        <v>0.169412</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1811</v>
+        <v>0.181033</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0363972</v>
+        <v>0.09113209999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312774</v>
+        <v>0.0313571</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432078</v>
+        <v>0.0431973</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0373553</v>
+        <v>0.0364716</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0326629</v>
+        <v>0.0327818</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0443638</v>
+        <v>0.0442694</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0382834</v>
+        <v>0.0373617</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0346123</v>
+        <v>0.0344611</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0455032</v>
+        <v>0.0452422</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0390072</v>
+        <v>0.0381532</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0364267</v>
+        <v>0.0362124</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0467829</v>
+        <v>0.046551</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0398735</v>
+        <v>0.039209</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382385</v>
+        <v>0.0382077</v>
       </c>
       <c r="C114" t="n">
-        <v>0.048099</v>
+        <v>0.047976</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0408593</v>
+        <v>0.0400985</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406978</v>
+        <v>0.0406041</v>
       </c>
       <c r="C115" t="n">
-        <v>0.049944</v>
+        <v>0.0498775</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0418364</v>
+        <v>0.0413114</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442227</v>
+        <v>0.0440786</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0522482</v>
+        <v>0.0520478</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0430375</v>
+        <v>0.0424883</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486239</v>
+        <v>0.0488883</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0552485</v>
+        <v>0.0550384</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0444225</v>
+        <v>0.0438761</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552267</v>
+        <v>0.0554476</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0594902</v>
+        <v>0.0593067</v>
       </c>
       <c r="D118" t="n">
-        <v>0.046848</v>
+        <v>0.0458824</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0649262</v>
+        <v>0.0649783</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0656655</v>
+        <v>0.0652874</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0492829</v>
+        <v>0.0484904</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0797062</v>
+        <v>0.0793319</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749167</v>
+        <v>0.0749293</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0527824</v>
+        <v>0.0521152</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100202</v>
+        <v>0.100213</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912234</v>
+        <v>0.0912516</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0583774</v>
+        <v>0.0576961</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128309</v>
+        <v>0.128048</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121673</v>
+        <v>0.12166</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0682035</v>
+        <v>0.0673832</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164203</v>
+        <v>0.163818</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169748</v>
+        <v>0.169755</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0408722</v>
+        <v>0.0867994</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342083</v>
+        <v>0.0338597</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0486246</v>
+        <v>0.0483129</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0423592</v>
+        <v>0.0408755</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03532</v>
+        <v>0.0350641</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0495701</v>
+        <v>0.0495726</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0422417</v>
+        <v>0.0413972</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0365948</v>
+        <v>0.0367419</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0510489</v>
+        <v>0.0505919</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0438765</v>
+        <v>0.0425362</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0385493</v>
+        <v>0.038623</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0521764</v>
+        <v>0.052092</v>
       </c>
       <c r="D127" t="n">
-        <v>0.044844</v>
+        <v>0.0434354</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404825</v>
+        <v>0.0404414</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0537481</v>
+        <v>0.053448</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0456268</v>
+        <v>0.0439355</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.04337</v>
+        <v>0.0431142</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0557254</v>
+        <v>0.0553781</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0467514</v>
+        <v>0.0459275</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0468534</v>
+        <v>0.0467093</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0580178</v>
+        <v>0.057752</v>
       </c>
       <c r="D130" t="n">
-        <v>0.048133</v>
+        <v>0.0471049</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0507151</v>
+        <v>0.0509791</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0615712</v>
+        <v>0.0609072</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0496921</v>
+        <v>0.0485842</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.057161</v>
+        <v>0.0586896</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06542920000000001</v>
+        <v>0.06484230000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.051355</v>
+        <v>0.0507095</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06786499999999999</v>
+        <v>0.0680926</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0715065</v>
+        <v>0.07107769999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0541067</v>
+        <v>0.0531535</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0815024</v>
+        <v>0.0819739</v>
       </c>
       <c r="C134" t="n">
-        <v>0.081319</v>
+        <v>0.0800883</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0575891</v>
+        <v>0.0566641</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.100927</v>
+        <v>0.101879</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0956973</v>
+        <v>0.09492200000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06302000000000001</v>
+        <v>0.062144</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1287</v>
+        <v>0.129939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122508</v>
+        <v>0.121742</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0727264</v>
+        <v>0.0714602</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163073</v>
+        <v>0.164023</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166825</v>
+        <v>0.165938</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0588238</v>
+        <v>0.0889099</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0475006</v>
+        <v>0.0470287</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0632981</v>
+        <v>0.0629749</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0597579</v>
+        <v>0.0582901</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0484204</v>
+        <v>0.0478965</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06417920000000001</v>
+        <v>0.0642335</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0603416</v>
+        <v>0.059043</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494083</v>
+        <v>0.0493359</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06548660000000001</v>
+        <v>0.0653024</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0612109</v>
+        <v>0.0597602</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0513216</v>
+        <v>0.0510517</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0667257</v>
+        <v>0.06666270000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0617767</v>
+        <v>0.0605281</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.053439</v>
+        <v>0.0525179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06841120000000001</v>
+        <v>0.0682642</v>
       </c>
       <c r="D142" t="n">
-        <v>0.063003</v>
+        <v>0.0613669</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557373</v>
+        <v>0.0557147</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07030649999999999</v>
+        <v>0.07025480000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0637962</v>
+        <v>0.0624343</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192032</v>
+        <v>0.018791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0224355</v>
+        <v>0.022123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0219281</v>
+        <v>0.021772</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0213742</v>
+        <v>0.0239231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0229022</v>
+        <v>0.0233451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0223052</v>
+        <v>0.0223678</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0266454</v>
+        <v>0.0275433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0253475</v>
+        <v>0.0252468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0232633</v>
+        <v>0.0233595</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0370721</v>
+        <v>0.0354518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0274222</v>
+        <v>0.0300515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0253065</v>
+        <v>0.0254306</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0503008</v>
+        <v>0.0491422</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0442359</v>
+        <v>0.0464732</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0268668</v>
+        <v>0.0270505</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0698302</v>
+        <v>0.0709152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0590086</v>
+        <v>0.051568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0310563</v>
+        <v>0.0310503</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0938113</v>
+        <v>0.0960715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0815012</v>
+        <v>0.0684955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0384902</v>
+        <v>0.0385343</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119174</v>
+        <v>0.119984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.106295</v>
+        <v>0.109772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0538623</v>
+        <v>0.0541045</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165327</v>
+        <v>0.0163111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0203901</v>
+        <v>0.020413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0193561</v>
+        <v>0.0194858</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0171456</v>
+        <v>0.0167312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206267</v>
+        <v>0.0206373</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019829</v>
+        <v>0.0196526</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0176652</v>
+        <v>0.0173157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212687</v>
+        <v>0.0212357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0201766</v>
+        <v>0.0200332</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180958</v>
+        <v>0.0180611</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0218438</v>
+        <v>0.0218931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0206024</v>
+        <v>0.0205624</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189162</v>
+        <v>0.018898</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0224658</v>
+        <v>0.0222603</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0209189</v>
+        <v>0.020901</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0212116</v>
+        <v>0.020661</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0226646</v>
+        <v>0.0227563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0213216</v>
+        <v>0.0212754</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0236443</v>
+        <v>0.0228078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0249771</v>
+        <v>0.0243133</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0219913</v>
+        <v>0.0219053</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0276235</v>
+        <v>0.0269935</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0261932</v>
+        <v>0.0259801</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0226218</v>
+        <v>0.022497</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0330883</v>
+        <v>0.0318839</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0294061</v>
+        <v>0.029168</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0237087</v>
+        <v>0.0237907</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.045476</v>
+        <v>0.04313</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0330071</v>
+        <v>0.0361335</v>
       </c>
       <c r="D19" t="n">
-        <v>0.025124</v>
+        <v>0.0251564</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0538912</v>
+        <v>0.054293</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0460547</v>
+        <v>0.0441732</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0273382</v>
+        <v>0.0274549</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0726449</v>
+        <v>0.0730616</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0546579</v>
+        <v>0.0589376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0316134</v>
+        <v>0.0315738</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0971139</v>
+        <v>0.0961206</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0776318</v>
+        <v>0.0810096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0382831</v>
+        <v>0.0382574</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121974</v>
+        <v>0.118711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.121552</v>
+        <v>0.120884</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0539376</v>
+        <v>0.0544138</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0168068</v>
+        <v>0.0166056</v>
       </c>
       <c r="C24" t="n">
-        <v>0.021214</v>
+        <v>0.0211146</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0194959</v>
+        <v>0.0194861</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017424</v>
+        <v>0.0172781</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0216743</v>
+        <v>0.0216508</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0197001</v>
+        <v>0.0196857</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178124</v>
+        <v>0.0178797</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0221967</v>
+        <v>0.0223135</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0200345</v>
+        <v>0.0200631</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0188987</v>
+        <v>0.018728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0230721</v>
+        <v>0.0229877</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0204121</v>
+        <v>0.0204035</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.020306</v>
+        <v>0.0198428</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0239126</v>
+        <v>0.0236986</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0207743</v>
+        <v>0.02077</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226699</v>
+        <v>0.0226052</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0249412</v>
+        <v>0.0247864</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212617</v>
+        <v>0.0212241</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0249523</v>
+        <v>0.0251252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0270648</v>
+        <v>0.0264695</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0217728</v>
+        <v>0.0217639</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0292063</v>
+        <v>0.0293893</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0289175</v>
+        <v>0.0290381</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0226895</v>
+        <v>0.022679</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0353898</v>
+        <v>0.0355164</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0326066</v>
+        <v>0.0321475</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0237189</v>
+        <v>0.0237217</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0432839</v>
+        <v>0.0433045</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0379825</v>
+        <v>0.0371917</v>
       </c>
       <c r="D33" t="n">
-        <v>0.025442</v>
+        <v>0.0254795</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0549375</v>
+        <v>0.053921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0452533</v>
+        <v>0.0446216</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0278585</v>
+        <v>0.0277973</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0715985</v>
+        <v>0.06828720000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0582977</v>
+        <v>0.0573041</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0319283</v>
+        <v>0.031838</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0942321</v>
+        <v>0.0896043</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0868905</v>
+        <v>0.0833318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0388426</v>
+        <v>0.0388798</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.11889</v>
+        <v>0.117051</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125738</v>
+        <v>0.124192</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05216</v>
+        <v>0.0522765</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0169915</v>
+        <v>0.0170546</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0223819</v>
+        <v>0.0222878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200872</v>
+        <v>0.0200757</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0176823</v>
+        <v>0.0178671</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0228014</v>
+        <v>0.0227653</v>
       </c>
       <c r="D39" t="n">
-        <v>0.020295</v>
+        <v>0.0202752</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01871</v>
+        <v>0.0188993</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0234344</v>
+        <v>0.0234341</v>
       </c>
       <c r="D40" t="n">
-        <v>0.020595</v>
+        <v>0.0205773</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202585</v>
+        <v>0.0202392</v>
       </c>
       <c r="C41" t="n">
-        <v>0.024176</v>
+        <v>0.0241177</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0209013</v>
+        <v>0.0209106</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221948</v>
+        <v>0.021835</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0253358</v>
+        <v>0.0253319</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212947</v>
+        <v>0.0213005</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024003</v>
+        <v>0.024578</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0268108</v>
+        <v>0.0268615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0218817</v>
+        <v>0.0218797</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0271824</v>
+        <v>0.0277322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0284916</v>
+        <v>0.0284338</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224757</v>
+        <v>0.022504</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0317133</v>
+        <v>0.032755</v>
       </c>
       <c r="C45" t="n">
-        <v>0.031563</v>
+        <v>0.0313771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234356</v>
+        <v>0.0234236</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0380306</v>
+        <v>0.0387156</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0350387</v>
+        <v>0.0359079</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0246914</v>
+        <v>0.0246835</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0449036</v>
+        <v>0.0460514</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0408829</v>
+        <v>0.0408971</v>
       </c>
       <c r="D47" t="n">
-        <v>0.026463</v>
+        <v>0.0265058</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0560763</v>
+        <v>0.0552891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0495657</v>
+        <v>0.0498025</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0291752</v>
+        <v>0.0291913</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07041699999999999</v>
+        <v>0.0711591</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06306929999999999</v>
+        <v>0.0631089</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0330502</v>
+        <v>0.0330408</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09167169999999999</v>
+        <v>0.09212670000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0823965</v>
+        <v>0.0830975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0394406</v>
+        <v>0.0394419</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117461</v>
+        <v>0.116286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116227</v>
+        <v>0.116683</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0514631</v>
+        <v>0.0514673</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142897</v>
+        <v>0.142151</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163252</v>
+        <v>0.162956</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0735451</v>
+        <v>0.07359499999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192169</v>
+        <v>0.019043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238962</v>
+        <v>0.0239217</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0212657</v>
+        <v>0.0212365</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.020403</v>
+        <v>0.0203129</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0245015</v>
+        <v>0.0245059</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215833</v>
+        <v>0.0215649</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219909</v>
+        <v>0.0216658</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0255103</v>
+        <v>0.0254928</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0219565</v>
+        <v>0.0219187</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239456</v>
+        <v>0.0237253</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264713</v>
+        <v>0.0264452</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0223333</v>
+        <v>0.0222868</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0264337</v>
+        <v>0.0261384</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0279715</v>
+        <v>0.0279273</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0228291</v>
+        <v>0.0227634</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0296601</v>
+        <v>0.0295129</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301697</v>
+        <v>0.0300798</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0235043</v>
+        <v>0.0235215</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0340081</v>
+        <v>0.0339122</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0327219</v>
+        <v>0.0327866</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0243863</v>
+        <v>0.0244145</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0399907</v>
+        <v>0.0394325</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0364001</v>
+        <v>0.0365931</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0255494</v>
+        <v>0.0255942</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0470546</v>
+        <v>0.0468243</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0423685</v>
+        <v>0.0424117</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273117</v>
+        <v>0.027375</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0564287</v>
+        <v>0.0565818</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0504913</v>
+        <v>0.0506682</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0299447</v>
+        <v>0.029961</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0707913</v>
+        <v>0.0699997</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0621119</v>
+        <v>0.0628314</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0342164</v>
+        <v>0.0342921</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.089962</v>
+        <v>0.0898114</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0799748</v>
+        <v>0.0800738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0407669</v>
+        <v>0.0407522</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115563</v>
+        <v>0.115671</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110355</v>
+        <v>0.110724</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0521182</v>
+        <v>0.0520505</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147952</v>
+        <v>0.148084</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157419</v>
+        <v>0.157331</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0728125</v>
+        <v>0.0728013</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198752</v>
+        <v>0.0199402</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245376</v>
+        <v>0.024523</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216161</v>
+        <v>0.0216049</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211953</v>
+        <v>0.0210497</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253384</v>
+        <v>0.0253161</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0220138</v>
+        <v>0.0220034</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227307</v>
+        <v>0.0228861</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0263138</v>
+        <v>0.0262818</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0224048</v>
+        <v>0.0223337</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247771</v>
+        <v>0.0246089</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274014</v>
+        <v>0.0274535</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0227682</v>
+        <v>0.022777</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271336</v>
+        <v>0.0272641</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0288227</v>
+        <v>0.0288798</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0233384</v>
+        <v>0.0232926</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305945</v>
+        <v>0.0306269</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0307914</v>
+        <v>0.0308578</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0240041</v>
+        <v>0.0240083</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345041</v>
+        <v>0.0345131</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03361</v>
+        <v>0.0335576</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0248559</v>
+        <v>0.0248849</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0396804</v>
+        <v>0.039993</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0371949</v>
+        <v>0.0372107</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0261307</v>
+        <v>0.0260983</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0466946</v>
+        <v>0.0465815</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0425993</v>
+        <v>0.0426855</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0278245</v>
+        <v>0.0279563</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559027</v>
+        <v>0.05552</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0501832</v>
+        <v>0.0503788</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0304165</v>
+        <v>0.0303833</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0689611</v>
+        <v>0.0684592</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0610428</v>
+        <v>0.0610215</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0341667</v>
+        <v>0.0341323</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08728470000000001</v>
+        <v>0.0864636</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0761401</v>
+        <v>0.0761344</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0399623</v>
+        <v>0.0399166</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112516</v>
+        <v>0.111211</v>
       </c>
       <c r="C79" t="n">
-        <v>0.102335</v>
+        <v>0.101633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0511139</v>
+        <v>0.0497923</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.15108</v>
+        <v>0.143043</v>
       </c>
       <c r="C80" t="n">
-        <v>0.153299</v>
+        <v>0.144129</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0771506</v>
+        <v>0.06767049999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0233447</v>
+        <v>0.0200207</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0347786</v>
+        <v>0.0252747</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0265682</v>
+        <v>0.0220048</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0244199</v>
+        <v>0.0214565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0362215</v>
+        <v>0.0261915</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0230469</v>
+        <v>0.0223013</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228233</v>
+        <v>0.0231802</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271132</v>
+        <v>0.0271496</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0227995</v>
+        <v>0.0227268</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249659</v>
+        <v>0.0250646</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283366</v>
+        <v>0.0283763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0232595</v>
+        <v>0.0233335</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272009</v>
+        <v>0.0275228</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298301</v>
+        <v>0.0298283</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0238873</v>
+        <v>0.0238107</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301694</v>
+        <v>0.0301708</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0317485</v>
+        <v>0.0317526</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0247079</v>
+        <v>0.02467</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343311</v>
+        <v>0.0342</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341553</v>
+        <v>0.0341849</v>
       </c>
       <c r="D87" t="n">
-        <v>0.025578</v>
+        <v>0.0255881</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0389898</v>
+        <v>0.0393871</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377253</v>
+        <v>0.0377155</v>
       </c>
       <c r="D88" t="n">
-        <v>0.026815</v>
+        <v>0.0268066</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455576</v>
+        <v>0.0457873</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425495</v>
+        <v>0.0425107</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284529</v>
+        <v>0.0284777</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0542485</v>
+        <v>0.0545466</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0498232</v>
+        <v>0.0497673</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0308376</v>
+        <v>0.0308601</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06607010000000001</v>
+        <v>0.0666038</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595336</v>
+        <v>0.0594918</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0343211</v>
+        <v>0.0342193</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0829852</v>
+        <v>0.08370329999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0741536</v>
+        <v>0.0741351</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0395385</v>
+        <v>0.0394156</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10702</v>
+        <v>0.107803</v>
       </c>
       <c r="C93" t="n">
-        <v>0.097882</v>
+        <v>0.0979376</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0484086</v>
+        <v>0.0485169</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137903</v>
+        <v>0.138808</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13637</v>
+        <v>0.136454</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0646028</v>
+        <v>0.06466330000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0208324</v>
+        <v>0.02127</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270334</v>
+        <v>0.0269891</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0236629</v>
+        <v>0.0235472</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0222893</v>
+        <v>0.0220992</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282558</v>
+        <v>0.0282153</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240936</v>
+        <v>0.0240221</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236555</v>
+        <v>0.0234736</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0303013</v>
+        <v>0.0299969</v>
       </c>
       <c r="D97" t="n">
-        <v>0.024522</v>
+        <v>0.0245061</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251669</v>
+        <v>0.0253398</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331456</v>
+        <v>0.0328879</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0250428</v>
+        <v>0.0250652</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272386</v>
+        <v>0.0272514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0366422</v>
+        <v>0.0365231</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0257812</v>
+        <v>0.0257697</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0304779</v>
+        <v>0.0303537</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0403411</v>
+        <v>0.0401358</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0269492</v>
+        <v>0.0269123</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0343875</v>
+        <v>0.0346935</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0436875</v>
+        <v>0.0436741</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0290058</v>
+        <v>0.0289308</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.039772</v>
+        <v>0.0397603</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0470897</v>
+        <v>0.0471694</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0320197</v>
+        <v>0.0316542</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462683</v>
+        <v>0.0465859</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509213</v>
+        <v>0.0509566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03565</v>
+        <v>0.0352459</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0544776</v>
+        <v>0.0546005</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0561001</v>
+        <v>0.055891</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0396037</v>
+        <v>0.0392463</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06498619999999999</v>
+        <v>0.0655379</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630317</v>
+        <v>0.0632476</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0435914</v>
+        <v>0.0434657</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0807528</v>
+        <v>0.0814078</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0742831</v>
+        <v>0.0743234</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0485033</v>
+        <v>0.0482824</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102807</v>
+        <v>0.103043</v>
       </c>
       <c r="C107" t="n">
-        <v>0.093545</v>
+        <v>0.0935305</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0551306</v>
+        <v>0.055264</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132604</v>
+        <v>0.132506</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129241</v>
+        <v>0.129308</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06679359999999999</v>
+        <v>0.06694310000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169412</v>
+        <v>0.16885</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181033</v>
+        <v>0.180961</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09113209999999999</v>
+        <v>0.09084680000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313571</v>
+        <v>0.0307942</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431973</v>
+        <v>0.0431713</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0364716</v>
+        <v>0.0364619</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327818</v>
+        <v>0.0321197</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0442694</v>
+        <v>0.0441332</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0373617</v>
+        <v>0.0373382</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0344611</v>
+        <v>0.0341589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0452422</v>
+        <v>0.0453725</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0381532</v>
+        <v>0.038265</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0362124</v>
+        <v>0.0362379</v>
       </c>
       <c r="C113" t="n">
-        <v>0.046551</v>
+        <v>0.0466571</v>
       </c>
       <c r="D113" t="n">
-        <v>0.039209</v>
+        <v>0.0392336</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382077</v>
+        <v>0.0381732</v>
       </c>
       <c r="C114" t="n">
-        <v>0.047976</v>
+        <v>0.0481476</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0400985</v>
+        <v>0.0401964</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406041</v>
+        <v>0.040738</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498775</v>
+        <v>0.0496388</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0413114</v>
+        <v>0.0411598</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440786</v>
+        <v>0.0440308</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0520478</v>
+        <v>0.0521095</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0424883</v>
+        <v>0.0426227</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488883</v>
+        <v>0.0486982</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0550384</v>
+        <v>0.055083</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0438761</v>
+        <v>0.0439792</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554476</v>
+        <v>0.0553205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0593067</v>
+        <v>0.0592419</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0458824</v>
+        <v>0.0458714</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0649783</v>
+        <v>0.0650746</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652874</v>
+        <v>0.0652939</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0484904</v>
+        <v>0.0486347</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0793319</v>
+        <v>0.079378</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749293</v>
+        <v>0.0748313</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0521152</v>
+        <v>0.0522302</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100213</v>
+        <v>0.100318</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912516</v>
+        <v>0.09138309999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0576961</v>
+        <v>0.0575596</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128048</v>
+        <v>0.12849</v>
       </c>
       <c r="C122" t="n">
-        <v>0.12166</v>
+        <v>0.121563</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0673832</v>
+        <v>0.0676172</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163818</v>
+        <v>0.164644</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169755</v>
+        <v>0.170027</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867994</v>
+        <v>0.0867071</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0338597</v>
+        <v>0.0341013</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0483129</v>
+        <v>0.0485332</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0408755</v>
+        <v>0.0408672</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0350641</v>
+        <v>0.0357298</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0495726</v>
+        <v>0.049122</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0413972</v>
+        <v>0.0415066</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0367419</v>
+        <v>0.0369143</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0505919</v>
+        <v>0.0508667</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0425362</v>
+        <v>0.0424116</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.038623</v>
+        <v>0.0384737</v>
       </c>
       <c r="C127" t="n">
-        <v>0.052092</v>
+        <v>0.052175</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0434354</v>
+        <v>0.0431854</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404414</v>
+        <v>0.0405113</v>
       </c>
       <c r="C128" t="n">
-        <v>0.053448</v>
+        <v>0.0537252</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0439355</v>
+        <v>0.0450096</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431142</v>
+        <v>0.0432151</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0553781</v>
+        <v>0.0555917</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0459275</v>
+        <v>0.0458829</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467093</v>
+        <v>0.0470128</v>
       </c>
       <c r="C130" t="n">
-        <v>0.057752</v>
+        <v>0.0574108</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0471049</v>
+        <v>0.0473805</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0509791</v>
+        <v>0.0525045</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0609072</v>
+        <v>0.0612696</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0485842</v>
+        <v>0.0488871</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0586896</v>
+        <v>0.0592458</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06484230000000001</v>
+        <v>0.065314</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0507095</v>
+        <v>0.0510311</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0680926</v>
+        <v>0.0685605</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07107769999999999</v>
+        <v>0.07145079999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0531535</v>
+        <v>0.0530854</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0819739</v>
+        <v>0.08207879999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0800883</v>
+        <v>0.0798798</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0566641</v>
+        <v>0.057095</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101879</v>
+        <v>0.101965</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09492200000000001</v>
+        <v>0.09552819999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.062144</v>
+        <v>0.0624281</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129939</v>
+        <v>0.129798</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121742</v>
+        <v>0.122272</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0714602</v>
+        <v>0.0719491</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164023</v>
+        <v>0.162902</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165938</v>
+        <v>0.165853</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0889099</v>
+        <v>0.0885721</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0470287</v>
+        <v>0.0474674</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0629749</v>
+        <v>0.0634315</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0582901</v>
+        <v>0.058762</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478965</v>
+        <v>0.0479402</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0642335</v>
+        <v>0.0645843</v>
       </c>
       <c r="D139" t="n">
-        <v>0.059043</v>
+        <v>0.0595793</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493359</v>
+        <v>0.0492163</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0653024</v>
+        <v>0.0657109</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0597602</v>
+        <v>0.060193</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510517</v>
+        <v>0.0515991</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06666270000000001</v>
+        <v>0.0669839</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0605281</v>
+        <v>0.0609598</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0525179</v>
+        <v>0.052777</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0682642</v>
+        <v>0.06852179999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0613669</v>
+        <v>0.0618288</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557147</v>
+        <v>0.055485</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07025480000000001</v>
+        <v>0.0704369</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0624343</v>
+        <v>0.0627273</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018791</v>
+        <v>0.0193641</v>
       </c>
       <c r="C2" t="n">
-        <v>0.022123</v>
+        <v>0.0221183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.021772</v>
+        <v>0.0218309</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0239231</v>
+        <v>0.0222355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0233451</v>
+        <v>0.022453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0223678</v>
+        <v>0.0221477</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0275433</v>
+        <v>0.0267739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0252468</v>
+        <v>0.0247045</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0233595</v>
+        <v>0.0234133</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0354518</v>
+        <v>0.0362996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0300515</v>
+        <v>0.0318234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0254306</v>
+        <v>0.0253354</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0491422</v>
+        <v>0.049333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0464732</v>
+        <v>0.0391408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0270505</v>
+        <v>0.0272047</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0709152</v>
+        <v>0.06596200000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.051568</v>
+        <v>0.0617066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0310503</v>
+        <v>0.0308366</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0960715</v>
+        <v>0.09253020000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0684955</v>
+        <v>0.0733854</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0385343</v>
+        <v>0.0380271</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119984</v>
+        <v>0.118294</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109772</v>
+        <v>0.105111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0541045</v>
+        <v>0.053812</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163111</v>
+        <v>0.0164406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.020413</v>
+        <v>0.0203553</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0194858</v>
+        <v>0.0193854</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167312</v>
+        <v>0.0167713</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206373</v>
+        <v>0.0208443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0196526</v>
+        <v>0.019666</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173157</v>
+        <v>0.0174392</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0212357</v>
+        <v>0.021267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200332</v>
+        <v>0.0199957</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180611</v>
+        <v>0.0183505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0218931</v>
+        <v>0.0217654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0205624</v>
+        <v>0.020564</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.018898</v>
+        <v>0.0191521</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0222603</v>
+        <v>0.022339</v>
       </c>
       <c r="D14" t="n">
-        <v>0.020901</v>
+        <v>0.0208713</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.020661</v>
+        <v>0.0208712</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0227563</v>
+        <v>0.0225177</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0212754</v>
+        <v>0.021154</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0228078</v>
+        <v>0.0233907</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0243133</v>
+        <v>0.0244464</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0219053</v>
+        <v>0.0219795</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0269935</v>
+        <v>0.0267318</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0259801</v>
+        <v>0.0260299</v>
       </c>
       <c r="D17" t="n">
-        <v>0.022497</v>
+        <v>0.0225677</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0318839</v>
+        <v>0.0319309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.029168</v>
+        <v>0.0288899</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0237907</v>
+        <v>0.0236379</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.04313</v>
+        <v>0.0413555</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0361335</v>
+        <v>0.0333423</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0251564</v>
+        <v>0.0251409</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.054293</v>
+        <v>0.0534485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0441732</v>
+        <v>0.0397551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0274549</v>
+        <v>0.0273673</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0730616</v>
+        <v>0.07145509999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0589376</v>
+        <v>0.054732</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0315738</v>
+        <v>0.0313295</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0961206</v>
+        <v>0.0948401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0810096</v>
+        <v>0.08906989999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0382574</v>
+        <v>0.0383289</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118711</v>
+        <v>0.124359</v>
       </c>
       <c r="C23" t="n">
-        <v>0.120884</v>
+        <v>0.126756</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0544138</v>
+        <v>0.054293</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166056</v>
+        <v>0.0165907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0211146</v>
+        <v>0.0211904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0194861</v>
+        <v>0.0194879</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172781</v>
+        <v>0.0172882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0216508</v>
+        <v>0.021665</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0196857</v>
+        <v>0.0197081</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178797</v>
+        <v>0.0179704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223135</v>
+        <v>0.0222157</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0200631</v>
+        <v>0.0200477</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.018728</v>
+        <v>0.0189681</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229877</v>
+        <v>0.0230912</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0204035</v>
+        <v>0.020407</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0198428</v>
+        <v>0.0202718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0236986</v>
+        <v>0.0237428</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02077</v>
+        <v>0.0207791</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0226052</v>
+        <v>0.0230313</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0247864</v>
+        <v>0.0247938</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212241</v>
+        <v>0.0212078</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0251252</v>
+        <v>0.0254187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0264695</v>
+        <v>0.0265283</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0217639</v>
+        <v>0.0217611</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0293893</v>
+        <v>0.0304986</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0290381</v>
+        <v>0.0285258</v>
       </c>
       <c r="D31" t="n">
-        <v>0.022679</v>
+        <v>0.0226456</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0355164</v>
+        <v>0.036276</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0321475</v>
+        <v>0.0322783</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0237217</v>
+        <v>0.0236853</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0433045</v>
+        <v>0.0427795</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0371917</v>
+        <v>0.0383598</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0254795</v>
+        <v>0.0254525</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.053921</v>
+        <v>0.0555857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0446216</v>
+        <v>0.0466079</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0277973</v>
+        <v>0.0277653</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06828720000000001</v>
+        <v>0.0716865</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0573041</v>
+        <v>0.0597156</v>
       </c>
       <c r="D35" t="n">
-        <v>0.031838</v>
+        <v>0.0318533</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0896043</v>
+        <v>0.0939816</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0833318</v>
+        <v>0.0849097</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0388798</v>
+        <v>0.0389095</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117051</v>
+        <v>0.118942</v>
       </c>
       <c r="C37" t="n">
-        <v>0.124192</v>
+        <v>0.126116</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0522765</v>
+        <v>0.0522592</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170546</v>
+        <v>0.0171303</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0222878</v>
+        <v>0.0223314</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200757</v>
+        <v>0.0200594</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178671</v>
+        <v>0.0178805</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0227653</v>
+        <v>0.0227581</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202752</v>
+        <v>0.0202543</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188993</v>
+        <v>0.0190106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0234341</v>
+        <v>0.0233575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0205773</v>
+        <v>0.0205498</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202392</v>
+        <v>0.0202432</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241177</v>
+        <v>0.0241016</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0209106</v>
+        <v>0.0208457</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.021835</v>
+        <v>0.0221063</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0253319</v>
+        <v>0.0252826</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0213005</v>
+        <v>0.0212573</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024578</v>
+        <v>0.0246039</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0268615</v>
+        <v>0.0264961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0218797</v>
+        <v>0.0218817</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0277322</v>
+        <v>0.0280299</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0284338</v>
+        <v>0.0282389</v>
       </c>
       <c r="D44" t="n">
-        <v>0.022504</v>
+        <v>0.0224683</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.032755</v>
+        <v>0.0322851</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0313771</v>
+        <v>0.0314092</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234236</v>
+        <v>0.0234106</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0387156</v>
+        <v>0.0381128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0359079</v>
+        <v>0.0351531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0246835</v>
+        <v>0.0246855</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0460514</v>
+        <v>0.045668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0408971</v>
+        <v>0.0408412</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0265058</v>
+        <v>0.0264734</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0552891</v>
+        <v>0.0556228</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0498025</v>
+        <v>0.0491548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0291913</v>
+        <v>0.0291584</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0711591</v>
+        <v>0.07049</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0631089</v>
+        <v>0.06285209999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0330408</v>
+        <v>0.0330352</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09212670000000001</v>
+        <v>0.08987530000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0830975</v>
+        <v>0.0829022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0394419</v>
+        <v>0.0394447</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116286</v>
+        <v>0.116047</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116683</v>
+        <v>0.116336</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0514673</v>
+        <v>0.0514536</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142151</v>
+        <v>0.141899</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162956</v>
+        <v>0.162986</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07359499999999999</v>
+        <v>0.07352069999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.019043</v>
+        <v>0.0190549</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0239217</v>
+        <v>0.0238968</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0212365</v>
+        <v>0.0212283</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203129</v>
+        <v>0.020175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0245059</v>
+        <v>0.0245007</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215649</v>
+        <v>0.0215673</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0216658</v>
+        <v>0.021741</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254928</v>
+        <v>0.025491</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0219187</v>
+        <v>0.021915</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0237253</v>
+        <v>0.0236246</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264452</v>
+        <v>0.0264752</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0222868</v>
+        <v>0.0222704</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0261384</v>
+        <v>0.0263036</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0279273</v>
+        <v>0.0279675</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227634</v>
+        <v>0.0227966</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0295129</v>
+        <v>0.0294592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0300798</v>
+        <v>0.0301559</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0235215</v>
+        <v>0.0235099</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0339122</v>
+        <v>0.0339991</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0327866</v>
+        <v>0.0326752</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0244145</v>
+        <v>0.0243927</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0394325</v>
+        <v>0.0394158</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0365931</v>
+        <v>0.0364055</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0255942</v>
+        <v>0.0255953</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0468243</v>
+        <v>0.0466858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0424117</v>
+        <v>0.0422383</v>
       </c>
       <c r="D61" t="n">
-        <v>0.027375</v>
+        <v>0.0273035</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0565818</v>
+        <v>0.056527</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0506682</v>
+        <v>0.0505921</v>
       </c>
       <c r="D62" t="n">
-        <v>0.029961</v>
+        <v>0.0299655</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0699997</v>
+        <v>0.0702603</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0628314</v>
+        <v>0.062348</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0342921</v>
+        <v>0.0341991</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0898114</v>
+        <v>0.0896501</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0800738</v>
+        <v>0.0800573</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0407522</v>
+        <v>0.0407552</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115671</v>
+        <v>0.115232</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110724</v>
+        <v>0.110407</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0520505</v>
+        <v>0.0520553</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148084</v>
+        <v>0.146242</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157331</v>
+        <v>0.157518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0728013</v>
+        <v>0.07274799999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0199402</v>
+        <v>0.0198374</v>
       </c>
       <c r="C67" t="n">
-        <v>0.024523</v>
+        <v>0.0245192</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216049</v>
+        <v>0.0216054</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210497</v>
+        <v>0.0209677</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253161</v>
+        <v>0.0253083</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0220034</v>
+        <v>0.0219516</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0228861</v>
+        <v>0.0227049</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262818</v>
+        <v>0.0262718</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0223337</v>
+        <v>0.022365</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0246089</v>
+        <v>0.0244164</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274535</v>
+        <v>0.0274618</v>
       </c>
       <c r="D70" t="n">
-        <v>0.022777</v>
+        <v>0.0227804</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0272641</v>
+        <v>0.0269917</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0288798</v>
+        <v>0.028833</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0232926</v>
+        <v>0.0233433</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306269</v>
+        <v>0.0304273</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308578</v>
+        <v>0.0308219</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0240083</v>
+        <v>0.0240071</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345131</v>
+        <v>0.0346962</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335576</v>
+        <v>0.0336101</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0248849</v>
+        <v>0.0249296</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.039993</v>
+        <v>0.0398729</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0372107</v>
+        <v>0.0372041</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0260983</v>
+        <v>0.0260857</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0465815</v>
+        <v>0.0467292</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0426855</v>
+        <v>0.0426802</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0279563</v>
+        <v>0.0279041</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.05552</v>
+        <v>0.0561951</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0503788</v>
+        <v>0.0501195</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0303833</v>
+        <v>0.0303863</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0684592</v>
+        <v>0.06905360000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0610215</v>
+        <v>0.0610736</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0341323</v>
+        <v>0.0341655</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0864636</v>
+        <v>0.08770559999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0761344</v>
+        <v>0.0762916</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0399166</v>
+        <v>0.0400375</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111211</v>
+        <v>0.113023</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101633</v>
+        <v>0.101857</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0497923</v>
+        <v>0.049957</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.143043</v>
+        <v>0.144532</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144129</v>
+        <v>0.144166</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06767049999999999</v>
+        <v>0.0676129</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200207</v>
+        <v>0.0199593</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0252747</v>
+        <v>0.0252419</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0220048</v>
+        <v>0.0219826</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0214565</v>
+        <v>0.0211974</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261915</v>
+        <v>0.0261336</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0223013</v>
+        <v>0.0223711</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231802</v>
+        <v>0.0227751</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271496</v>
+        <v>0.0271549</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0227268</v>
+        <v>0.0228199</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0250646</v>
+        <v>0.0249175</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283763</v>
+        <v>0.0283203</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0233335</v>
+        <v>0.0233076</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275228</v>
+        <v>0.027321</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298283</v>
+        <v>0.0298429</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0238107</v>
+        <v>0.0239036</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301708</v>
+        <v>0.0301861</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0317526</v>
+        <v>0.0318115</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02467</v>
+        <v>0.0245532</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342</v>
+        <v>0.034003</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341849</v>
+        <v>0.0341847</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0255881</v>
+        <v>0.0255793</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0393871</v>
+        <v>0.039096</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377155</v>
+        <v>0.037719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0268066</v>
+        <v>0.0267155</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0457873</v>
+        <v>0.0455711</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425107</v>
+        <v>0.0425467</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284777</v>
+        <v>0.0284254</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545466</v>
+        <v>0.0543449</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0497673</v>
+        <v>0.0497432</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0308601</v>
+        <v>0.0307929</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0666038</v>
+        <v>0.0666605</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0594918</v>
+        <v>0.059531</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0342193</v>
+        <v>0.0342973</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08370329999999999</v>
+        <v>0.0837363</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0741351</v>
+        <v>0.0742025</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0394156</v>
+        <v>0.0394816</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107803</v>
+        <v>0.107412</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0979376</v>
+        <v>0.0978752</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0485169</v>
+        <v>0.0483843</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138808</v>
+        <v>0.138416</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136454</v>
+        <v>0.136486</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06466330000000001</v>
+        <v>0.0645235</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02127</v>
+        <v>0.0204973</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0269891</v>
+        <v>0.0268962</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0235472</v>
+        <v>0.0236173</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220992</v>
+        <v>0.0216763</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282153</v>
+        <v>0.0281639</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240221</v>
+        <v>0.0241226</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0234736</v>
+        <v>0.0236683</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0299969</v>
+        <v>0.0299531</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0245061</v>
+        <v>0.024457</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0253398</v>
+        <v>0.0249478</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0328879</v>
+        <v>0.0329338</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0250652</v>
+        <v>0.0250418</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272514</v>
+        <v>0.0272693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365231</v>
+        <v>0.0365157</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0257697</v>
+        <v>0.0258105</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303537</v>
+        <v>0.0302474</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0401358</v>
+        <v>0.0403727</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0269123</v>
+        <v>0.0269344</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0346935</v>
+        <v>0.034628</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0436741</v>
+        <v>0.0438602</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0289308</v>
+        <v>0.028925</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0397603</v>
+        <v>0.040009</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471694</v>
+        <v>0.0473207</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0316542</v>
+        <v>0.031885</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0465859</v>
+        <v>0.0464151</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509566</v>
+        <v>0.050879</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0352459</v>
+        <v>0.0354485</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546005</v>
+        <v>0.0546813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.055891</v>
+        <v>0.0560481</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0392463</v>
+        <v>0.0394229</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0655379</v>
+        <v>0.06600159999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0632476</v>
+        <v>0.0630812</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0434657</v>
+        <v>0.0435573</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0814078</v>
+        <v>0.0816046</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743234</v>
+        <v>0.07430829999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0482824</v>
+        <v>0.0483026</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103043</v>
+        <v>0.103179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0935305</v>
+        <v>0.0936736</v>
       </c>
       <c r="D107" t="n">
-        <v>0.055264</v>
+        <v>0.0551188</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132506</v>
+        <v>0.132848</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129308</v>
+        <v>0.129071</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06694310000000001</v>
+        <v>0.06679880000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16885</v>
+        <v>0.168598</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180961</v>
+        <v>0.181008</v>
       </c>
       <c r="D109" t="n">
-        <v>0.09084680000000001</v>
+        <v>0.0910214</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0307942</v>
+        <v>0.0312199</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431713</v>
+        <v>0.0431787</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0364619</v>
+        <v>0.0364539</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0321197</v>
+        <v>0.0329088</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441332</v>
+        <v>0.0442409</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0373382</v>
+        <v>0.0373544</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341589</v>
+        <v>0.0340013</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453725</v>
+        <v>0.0452308</v>
       </c>
       <c r="D112" t="n">
-        <v>0.038265</v>
+        <v>0.0383274</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0362379</v>
+        <v>0.0359395</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0466571</v>
+        <v>0.0465986</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0392336</v>
+        <v>0.0391566</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0381732</v>
+        <v>0.0382872</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0481476</v>
+        <v>0.0480527</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0401964</v>
+        <v>0.0401741</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.040738</v>
+        <v>0.0406797</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0496388</v>
+        <v>0.0497919</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0411598</v>
+        <v>0.0411443</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440308</v>
+        <v>0.044303</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0521095</v>
+        <v>0.0520518</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0426227</v>
+        <v>0.0424818</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0486982</v>
+        <v>0.0487698</v>
       </c>
       <c r="C117" t="n">
-        <v>0.055083</v>
+        <v>0.0551184</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0439792</v>
+        <v>0.0440954</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553205</v>
+        <v>0.0552054</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592419</v>
+        <v>0.0592728</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0458714</v>
+        <v>0.0459547</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650746</v>
+        <v>0.06499240000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0652939</v>
+        <v>0.06513149999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0486347</v>
+        <v>0.0486311</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.079378</v>
+        <v>0.07932889999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0748313</v>
+        <v>0.07489220000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0522302</v>
+        <v>0.0521141</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100318</v>
+        <v>0.100039</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09138309999999999</v>
+        <v>0.0913081</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0575596</v>
+        <v>0.0577205</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.12849</v>
+        <v>0.128158</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121563</v>
+        <v>0.121557</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0676172</v>
+        <v>0.0674809</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164644</v>
+        <v>0.163998</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170027</v>
+        <v>0.169895</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867071</v>
+        <v>0.0868353</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341013</v>
+        <v>0.0344064</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0485332</v>
+        <v>0.0484972</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0408672</v>
+        <v>0.0413563</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0357298</v>
+        <v>0.0356893</v>
       </c>
       <c r="C125" t="n">
-        <v>0.049122</v>
+        <v>0.049736</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0415066</v>
+        <v>0.0414453</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0369143</v>
+        <v>0.0371387</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0508667</v>
+        <v>0.0507516</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0424116</v>
+        <v>0.0423541</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384737</v>
+        <v>0.0384103</v>
       </c>
       <c r="C127" t="n">
-        <v>0.052175</v>
+        <v>0.0520671</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0431854</v>
+        <v>0.042954</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0405113</v>
+        <v>0.0403654</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0537252</v>
+        <v>0.0543775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0450096</v>
+        <v>0.0454098</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432151</v>
+        <v>0.0431985</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0555917</v>
+        <v>0.0557898</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0458829</v>
+        <v>0.0459882</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0470128</v>
+        <v>0.0466437</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0574108</v>
+        <v>0.058203</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0473805</v>
+        <v>0.0475016</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0525045</v>
+        <v>0.0520383</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0612696</v>
+        <v>0.0610441</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0488871</v>
+        <v>0.0486321</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0592458</v>
+        <v>0.0588882</v>
       </c>
       <c r="C132" t="n">
-        <v>0.065314</v>
+        <v>0.0651882</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0510311</v>
+        <v>0.0510618</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0685605</v>
+        <v>0.0681523</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07145079999999999</v>
+        <v>0.0711425</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0530854</v>
+        <v>0.0534189</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08207879999999999</v>
+        <v>0.0822783</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0798798</v>
+        <v>0.0804531</v>
       </c>
       <c r="D134" t="n">
-        <v>0.057095</v>
+        <v>0.0569531</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101965</v>
+        <v>0.102109</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09552819999999999</v>
+        <v>0.0955493</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0624281</v>
+        <v>0.062264</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129798</v>
+        <v>0.12958</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122272</v>
+        <v>0.122114</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0719491</v>
+        <v>0.0718695</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162902</v>
+        <v>0.165013</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165853</v>
+        <v>0.16656</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0885721</v>
+        <v>0.0889776</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0474674</v>
+        <v>0.0473248</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0634315</v>
+        <v>0.0630709</v>
       </c>
       <c r="D138" t="n">
-        <v>0.058762</v>
+        <v>0.0583152</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479402</v>
+        <v>0.0482737</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0645843</v>
+        <v>0.06408659999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0595793</v>
+        <v>0.0588881</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492163</v>
+        <v>0.0492849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0657109</v>
+        <v>0.0653</v>
       </c>
       <c r="D140" t="n">
-        <v>0.060193</v>
+        <v>0.0596466</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0515991</v>
+        <v>0.0509024</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0669839</v>
+        <v>0.06666370000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0609598</v>
+        <v>0.0603452</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.052777</v>
+        <v>0.0529671</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06852179999999999</v>
+        <v>0.0681988</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0618288</v>
+        <v>0.0612873</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.055485</v>
+        <v>0.0558487</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0704369</v>
+        <v>0.0701616</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0627273</v>
+        <v>0.0621195</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0193641</v>
+        <v>0.0191222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0221183</v>
+        <v>0.0221753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0218309</v>
+        <v>0.0219199</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0222355</v>
+        <v>0.0226185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.022453</v>
+        <v>0.0228231</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0221477</v>
+        <v>0.0223549</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0267739</v>
+        <v>0.0271481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0247045</v>
+        <v>0.0250579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0234133</v>
+        <v>0.0232776</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0362996</v>
+        <v>0.034719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0318234</v>
+        <v>0.0300654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0253354</v>
+        <v>0.0253802</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.049333</v>
+        <v>0.0498152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0391408</v>
+        <v>0.044878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0272047</v>
+        <v>0.0271247</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06596200000000001</v>
+        <v>0.0675586</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0617066</v>
+        <v>0.0605246</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0308366</v>
+        <v>0.0307405</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09253020000000001</v>
+        <v>0.094569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0733854</v>
+        <v>0.06437130000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0380271</v>
+        <v>0.0378393</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118294</v>
+        <v>0.120627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.105111</v>
+        <v>0.118678</v>
       </c>
       <c r="D9" t="n">
-        <v>0.053812</v>
+        <v>0.0538265</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0164406</v>
+        <v>0.0160762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0203553</v>
+        <v>0.0205685</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0193854</v>
+        <v>0.0193433</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167713</v>
+        <v>0.0165363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0208443</v>
+        <v>0.0206766</v>
       </c>
       <c r="D11" t="n">
-        <v>0.019666</v>
+        <v>0.0198123</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174392</v>
+        <v>0.0171243</v>
       </c>
       <c r="C12" t="n">
-        <v>0.021267</v>
+        <v>0.0214105</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0199957</v>
+        <v>0.0200286</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0183505</v>
+        <v>0.0177962</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0217654</v>
+        <v>0.0219527</v>
       </c>
       <c r="D13" t="n">
-        <v>0.020564</v>
+        <v>0.0205818</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0191521</v>
+        <v>0.0189396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.022339</v>
+        <v>0.0224816</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0208713</v>
+        <v>0.020911</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0208712</v>
+        <v>0.0204571</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0225177</v>
+        <v>0.0230328</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021154</v>
+        <v>0.021184</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0233907</v>
+        <v>0.0228013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0244464</v>
+        <v>0.0247635</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0219795</v>
+        <v>0.0219893</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0267318</v>
+        <v>0.0269125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0260299</v>
+        <v>0.026827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225677</v>
+        <v>0.0225665</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0319309</v>
+        <v>0.0333368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0288899</v>
+        <v>0.0290018</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0236379</v>
+        <v>0.0236237</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0413555</v>
+        <v>0.0428812</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0333423</v>
+        <v>0.0348166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0251409</v>
+        <v>0.0251922</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0534485</v>
+        <v>0.055008</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0397551</v>
+        <v>0.0391739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0273673</v>
+        <v>0.0272921</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07145509999999999</v>
+        <v>0.0724013</v>
       </c>
       <c r="C21" t="n">
-        <v>0.054732</v>
+        <v>0.0605675</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0313295</v>
+        <v>0.0314743</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0948401</v>
+        <v>0.0941398</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08906989999999999</v>
+        <v>0.0831769</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0383289</v>
+        <v>0.0382278</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124359</v>
+        <v>0.123885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126756</v>
+        <v>0.129932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.054293</v>
+        <v>0.0540333</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165907</v>
+        <v>0.0165212</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0211904</v>
+        <v>0.0212123</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0194879</v>
+        <v>0.0195039</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172882</v>
+        <v>0.0172082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.021665</v>
+        <v>0.0217478</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0197081</v>
+        <v>0.0197413</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179704</v>
+        <v>0.0178154</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0222157</v>
+        <v>0.0223509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0200477</v>
+        <v>0.0200703</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189681</v>
+        <v>0.0185455</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0230912</v>
+        <v>0.0230546</v>
       </c>
       <c r="D27" t="n">
-        <v>0.020407</v>
+        <v>0.0204083</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0202718</v>
+        <v>0.0197725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0237428</v>
+        <v>0.023931</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0207791</v>
+        <v>0.0207683</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0230313</v>
+        <v>0.0219913</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0247938</v>
+        <v>0.0249545</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212078</v>
+        <v>0.0212239</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254187</v>
+        <v>0.024795</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0265283</v>
+        <v>0.0264612</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0217611</v>
+        <v>0.0217731</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0304986</v>
+        <v>0.0291739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0285258</v>
+        <v>0.0288774</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0226456</v>
+        <v>0.0226745</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.036276</v>
+        <v>0.0357392</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0322783</v>
+        <v>0.0319449</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236853</v>
+        <v>0.02371</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0427795</v>
+        <v>0.0430786</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0383598</v>
+        <v>0.0369825</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0254525</v>
+        <v>0.0254691</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0555857</v>
+        <v>0.0546809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0466079</v>
+        <v>0.0457001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0277653</v>
+        <v>0.0278112</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0716865</v>
+        <v>0.07011100000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0597156</v>
+        <v>0.058207</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0318533</v>
+        <v>0.0318766</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0939816</v>
+        <v>0.0910854</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0849097</v>
+        <v>0.08250250000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0389095</v>
+        <v>0.0388391</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118942</v>
+        <v>0.116939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126116</v>
+        <v>0.122587</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0522592</v>
+        <v>0.0527892</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171303</v>
+        <v>0.0172414</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0223314</v>
+        <v>0.022339</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200594</v>
+        <v>0.0200635</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178805</v>
+        <v>0.0178038</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0227581</v>
+        <v>0.0227699</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202543</v>
+        <v>0.0202755</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0190106</v>
+        <v>0.0187206</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0233575</v>
+        <v>0.0234004</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0205498</v>
+        <v>0.020572</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202432</v>
+        <v>0.0199685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241016</v>
+        <v>0.0241004</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0208457</v>
+        <v>0.0208626</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221063</v>
+        <v>0.0216322</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0252826</v>
+        <v>0.0252857</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212573</v>
+        <v>0.0212861</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0246039</v>
+        <v>0.0238956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0264961</v>
+        <v>0.0266157</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0218817</v>
+        <v>0.0218634</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0280299</v>
+        <v>0.0267506</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0282389</v>
+        <v>0.0284231</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224683</v>
+        <v>0.0224841</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0322851</v>
+        <v>0.03249</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0314092</v>
+        <v>0.0312861</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234106</v>
+        <v>0.0234383</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0381128</v>
+        <v>0.0369957</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0351531</v>
+        <v>0.0354827</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0246855</v>
+        <v>0.0247116</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.045668</v>
+        <v>0.0447954</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0408412</v>
+        <v>0.0408119</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0264734</v>
+        <v>0.0264962</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0556228</v>
+        <v>0.0549165</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0491548</v>
+        <v>0.0492111</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0291584</v>
+        <v>0.0291708</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07049</v>
+        <v>0.0690747</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06285209999999999</v>
+        <v>0.0627923</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0330352</v>
+        <v>0.0330481</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.08987530000000001</v>
+        <v>0.0909499</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0829022</v>
+        <v>0.0827176</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0394447</v>
+        <v>0.0393694</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116047</v>
+        <v>0.117598</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116336</v>
+        <v>0.116149</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0514536</v>
+        <v>0.0514301</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141899</v>
+        <v>0.143171</v>
       </c>
       <c r="C52" t="n">
-        <v>0.162986</v>
+        <v>0.16274</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07352069999999999</v>
+        <v>0.0736798</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190549</v>
+        <v>0.0190724</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238968</v>
+        <v>0.0239272</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0212283</v>
+        <v>0.0212254</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.020175</v>
+        <v>0.0204823</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0245007</v>
+        <v>0.0244834</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215673</v>
+        <v>0.0215714</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.021741</v>
+        <v>0.0219348</v>
       </c>
       <c r="C55" t="n">
-        <v>0.025491</v>
+        <v>0.0255182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.021915</v>
+        <v>0.0218934</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236246</v>
+        <v>0.024033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264752</v>
+        <v>0.0265436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0222704</v>
+        <v>0.0222963</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263036</v>
+        <v>0.0263068</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0279675</v>
+        <v>0.0279734</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227966</v>
+        <v>0.0227856</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0294592</v>
+        <v>0.0298704</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0301559</v>
+        <v>0.03013</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0235099</v>
+        <v>0.023492</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0339991</v>
+        <v>0.0347844</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0326752</v>
+        <v>0.0327083</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0243927</v>
+        <v>0.0244508</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0394158</v>
+        <v>0.040254</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0364055</v>
+        <v>0.0364242</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0255953</v>
+        <v>0.025563</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0466858</v>
+        <v>0.0477802</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0422383</v>
+        <v>0.0424944</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273035</v>
+        <v>0.0273934</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056527</v>
+        <v>0.0573777</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0505921</v>
+        <v>0.0505335</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0299655</v>
+        <v>0.0300639</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0702603</v>
+        <v>0.07166359999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.062348</v>
+        <v>0.0626863</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0341991</v>
+        <v>0.0343007</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0896501</v>
+        <v>0.091574</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0800573</v>
+        <v>0.0800302</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0407552</v>
+        <v>0.0407699</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115232</v>
+        <v>0.117557</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110407</v>
+        <v>0.110692</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0520553</v>
+        <v>0.0521448</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146242</v>
+        <v>0.148172</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157518</v>
+        <v>0.157446</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07274799999999999</v>
+        <v>0.0727759</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198374</v>
+        <v>0.0200618</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245192</v>
+        <v>0.0244818</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216054</v>
+        <v>0.0216503</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0209677</v>
+        <v>0.0210852</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253083</v>
+        <v>0.0253152</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0219516</v>
+        <v>0.022023</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227049</v>
+        <v>0.0227494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262718</v>
+        <v>0.0262873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.022365</v>
+        <v>0.0224164</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0244164</v>
+        <v>0.0248685</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274618</v>
+        <v>0.0274412</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0227804</v>
+        <v>0.0227833</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0269917</v>
+        <v>0.0273725</v>
       </c>
       <c r="C71" t="n">
-        <v>0.028833</v>
+        <v>0.0288693</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0233433</v>
+        <v>0.0233287</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304273</v>
+        <v>0.0306128</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308219</v>
+        <v>0.0308071</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0240071</v>
+        <v>0.0239854</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346962</v>
+        <v>0.0347687</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0336101</v>
+        <v>0.0335899</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0249296</v>
+        <v>0.0249085</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0398729</v>
+        <v>0.040187</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0372041</v>
+        <v>0.0372285</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0260857</v>
+        <v>0.026083</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467292</v>
+        <v>0.0472456</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0426802</v>
+        <v>0.042678</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0279041</v>
+        <v>0.0278925</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0561951</v>
+        <v>0.0567248</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0501195</v>
+        <v>0.050233</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0303863</v>
+        <v>0.0303711</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06905360000000001</v>
+        <v>0.0698073</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0610736</v>
+        <v>0.0611316</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0341655</v>
+        <v>0.0341542</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08770559999999999</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0762916</v>
+        <v>0.0763235</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0400375</v>
+        <v>0.0401159</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113023</v>
+        <v>0.11331</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101857</v>
+        <v>0.101744</v>
       </c>
       <c r="D79" t="n">
-        <v>0.049957</v>
+        <v>0.0499459</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144532</v>
+        <v>0.144227</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144166</v>
+        <v>0.144295</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0676129</v>
+        <v>0.06764050000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199593</v>
+        <v>0.0200894</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0252419</v>
+        <v>0.0253027</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0219826</v>
+        <v>0.0219795</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0211974</v>
+        <v>0.0212921</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261336</v>
+        <v>0.0261513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0223711</v>
+        <v>0.0223035</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0227751</v>
+        <v>0.0228647</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271549</v>
+        <v>0.0271097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0228199</v>
+        <v>0.0227337</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249175</v>
+        <v>0.0249335</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283203</v>
+        <v>0.0283136</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0233076</v>
+        <v>0.0232343</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.027321</v>
+        <v>0.0272316</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298429</v>
+        <v>0.0298375</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0239036</v>
+        <v>0.0238702</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301861</v>
+        <v>0.0301743</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318115</v>
+        <v>0.0317126</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0245532</v>
+        <v>0.0246452</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.034003</v>
+        <v>0.0340236</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0341847</v>
+        <v>0.034148</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0255793</v>
+        <v>0.0255607</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039096</v>
+        <v>0.0390723</v>
       </c>
       <c r="C88" t="n">
-        <v>0.037719</v>
+        <v>0.037751</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267155</v>
+        <v>0.0267836</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455711</v>
+        <v>0.0460559</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425467</v>
+        <v>0.0425288</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284254</v>
+        <v>0.0284359</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0543449</v>
+        <v>0.054593</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0497432</v>
+        <v>0.0496809</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307929</v>
+        <v>0.0308366</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0666605</v>
+        <v>0.0667961</v>
       </c>
       <c r="C91" t="n">
-        <v>0.059531</v>
+        <v>0.059412</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0342973</v>
+        <v>0.0341731</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0837363</v>
+        <v>0.08383640000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0742025</v>
+        <v>0.0741314</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0394816</v>
+        <v>0.0394557</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107412</v>
+        <v>0.10731</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978752</v>
+        <v>0.09778100000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0483843</v>
+        <v>0.0485218</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138416</v>
+        <v>0.138403</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136486</v>
+        <v>0.13649</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0645235</v>
+        <v>0.0646489</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0204973</v>
+        <v>0.0207579</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0268962</v>
+        <v>0.0271537</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0236173</v>
+        <v>0.0235872</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0216763</v>
+        <v>0.0220136</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0281639</v>
+        <v>0.028179</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0241226</v>
+        <v>0.0240448</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0236683</v>
+        <v>0.023077</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0299531</v>
+        <v>0.0300869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.024457</v>
+        <v>0.0245484</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0249478</v>
+        <v>0.0254445</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0329338</v>
+        <v>0.032836</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0250418</v>
+        <v>0.0251482</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0272693</v>
+        <v>0.0275311</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365157</v>
+        <v>0.0366396</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0258105</v>
+        <v>0.0257975</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0302474</v>
+        <v>0.0303637</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0403727</v>
+        <v>0.040328</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0269344</v>
+        <v>0.0269617</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034628</v>
+        <v>0.0347004</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0438602</v>
+        <v>0.0437259</v>
       </c>
       <c r="D101" t="n">
-        <v>0.028925</v>
+        <v>0.0289654</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.040009</v>
+        <v>0.0398364</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0473207</v>
+        <v>0.0471297</v>
       </c>
       <c r="D102" t="n">
-        <v>0.031885</v>
+        <v>0.0317725</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0464151</v>
+        <v>0.0461676</v>
       </c>
       <c r="C103" t="n">
-        <v>0.050879</v>
+        <v>0.0509659</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0354485</v>
+        <v>0.035412</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546813</v>
+        <v>0.0546696</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560481</v>
+        <v>0.0560009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0394229</v>
+        <v>0.039482</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06600159999999999</v>
+        <v>0.0657181</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630812</v>
+        <v>0.06307450000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0435573</v>
+        <v>0.0435564</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0816046</v>
+        <v>0.08121299999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07430829999999999</v>
+        <v>0.07417849999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0483026</v>
+        <v>0.0484542</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103179</v>
+        <v>0.103525</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0936736</v>
+        <v>0.0935264</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0551188</v>
+        <v>0.0551374</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132848</v>
+        <v>0.133258</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129071</v>
+        <v>0.129185</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06679880000000001</v>
+        <v>0.0668377</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168598</v>
+        <v>0.169236</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181008</v>
+        <v>0.181142</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0910214</v>
+        <v>0.0911571</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0312199</v>
+        <v>0.0313588</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431787</v>
+        <v>0.0432086</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0364539</v>
+        <v>0.0365405</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329088</v>
+        <v>0.0325638</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0442409</v>
+        <v>0.0441279</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0373544</v>
+        <v>0.0375315</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0340013</v>
+        <v>0.034204</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0452308</v>
+        <v>0.0452885</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0383274</v>
+        <v>0.0381633</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0359395</v>
+        <v>0.0360627</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0465986</v>
+        <v>0.0465507</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0391566</v>
+        <v>0.0392386</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382872</v>
+        <v>0.0380653</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480527</v>
+        <v>0.048125</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0401741</v>
+        <v>0.0401866</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406797</v>
+        <v>0.0405815</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0497919</v>
+        <v>0.0499138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0411443</v>
+        <v>0.041259</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.044303</v>
+        <v>0.0440883</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0520518</v>
+        <v>0.0521436</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0424818</v>
+        <v>0.0424896</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487698</v>
+        <v>0.0487619</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551184</v>
+        <v>0.0550871</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0440954</v>
+        <v>0.0439565</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552054</v>
+        <v>0.0552633</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592728</v>
+        <v>0.0592292</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0459547</v>
+        <v>0.0459974</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06499240000000001</v>
+        <v>0.06506919999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06513149999999999</v>
+        <v>0.06523139999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0486311</v>
+        <v>0.0485222</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07932889999999999</v>
+        <v>0.07928839999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07489220000000001</v>
+        <v>0.07483049999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0521141</v>
+        <v>0.0522444</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100039</v>
+        <v>0.100007</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0913081</v>
+        <v>0.091262</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0577205</v>
+        <v>0.0575954</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128158</v>
+        <v>0.128229</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121557</v>
+        <v>0.122208</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0674809</v>
+        <v>0.06735389999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163998</v>
+        <v>0.164192</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169895</v>
+        <v>0.169906</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0868353</v>
+        <v>0.0867589</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0344064</v>
+        <v>0.0342806</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0484972</v>
+        <v>0.0488267</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0413563</v>
+        <v>0.0408479</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0356893</v>
+        <v>0.0354407</v>
       </c>
       <c r="C125" t="n">
-        <v>0.049736</v>
+        <v>0.0495899</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0414453</v>
+        <v>0.0419617</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371387</v>
+        <v>0.0370811</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0507516</v>
+        <v>0.0503811</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0423541</v>
+        <v>0.0429215</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0384103</v>
+        <v>0.0383242</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0520671</v>
+        <v>0.0517641</v>
       </c>
       <c r="D127" t="n">
-        <v>0.042954</v>
+        <v>0.0438556</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0403654</v>
+        <v>0.0412068</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0543775</v>
+        <v>0.0532487</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0454098</v>
+        <v>0.0449234</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0431985</v>
+        <v>0.0434394</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0557898</v>
+        <v>0.0550596</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0459882</v>
+        <v>0.0457603</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0466437</v>
+        <v>0.0476824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.058203</v>
+        <v>0.057509</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0475016</v>
+        <v>0.0470924</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0520383</v>
+        <v>0.0522553</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0610441</v>
+        <v>0.0606347</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0486321</v>
+        <v>0.0487204</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0588882</v>
+        <v>0.0588633</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0651882</v>
+        <v>0.0654913</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0510618</v>
+        <v>0.0503463</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0681523</v>
+        <v>0.06867239999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0711425</v>
+        <v>0.0715052</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0534189</v>
+        <v>0.0528783</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0822783</v>
+        <v>0.08217380000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0804531</v>
+        <v>0.0805386</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0569531</v>
+        <v>0.0569078</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102109</v>
+        <v>0.102443</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0955493</v>
+        <v>0.09472029999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.062264</v>
+        <v>0.0624778</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.12958</v>
+        <v>0.130197</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122114</v>
+        <v>0.122088</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0718695</v>
+        <v>0.0713713</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165013</v>
+        <v>0.167465</v>
       </c>
       <c r="C137" t="n">
-        <v>0.16656</v>
+        <v>0.166653</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0889776</v>
+        <v>0.08962920000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0473248</v>
+        <v>0.046984</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0630709</v>
+        <v>0.06344669999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0583152</v>
+        <v>0.0588657</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0482737</v>
+        <v>0.0485908</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06408659999999999</v>
+        <v>0.06455900000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0588881</v>
+        <v>0.0595652</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492849</v>
+        <v>0.0492293</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0653</v>
+        <v>0.06572020000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0596466</v>
+        <v>0.0602697</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509024</v>
+        <v>0.0508288</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06666370000000001</v>
+        <v>0.0670634</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0603452</v>
+        <v>0.0610836</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529671</v>
+        <v>0.0527181</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0681988</v>
+        <v>0.0686262</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0612873</v>
+        <v>0.0620034</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558487</v>
+        <v>0.05575</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0701616</v>
+        <v>0.0704796</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0621195</v>
+        <v>0.0628826</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0191222</v>
+        <v>0.0187351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0221753</v>
+        <v>0.0201243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0219199</v>
+        <v>0.0235468</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0226185</v>
+        <v>0.0207877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0228231</v>
+        <v>0.0203494</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0223549</v>
+        <v>0.0237306</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0271481</v>
+        <v>0.0283538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0250579</v>
+        <v>0.0211926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0232776</v>
+        <v>0.0249004</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.034719</v>
+        <v>0.032841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0300654</v>
+        <v>0.022717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0253802</v>
+        <v>0.0270704</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0498152</v>
+        <v>0.0509577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.044878</v>
+        <v>0.0303865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0271247</v>
+        <v>0.0289327</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675586</v>
+        <v>0.06363240000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0605246</v>
+        <v>0.0529063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0307405</v>
+        <v>0.0338365</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.094569</v>
+        <v>0.087521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06437130000000001</v>
+        <v>0.0618548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0378393</v>
+        <v>0.0412133</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.120627</v>
+        <v>0.115419</v>
       </c>
       <c r="C9" t="n">
-        <v>0.118678</v>
+        <v>0.107999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0538265</v>
+        <v>0.0205392</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0160762</v>
+        <v>0.0163658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0205685</v>
+        <v>0.0196999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0193433</v>
+        <v>0.0207562</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0165363</v>
+        <v>0.0167204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0206766</v>
+        <v>0.0198963</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0198123</v>
+        <v>0.0211992</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0171243</v>
+        <v>0.0173082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0214105</v>
+        <v>0.0205592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0200286</v>
+        <v>0.0215944</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0177962</v>
+        <v>0.0179286</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0219527</v>
+        <v>0.0208332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0205818</v>
+        <v>0.0217372</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189396</v>
+        <v>0.019131</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0224816</v>
+        <v>0.0207252</v>
       </c>
       <c r="D14" t="n">
-        <v>0.020911</v>
+        <v>0.0220921</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204571</v>
+        <v>0.0199764</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0230328</v>
+        <v>0.021325</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021184</v>
+        <v>0.0225955</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0228013</v>
+        <v>0.0226726</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0247635</v>
+        <v>0.0227391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0219893</v>
+        <v>0.0236057</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0269125</v>
+        <v>0.0265873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.026827</v>
+        <v>0.0238423</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0225665</v>
+        <v>0.0240747</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0333368</v>
+        <v>0.0328511</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0290018</v>
+        <v>0.0271158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0236237</v>
+        <v>0.0252503</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0428812</v>
+        <v>0.0394271</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0348166</v>
+        <v>0.0403336</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0251922</v>
+        <v>0.0268977</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.055008</v>
+        <v>0.0511976</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0391739</v>
+        <v>0.0387739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0272921</v>
+        <v>0.0293487</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0724013</v>
+        <v>0.068109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0605675</v>
+        <v>0.06320530000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0314743</v>
+        <v>0.0338012</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0941398</v>
+        <v>0.09634529999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0831769</v>
+        <v>0.0776444</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0382278</v>
+        <v>0.0411517</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.123885</v>
+        <v>0.12237</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129932</v>
+        <v>0.127273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0540333</v>
+        <v>0.0206263</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165212</v>
+        <v>0.0167479</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0212123</v>
+        <v>0.0206666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0195039</v>
+        <v>0.0209119</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172082</v>
+        <v>0.0172732</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0217478</v>
+        <v>0.0210799</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0197413</v>
+        <v>0.0211259</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178154</v>
+        <v>0.0180697</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0223509</v>
+        <v>0.0216289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0200703</v>
+        <v>0.0214966</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0185455</v>
+        <v>0.0191442</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0230546</v>
+        <v>0.0222211</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0204083</v>
+        <v>0.0218726</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0197725</v>
+        <v>0.0200142</v>
       </c>
       <c r="C28" t="n">
-        <v>0.023931</v>
+        <v>0.0229456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0207683</v>
+        <v>0.0222636</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0219913</v>
+        <v>0.0225345</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0249545</v>
+        <v>0.0240224</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212239</v>
+        <v>0.0226965</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.024795</v>
+        <v>0.0258753</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0264612</v>
+        <v>0.0258496</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0217731</v>
+        <v>0.0233196</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0291739</v>
+        <v>0.0299197</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0288774</v>
+        <v>0.027617</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0226745</v>
+        <v>0.0242389</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0357392</v>
+        <v>0.0363131</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0319449</v>
+        <v>0.0318991</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02371</v>
+        <v>0.0253888</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0430786</v>
+        <v>0.0448876</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0369825</v>
+        <v>0.0372132</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0254691</v>
+        <v>0.0270945</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0546809</v>
+        <v>0.054129</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0457001</v>
+        <v>0.0466188</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0278112</v>
+        <v>0.0295842</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07011100000000001</v>
+        <v>0.0725918</v>
       </c>
       <c r="C35" t="n">
-        <v>0.058207</v>
+        <v>0.0598185</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0318766</v>
+        <v>0.0337809</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0910854</v>
+        <v>0.0928539</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08250250000000001</v>
+        <v>0.0856333</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0388391</v>
+        <v>0.0412427</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116939</v>
+        <v>0.118993</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122587</v>
+        <v>0.122413</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0527892</v>
+        <v>0.0213625</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0172414</v>
+        <v>0.0170354</v>
       </c>
       <c r="C38" t="n">
-        <v>0.022339</v>
+        <v>0.0220356</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0200635</v>
+        <v>0.0216152</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0178038</v>
+        <v>0.0177847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0227699</v>
+        <v>0.022486</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0202755</v>
+        <v>0.021814</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0187206</v>
+        <v>0.0188547</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0234004</v>
+        <v>0.0232194</v>
       </c>
       <c r="D40" t="n">
-        <v>0.020572</v>
+        <v>0.0220941</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0199685</v>
+        <v>0.0202812</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0241004</v>
+        <v>0.0239203</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0208626</v>
+        <v>0.022412</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0216322</v>
+        <v>0.0220086</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0252857</v>
+        <v>0.0250648</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0212861</v>
+        <v>0.0228513</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0238956</v>
+        <v>0.0248833</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0266157</v>
+        <v>0.0264995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0218634</v>
+        <v>0.0234296</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0267506</v>
+        <v>0.0279391</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0284231</v>
+        <v>0.0283873</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224841</v>
+        <v>0.0240588</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03249</v>
+        <v>0.0321324</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0312861</v>
+        <v>0.0314857</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0234383</v>
+        <v>0.0249391</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0369957</v>
+        <v>0.0384172</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0354827</v>
+        <v>0.0354132</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0247116</v>
+        <v>0.0262401</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0447954</v>
+        <v>0.0460779</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0408119</v>
+        <v>0.0412542</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0264962</v>
+        <v>0.0281182</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0549165</v>
+        <v>0.0561486</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0492111</v>
+        <v>0.0496361</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0291708</v>
+        <v>0.030896</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0690747</v>
+        <v>0.071335</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0627923</v>
+        <v>0.0635835</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0330481</v>
+        <v>0.0349133</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0909499</v>
+        <v>0.09182220000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0827176</v>
+        <v>0.0836079</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0393694</v>
+        <v>0.041685</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117598</v>
+        <v>0.119881</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116149</v>
+        <v>0.116527</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0514301</v>
+        <v>0.0224476</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143171</v>
+        <v>0.143242</v>
       </c>
       <c r="C52" t="n">
-        <v>0.16274</v>
+        <v>0.163694</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0736798</v>
+        <v>0.0226721</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0190724</v>
+        <v>0.0195155</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0239272</v>
+        <v>0.0237588</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0212254</v>
+        <v>0.0228872</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204823</v>
+        <v>0.0205223</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0244834</v>
+        <v>0.0244554</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0215714</v>
+        <v>0.0231823</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219348</v>
+        <v>0.0219892</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0255182</v>
+        <v>0.0253632</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0218934</v>
+        <v>0.0235312</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.024033</v>
+        <v>0.0242125</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0265436</v>
+        <v>0.0264382</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0222963</v>
+        <v>0.0238806</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263068</v>
+        <v>0.026823</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0279734</v>
+        <v>0.028037</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0227856</v>
+        <v>0.0243723</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0298704</v>
+        <v>0.030121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03013</v>
+        <v>0.0302316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.023492</v>
+        <v>0.0251413</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0347844</v>
+        <v>0.0339746</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0327083</v>
+        <v>0.032936</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0244508</v>
+        <v>0.0259788</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.040254</v>
+        <v>0.0398258</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0364242</v>
+        <v>0.0369326</v>
       </c>
       <c r="D60" t="n">
-        <v>0.025563</v>
+        <v>0.0272053</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0477802</v>
+        <v>0.0473969</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0424944</v>
+        <v>0.043159</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0273934</v>
+        <v>0.0289394</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0573777</v>
+        <v>0.0568455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0505335</v>
+        <v>0.0511328</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0300639</v>
+        <v>0.0316517</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07166359999999999</v>
+        <v>0.07083390000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0626863</v>
+        <v>0.0629591</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0343007</v>
+        <v>0.0359167</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.091574</v>
+        <v>0.0900932</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0800302</v>
+        <v>0.08046929999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0407699</v>
+        <v>0.0427823</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117557</v>
+        <v>0.11712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110692</v>
+        <v>0.110527</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0521448</v>
+        <v>0.0543144</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.148172</v>
+        <v>0.147619</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157446</v>
+        <v>0.157476</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0727759</v>
+        <v>0.0230516</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0200618</v>
+        <v>0.0198741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0244818</v>
+        <v>0.0244873</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0216503</v>
+        <v>0.0232944</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210852</v>
+        <v>0.0210233</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253152</v>
+        <v>0.0252679</v>
       </c>
       <c r="D68" t="n">
-        <v>0.022023</v>
+        <v>0.0236557</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227494</v>
+        <v>0.0225899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262873</v>
+        <v>0.0262225</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0224164</v>
+        <v>0.0240304</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0248685</v>
+        <v>0.0245596</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274412</v>
+        <v>0.0274119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0227833</v>
+        <v>0.0244328</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273725</v>
+        <v>0.0271561</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0288693</v>
+        <v>0.0288169</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0233287</v>
+        <v>0.0249534</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306128</v>
+        <v>0.0304981</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308071</v>
+        <v>0.0308618</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0239854</v>
+        <v>0.0255924</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0347687</v>
+        <v>0.0347312</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0335899</v>
+        <v>0.0336581</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0249085</v>
+        <v>0.0264931</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.040187</v>
+        <v>0.0399742</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0372285</v>
+        <v>0.0374805</v>
       </c>
       <c r="D74" t="n">
-        <v>0.026083</v>
+        <v>0.0276536</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0472456</v>
+        <v>0.0472932</v>
       </c>
       <c r="C75" t="n">
-        <v>0.042678</v>
+        <v>0.0429896</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0278925</v>
+        <v>0.0294936</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0567248</v>
+        <v>0.0566206</v>
       </c>
       <c r="C76" t="n">
-        <v>0.050233</v>
+        <v>0.0504883</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0303711</v>
+        <v>0.0319698</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0698073</v>
+        <v>0.06926599999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611316</v>
+        <v>0.0611978</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0341542</v>
+        <v>0.0358077</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08830399999999999</v>
+        <v>0.0872708</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763235</v>
+        <v>0.076338</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0401159</v>
+        <v>0.04171</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.11331</v>
+        <v>0.113015</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101744</v>
+        <v>0.101823</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0499459</v>
+        <v>0.0518171</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144227</v>
+        <v>0.145368</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144295</v>
+        <v>0.144309</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06764050000000001</v>
+        <v>0.0233117</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200894</v>
+        <v>0.0202017</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253027</v>
+        <v>0.0253749</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0219795</v>
+        <v>0.023631</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212921</v>
+        <v>0.0213921</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261513</v>
+        <v>0.0261808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0223035</v>
+        <v>0.0240298</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228647</v>
+        <v>0.0232382</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271097</v>
+        <v>0.0271683</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0227337</v>
+        <v>0.0244378</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0249335</v>
+        <v>0.0247497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283136</v>
+        <v>0.0283674</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0232343</v>
+        <v>0.0249527</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0272316</v>
+        <v>0.0275382</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298375</v>
+        <v>0.0299512</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0238702</v>
+        <v>0.0255519</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0301743</v>
+        <v>0.0303482</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0317126</v>
+        <v>0.0316796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0246452</v>
+        <v>0.0263073</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0340236</v>
+        <v>0.0342071</v>
       </c>
       <c r="C87" t="n">
-        <v>0.034148</v>
+        <v>0.0340919</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0255607</v>
+        <v>0.0271708</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0390723</v>
+        <v>0.039482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.037751</v>
+        <v>0.0380774</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267836</v>
+        <v>0.0286424</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0460559</v>
+        <v>0.046467</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425288</v>
+        <v>0.0455847</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284359</v>
+        <v>0.0326099</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.054593</v>
+        <v>0.0571466</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0496809</v>
+        <v>0.0549603</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0308366</v>
+        <v>0.0334004</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0667961</v>
+        <v>0.0673216</v>
       </c>
       <c r="C91" t="n">
-        <v>0.059412</v>
+        <v>0.0591615</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0341731</v>
+        <v>0.035941</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08383640000000001</v>
+        <v>0.084229</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0741314</v>
+        <v>0.0736665</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0394557</v>
+        <v>0.0412705</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10731</v>
+        <v>0.108356</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09778100000000001</v>
+        <v>0.0971828</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0485218</v>
+        <v>0.0502358</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.138403</v>
+        <v>0.139084</v>
       </c>
       <c r="C94" t="n">
-        <v>0.13649</v>
+        <v>0.136411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0646489</v>
+        <v>0.0248514</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0207579</v>
+        <v>0.0205582</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0271537</v>
+        <v>0.0270032</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0235872</v>
+        <v>0.0253732</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220136</v>
+        <v>0.0218559</v>
       </c>
       <c r="C96" t="n">
-        <v>0.028179</v>
+        <v>0.0284151</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240448</v>
+        <v>0.0259516</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.023077</v>
+        <v>0.0231269</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0300869</v>
+        <v>0.0303119</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0245484</v>
+        <v>0.0265204</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0254445</v>
+        <v>0.0248753</v>
       </c>
       <c r="C98" t="n">
-        <v>0.032836</v>
+        <v>0.0331663</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0251482</v>
+        <v>0.0272555</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275311</v>
+        <v>0.0273139</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0366396</v>
+        <v>0.0365116</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0257975</v>
+        <v>0.0287432</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303637</v>
+        <v>0.0301532</v>
       </c>
       <c r="C100" t="n">
-        <v>0.040328</v>
+        <v>0.0401355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0269617</v>
+        <v>0.0307334</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0347004</v>
+        <v>0.0342567</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437259</v>
+        <v>0.0435068</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0289654</v>
+        <v>0.0334467</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0398364</v>
+        <v>0.0396464</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471297</v>
+        <v>0.0469889</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0317725</v>
+        <v>0.0365839</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0461676</v>
+        <v>0.0461244</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509659</v>
+        <v>0.0507841</v>
       </c>
       <c r="D103" t="n">
-        <v>0.035412</v>
+        <v>0.0399501</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0546696</v>
+        <v>0.0545348</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560009</v>
+        <v>0.0560256</v>
       </c>
       <c r="D104" t="n">
-        <v>0.039482</v>
+        <v>0.0432888</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0657181</v>
+        <v>0.0655123</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06307450000000001</v>
+        <v>0.0630255</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0435564</v>
+        <v>0.0466363</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08121299999999999</v>
+        <v>0.0812364</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07417849999999999</v>
+        <v>0.0743173</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0484542</v>
+        <v>0.051168</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103525</v>
+        <v>0.103706</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0935264</v>
+        <v>0.09372800000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0551374</v>
+        <v>0.057945</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133258</v>
+        <v>0.133275</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129185</v>
+        <v>0.129336</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0668377</v>
+        <v>0.0370967</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169236</v>
+        <v>0.169484</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181142</v>
+        <v>0.180925</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0911571</v>
+        <v>0.0379988</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313588</v>
+        <v>0.0309521</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432086</v>
+        <v>0.0432023</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0365405</v>
+        <v>0.0389849</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0325638</v>
+        <v>0.0327342</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441279</v>
+        <v>0.0441463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0375315</v>
+        <v>0.0397754</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034204</v>
+        <v>0.0341569</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0452885</v>
+        <v>0.0453477</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0381633</v>
+        <v>0.0407188</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360627</v>
+        <v>0.0358197</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0465507</v>
+        <v>0.0465163</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0392386</v>
+        <v>0.0416033</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380653</v>
+        <v>0.0378966</v>
       </c>
       <c r="C114" t="n">
-        <v>0.048125</v>
+        <v>0.0480718</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0401866</v>
+        <v>0.0427068</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0405815</v>
+        <v>0.0407709</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0499138</v>
+        <v>0.0498995</v>
       </c>
       <c r="D115" t="n">
-        <v>0.041259</v>
+        <v>0.0436715</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440883</v>
+        <v>0.0442486</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0521436</v>
+        <v>0.0521426</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0424896</v>
+        <v>0.0448164</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487619</v>
+        <v>0.0487373</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0550871</v>
+        <v>0.0551301</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0439565</v>
+        <v>0.0464306</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0552633</v>
+        <v>0.0553205</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0592292</v>
+        <v>0.0593647</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0459974</v>
+        <v>0.0484173</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06506919999999999</v>
+        <v>0.06514200000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06523139999999999</v>
+        <v>0.06522310000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0485222</v>
+        <v>0.0508956</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07928839999999999</v>
+        <v>0.07935499999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.07483049999999999</v>
+        <v>0.074957</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0522444</v>
+        <v>0.0548516</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100007</v>
+        <v>0.10052</v>
       </c>
       <c r="C121" t="n">
-        <v>0.091262</v>
+        <v>0.09127209999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0575954</v>
+        <v>0.0605892</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128229</v>
+        <v>0.129051</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122208</v>
+        <v>0.121646</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06735389999999999</v>
+        <v>0.0709243</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164192</v>
+        <v>0.164866</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169906</v>
+        <v>0.169891</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0867589</v>
+        <v>0.0435064</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342806</v>
+        <v>0.0342516</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0488267</v>
+        <v>0.0485625</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0408479</v>
+        <v>0.0444246</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354407</v>
+        <v>0.0355331</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0495899</v>
+        <v>0.0495428</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0419617</v>
+        <v>0.0450983</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0370811</v>
+        <v>0.036556</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0503811</v>
+        <v>0.0506282</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0429215</v>
+        <v>0.0457479</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0383242</v>
+        <v>0.0387302</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0517641</v>
+        <v>0.0525097</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0438556</v>
+        <v>0.0468775</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0412068</v>
+        <v>0.0406852</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0532487</v>
+        <v>0.0534249</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0449234</v>
+        <v>0.0478591</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0434394</v>
+        <v>0.043199</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0550596</v>
+        <v>0.0552121</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0457603</v>
+        <v>0.0489813</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0476824</v>
+        <v>0.0463553</v>
       </c>
       <c r="C130" t="n">
-        <v>0.057509</v>
+        <v>0.0582681</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0470924</v>
+        <v>0.0504572</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0522553</v>
+        <v>0.051083</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0606347</v>
+        <v>0.0608866</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0487204</v>
+        <v>0.0516962</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0588633</v>
+        <v>0.0571672</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0654913</v>
+        <v>0.06499249999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0503463</v>
+        <v>0.0539277</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06867239999999999</v>
+        <v>0.0671239</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0715052</v>
+        <v>0.0709274</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0528783</v>
+        <v>0.0564911</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08217380000000001</v>
+        <v>0.0809981</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0805386</v>
+        <v>0.08030859999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0569078</v>
+        <v>0.0602297</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102443</v>
+        <v>0.102083</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09472029999999999</v>
+        <v>0.09506879999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0624778</v>
+        <v>0.06631769999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130197</v>
+        <v>0.128793</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122088</v>
+        <v>0.122322</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0713713</v>
+        <v>0.0758451</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.167465</v>
+        <v>0.16439</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166653</v>
+        <v>0.165948</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08962920000000001</v>
+        <v>0.0624545</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.046984</v>
+        <v>0.0467067</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06344669999999999</v>
+        <v>0.0635173</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0588657</v>
+        <v>0.0631371</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0485908</v>
+        <v>0.0478632</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06455900000000001</v>
+        <v>0.06464350000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0595652</v>
+        <v>0.0639638</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492293</v>
+        <v>0.0494004</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06572020000000001</v>
+        <v>0.06574149999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0602697</v>
+        <v>0.0646538</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0508288</v>
+        <v>0.0509907</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0670634</v>
+        <v>0.066996</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0610836</v>
+        <v>0.0654844</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0527181</v>
+        <v>0.0528935</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0686262</v>
+        <v>0.06847490000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0620034</v>
+        <v>0.06638189999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.05575</v>
+        <v>0.0557352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0704796</v>
+        <v>0.0702198</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0628826</v>
+        <v>0.067312</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0187351</v>
+        <v>0.0190758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0201243</v>
+        <v>0.0226886</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0235468</v>
+        <v>0.0215434</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0207877</v>
+        <v>0.0218725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0203494</v>
+        <v>0.0232194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0237306</v>
+        <v>0.0217883</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0283538</v>
+        <v>0.0267992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0211926</v>
+        <v>0.0273652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0249004</v>
+        <v>0.0229594</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.032841</v>
+        <v>0.0342639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.022717</v>
+        <v>0.0390474</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0270704</v>
+        <v>0.0248263</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0509577</v>
+        <v>0.0479177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0303865</v>
+        <v>0.0455594</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0289327</v>
+        <v>0.0263592</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06363240000000001</v>
+        <v>0.0716231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0529063</v>
+        <v>0.06511690000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0338365</v>
+        <v>0.0296057</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.087521</v>
+        <v>0.0966168</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0618548</v>
+        <v>0.08483449999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0412133</v>
+        <v>0.0374094</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.115419</v>
+        <v>0.119898</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107999</v>
+        <v>0.134479</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0205392</v>
+        <v>0.0188056</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163658</v>
+        <v>0.0163527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0196999</v>
+        <v>0.0199046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0207562</v>
+        <v>0.0190412</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167204</v>
+        <v>0.016971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0198963</v>
+        <v>0.0203412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0211992</v>
+        <v>0.0193566</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173082</v>
+        <v>0.0173282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0205592</v>
+        <v>0.0210299</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0215944</v>
+        <v>0.0197143</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179286</v>
+        <v>0.0178566</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0208332</v>
+        <v>0.021423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0217372</v>
+        <v>0.0200232</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.019131</v>
+        <v>0.0189856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0207252</v>
+        <v>0.0222731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0220921</v>
+        <v>0.0203917</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0199764</v>
+        <v>0.0205907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.021325</v>
+        <v>0.0233093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0225955</v>
+        <v>0.0207797</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0226726</v>
+        <v>0.0224794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0227391</v>
+        <v>0.0259034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0236057</v>
+        <v>0.0216692</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0265873</v>
+        <v>0.0268643</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0238423</v>
+        <v>0.0282595</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0240747</v>
+        <v>0.0222373</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0328511</v>
+        <v>0.0340035</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0271158</v>
+        <v>0.0345579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0252503</v>
+        <v>0.0235073</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0394271</v>
+        <v>0.0442998</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0403336</v>
+        <v>0.0409098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0268977</v>
+        <v>0.02468</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0511976</v>
+        <v>0.0561316</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0387739</v>
+        <v>0.0475715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0293487</v>
+        <v>0.026914</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.068109</v>
+        <v>0.07329670000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06320530000000001</v>
+        <v>0.06412710000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0338012</v>
+        <v>0.0308853</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09634529999999999</v>
+        <v>0.0979192</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0776444</v>
+        <v>0.0907705</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0411517</v>
+        <v>0.0386265</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.12237</v>
+        <v>0.119611</v>
       </c>
       <c r="C23" t="n">
-        <v>0.127273</v>
+        <v>0.133331</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0206263</v>
+        <v>0.0189686</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0167479</v>
+        <v>0.0164783</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0206666</v>
+        <v>0.0209134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0209119</v>
+        <v>0.0191768</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0172732</v>
+        <v>0.017315</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0210799</v>
+        <v>0.0213937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0211259</v>
+        <v>0.0193764</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0180697</v>
+        <v>0.0178718</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0216289</v>
+        <v>0.022175</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0214966</v>
+        <v>0.0198717</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0191442</v>
+        <v>0.0185759</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0222211</v>
+        <v>0.0232036</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0218726</v>
+        <v>0.0201834</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200142</v>
+        <v>0.0201865</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0229456</v>
+        <v>0.0240454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0222636</v>
+        <v>0.0206097</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0225345</v>
+        <v>0.0219771</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0240224</v>
+        <v>0.0256611</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0226965</v>
+        <v>0.0210969</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0258753</v>
+        <v>0.0252742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0258496</v>
+        <v>0.0277787</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0233196</v>
+        <v>0.0217387</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0299197</v>
+        <v>0.0304738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.027617</v>
+        <v>0.0307407</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0242389</v>
+        <v>0.0225664</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0363131</v>
+        <v>0.0349853</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0318991</v>
+        <v>0.0350021</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0253888</v>
+        <v>0.0236385</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0448876</v>
+        <v>0.0432009</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0372132</v>
+        <v>0.0422292</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0270945</v>
+        <v>0.025236</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.054129</v>
+        <v>0.0554291</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0466188</v>
+        <v>0.0504703</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0295842</v>
+        <v>0.0273961</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0725918</v>
+        <v>0.0705663</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0598185</v>
+        <v>0.0634826</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0337809</v>
+        <v>0.031515</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0928539</v>
+        <v>0.09293079999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0856333</v>
+        <v>0.0890398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0412427</v>
+        <v>0.0382486</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118993</v>
+        <v>0.117677</v>
       </c>
       <c r="C37" t="n">
-        <v>0.122413</v>
+        <v>0.126358</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0213625</v>
+        <v>0.0195481</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170354</v>
+        <v>0.0171459</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0220356</v>
+        <v>0.022298</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0216152</v>
+        <v>0.0197728</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0177847</v>
+        <v>0.0179332</v>
       </c>
       <c r="C39" t="n">
-        <v>0.022486</v>
+        <v>0.0228263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.021814</v>
+        <v>0.0200124</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188547</v>
+        <v>0.0188628</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0232194</v>
+        <v>0.0235783</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0220941</v>
+        <v>0.0203785</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202812</v>
+        <v>0.0201351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239203</v>
+        <v>0.0243894</v>
       </c>
       <c r="D41" t="n">
-        <v>0.022412</v>
+        <v>0.0206504</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0220086</v>
+        <v>0.0216844</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0250648</v>
+        <v>0.0257949</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0228513</v>
+        <v>0.0211369</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0248833</v>
+        <v>0.0239585</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0264995</v>
+        <v>0.0276878</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0234296</v>
+        <v>0.021743</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0279391</v>
+        <v>0.027175</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0283873</v>
+        <v>0.0295907</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0240588</v>
+        <v>0.0223162</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0321324</v>
+        <v>0.0311126</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0314857</v>
+        <v>0.0329513</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0249391</v>
+        <v>0.0232596</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0384172</v>
+        <v>0.0372426</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0354132</v>
+        <v>0.0376358</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0262401</v>
+        <v>0.0245315</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0460779</v>
+        <v>0.0453724</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0412542</v>
+        <v>0.0430958</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0281182</v>
+        <v>0.0262011</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0561486</v>
+        <v>0.0559601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0496361</v>
+        <v>0.0517888</v>
       </c>
       <c r="D48" t="n">
-        <v>0.030896</v>
+        <v>0.0289795</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.071335</v>
+        <v>0.0701008</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0635835</v>
+        <v>0.0650429</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0349133</v>
+        <v>0.0327102</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09182220000000001</v>
+        <v>0.0909865</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0836079</v>
+        <v>0.08424420000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.041685</v>
+        <v>0.0390407</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.119881</v>
+        <v>0.116724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116527</v>
+        <v>0.117655</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0224476</v>
+        <v>0.020405</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.143242</v>
+        <v>0.141613</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163694</v>
+        <v>0.163276</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0226721</v>
+        <v>0.0206683</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0195155</v>
+        <v>0.0193296</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0237588</v>
+        <v>0.0239401</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0228872</v>
+        <v>0.0209352</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0205223</v>
+        <v>0.0206822</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0244554</v>
+        <v>0.02461</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0231823</v>
+        <v>0.0212858</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219892</v>
+        <v>0.0222651</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0253632</v>
+        <v>0.0256746</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0235312</v>
+        <v>0.0216581</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0242125</v>
+        <v>0.0240079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264382</v>
+        <v>0.0267965</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0238806</v>
+        <v>0.0220522</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.026823</v>
+        <v>0.0266516</v>
       </c>
       <c r="C57" t="n">
-        <v>0.028037</v>
+        <v>0.0285465</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0243723</v>
+        <v>0.0225537</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.030121</v>
+        <v>0.0299904</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0302316</v>
+        <v>0.030906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0251413</v>
+        <v>0.0232429</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0339746</v>
+        <v>0.0343206</v>
       </c>
       <c r="C59" t="n">
-        <v>0.032936</v>
+        <v>0.0336476</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0259788</v>
+        <v>0.0241763</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0398258</v>
+        <v>0.0398045</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0369326</v>
+        <v>0.0374889</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0272053</v>
+        <v>0.0253697</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0473969</v>
+        <v>0.047147</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043159</v>
+        <v>0.0434345</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0289394</v>
+        <v>0.0270777</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0568455</v>
+        <v>0.057215</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0511328</v>
+        <v>0.0514316</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0316517</v>
+        <v>0.0298106</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07083390000000001</v>
+        <v>0.070799</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0629591</v>
+        <v>0.06314210000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0359167</v>
+        <v>0.0340441</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0900932</v>
+        <v>0.09073000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08046929999999999</v>
+        <v>0.080484</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0427823</v>
+        <v>0.0406818</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.11712</v>
+        <v>0.116712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110527</v>
+        <v>0.111209</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0543144</v>
+        <v>0.0518223</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147619</v>
+        <v>0.146025</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157476</v>
+        <v>0.156308</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0230516</v>
+        <v>0.0209354</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198741</v>
+        <v>0.0200341</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0244873</v>
+        <v>0.0245983</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0232944</v>
+        <v>0.0212606</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0210233</v>
+        <v>0.0212869</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0252679</v>
+        <v>0.0255241</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0236557</v>
+        <v>0.0216576</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0225899</v>
+        <v>0.0226295</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262225</v>
+        <v>0.0265462</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0240304</v>
+        <v>0.0220769</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0245596</v>
+        <v>0.0247464</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274119</v>
+        <v>0.0277462</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0244328</v>
+        <v>0.0224683</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271561</v>
+        <v>0.026961</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0288169</v>
+        <v>0.0292132</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0249534</v>
+        <v>0.0230112</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304981</v>
+        <v>0.0303292</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308618</v>
+        <v>0.0311755</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0255924</v>
+        <v>0.0236849</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0347312</v>
+        <v>0.0343858</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0336581</v>
+        <v>0.0338879</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0264931</v>
+        <v>0.0246433</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0399742</v>
+        <v>0.0398622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0374805</v>
+        <v>0.0376513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0276536</v>
+        <v>0.0258314</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0472932</v>
+        <v>0.0471921</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0429896</v>
+        <v>0.0429977</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0294936</v>
+        <v>0.027618</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0566206</v>
+        <v>0.0565217</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504883</v>
+        <v>0.050401</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0319698</v>
+        <v>0.0301554</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06926599999999999</v>
+        <v>0.069574</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611978</v>
+        <v>0.0611247</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0358077</v>
+        <v>0.0338929</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0872708</v>
+        <v>0.0876179</v>
       </c>
       <c r="C78" t="n">
-        <v>0.076338</v>
+        <v>0.07637140000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04171</v>
+        <v>0.0397396</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.113015</v>
+        <v>0.112619</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101823</v>
+        <v>0.101882</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0518171</v>
+        <v>0.0497008</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.145368</v>
+        <v>0.142866</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144309</v>
+        <v>0.144007</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0233117</v>
+        <v>0.0212059</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0202017</v>
+        <v>0.0200158</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253749</v>
+        <v>0.0253661</v>
       </c>
       <c r="D81" t="n">
-        <v>0.023631</v>
+        <v>0.0215237</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213921</v>
+        <v>0.0216301</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261808</v>
+        <v>0.0262617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0240298</v>
+        <v>0.0219141</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0232382</v>
+        <v>0.0228358</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271683</v>
+        <v>0.0272272</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0244378</v>
+        <v>0.0223378</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247497</v>
+        <v>0.0247835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283674</v>
+        <v>0.0284412</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0249527</v>
+        <v>0.022914</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0275382</v>
+        <v>0.0274513</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0299512</v>
+        <v>0.0300651</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0255519</v>
+        <v>0.0237345</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0303482</v>
+        <v>0.0304075</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0316796</v>
+        <v>0.0319115</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0263073</v>
+        <v>0.0245054</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342071</v>
+        <v>0.0342402</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0340919</v>
+        <v>0.0343048</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0271708</v>
+        <v>0.0255075</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.039482</v>
+        <v>0.0394885</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0380774</v>
+        <v>0.0378562</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0286424</v>
+        <v>0.0267862</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.046467</v>
+        <v>0.0458635</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0455847</v>
+        <v>0.0426378</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0326099</v>
+        <v>0.0284497</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0571466</v>
+        <v>0.0542091</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0549603</v>
+        <v>0.049744</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0334004</v>
+        <v>0.0307919</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0673216</v>
+        <v>0.06623419999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0591615</v>
+        <v>0.0596411</v>
       </c>
       <c r="D91" t="n">
-        <v>0.035941</v>
+        <v>0.0341548</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.084229</v>
+        <v>0.08340789999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0736665</v>
+        <v>0.07429230000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0412705</v>
+        <v>0.0393769</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.108356</v>
+        <v>0.106725</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0971828</v>
+        <v>0.0978845</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0502358</v>
+        <v>0.0481413</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.139084</v>
+        <v>0.13694</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136411</v>
+        <v>0.136938</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0248514</v>
+        <v>0.0230618</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205582</v>
+        <v>0.0206733</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270032</v>
+        <v>0.0269805</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0253732</v>
+        <v>0.0235911</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218559</v>
+        <v>0.0218669</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0284151</v>
+        <v>0.0282134</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0259516</v>
+        <v>0.0241102</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0231269</v>
+        <v>0.0233415</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0303119</v>
+        <v>0.0301673</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0265204</v>
+        <v>0.0246572</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0248753</v>
+        <v>0.025324</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331663</v>
+        <v>0.0330259</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0272555</v>
+        <v>0.0254506</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0273139</v>
+        <v>0.0278269</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365116</v>
+        <v>0.0365903</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0287432</v>
+        <v>0.0266341</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0301532</v>
+        <v>0.0303997</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0401355</v>
+        <v>0.0403118</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0307334</v>
+        <v>0.0289828</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0342567</v>
+        <v>0.034982</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0435068</v>
+        <v>0.0437033</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0334467</v>
+        <v>0.0319502</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0396464</v>
+        <v>0.0402393</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0469889</v>
+        <v>0.0470804</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0365839</v>
+        <v>0.0350345</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0461244</v>
+        <v>0.0465924</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0507841</v>
+        <v>0.0508464</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0399501</v>
+        <v>0.0382991</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545348</v>
+        <v>0.0545818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560256</v>
+        <v>0.0559187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0432888</v>
+        <v>0.0416427</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0655123</v>
+        <v>0.0654904</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630255</v>
+        <v>0.0629991</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0466363</v>
+        <v>0.0449041</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0812364</v>
+        <v>0.08094460000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743173</v>
+        <v>0.0742979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.051168</v>
+        <v>0.049242</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103706</v>
+        <v>0.103065</v>
       </c>
       <c r="C107" t="n">
-        <v>0.09372800000000001</v>
+        <v>0.0935333</v>
       </c>
       <c r="D107" t="n">
-        <v>0.057945</v>
+        <v>0.0556169</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.133275</v>
+        <v>0.132001</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129336</v>
+        <v>0.12931</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0370967</v>
+        <v>0.0352026</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.169484</v>
+        <v>0.167822</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180925</v>
+        <v>0.181054</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0379988</v>
+        <v>0.0360287</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0309521</v>
+        <v>0.031258</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432023</v>
+        <v>0.0435133</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0389849</v>
+        <v>0.0371893</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0327342</v>
+        <v>0.0325385</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441463</v>
+        <v>0.0445834</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0397754</v>
+        <v>0.0379636</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0341569</v>
+        <v>0.0345004</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453477</v>
+        <v>0.0457768</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0407188</v>
+        <v>0.0387857</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0358197</v>
+        <v>0.0364072</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0465163</v>
+        <v>0.0470967</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0416033</v>
+        <v>0.0397029</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0378966</v>
+        <v>0.0383151</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480718</v>
+        <v>0.0485613</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0427068</v>
+        <v>0.0407683</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407709</v>
+        <v>0.0410093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498995</v>
+        <v>0.0504489</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0436715</v>
+        <v>0.0418152</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442486</v>
+        <v>0.0446478</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0521426</v>
+        <v>0.0526709</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0448164</v>
+        <v>0.0430177</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487373</v>
+        <v>0.0488642</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551301</v>
+        <v>0.0559298</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0464306</v>
+        <v>0.0446879</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553205</v>
+        <v>0.0555934</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0593647</v>
+        <v>0.060079</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0484173</v>
+        <v>0.0465992</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06514200000000001</v>
+        <v>0.0652643</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06522310000000001</v>
+        <v>0.06620330000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0508956</v>
+        <v>0.0492328</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07935499999999999</v>
+        <v>0.0798103</v>
       </c>
       <c r="C120" t="n">
-        <v>0.074957</v>
+        <v>0.0758892</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0548516</v>
+        <v>0.0529898</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10052</v>
+        <v>0.100657</v>
       </c>
       <c r="C121" t="n">
-        <v>0.09127209999999999</v>
+        <v>0.0921775</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0605892</v>
+        <v>0.0587229</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.129051</v>
+        <v>0.128508</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121646</v>
+        <v>0.122408</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0709243</v>
+        <v>0.0684945</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164866</v>
+        <v>0.163083</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169891</v>
+        <v>0.170467</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0435064</v>
+        <v>0.0418034</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0342516</v>
+        <v>0.0346294</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0485625</v>
+        <v>0.0487137</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0444246</v>
+        <v>0.0425752</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355331</v>
+        <v>0.0354149</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0495428</v>
+        <v>0.0501099</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0450983</v>
+        <v>0.0435379</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.036556</v>
+        <v>0.0373464</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0506282</v>
+        <v>0.0508811</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0457479</v>
+        <v>0.0441465</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387302</v>
+        <v>0.0387959</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0525097</v>
+        <v>0.0526591</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0468775</v>
+        <v>0.044891</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406852</v>
+        <v>0.0409618</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0534249</v>
+        <v>0.0543272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0478591</v>
+        <v>0.0459964</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.043199</v>
+        <v>0.0439352</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0552121</v>
+        <v>0.0556311</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0489813</v>
+        <v>0.0473004</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0463553</v>
+        <v>0.0469597</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0582681</v>
+        <v>0.0582068</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0504572</v>
+        <v>0.0483268</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.051083</v>
+        <v>0.0516791</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0608866</v>
+        <v>0.0617182</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0516962</v>
+        <v>0.04982</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0571672</v>
+        <v>0.0582935</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06499249999999999</v>
+        <v>0.0652081</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0539277</v>
+        <v>0.051787</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0671239</v>
+        <v>0.0678299</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0709274</v>
+        <v>0.07121329999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0564911</v>
+        <v>0.0544378</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0809981</v>
+        <v>0.0819073</v>
       </c>
       <c r="C134" t="n">
-        <v>0.08030859999999999</v>
+        <v>0.0804788</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0602297</v>
+        <v>0.0581732</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102083</v>
+        <v>0.101639</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09506879999999999</v>
+        <v>0.0959285</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06631769999999999</v>
+        <v>0.0639276</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.128793</v>
+        <v>0.129773</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122322</v>
+        <v>0.122286</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0758451</v>
+        <v>0.07384110000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16439</v>
+        <v>0.163778</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165948</v>
+        <v>0.165769</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0624545</v>
+        <v>0.0590259</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0467067</v>
+        <v>0.0469452</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0635173</v>
+        <v>0.06357069999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0631371</v>
+        <v>0.0598531</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478632</v>
+        <v>0.0480032</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06464350000000001</v>
+        <v>0.06466719999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0639638</v>
+        <v>0.0606422</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494004</v>
+        <v>0.0493751</v>
       </c>
       <c r="C140" t="n">
-        <v>0.06574149999999999</v>
+        <v>0.0656781</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0646538</v>
+        <v>0.0612248</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509907</v>
+        <v>0.0509719</v>
       </c>
       <c r="C141" t="n">
-        <v>0.066996</v>
+        <v>0.06694310000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0654844</v>
+        <v>0.0621798</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0528935</v>
+        <v>0.0529841</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06847490000000001</v>
+        <v>0.06839679999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06638189999999999</v>
+        <v>0.06293559999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557352</v>
+        <v>0.0558393</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0702198</v>
+        <v>0.07014720000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.067312</v>
+        <v>0.06411219999999999</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0190758</v>
+        <v>0.0179865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0226886</v>
+        <v>0.0208489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0215434</v>
+        <v>0.0218095</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0218725</v>
+        <v>0.0211208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0232194</v>
+        <v>0.0209644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0217883</v>
+        <v>0.0222744</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0267992</v>
+        <v>0.0297663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0273652</v>
+        <v>0.0212611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0229594</v>
+        <v>0.0238699</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0342639</v>
+        <v>0.0333299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0390474</v>
+        <v>0.0257824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0248263</v>
+        <v>0.025905</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0479177</v>
+        <v>0.0470296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0455594</v>
+        <v>0.044956</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0263592</v>
+        <v>0.0277847</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0716231</v>
+        <v>0.06287769999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06511690000000001</v>
+        <v>0.0601104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0296057</v>
+        <v>0.0313703</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0966168</v>
+        <v>0.0898062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08483449999999999</v>
+        <v>0.0758123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0374094</v>
+        <v>0.0374223</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.119898</v>
+        <v>0.118597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.134479</v>
+        <v>0.11037</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0188056</v>
+        <v>0.0191091</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0163527</v>
+        <v>0.0159944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0199046</v>
+        <v>0.0199266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0190412</v>
+        <v>0.0193805</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.016971</v>
+        <v>0.0166475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0203412</v>
+        <v>0.0204357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0193566</v>
+        <v>0.0197247</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0173282</v>
+        <v>0.0172876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210299</v>
+        <v>0.0210338</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0197143</v>
+        <v>0.0201197</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0178566</v>
+        <v>0.0176827</v>
       </c>
       <c r="C13" t="n">
-        <v>0.021423</v>
+        <v>0.021182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0200232</v>
+        <v>0.020478</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0189856</v>
+        <v>0.0185289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0222731</v>
+        <v>0.0219121</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0203917</v>
+        <v>0.0206809</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0205907</v>
+        <v>0.0194781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0233093</v>
+        <v>0.0221002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0207797</v>
+        <v>0.0213692</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0224794</v>
+        <v>0.0217858</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0259034</v>
+        <v>0.0236942</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0216692</v>
+        <v>0.0221521</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0268643</v>
+        <v>0.0263553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0282595</v>
+        <v>0.0253631</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0222373</v>
+        <v>0.0228041</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0340035</v>
+        <v>0.0322043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0345579</v>
+        <v>0.027466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0235073</v>
+        <v>0.0241548</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0442998</v>
+        <v>0.0420822</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0409098</v>
+        <v>0.0317796</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02468</v>
+        <v>0.0255011</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0561316</v>
+        <v>0.0530551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0475715</v>
+        <v>0.0433568</v>
       </c>
       <c r="D20" t="n">
-        <v>0.026914</v>
+        <v>0.0280201</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07329670000000001</v>
+        <v>0.0706686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06412710000000001</v>
+        <v>0.0644816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0308853</v>
+        <v>0.0318372</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0979192</v>
+        <v>0.0954395</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0907705</v>
+        <v>0.0828805</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0386265</v>
+        <v>0.0381791</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.119611</v>
+        <v>0.121649</v>
       </c>
       <c r="C23" t="n">
-        <v>0.133331</v>
+        <v>0.132346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0189686</v>
+        <v>0.0189754</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0164783</v>
+        <v>0.016651</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209134</v>
+        <v>0.0209012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0191768</v>
+        <v>0.0192632</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017315</v>
+        <v>0.0171585</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213937</v>
+        <v>0.0213117</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0193764</v>
+        <v>0.0195097</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178718</v>
+        <v>0.0178803</v>
       </c>
       <c r="C26" t="n">
-        <v>0.022175</v>
+        <v>0.0218858</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0198717</v>
+        <v>0.0199069</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0185759</v>
+        <v>0.0189099</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0232036</v>
+        <v>0.0224734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0201834</v>
+        <v>0.0202675</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0201865</v>
+        <v>0.0197732</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0240454</v>
+        <v>0.0233045</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0206097</v>
+        <v>0.0207055</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0219771</v>
+        <v>0.0219354</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0256611</v>
+        <v>0.02448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0210969</v>
+        <v>0.0212278</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0252742</v>
+        <v>0.0254595</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0277787</v>
+        <v>0.0260714</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0217387</v>
+        <v>0.0218127</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0304738</v>
+        <v>0.0289344</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0307407</v>
+        <v>0.0281025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0225664</v>
+        <v>0.0227423</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0349853</v>
+        <v>0.0355147</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0350021</v>
+        <v>0.0319469</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236385</v>
+        <v>0.0239283</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0432009</v>
+        <v>0.045327</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0422292</v>
+        <v>0.0371978</v>
       </c>
       <c r="D33" t="n">
-        <v>0.025236</v>
+        <v>0.0255656</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0554291</v>
+        <v>0.0532066</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0504703</v>
+        <v>0.0459297</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0273961</v>
+        <v>0.0279858</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0705663</v>
+        <v>0.0718177</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0634826</v>
+        <v>0.0595362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.031515</v>
+        <v>0.0319394</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09293079999999999</v>
+        <v>0.0942254</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0890398</v>
+        <v>0.0852618</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0382486</v>
+        <v>0.0386725</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117677</v>
+        <v>0.119471</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126358</v>
+        <v>0.126285</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0195481</v>
+        <v>0.0195292</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171459</v>
+        <v>0.0171494</v>
       </c>
       <c r="C38" t="n">
-        <v>0.022298</v>
+        <v>0.0221674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197728</v>
+        <v>0.0197514</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179332</v>
+        <v>0.0179256</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0228263</v>
+        <v>0.0226176</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0200124</v>
+        <v>0.0199975</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188628</v>
+        <v>0.0190385</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235783</v>
+        <v>0.0232889</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0203785</v>
+        <v>0.020349</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201351</v>
+        <v>0.0203342</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0243894</v>
+        <v>0.0239222</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206504</v>
+        <v>0.0206965</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0216844</v>
+        <v>0.0221099</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0257949</v>
+        <v>0.0251512</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0211369</v>
+        <v>0.0211472</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0239585</v>
+        <v>0.0243983</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0276878</v>
+        <v>0.0266968</v>
       </c>
       <c r="D43" t="n">
-        <v>0.021743</v>
+        <v>0.0217904</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.027175</v>
+        <v>0.0282902</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0295907</v>
+        <v>0.0283778</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0223162</v>
+        <v>0.0224351</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0311126</v>
+        <v>0.0323267</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0329513</v>
+        <v>0.0315128</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0232596</v>
+        <v>0.0233805</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0372426</v>
+        <v>0.0385573</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0376358</v>
+        <v>0.0359038</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245315</v>
+        <v>0.0247274</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0453724</v>
+        <v>0.0467192</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0430958</v>
+        <v>0.0410985</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262011</v>
+        <v>0.0266145</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0559601</v>
+        <v>0.0577868</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0517888</v>
+        <v>0.0505745</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0289795</v>
+        <v>0.0293589</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0701008</v>
+        <v>0.07246569999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0650429</v>
+        <v>0.0636221</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0327102</v>
+        <v>0.0331589</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0909865</v>
+        <v>0.0932007</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08424420000000001</v>
+        <v>0.08327080000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0390407</v>
+        <v>0.0395366</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116724</v>
+        <v>0.118462</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117655</v>
+        <v>0.116272</v>
       </c>
       <c r="D51" t="n">
-        <v>0.020405</v>
+        <v>0.0204567</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141613</v>
+        <v>0.142879</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163276</v>
+        <v>0.163398</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206683</v>
+        <v>0.0206766</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0193296</v>
+        <v>0.0192397</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0239401</v>
+        <v>0.0238077</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0209352</v>
+        <v>0.0209927</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0206822</v>
+        <v>0.0204618</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02461</v>
+        <v>0.0244941</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212858</v>
+        <v>0.021297</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0222651</v>
+        <v>0.0217342</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256746</v>
+        <v>0.0254069</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0216581</v>
+        <v>0.0217283</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0240079</v>
+        <v>0.0239157</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0267965</v>
+        <v>0.0264404</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0220522</v>
+        <v>0.0221187</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0266516</v>
+        <v>0.0263385</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0285465</v>
+        <v>0.028021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0225537</v>
+        <v>0.0226159</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0299904</v>
+        <v>0.0298521</v>
       </c>
       <c r="C58" t="n">
-        <v>0.030906</v>
+        <v>0.0302105</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0232429</v>
+        <v>0.0233823</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0343206</v>
+        <v>0.0340604</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0336476</v>
+        <v>0.0329089</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0241763</v>
+        <v>0.0242804</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0398045</v>
+        <v>0.0394037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0374889</v>
+        <v>0.0368346</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0253697</v>
+        <v>0.0254987</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.047147</v>
+        <v>0.0465944</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0434345</v>
+        <v>0.042817</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0270777</v>
+        <v>0.0272501</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.057215</v>
+        <v>0.056725</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0514316</v>
+        <v>0.0510325</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0298106</v>
+        <v>0.0299439</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.070799</v>
+        <v>0.0703356</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06314210000000001</v>
+        <v>0.06285540000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0340441</v>
+        <v>0.0341555</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09073000000000001</v>
+        <v>0.09045640000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.080484</v>
+        <v>0.08050160000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0406818</v>
+        <v>0.0406067</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116712</v>
+        <v>0.117162</v>
       </c>
       <c r="C65" t="n">
-        <v>0.111209</v>
+        <v>0.110703</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0518223</v>
+        <v>0.0517995</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146025</v>
+        <v>0.147498</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156308</v>
+        <v>0.157172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209354</v>
+        <v>0.0209749</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0200341</v>
+        <v>0.0197899</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245983</v>
+        <v>0.024511</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212606</v>
+        <v>0.0212846</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212869</v>
+        <v>0.0211339</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0255241</v>
+        <v>0.0253302</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216576</v>
+        <v>0.0216523</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226295</v>
+        <v>0.0227563</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0265462</v>
+        <v>0.0262521</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220769</v>
+        <v>0.0220997</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247464</v>
+        <v>0.024933</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0277462</v>
+        <v>0.0274539</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0224683</v>
+        <v>0.0225438</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.026961</v>
+        <v>0.0275682</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0292132</v>
+        <v>0.0287802</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230112</v>
+        <v>0.023081</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303292</v>
+        <v>0.0306103</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0311755</v>
+        <v>0.0308494</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0236849</v>
+        <v>0.0237219</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0343858</v>
+        <v>0.0346627</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0338879</v>
+        <v>0.0336029</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0246433</v>
+        <v>0.0247158</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0398622</v>
+        <v>0.0397893</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0376513</v>
+        <v>0.0374945</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0258314</v>
+        <v>0.0259592</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0471921</v>
+        <v>0.046612</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0429977</v>
+        <v>0.0429753</v>
       </c>
       <c r="D75" t="n">
-        <v>0.027618</v>
+        <v>0.0277293</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0565217</v>
+        <v>0.0557952</v>
       </c>
       <c r="C76" t="n">
-        <v>0.050401</v>
+        <v>0.0503827</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0301554</v>
+        <v>0.0301609</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.069574</v>
+        <v>0.068813</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0611247</v>
+        <v>0.0612486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0338929</v>
+        <v>0.0339582</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0876179</v>
+        <v>0.0875112</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07637140000000001</v>
+        <v>0.0764654</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0397396</v>
+        <v>0.0397055</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112619</v>
+        <v>0.112669</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101882</v>
+        <v>0.101955</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0497008</v>
+        <v>0.0496195</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142866</v>
+        <v>0.144547</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144007</v>
+        <v>0.144411</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212059</v>
+        <v>0.0212308</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200158</v>
+        <v>0.0200003</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253661</v>
+        <v>0.0253072</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0215237</v>
+        <v>0.0216746</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0216301</v>
+        <v>0.0211774</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0262617</v>
+        <v>0.0261759</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0219141</v>
+        <v>0.022046</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228358</v>
+        <v>0.0231047</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272272</v>
+        <v>0.0271795</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0223378</v>
+        <v>0.0224982</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247835</v>
+        <v>0.0248261</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0284412</v>
+        <v>0.0283685</v>
       </c>
       <c r="D84" t="n">
-        <v>0.022914</v>
+        <v>0.0229819</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0274513</v>
+        <v>0.0271825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0300651</v>
+        <v>0.0298798</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0237345</v>
+        <v>0.0237091</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0304075</v>
+        <v>0.0305073</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0319115</v>
+        <v>0.0318635</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0245054</v>
+        <v>0.0244864</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342402</v>
+        <v>0.0341885</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0343048</v>
+        <v>0.034199</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0255075</v>
+        <v>0.0255205</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394885</v>
+        <v>0.0394313</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0378562</v>
+        <v>0.0376437</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0267862</v>
+        <v>0.0266565</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458635</v>
+        <v>0.0458157</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0426378</v>
+        <v>0.0423236</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0284497</v>
+        <v>0.028452</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0542091</v>
+        <v>0.0544632</v>
       </c>
       <c r="C90" t="n">
-        <v>0.049744</v>
+        <v>0.0494087</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307919</v>
+        <v>0.0307039</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06623419999999999</v>
+        <v>0.066262</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0596411</v>
+        <v>0.0591395</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0341548</v>
+        <v>0.034109</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08340789999999999</v>
+        <v>0.0832316</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07429230000000001</v>
+        <v>0.07360849999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0393769</v>
+        <v>0.0393051</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106725</v>
+        <v>0.107496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978845</v>
+        <v>0.09729169999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0481413</v>
+        <v>0.0482746</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.13694</v>
+        <v>0.13902</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136938</v>
+        <v>0.136267</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0230618</v>
+        <v>0.022979</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0206733</v>
+        <v>0.0209475</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0269805</v>
+        <v>0.0270822</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0235911</v>
+        <v>0.0234489</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0218669</v>
+        <v>0.0219383</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282134</v>
+        <v>0.0282356</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0241102</v>
+        <v>0.0241237</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0233415</v>
+        <v>0.0234775</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0301673</v>
+        <v>0.0299339</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0246572</v>
+        <v>0.0248111</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.025324</v>
+        <v>0.0252222</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0330259</v>
+        <v>0.0331659</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0254506</v>
+        <v>0.0254342</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0278269</v>
+        <v>0.0276446</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365903</v>
+        <v>0.0365671</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0266341</v>
+        <v>0.0268807</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303997</v>
+        <v>0.030224</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0403118</v>
+        <v>0.0404121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0289828</v>
+        <v>0.0291055</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.034982</v>
+        <v>0.0343519</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0437033</v>
+        <v>0.043708</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0319502</v>
+        <v>0.0319096</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0402393</v>
+        <v>0.0396284</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0470804</v>
+        <v>0.0470963</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0350345</v>
+        <v>0.035014</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0465924</v>
+        <v>0.0457435</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0508464</v>
+        <v>0.050951</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0382991</v>
+        <v>0.0381657</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545818</v>
+        <v>0.0543066</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0559187</v>
+        <v>0.0559337</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0416427</v>
+        <v>0.0414007</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654904</v>
+        <v>0.06509860000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0629991</v>
+        <v>0.0630762</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0449041</v>
+        <v>0.0448883</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08094460000000001</v>
+        <v>0.08073</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0742979</v>
+        <v>0.074377</v>
       </c>
       <c r="D106" t="n">
-        <v>0.049242</v>
+        <v>0.0490485</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103065</v>
+        <v>0.103147</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0935333</v>
+        <v>0.0937436</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0556169</v>
+        <v>0.0557509</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132001</v>
+        <v>0.132952</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12931</v>
+        <v>0.129182</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0352026</v>
+        <v>0.0349941</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167822</v>
+        <v>0.168401</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181054</v>
+        <v>0.181005</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0360287</v>
+        <v>0.0361355</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031258</v>
+        <v>0.0313912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0435133</v>
+        <v>0.0432432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0371893</v>
+        <v>0.0370734</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0325385</v>
+        <v>0.0324716</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0445834</v>
+        <v>0.0441777</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0379636</v>
+        <v>0.0379216</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345004</v>
+        <v>0.03439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0457768</v>
+        <v>0.0453818</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0387857</v>
+        <v>0.0387403</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0364072</v>
+        <v>0.03592</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0470967</v>
+        <v>0.0465441</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0397029</v>
+        <v>0.0394196</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0383151</v>
+        <v>0.0380051</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0485613</v>
+        <v>0.0481491</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0407683</v>
+        <v>0.0407507</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0410093</v>
+        <v>0.0407537</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0504489</v>
+        <v>0.0498238</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0418152</v>
+        <v>0.041747</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0446478</v>
+        <v>0.0439802</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0526709</v>
+        <v>0.0522161</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0430177</v>
+        <v>0.0428491</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488642</v>
+        <v>0.0488177</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0559298</v>
+        <v>0.0552289</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0446879</v>
+        <v>0.0444824</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0555934</v>
+        <v>0.0553189</v>
       </c>
       <c r="C118" t="n">
-        <v>0.060079</v>
+        <v>0.059734</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0465992</v>
+        <v>0.0465709</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0652643</v>
+        <v>0.0648415</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06620330000000001</v>
+        <v>0.0653774</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0492328</v>
+        <v>0.049203</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0798103</v>
+        <v>0.07931249999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0758892</v>
+        <v>0.0750039</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0529898</v>
+        <v>0.0528367</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100657</v>
+        <v>0.100231</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0921775</v>
+        <v>0.0913525</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0587229</v>
+        <v>0.0581096</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128508</v>
+        <v>0.128507</v>
       </c>
       <c r="C122" t="n">
-        <v>0.122408</v>
+        <v>0.121737</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0684945</v>
+        <v>0.0682914</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163083</v>
+        <v>0.163726</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170467</v>
+        <v>0.170059</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0418034</v>
+        <v>0.0405997</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0346294</v>
+        <v>0.0345104</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0487137</v>
+        <v>0.0486105</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0425752</v>
+        <v>0.0411791</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354149</v>
+        <v>0.0355374</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0501099</v>
+        <v>0.0496536</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0435379</v>
+        <v>0.0418256</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0373464</v>
+        <v>0.0367198</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0508811</v>
+        <v>0.0508347</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0441465</v>
+        <v>0.0425922</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387959</v>
+        <v>0.0387748</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0526591</v>
+        <v>0.0519854</v>
       </c>
       <c r="D127" t="n">
-        <v>0.044891</v>
+        <v>0.0446759</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0409618</v>
+        <v>0.0404242</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0543272</v>
+        <v>0.0536059</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0459964</v>
+        <v>0.0455319</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0439352</v>
+        <v>0.0432199</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0556311</v>
+        <v>0.0555523</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0473004</v>
+        <v>0.0469148</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0469597</v>
+        <v>0.0467958</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0582068</v>
+        <v>0.058403</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0483268</v>
+        <v>0.0484163</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0516791</v>
+        <v>0.0521357</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0617182</v>
+        <v>0.060926</v>
       </c>
       <c r="D131" t="n">
-        <v>0.04982</v>
+        <v>0.0493555</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0582935</v>
+        <v>0.0588225</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0652081</v>
+        <v>0.0657118</v>
       </c>
       <c r="D132" t="n">
-        <v>0.051787</v>
+        <v>0.0511863</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0678299</v>
+        <v>0.0680564</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07121329999999999</v>
+        <v>0.07147920000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0544378</v>
+        <v>0.0538343</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0819073</v>
+        <v>0.0819787</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0804788</v>
+        <v>0.08056149999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0581732</v>
+        <v>0.0576513</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101639</v>
+        <v>0.101942</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0959285</v>
+        <v>0.09542580000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0639276</v>
+        <v>0.0636929</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129773</v>
+        <v>0.130611</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122286</v>
+        <v>0.121775</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07384110000000001</v>
+        <v>0.0729071</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163778</v>
+        <v>0.165493</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165769</v>
+        <v>0.166905</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0590259</v>
+        <v>0.0585974</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0469452</v>
+        <v>0.0466819</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06357069999999999</v>
+        <v>0.0630014</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0598531</v>
+        <v>0.0594269</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0480032</v>
+        <v>0.0478376</v>
       </c>
       <c r="C139" t="n">
-        <v>0.06466719999999999</v>
+        <v>0.0641248</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0606422</v>
+        <v>0.0602128</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0493751</v>
+        <v>0.0490331</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0656781</v>
+        <v>0.0654969</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0612248</v>
+        <v>0.0610407</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509719</v>
+        <v>0.0508497</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06694310000000001</v>
+        <v>0.06665509999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0621798</v>
+        <v>0.0617651</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529841</v>
+        <v>0.0526832</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06839679999999999</v>
+        <v>0.068383</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06293559999999999</v>
+        <v>0.06289119999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0558393</v>
+        <v>0.0553753</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07014720000000001</v>
+        <v>0.07023020000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06411219999999999</v>
+        <v>0.0636467</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0177347</v>
+        <v>0.0186865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0281637</v>
+        <v>0.028022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0250893</v>
+        <v>0.0233967</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0188852</v>
+        <v>0.0210949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0303387</v>
+        <v>0.030253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.026459</v>
+        <v>0.0241643</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0234555</v>
+        <v>0.0273393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0343874</v>
+        <v>0.0345501</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0281826</v>
+        <v>0.0252511</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0338857</v>
+        <v>0.0338324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0402264</v>
+        <v>0.0400549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0301669</v>
+        <v>0.026133</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0472317</v>
+        <v>0.0445805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0512406</v>
+        <v>0.0487652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0330464</v>
+        <v>0.028633</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0575473</v>
+        <v>0.0678098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0595602</v>
+        <v>0.061419</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0400324</v>
+        <v>0.0340622</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0891636</v>
+        <v>0.0894595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0203069</v>
+        <v>0.0203107</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0515425</v>
+        <v>0.044439</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.114971</v>
+        <v>0.109902</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0208109</v>
+        <v>0.0208085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0219549</v>
+        <v>0.0201916</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165384</v>
+        <v>0.0165502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0212582</v>
+        <v>0.0212673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0220185</v>
+        <v>0.0204413</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0169788</v>
+        <v>0.0169992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0219184</v>
+        <v>0.0219653</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0223959</v>
+        <v>0.0208716</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.017486</v>
+        <v>0.0174091</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0229526</v>
+        <v>0.0229509</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0226063</v>
+        <v>0.0210011</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0179473</v>
+        <v>0.0179291</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0241664</v>
+        <v>0.024185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.022828</v>
+        <v>0.0214325</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0190006</v>
+        <v>0.0184653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0254836</v>
+        <v>0.0254693</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0232419</v>
+        <v>0.021617</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0210354</v>
+        <v>0.0209168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0273195</v>
+        <v>0.0273529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0238637</v>
+        <v>0.0221051</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0232111</v>
+        <v>0.0235384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0296545</v>
+        <v>0.0295558</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0243176</v>
+        <v>0.0226767</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0273704</v>
+        <v>0.0268652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0332014</v>
+        <v>0.0331059</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0252184</v>
+        <v>0.0237528</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.033242</v>
+        <v>0.0325924</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0379014</v>
+        <v>0.0379282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0262676</v>
+        <v>0.0246341</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0424186</v>
+        <v>0.0413677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0448099</v>
+        <v>0.0445607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0283896</v>
+        <v>0.0263181</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0554736</v>
+        <v>0.052915</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0539658</v>
+        <v>0.0538291</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0314271</v>
+        <v>0.0292387</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0712052</v>
+        <v>0.0713546</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06603249999999999</v>
+        <v>0.066386</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0373705</v>
+        <v>0.0344754</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.095737</v>
+        <v>0.09663190000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.020671</v>
+        <v>0.0206812</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0483472</v>
+        <v>0.0445463</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.120816</v>
+        <v>0.12311</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0211785</v>
+        <v>0.0211756</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0216108</v>
+        <v>0.0200653</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0166553</v>
+        <v>0.0166917</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0218233</v>
+        <v>0.0218281</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0218212</v>
+        <v>0.0203024</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171951</v>
+        <v>0.0172636</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0225927</v>
+        <v>0.0225662</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0221418</v>
+        <v>0.0205938</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178482</v>
+        <v>0.0179896</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0234831</v>
+        <v>0.0234747</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0223588</v>
+        <v>0.0208128</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0186904</v>
+        <v>0.018918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0247358</v>
+        <v>0.0247016</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0227307</v>
+        <v>0.0211407</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0199208</v>
+        <v>0.0201395</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0261932</v>
+        <v>0.026215</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0232391</v>
+        <v>0.0216572</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0220798</v>
+        <v>0.0226421</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0277728</v>
+        <v>0.0277126</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0238749</v>
+        <v>0.0223772</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0261723</v>
+        <v>0.0253834</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0302705</v>
+        <v>0.0302173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0245752</v>
+        <v>0.0230821</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0299174</v>
+        <v>0.0287758</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0337553</v>
+        <v>0.0338093</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0255408</v>
+        <v>0.0240484</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0360282</v>
+        <v>0.0343901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.038208</v>
+        <v>0.0382219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.026853</v>
+        <v>0.0254631</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0442657</v>
+        <v>0.0416257</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0438485</v>
+        <v>0.0438284</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0288755</v>
+        <v>0.0276459</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0555848</v>
+        <v>0.0534577</v>
       </c>
       <c r="C34" t="n">
-        <v>0.053142</v>
+        <v>0.0529385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0325576</v>
+        <v>0.0310691</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07283770000000001</v>
+        <v>0.069448</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06538140000000001</v>
+        <v>0.06517000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0370074</v>
+        <v>0.0352166</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0951668</v>
+        <v>0.0903534</v>
       </c>
       <c r="C36" t="n">
-        <v>0.081438</v>
+        <v>0.080498</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0451778</v>
+        <v>0.0428576</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118945</v>
+        <v>0.115464</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0211673</v>
+        <v>0.0210898</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0225246</v>
+        <v>0.0209424</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0173426</v>
+        <v>0.0172316</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0217646</v>
+        <v>0.0216884</v>
       </c>
       <c r="D38" t="n">
-        <v>0.022845</v>
+        <v>0.0212704</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0180617</v>
+        <v>0.0179237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0225445</v>
+        <v>0.0225584</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0231005</v>
+        <v>0.0215549</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.018949</v>
+        <v>0.0187111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235978</v>
+        <v>0.0235148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0234427</v>
+        <v>0.0219186</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.020392</v>
+        <v>0.0199687</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0247356</v>
+        <v>0.0246825</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0238108</v>
+        <v>0.022312</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0223588</v>
+        <v>0.0214567</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0261785</v>
+        <v>0.0261393</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0242156</v>
+        <v>0.0228036</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.024542</v>
+        <v>0.0239791</v>
       </c>
       <c r="C43" t="n">
-        <v>0.028181</v>
+        <v>0.0281219</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0247109</v>
+        <v>0.023376</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0279483</v>
+        <v>0.0271322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0306195</v>
+        <v>0.0306336</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0253455</v>
+        <v>0.0240451</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0324731</v>
+        <v>0.0318435</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0343078</v>
+        <v>0.0343197</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0263488</v>
+        <v>0.0250826</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0380715</v>
+        <v>0.0369604</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0390459</v>
+        <v>0.0390588</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0275133</v>
+        <v>0.0264303</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0466525</v>
+        <v>0.0449381</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0453654</v>
+        <v>0.0455893</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0294802</v>
+        <v>0.0283361</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.056909</v>
+        <v>0.0556173</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0534848</v>
+        <v>0.0534155</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0325566</v>
+        <v>0.0315597</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0714974</v>
+        <v>0.0690216</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0640006</v>
+        <v>0.0639817</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0372371</v>
+        <v>0.0359676</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0912895</v>
+        <v>0.0909089</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0778128</v>
+        <v>0.0778107</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0445091</v>
+        <v>0.0431345</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117883</v>
+        <v>0.117039</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0213048</v>
+        <v>0.0213093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0233299</v>
+        <v>0.0218158</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142422</v>
+        <v>0.141149</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0219901</v>
+        <v>0.0219819</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0235644</v>
+        <v>0.0220768</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.019195</v>
+        <v>0.0190869</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0226809</v>
+        <v>0.0227184</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0237683</v>
+        <v>0.0223194</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0203607</v>
+        <v>0.0203744</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0235119</v>
+        <v>0.0235108</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0240722</v>
+        <v>0.0226376</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0218136</v>
+        <v>0.021812</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0248035</v>
+        <v>0.02478</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0244168</v>
+        <v>0.0230452</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0236284</v>
+        <v>0.0237201</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0261888</v>
+        <v>0.0261568</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0249086</v>
+        <v>0.0235387</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0264708</v>
+        <v>0.0265199</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0281</v>
+        <v>0.0281388</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0254511</v>
+        <v>0.0241954</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0297098</v>
+        <v>0.0297152</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0307155</v>
+        <v>0.0306277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0261448</v>
+        <v>0.0249506</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0338513</v>
+        <v>0.0340135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0340517</v>
+        <v>0.0342307</v>
       </c>
       <c r="D59" t="n">
-        <v>0.027135</v>
+        <v>0.0260206</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0398965</v>
+        <v>0.0395856</v>
       </c>
       <c r="C60" t="n">
-        <v>0.039017</v>
+        <v>0.0388002</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0284505</v>
+        <v>0.0274076</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0472513</v>
+        <v>0.0470306</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0450472</v>
+        <v>0.0450234</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0303024</v>
+        <v>0.0293448</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0571737</v>
+        <v>0.0571776</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0537333</v>
+        <v>0.0537828</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0330686</v>
+        <v>0.0321598</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0718768</v>
+        <v>0.0706191</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0640087</v>
+        <v>0.0639035</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0376382</v>
+        <v>0.0367738</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09075809999999999</v>
+        <v>0.0899596</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0761191</v>
+        <v>0.0761563</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0447934</v>
+        <v>0.0438448</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116281</v>
+        <v>0.116575</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0215671</v>
+        <v>0.0218907</v>
       </c>
       <c r="D65" t="n">
-        <v>0.057162</v>
+        <v>0.0559932</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146073</v>
+        <v>0.147774</v>
       </c>
       <c r="C66" t="n">
-        <v>0.022204</v>
+        <v>0.0224534</v>
       </c>
       <c r="D66" t="n">
-        <v>0.024014</v>
+        <v>0.0225404</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198702</v>
+        <v>0.0197674</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0229249</v>
+        <v>0.0229236</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0243849</v>
+        <v>0.0229376</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212214</v>
+        <v>0.0211839</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0238263</v>
+        <v>0.0238341</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02468</v>
+        <v>0.0233194</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0226574</v>
+        <v>0.022858</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0250022</v>
+        <v>0.0249388</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0250072</v>
+        <v>0.0236721</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247929</v>
+        <v>0.0249086</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0265029</v>
+        <v>0.0264009</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02551</v>
+        <v>0.0242484</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0271637</v>
+        <v>0.0273735</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0283501</v>
+        <v>0.0285075</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0259831</v>
+        <v>0.0247526</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0304312</v>
+        <v>0.0306013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0309632</v>
+        <v>0.0308282</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0267313</v>
+        <v>0.0255409</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345894</v>
+        <v>0.0345972</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0342816</v>
+        <v>0.0342875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0276698</v>
+        <v>0.0264609</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0396103</v>
+        <v>0.0398191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0384953</v>
+        <v>0.0385878</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0288476</v>
+        <v>0.0278097</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467754</v>
+        <v>0.0469238</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0444329</v>
+        <v>0.0443885</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0307247</v>
+        <v>0.0296797</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0560361</v>
+        <v>0.0564854</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0524612</v>
+        <v>0.052376</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0333151</v>
+        <v>0.0324445</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0688766</v>
+        <v>0.0689188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0624264</v>
+        <v>0.0623754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0375379</v>
+        <v>0.0366734</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08715820000000001</v>
+        <v>0.0870544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0748988</v>
+        <v>0.0747937</v>
       </c>
       <c r="D78" t="n">
-        <v>0.043859</v>
+        <v>0.0428655</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111126</v>
+        <v>0.11151</v>
       </c>
       <c r="C79" t="n">
-        <v>0.025562</v>
+        <v>0.0272297</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0545188</v>
+        <v>0.0536396</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142408</v>
+        <v>0.141852</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0275782</v>
+        <v>0.0259821</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0242604</v>
+        <v>0.0228474</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0204979</v>
+        <v>0.0201295</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0280806</v>
+        <v>0.0265254</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0245599</v>
+        <v>0.0232871</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.021371</v>
+        <v>0.0216555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0285806</v>
+        <v>0.0284773</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0248882</v>
+        <v>0.0236323</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231017</v>
+        <v>0.0228893</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0282565</v>
+        <v>0.0282719</v>
       </c>
       <c r="D83" t="n">
-        <v>0.025275</v>
+        <v>0.0239875</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0250312</v>
+        <v>0.0247929</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0294624</v>
+        <v>0.0295087</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0257971</v>
+        <v>0.0244705</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0273671</v>
+        <v>0.027211</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0308743</v>
+        <v>0.0310538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02637</v>
+        <v>0.0251382</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.030302</v>
+        <v>0.0302438</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0341176</v>
+        <v>0.0343056</v>
       </c>
       <c r="D86" t="n">
-        <v>0.027152</v>
+        <v>0.0259466</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0342767</v>
+        <v>0.034107</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0361708</v>
+        <v>0.0361079</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0281046</v>
+        <v>0.0270666</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392133</v>
+        <v>0.0394448</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0410182</v>
+        <v>0.0410615</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0295407</v>
+        <v>0.0283435</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0459474</v>
+        <v>0.0457502</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0463375</v>
+        <v>0.0464699</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0311837</v>
+        <v>0.0300601</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545635</v>
+        <v>0.05456</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0537404</v>
+        <v>0.0535716</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0336176</v>
+        <v>0.0326083</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.066873</v>
+        <v>0.066648</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06263730000000001</v>
+        <v>0.0629334</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0371264</v>
+        <v>0.0361816</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08354640000000001</v>
+        <v>0.0834935</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0750686</v>
+        <v>0.07435029999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0426593</v>
+        <v>0.0418855</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106964</v>
+        <v>0.106955</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09099740000000001</v>
+        <v>0.09085559999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0519684</v>
+        <v>0.0509352</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137477</v>
+        <v>0.136807</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0543355</v>
+        <v>0.0534576</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0258587</v>
+        <v>0.0242767</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0212266</v>
+        <v>0.0209228</v>
       </c>
       <c r="C95" t="n">
-        <v>0.055378</v>
+        <v>0.0538994</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0264334</v>
+        <v>0.0247463</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0219642</v>
+        <v>0.0223859</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0553167</v>
+        <v>0.0544898</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0269028</v>
+        <v>0.0253941</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0233059</v>
+        <v>0.0235111</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0560005</v>
+        <v>0.0551018</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0275923</v>
+        <v>0.0258805</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.024965</v>
+        <v>0.0250728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0571877</v>
+        <v>0.055715</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0285702</v>
+        <v>0.0265961</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.027507</v>
+        <v>0.0276776</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0572869</v>
+        <v>0.0575064</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0300087</v>
+        <v>0.028075</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0303621</v>
+        <v>0.0307882</v>
       </c>
       <c r="C100" t="n">
-        <v>0.059316</v>
+        <v>0.0582466</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0323097</v>
+        <v>0.0300346</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0349354</v>
+        <v>0.0347069</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0627822</v>
+        <v>0.0608975</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0365878</v>
+        <v>0.0330854</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0402101</v>
+        <v>0.0398454</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0641979</v>
+        <v>0.06328010000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0391818</v>
+        <v>0.0365902</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0463648</v>
+        <v>0.0464871</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0676554</v>
+        <v>0.0677257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0416919</v>
+        <v>0.0396514</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0548707</v>
+        <v>0.05459</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0737056</v>
+        <v>0.072884</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0450736</v>
+        <v>0.0428426</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0654704</v>
+        <v>0.0655346</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0815784</v>
+        <v>0.08151509999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0484289</v>
+        <v>0.0462779</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0815046</v>
+        <v>0.0812046</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0931374</v>
+        <v>0.0925551</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0531234</v>
+        <v>0.0508909</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103387</v>
+        <v>0.103162</v>
       </c>
       <c r="C107" t="n">
-        <v>0.108481</v>
+        <v>0.108508</v>
       </c>
       <c r="D107" t="n">
-        <v>0.059985</v>
+        <v>0.0575807</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132347</v>
+        <v>0.132233</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0822619</v>
+        <v>0.081619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0387026</v>
+        <v>0.0363179</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.16884</v>
+        <v>0.167953</v>
       </c>
       <c r="C109" t="n">
-        <v>0.082784</v>
+        <v>0.0819409</v>
       </c>
       <c r="D109" t="n">
-        <v>0.039979</v>
+        <v>0.0372755</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.031373</v>
+        <v>0.0312385</v>
       </c>
       <c r="C110" t="n">
-        <v>0.08355269999999999</v>
+        <v>0.0823743</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0407366</v>
+        <v>0.0380904</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.032779</v>
+        <v>0.0327537</v>
       </c>
       <c r="C111" t="n">
-        <v>0.08275150000000001</v>
+        <v>0.0829134</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0414101</v>
+        <v>0.0389314</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0342392</v>
+        <v>0.034368</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0835095</v>
+        <v>0.0835833</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0421872</v>
+        <v>0.0400052</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.036179</v>
+        <v>0.0355786</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0843792</v>
+        <v>0.08444160000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0431039</v>
+        <v>0.040578</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382276</v>
+        <v>0.0379999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0856725</v>
+        <v>0.08574950000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0440965</v>
+        <v>0.0414139</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406218</v>
+        <v>0.0408128</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0874267</v>
+        <v>0.08747240000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0454494</v>
+        <v>0.0427526</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0440363</v>
+        <v>0.0441859</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0900903</v>
+        <v>0.090097</v>
       </c>
       <c r="D116" t="n">
-        <v>0.046805</v>
+        <v>0.0441772</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0485942</v>
+        <v>0.0487612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.093279</v>
+        <v>0.09344860000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0482005</v>
+        <v>0.0457174</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553814</v>
+        <v>0.0548499</v>
       </c>
       <c r="C118" t="n">
-        <v>0.09896530000000001</v>
+        <v>0.0990351</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0502533</v>
+        <v>0.0476547</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.06523229999999999</v>
+        <v>0.0647611</v>
       </c>
       <c r="C119" t="n">
-        <v>0.106256</v>
+        <v>0.106308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0531382</v>
+        <v>0.0504404</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0794011</v>
+        <v>0.0791674</v>
       </c>
       <c r="C120" t="n">
-        <v>0.117781</v>
+        <v>0.117727</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0571138</v>
+        <v>0.054384</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100166</v>
+        <v>0.0998349</v>
       </c>
       <c r="C121" t="n">
-        <v>0.133615</v>
+        <v>0.133608</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0631661</v>
+        <v>0.0602739</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128268</v>
+        <v>0.12796</v>
       </c>
       <c r="C122" t="n">
-        <v>0.093722</v>
+        <v>0.09375840000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0734669</v>
+        <v>0.07015970000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163701</v>
+        <v>0.163233</v>
       </c>
       <c r="C123" t="n">
-        <v>0.094073</v>
+        <v>0.104796</v>
       </c>
       <c r="D123" t="n">
-        <v>0.045661</v>
+        <v>0.042178</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0346198</v>
+        <v>0.034678</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0945521</v>
+        <v>0.09449299999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0461072</v>
+        <v>0.0429459</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0354654</v>
+        <v>0.0357433</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0951642</v>
+        <v>0.0951626</v>
       </c>
       <c r="D125" t="n">
-        <v>0.047175</v>
+        <v>0.044182</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366085</v>
+        <v>0.0369126</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09592340000000001</v>
+        <v>0.09592920000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0476817</v>
+        <v>0.0446149</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0388945</v>
+        <v>0.0383808</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09669759999999999</v>
+        <v>0.09688869999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0488919</v>
+        <v>0.0459184</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0409798</v>
+        <v>0.0406669</v>
       </c>
       <c r="C128" t="n">
-        <v>0.100979</v>
+        <v>0.100999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0497329</v>
+        <v>0.0469772</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433231</v>
+        <v>0.0434482</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0998585</v>
+        <v>0.100361</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0514961</v>
+        <v>0.0475637</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0478824</v>
+        <v>0.0463361</v>
       </c>
       <c r="C130" t="n">
-        <v>0.106291</v>
+        <v>0.105756</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0522748</v>
+        <v>0.049554</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0522531</v>
+        <v>0.052493</v>
       </c>
       <c r="C131" t="n">
-        <v>0.106045</v>
+        <v>0.106823</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0539706</v>
+        <v>0.0508022</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0589284</v>
+        <v>0.0585383</v>
       </c>
       <c r="C132" t="n">
-        <v>0.114325</v>
+        <v>0.114535</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0561519</v>
+        <v>0.0525511</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0684761</v>
+        <v>0.06745520000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>0.118703</v>
+        <v>0.119311</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0589165</v>
+        <v>0.0552522</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08256520000000001</v>
+        <v>0.0825955</v>
       </c>
       <c r="C134" t="n">
-        <v>0.132586</v>
+        <v>0.132686</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0627973</v>
+        <v>0.0595715</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102351</v>
+        <v>0.102191</v>
       </c>
       <c r="C135" t="n">
-        <v>0.144449</v>
+        <v>0.144512</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06854</v>
+        <v>0.0654112</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129668</v>
+        <v>0.130557</v>
       </c>
       <c r="C136" t="n">
-        <v>0.100829</v>
+        <v>0.102048</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0781154</v>
+        <v>0.0758752</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.164095</v>
+        <v>0.162922</v>
       </c>
       <c r="C137" t="n">
-        <v>0.101255</v>
+        <v>0.101258</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0641977</v>
+        <v>0.059466</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0467531</v>
+        <v>0.0471563</v>
       </c>
       <c r="C138" t="n">
-        <v>0.101684</v>
+        <v>0.101739</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0653511</v>
+        <v>0.0602039</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0489469</v>
+        <v>0.048269</v>
       </c>
       <c r="C139" t="n">
-        <v>0.102426</v>
+        <v>0.102407</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0658188</v>
+        <v>0.0609909</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0492735</v>
+        <v>0.049223</v>
       </c>
       <c r="C140" t="n">
-        <v>0.103294</v>
+        <v>0.10324</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0669466</v>
+        <v>0.0618077</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0513704</v>
+        <v>0.0508457</v>
       </c>
       <c r="C141" t="n">
-        <v>0.104327</v>
+        <v>0.104391</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0672373</v>
+        <v>0.0624005</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529331</v>
+        <v>0.0533058</v>
       </c>
       <c r="C142" t="n">
-        <v>0.108111</v>
+        <v>0.106665</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0686155</v>
+        <v>0.0632204</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0552064</v>
+        <v>0.0556336</v>
       </c>
       <c r="C143" t="n">
-        <v>0.107678</v>
+        <v>0.107795</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0692349</v>
+        <v>0.0645782</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0179865</v>
+        <v>0.0198308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0208489</v>
+        <v>0.0219151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0218095</v>
+        <v>0.0215052</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0211208</v>
+        <v>0.021929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0209644</v>
+        <v>0.0246023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0222744</v>
+        <v>0.0217909</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0297663</v>
+        <v>0.0278163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0212611</v>
+        <v>0.0288942</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0238699</v>
+        <v>0.0230176</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0333299</v>
+        <v>0.0355764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0257824</v>
+        <v>0.0353921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.025905</v>
+        <v>0.0248708</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0470296</v>
+        <v>0.0475961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.044956</v>
+        <v>0.0484365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0277847</v>
+        <v>0.0264918</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06287769999999999</v>
+        <v>0.0727917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0601104</v>
+        <v>0.0697016</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0313703</v>
+        <v>0.0295441</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0898062</v>
+        <v>0.0950836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0758123</v>
+        <v>0.0837193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0374223</v>
+        <v>0.0378196</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.118597</v>
+        <v>0.12699</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11037</v>
+        <v>0.136544</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0191091</v>
+        <v>0.0190176</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0159944</v>
+        <v>0.0162713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0199266</v>
+        <v>0.0200529</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0193805</v>
+        <v>0.0192223</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0166475</v>
+        <v>0.0167465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0204357</v>
+        <v>0.0203595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197247</v>
+        <v>0.0195117</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0172876</v>
+        <v>0.0175226</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210338</v>
+        <v>0.0210759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0201197</v>
+        <v>0.019727</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0176827</v>
+        <v>0.0180505</v>
       </c>
       <c r="C13" t="n">
-        <v>0.021182</v>
+        <v>0.0215509</v>
       </c>
       <c r="D13" t="n">
-        <v>0.020478</v>
+        <v>0.0201634</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0185289</v>
+        <v>0.0190173</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0219121</v>
+        <v>0.0222861</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0206809</v>
+        <v>0.0203962</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0194781</v>
+        <v>0.0204952</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0221002</v>
+        <v>0.0232791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0213692</v>
+        <v>0.0208383</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0217858</v>
+        <v>0.0233747</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0236942</v>
+        <v>0.0257491</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0221521</v>
+        <v>0.0217136</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0263553</v>
+        <v>0.027118</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0253631</v>
+        <v>0.0304434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0228041</v>
+        <v>0.0223174</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0322043</v>
+        <v>0.0349099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.027466</v>
+        <v>0.0352571</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0241548</v>
+        <v>0.023425</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0420822</v>
+        <v>0.0434128</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0317796</v>
+        <v>0.0406158</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0255011</v>
+        <v>0.0245801</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0530551</v>
+        <v>0.0541169</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0433568</v>
+        <v>0.0515547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0280201</v>
+        <v>0.0268825</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0706686</v>
+        <v>0.0725724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0644816</v>
+        <v>0.06459230000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0318372</v>
+        <v>0.0305768</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0954395</v>
+        <v>0.0946915</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0828805</v>
+        <v>0.0915863</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0381791</v>
+        <v>0.0373802</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.121649</v>
+        <v>0.118293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.132346</v>
+        <v>0.134152</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0189754</v>
+        <v>0.0188869</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.016651</v>
+        <v>0.0163964</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209012</v>
+        <v>0.0209032</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0192632</v>
+        <v>0.0191593</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0171585</v>
+        <v>0.0170689</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213117</v>
+        <v>0.0214105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0195097</v>
+        <v>0.0193899</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0178803</v>
+        <v>0.0179633</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0218858</v>
+        <v>0.0221044</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0199069</v>
+        <v>0.0197964</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189099</v>
+        <v>0.0189538</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0224734</v>
+        <v>0.0229909</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0202675</v>
+        <v>0.0201805</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0197732</v>
+        <v>0.0203344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0233045</v>
+        <v>0.024199</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0207055</v>
+        <v>0.020538</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0219354</v>
+        <v>0.022221</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02448</v>
+        <v>0.0255465</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0212278</v>
+        <v>0.0210808</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0254595</v>
+        <v>0.0259022</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0260714</v>
+        <v>0.0277352</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0218127</v>
+        <v>0.0216818</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0289344</v>
+        <v>0.0300619</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0281025</v>
+        <v>0.0304806</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0227423</v>
+        <v>0.0225777</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0355147</v>
+        <v>0.0358811</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0319469</v>
+        <v>0.0352041</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0239283</v>
+        <v>0.0236289</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.045327</v>
+        <v>0.0436484</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0371978</v>
+        <v>0.0412585</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0255656</v>
+        <v>0.0252582</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0532066</v>
+        <v>0.0560092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0459297</v>
+        <v>0.0507027</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0279858</v>
+        <v>0.0273877</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0718177</v>
+        <v>0.0715822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0595362</v>
+        <v>0.06375260000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0319394</v>
+        <v>0.0312998</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0942254</v>
+        <v>0.0936485</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0852618</v>
+        <v>0.08839859999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0386725</v>
+        <v>0.0383005</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.119471</v>
+        <v>0.118977</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126285</v>
+        <v>0.12685</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0195292</v>
+        <v>0.0195434</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0171494</v>
+        <v>0.0172931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0221674</v>
+        <v>0.0223513</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197514</v>
+        <v>0.0197756</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0179256</v>
+        <v>0.0180089</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0226176</v>
+        <v>0.0228364</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199975</v>
+        <v>0.0199938</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0190385</v>
+        <v>0.0191688</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0232889</v>
+        <v>0.0235381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.020349</v>
+        <v>0.0203093</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0203342</v>
+        <v>0.0202895</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0239222</v>
+        <v>0.0244358</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206965</v>
+        <v>0.0206416</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0221099</v>
+        <v>0.0222289</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0251512</v>
+        <v>0.0257143</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0211472</v>
+        <v>0.021082</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0243983</v>
+        <v>0.0250638</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0266968</v>
+        <v>0.0275545</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0217904</v>
+        <v>0.0216998</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0282902</v>
+        <v>0.0280633</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0283778</v>
+        <v>0.0294512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0224351</v>
+        <v>0.0223034</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0323267</v>
+        <v>0.0324467</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0315128</v>
+        <v>0.0331001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0233805</v>
+        <v>0.0232114</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0385573</v>
+        <v>0.0381943</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0359038</v>
+        <v>0.0375232</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0247274</v>
+        <v>0.0244951</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0467192</v>
+        <v>0.0462287</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0410985</v>
+        <v>0.0431175</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0266145</v>
+        <v>0.0262345</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0577868</v>
+        <v>0.0563604</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0505745</v>
+        <v>0.0519684</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0293589</v>
+        <v>0.028912</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07246569999999999</v>
+        <v>0.0711123</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0636221</v>
+        <v>0.0654759</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0331589</v>
+        <v>0.0327587</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0932007</v>
+        <v>0.0906281</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08327080000000001</v>
+        <v>0.08421339999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0395366</v>
+        <v>0.0390367</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.118462</v>
+        <v>0.116658</v>
       </c>
       <c r="C51" t="n">
-        <v>0.116272</v>
+        <v>0.117698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204567</v>
+        <v>0.0204157</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.142879</v>
+        <v>0.141524</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163398</v>
+        <v>0.163787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206766</v>
+        <v>0.0206488</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192397</v>
+        <v>0.0192524</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0238077</v>
+        <v>0.0239174</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0209927</v>
+        <v>0.020917</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204618</v>
+        <v>0.0204654</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0244941</v>
+        <v>0.0246145</v>
       </c>
       <c r="D54" t="n">
-        <v>0.021297</v>
+        <v>0.0212471</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0217342</v>
+        <v>0.0220621</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0254069</v>
+        <v>0.0256837</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0217283</v>
+        <v>0.0216622</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239157</v>
+        <v>0.0239538</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0264404</v>
+        <v>0.026831</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0221187</v>
+        <v>0.0220208</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263385</v>
+        <v>0.0266865</v>
       </c>
       <c r="C57" t="n">
-        <v>0.028021</v>
+        <v>0.0285177</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0226159</v>
+        <v>0.0225169</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0298521</v>
+        <v>0.0298669</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0302105</v>
+        <v>0.0309873</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0233823</v>
+        <v>0.0233017</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0340604</v>
+        <v>0.0345118</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0329089</v>
+        <v>0.0337381</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0242804</v>
+        <v>0.0242404</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0394037</v>
+        <v>0.0398439</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0368346</v>
+        <v>0.0375098</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0254987</v>
+        <v>0.0253309</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0465944</v>
+        <v>0.0472064</v>
       </c>
       <c r="C61" t="n">
-        <v>0.042817</v>
+        <v>0.0435857</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0272501</v>
+        <v>0.0270793</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.056725</v>
+        <v>0.0570498</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0510325</v>
+        <v>0.0514733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0299439</v>
+        <v>0.0298614</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0703356</v>
+        <v>0.07153370000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06285540000000001</v>
+        <v>0.0632431</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0341555</v>
+        <v>0.0340773</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.09045640000000001</v>
+        <v>0.0904292</v>
       </c>
       <c r="C64" t="n">
-        <v>0.08050160000000001</v>
+        <v>0.0804629</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0406067</v>
+        <v>0.0406072</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.117162</v>
+        <v>0.115983</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110703</v>
+        <v>0.110876</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0517995</v>
+        <v>0.0517291</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.147498</v>
+        <v>0.145831</v>
       </c>
       <c r="C66" t="n">
-        <v>0.157172</v>
+        <v>0.156639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209749</v>
+        <v>0.0209625</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197899</v>
+        <v>0.0197018</v>
       </c>
       <c r="C67" t="n">
-        <v>0.024511</v>
+        <v>0.0246507</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212846</v>
+        <v>0.0212326</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0211339</v>
+        <v>0.0212465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0253302</v>
+        <v>0.0255188</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216523</v>
+        <v>0.0216806</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0227563</v>
+        <v>0.0229501</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0262521</v>
+        <v>0.0264966</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220997</v>
+        <v>0.0220125</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.024933</v>
+        <v>0.024697</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0274539</v>
+        <v>0.0277366</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0225438</v>
+        <v>0.02249</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0275682</v>
+        <v>0.0270869</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0287802</v>
+        <v>0.029157</v>
       </c>
       <c r="D71" t="n">
-        <v>0.023081</v>
+        <v>0.0230429</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0306103</v>
+        <v>0.0305009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0308494</v>
+        <v>0.0312729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0237219</v>
+        <v>0.0236818</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346627</v>
+        <v>0.0345767</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0336029</v>
+        <v>0.0338488</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0247158</v>
+        <v>0.0246273</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0397893</v>
+        <v>0.0398467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0374945</v>
+        <v>0.0375988</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0259592</v>
+        <v>0.0258197</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.046612</v>
+        <v>0.0465964</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0429753</v>
+        <v>0.0430047</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0277293</v>
+        <v>0.0276557</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0557952</v>
+        <v>0.0559377</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0503827</v>
+        <v>0.0504652</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0301609</v>
+        <v>0.0301952</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068813</v>
+        <v>0.0687049</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0612486</v>
+        <v>0.0612242</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0339582</v>
+        <v>0.0339347</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0875112</v>
+        <v>0.0871021</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0764654</v>
+        <v>0.0763592</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0397055</v>
+        <v>0.0398876</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112669</v>
+        <v>0.112106</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101955</v>
+        <v>0.101941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0496195</v>
+        <v>0.0497105</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.144547</v>
+        <v>0.142424</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144411</v>
+        <v>0.14423</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212308</v>
+        <v>0.0212711</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0200003</v>
+        <v>0.0199978</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253072</v>
+        <v>0.0253972</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0216746</v>
+        <v>0.0216385</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0211774</v>
+        <v>0.0213857</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0261759</v>
+        <v>0.0262371</v>
       </c>
       <c r="D82" t="n">
-        <v>0.022046</v>
+        <v>0.0220587</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0231047</v>
+        <v>0.0228632</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271795</v>
+        <v>0.0271826</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224982</v>
+        <v>0.0224755</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0248261</v>
+        <v>0.0251131</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0283685</v>
+        <v>0.0284033</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229819</v>
+        <v>0.0229802</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0271825</v>
+        <v>0.0273555</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0298798</v>
+        <v>0.0299217</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0237091</v>
+        <v>0.0236182</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0305073</v>
+        <v>0.0305872</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318635</v>
+        <v>0.0318094</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244864</v>
+        <v>0.0244031</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341885</v>
+        <v>0.0343993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.034199</v>
+        <v>0.0342144</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0255205</v>
+        <v>0.0253848</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0394313</v>
+        <v>0.0392101</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0376437</v>
+        <v>0.0377389</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0266565</v>
+        <v>0.0266164</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0458157</v>
+        <v>0.0460061</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0423236</v>
+        <v>0.0425392</v>
       </c>
       <c r="D89" t="n">
-        <v>0.028452</v>
+        <v>0.0282385</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544632</v>
+        <v>0.0545109</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0494087</v>
+        <v>0.0497224</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307039</v>
+        <v>0.0307793</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.066262</v>
+        <v>0.0670458</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0591395</v>
+        <v>0.0595405</v>
       </c>
       <c r="D91" t="n">
-        <v>0.034109</v>
+        <v>0.0340335</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0832316</v>
+        <v>0.0841335</v>
       </c>
       <c r="C92" t="n">
-        <v>0.07360849999999999</v>
+        <v>0.0743519</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0393051</v>
+        <v>0.0394323</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107496</v>
+        <v>0.107388</v>
       </c>
       <c r="C93" t="n">
-        <v>0.09729169999999999</v>
+        <v>0.0979066</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0482746</v>
+        <v>0.0481473</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.13902</v>
+        <v>0.137541</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136267</v>
+        <v>0.136954</v>
       </c>
       <c r="D94" t="n">
-        <v>0.022979</v>
+        <v>0.0230021</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0209475</v>
+        <v>0.020562</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270822</v>
+        <v>0.0269697</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0234489</v>
+        <v>0.0235403</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0219383</v>
+        <v>0.0222434</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282356</v>
+        <v>0.0282448</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0241237</v>
+        <v>0.0240165</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0234775</v>
+        <v>0.0238075</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0299339</v>
+        <v>0.0302312</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0248111</v>
+        <v>0.0246124</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0252222</v>
+        <v>0.0251022</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0331659</v>
+        <v>0.0330795</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0254342</v>
+        <v>0.0253717</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0276446</v>
+        <v>0.0275322</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365671</v>
+        <v>0.0367159</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0268807</v>
+        <v>0.0266643</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.030224</v>
+        <v>0.030355</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404121</v>
+        <v>0.0404373</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0291055</v>
+        <v>0.0287974</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0343519</v>
+        <v>0.0345682</v>
       </c>
       <c r="C101" t="n">
-        <v>0.043708</v>
+        <v>0.043815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0319096</v>
+        <v>0.0319672</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0396284</v>
+        <v>0.0401841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0470963</v>
+        <v>0.0471673</v>
       </c>
       <c r="D102" t="n">
-        <v>0.035014</v>
+        <v>0.0348694</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0457435</v>
+        <v>0.0461184</v>
       </c>
       <c r="C103" t="n">
-        <v>0.050951</v>
+        <v>0.0509074</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0381657</v>
+        <v>0.03834</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0543066</v>
+        <v>0.054354</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0559337</v>
+        <v>0.0559971</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0414007</v>
+        <v>0.04141</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.06509860000000001</v>
+        <v>0.0657708</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0630762</v>
+        <v>0.06302290000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0448883</v>
+        <v>0.0448866</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08073</v>
+        <v>0.0815993</v>
       </c>
       <c r="C106" t="n">
-        <v>0.074377</v>
+        <v>0.0743212</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0490485</v>
+        <v>0.0491382</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103147</v>
+        <v>0.103363</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0937436</v>
+        <v>0.093517</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0557509</v>
+        <v>0.0554094</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132952</v>
+        <v>0.132395</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129182</v>
+        <v>0.129151</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0349941</v>
+        <v>0.0349559</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168401</v>
+        <v>0.167432</v>
       </c>
       <c r="C109" t="n">
-        <v>0.181005</v>
+        <v>0.180949</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0361355</v>
+        <v>0.0360037</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313912</v>
+        <v>0.0313112</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432432</v>
+        <v>0.0432222</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0370734</v>
+        <v>0.0369367</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0324716</v>
+        <v>0.0326716</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441777</v>
+        <v>0.0442117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0379216</v>
+        <v>0.0377552</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03439</v>
+        <v>0.034192</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0453818</v>
+        <v>0.045554</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0387403</v>
+        <v>0.0386251</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03592</v>
+        <v>0.0360707</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0465441</v>
+        <v>0.04664</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0394196</v>
+        <v>0.039322</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0380051</v>
+        <v>0.0382439</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0481491</v>
+        <v>0.0480627</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0407507</v>
+        <v>0.0406154</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0407537</v>
+        <v>0.0410186</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0498238</v>
+        <v>0.0499926</v>
       </c>
       <c r="D115" t="n">
-        <v>0.041747</v>
+        <v>0.0414076</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0439802</v>
+        <v>0.0442232</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0522161</v>
+        <v>0.0520835</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0428491</v>
+        <v>0.0429483</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488177</v>
+        <v>0.0488381</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0552289</v>
+        <v>0.0551636</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0444824</v>
+        <v>0.0443637</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0553189</v>
+        <v>0.0554126</v>
       </c>
       <c r="C118" t="n">
-        <v>0.059734</v>
+        <v>0.0593039</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0465709</v>
+        <v>0.0465511</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0648415</v>
+        <v>0.0650124</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0653774</v>
+        <v>0.06520629999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>0.049203</v>
+        <v>0.0489807</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07931249999999999</v>
+        <v>0.07954219999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0750039</v>
+        <v>0.0748692</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0528367</v>
+        <v>0.0526991</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100231</v>
+        <v>0.0999655</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0913525</v>
+        <v>0.0912211</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0581096</v>
+        <v>0.0583966</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128507</v>
+        <v>0.128091</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121737</v>
+        <v>0.121696</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0682914</v>
+        <v>0.06804730000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163726</v>
+        <v>0.162919</v>
       </c>
       <c r="C123" t="n">
-        <v>0.170059</v>
+        <v>0.169768</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0405997</v>
+        <v>0.0405756</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0345104</v>
+        <v>0.0341578</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0486105</v>
+        <v>0.0484659</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0411791</v>
+        <v>0.0413954</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0355374</v>
+        <v>0.035312</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0496536</v>
+        <v>0.0495339</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0418256</v>
+        <v>0.0428377</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0367198</v>
+        <v>0.0371891</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0508347</v>
+        <v>0.0508625</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0425922</v>
+        <v>0.0437196</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0387748</v>
+        <v>0.0386454</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0519854</v>
+        <v>0.052058</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0446759</v>
+        <v>0.0443467</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0404242</v>
+        <v>0.0406411</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0536059</v>
+        <v>0.0537741</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0455319</v>
+        <v>0.0452594</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0432199</v>
+        <v>0.0433448</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0555523</v>
+        <v>0.0556236</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0469148</v>
+        <v>0.0466727</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0467958</v>
+        <v>0.0464274</v>
       </c>
       <c r="C130" t="n">
-        <v>0.058403</v>
+        <v>0.0579605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0484163</v>
+        <v>0.0478724</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521357</v>
+        <v>0.0521866</v>
       </c>
       <c r="C131" t="n">
-        <v>0.060926</v>
+        <v>0.0611273</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0493555</v>
+        <v>0.0493859</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0588225</v>
+        <v>0.0586651</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0657118</v>
+        <v>0.0651366</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0511863</v>
+        <v>0.0514221</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0680564</v>
+        <v>0.06821149999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07147920000000001</v>
+        <v>0.0713548</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0538343</v>
+        <v>0.0537617</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0819787</v>
+        <v>0.0819853</v>
       </c>
       <c r="C134" t="n">
-        <v>0.08056149999999999</v>
+        <v>0.0806968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0576513</v>
+        <v>0.0576586</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101942</v>
+        <v>0.101681</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09542580000000001</v>
+        <v>0.0955157</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0636929</v>
+        <v>0.06351080000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.130611</v>
+        <v>0.129489</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121775</v>
+        <v>0.121821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0729071</v>
+        <v>0.0728499</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.165493</v>
+        <v>0.16381</v>
       </c>
       <c r="C137" t="n">
-        <v>0.166905</v>
+        <v>0.165714</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0585974</v>
+        <v>0.0586958</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0466819</v>
+        <v>0.0469567</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0630014</v>
+        <v>0.0676804</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0594269</v>
+        <v>0.0590865</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0478376</v>
+        <v>0.0479043</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0641248</v>
+        <v>0.0640076</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0602128</v>
+        <v>0.059982</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0490331</v>
+        <v>0.0496595</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0654969</v>
+        <v>0.0651943</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0610407</v>
+        <v>0.0606605</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0508497</v>
+        <v>0.0510347</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06665509999999999</v>
+        <v>0.0666687</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0617651</v>
+        <v>0.0615051</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0526832</v>
+        <v>0.0532551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.068383</v>
+        <v>0.0681568</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06289119999999999</v>
+        <v>0.0624585</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0553753</v>
+        <v>0.055522</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07023020000000001</v>
+        <v>0.0700597</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0636467</v>
+        <v>0.0634373</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0198308</v>
+        <v>0.0192824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0219151</v>
+        <v>0.0223308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0215052</v>
+        <v>0.0215341</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.021929</v>
+        <v>0.022787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0246023</v>
+        <v>0.0246437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0217909</v>
+        <v>0.0217608</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0278163</v>
+        <v>0.0254227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0288942</v>
+        <v>0.0282634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0230176</v>
+        <v>0.0229104</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0355764</v>
+        <v>0.0350084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0353921</v>
+        <v>0.0363438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0248708</v>
+        <v>0.0248432</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0475961</v>
+        <v>0.0484515</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0484365</v>
+        <v>0.0438801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0264918</v>
+        <v>0.0262211</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0727917</v>
+        <v>0.06955409999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0697016</v>
+        <v>0.0673873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0295441</v>
+        <v>0.0292879</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0950836</v>
+        <v>0.0943093</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0837193</v>
+        <v>0.0830534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0378196</v>
+        <v>0.0373346</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.12699</v>
+        <v>0.110221</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136544</v>
+        <v>0.136067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0190176</v>
+        <v>0.0188402</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0162713</v>
+        <v>0.0165819</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0200529</v>
+        <v>0.019834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0192223</v>
+        <v>0.0190636</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0167465</v>
+        <v>0.0170873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0203595</v>
+        <v>0.0203593</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0195117</v>
+        <v>0.0193724</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0175226</v>
+        <v>0.0174093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0210759</v>
+        <v>0.0211046</v>
       </c>
       <c r="D12" t="n">
-        <v>0.019727</v>
+        <v>0.0198339</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180505</v>
+        <v>0.0180634</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0215509</v>
+        <v>0.0213331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0201634</v>
+        <v>0.0199861</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0190173</v>
+        <v>0.0188295</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0222861</v>
+        <v>0.0222466</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0203962</v>
+        <v>0.0203405</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0204952</v>
+        <v>0.0202263</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0232791</v>
+        <v>0.0230519</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0208383</v>
+        <v>0.0209222</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0233747</v>
+        <v>0.0225393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0257491</v>
+        <v>0.0255221</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0217136</v>
+        <v>0.021737</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.027118</v>
+        <v>0.0270046</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0304434</v>
+        <v>0.0276107</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0223174</v>
+        <v>0.0221374</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0349099</v>
+        <v>0.0340402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0352571</v>
+        <v>0.0361442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.023425</v>
+        <v>0.0233913</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0434128</v>
+        <v>0.0405952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0406158</v>
+        <v>0.0386677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0245801</v>
+        <v>0.0246614</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0541169</v>
+        <v>0.0540967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0515547</v>
+        <v>0.0487952</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0268825</v>
+        <v>0.0267556</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0725724</v>
+        <v>0.0753144</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06459230000000001</v>
+        <v>0.06779159999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0305768</v>
+        <v>0.03071</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0946915</v>
+        <v>0.0908984</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0915863</v>
+        <v>0.0861601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0373802</v>
+        <v>0.0375423</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.118293</v>
+        <v>0.124207</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134152</v>
+        <v>0.134572</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0188869</v>
+        <v>0.0188982</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0163964</v>
+        <v>0.0165232</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209032</v>
+        <v>0.0209599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0191593</v>
+        <v>0.0191797</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0170689</v>
+        <v>0.0173872</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0214105</v>
+        <v>0.0213833</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0193899</v>
+        <v>0.0193949</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179633</v>
+        <v>0.0179736</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0221044</v>
+        <v>0.022113</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0197964</v>
+        <v>0.0197928</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189538</v>
+        <v>0.0189025</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229909</v>
+        <v>0.0229587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0201805</v>
+        <v>0.020183</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0203344</v>
+        <v>0.0200386</v>
       </c>
       <c r="C28" t="n">
-        <v>0.024199</v>
+        <v>0.0241888</v>
       </c>
       <c r="D28" t="n">
-        <v>0.020538</v>
+        <v>0.0205525</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.022221</v>
+        <v>0.0228294</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0255465</v>
+        <v>0.0255318</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0210808</v>
+        <v>0.0211047</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0259022</v>
+        <v>0.026279</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0277352</v>
+        <v>0.02765</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0216818</v>
+        <v>0.0216957</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0300619</v>
+        <v>0.0301288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0304806</v>
+        <v>0.0304101</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0225777</v>
+        <v>0.022566</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0358811</v>
+        <v>0.0367004</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0352041</v>
+        <v>0.035119</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236289</v>
+        <v>0.0236612</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0436484</v>
+        <v>0.0456813</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0412585</v>
+        <v>0.0416871</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0252582</v>
+        <v>0.0252685</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0560092</v>
+        <v>0.0565163</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0507027</v>
+        <v>0.050723</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0273877</v>
+        <v>0.0273439</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0715822</v>
+        <v>0.07176689999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06375260000000001</v>
+        <v>0.06358080000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0312998</v>
+        <v>0.0312813</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0936485</v>
+        <v>0.09289409999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08839859999999999</v>
+        <v>0.0887559</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0383005</v>
+        <v>0.0385293</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.118977</v>
+        <v>0.117173</v>
       </c>
       <c r="C37" t="n">
-        <v>0.12685</v>
+        <v>0.126092</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0195434</v>
+        <v>0.0195498</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0172931</v>
+        <v>0.0170038</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0223513</v>
+        <v>0.0223442</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197756</v>
+        <v>0.0197726</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0180089</v>
+        <v>0.0180516</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0228364</v>
+        <v>0.0228083</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199938</v>
+        <v>0.0199995</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0191688</v>
+        <v>0.0188444</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235381</v>
+        <v>0.0235354</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0203093</v>
+        <v>0.0203111</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0202895</v>
+        <v>0.0201332</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0244358</v>
+        <v>0.024413</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206416</v>
+        <v>0.0206475</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0222289</v>
+        <v>0.0217128</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0257143</v>
+        <v>0.0257419</v>
       </c>
       <c r="D42" t="n">
-        <v>0.021082</v>
+        <v>0.0210713</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0250638</v>
+        <v>0.0241242</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0275545</v>
+        <v>0.0276459</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0216998</v>
+        <v>0.0216783</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0280633</v>
+        <v>0.0274554</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0294512</v>
+        <v>0.0294861</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0223034</v>
+        <v>0.0223001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0324467</v>
+        <v>0.032656</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0331001</v>
+        <v>0.0329824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0232114</v>
+        <v>0.0231973</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0381943</v>
+        <v>0.0378113</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0375232</v>
+        <v>0.0375305</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0244951</v>
+        <v>0.0245148</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0462287</v>
+        <v>0.0454226</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0431175</v>
+        <v>0.0430927</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262345</v>
+        <v>0.0262394</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0563604</v>
+        <v>0.0556872</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519684</v>
+        <v>0.0519925</v>
       </c>
       <c r="D48" t="n">
-        <v>0.028912</v>
+        <v>0.0289159</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0711123</v>
+        <v>0.0711672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0654759</v>
+        <v>0.0652823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0327587</v>
+        <v>0.0327134</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0906281</v>
+        <v>0.09126720000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08421339999999999</v>
+        <v>0.0845144</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0390367</v>
+        <v>0.0389778</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.116658</v>
+        <v>0.117415</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117698</v>
+        <v>0.117621</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204157</v>
+        <v>0.0204049</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141524</v>
+        <v>0.141993</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163787</v>
+        <v>0.163266</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206488</v>
+        <v>0.0206291</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192524</v>
+        <v>0.0192794</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0239174</v>
+        <v>0.0239427</v>
       </c>
       <c r="D53" t="n">
-        <v>0.020917</v>
+        <v>0.0208996</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0204654</v>
+        <v>0.0205508</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0246145</v>
+        <v>0.0246146</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212471</v>
+        <v>0.0212485</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0220621</v>
+        <v>0.0219352</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0256837</v>
+        <v>0.0257023</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0216622</v>
+        <v>0.0216192</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0239538</v>
+        <v>0.0238673</v>
       </c>
       <c r="C56" t="n">
-        <v>0.026831</v>
+        <v>0.0268635</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0220208</v>
+        <v>0.022017</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0266865</v>
+        <v>0.0265566</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0285177</v>
+        <v>0.028547</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0225169</v>
+        <v>0.0225314</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0298669</v>
+        <v>0.0300479</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0309873</v>
+        <v>0.0309291</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0233017</v>
+        <v>0.0232519</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0345118</v>
+        <v>0.0344605</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0337381</v>
+        <v>0.0336416</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0242404</v>
+        <v>0.0241542</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0398439</v>
+        <v>0.0399058</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0375098</v>
+        <v>0.0376174</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0253309</v>
+        <v>0.0253325</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0472064</v>
+        <v>0.0472459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0435857</v>
+        <v>0.0433757</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0270793</v>
+        <v>0.0271058</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0570498</v>
+        <v>0.0572801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0514733</v>
+        <v>0.0516232</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0298614</v>
+        <v>0.0298425</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07153370000000001</v>
+        <v>0.0715269</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0632431</v>
+        <v>0.0631472</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0340773</v>
+        <v>0.034031</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0904292</v>
+        <v>0.0899361</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0804629</v>
+        <v>0.0804212</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0406072</v>
+        <v>0.0406621</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.115983</v>
+        <v>0.116015</v>
       </c>
       <c r="C65" t="n">
-        <v>0.110876</v>
+        <v>0.11062</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0517291</v>
+        <v>0.0516897</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.145831</v>
+        <v>0.146215</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156639</v>
+        <v>0.156917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209625</v>
+        <v>0.0209191</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0197018</v>
+        <v>0.0198065</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0246507</v>
+        <v>0.0245928</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212326</v>
+        <v>0.0212725</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212465</v>
+        <v>0.0212646</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0255188</v>
+        <v>0.0255179</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0216806</v>
+        <v>0.0215994</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229501</v>
+        <v>0.0229548</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0264966</v>
+        <v>0.0265111</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0220125</v>
+        <v>0.02203</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.024697</v>
+        <v>0.0247027</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0277366</v>
+        <v>0.0277485</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02249</v>
+        <v>0.0224798</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0270869</v>
+        <v>0.0273686</v>
       </c>
       <c r="C71" t="n">
-        <v>0.029157</v>
+        <v>0.0291997</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230429</v>
+        <v>0.0230393</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0305009</v>
+        <v>0.0303975</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0312729</v>
+        <v>0.0312027</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0236818</v>
+        <v>0.0236926</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0345767</v>
+        <v>0.0346074</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0338488</v>
+        <v>0.0338489</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0246273</v>
+        <v>0.0246471</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0398467</v>
+        <v>0.039786</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0375988</v>
+        <v>0.037681</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0258197</v>
+        <v>0.0258833</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0465964</v>
+        <v>0.0467975</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0430047</v>
+        <v>0.0430757</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276557</v>
+        <v>0.0276356</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0559377</v>
+        <v>0.0558944</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504652</v>
+        <v>0.0504793</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0301952</v>
+        <v>0.0301812</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0687049</v>
+        <v>0.068563</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0612242</v>
+        <v>0.0612553</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0339347</v>
+        <v>0.0339739</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0871021</v>
+        <v>0.0867175</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763592</v>
+        <v>0.0763707</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0398876</v>
+        <v>0.0398074</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.112106</v>
+        <v>0.111578</v>
       </c>
       <c r="C79" t="n">
-        <v>0.101941</v>
+        <v>0.10201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0497105</v>
+        <v>0.0496978</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142424</v>
+        <v>0.142415</v>
       </c>
       <c r="C80" t="n">
-        <v>0.14423</v>
+        <v>0.144181</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212711</v>
+        <v>0.0212238</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0199978</v>
+        <v>0.020142</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253972</v>
+        <v>0.0253866</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0216385</v>
+        <v>0.0216324</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0213857</v>
+        <v>0.0212459</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0262371</v>
+        <v>0.0262222</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0220587</v>
+        <v>0.021968</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0228632</v>
+        <v>0.0230698</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0271826</v>
+        <v>0.0272605</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224755</v>
+        <v>0.0224621</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0251131</v>
+        <v>0.0247966</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0284033</v>
+        <v>0.0284854</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229802</v>
+        <v>0.0229742</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0273555</v>
+        <v>0.0271694</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0299217</v>
+        <v>0.0300425</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0236182</v>
+        <v>0.0237234</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0305872</v>
+        <v>0.0302383</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0318094</v>
+        <v>0.0319462</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244031</v>
+        <v>0.0244664</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0343993</v>
+        <v>0.0341936</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0342144</v>
+        <v>0.0342856</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0253848</v>
+        <v>0.0254084</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0392101</v>
+        <v>0.038993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0377389</v>
+        <v>0.0378454</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0266164</v>
+        <v>0.026724</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0460061</v>
+        <v>0.0455788</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425392</v>
+        <v>0.0425336</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0282385</v>
+        <v>0.028416</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0545109</v>
+        <v>0.0544953</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0497224</v>
+        <v>0.0498202</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307793</v>
+        <v>0.0307864</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0670458</v>
+        <v>0.0665249</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595405</v>
+        <v>0.0595984</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0340335</v>
+        <v>0.0341098</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0841335</v>
+        <v>0.08391410000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0743519</v>
+        <v>0.0742888</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0394323</v>
+        <v>0.0394341</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107388</v>
+        <v>0.107262</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0979066</v>
+        <v>0.0978695</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0481473</v>
+        <v>0.048243</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137541</v>
+        <v>0.137443</v>
       </c>
       <c r="C94" t="n">
-        <v>0.136954</v>
+        <v>0.137039</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0230021</v>
+        <v>0.0229953</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.020562</v>
+        <v>0.0205301</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0269697</v>
+        <v>0.0270525</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0235403</v>
+        <v>0.0234998</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0222434</v>
+        <v>0.0220341</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282448</v>
+        <v>0.0282228</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0240165</v>
+        <v>0.0241175</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0238075</v>
+        <v>0.0231732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0302312</v>
+        <v>0.0301937</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0246124</v>
+        <v>0.0247142</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251022</v>
+        <v>0.0251539</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0330795</v>
+        <v>0.0330376</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0253717</v>
+        <v>0.0255242</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0275322</v>
+        <v>0.0274043</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0367159</v>
+        <v>0.0365403</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0266643</v>
+        <v>0.0269132</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.030355</v>
+        <v>0.0308126</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0404373</v>
+        <v>0.0402368</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0287974</v>
+        <v>0.0289756</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0345682</v>
+        <v>0.0348602</v>
       </c>
       <c r="C101" t="n">
-        <v>0.043815</v>
+        <v>0.0438462</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0319672</v>
+        <v>0.0319234</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0401841</v>
+        <v>0.0399581</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0471673</v>
+        <v>0.047224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0348694</v>
+        <v>0.0350731</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0461184</v>
+        <v>0.0462277</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0509074</v>
+        <v>0.050926</v>
       </c>
       <c r="D103" t="n">
-        <v>0.03834</v>
+        <v>0.0383633</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.054354</v>
+        <v>0.0545371</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0559971</v>
+        <v>0.0560719</v>
       </c>
       <c r="D104" t="n">
-        <v>0.04141</v>
+        <v>0.0414807</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0657708</v>
+        <v>0.0657605</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06302290000000001</v>
+        <v>0.06301909999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0448866</v>
+        <v>0.0448104</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0815993</v>
+        <v>0.08112709999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0743212</v>
+        <v>0.0741865</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0491382</v>
+        <v>0.0491259</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.103363</v>
+        <v>0.102571</v>
       </c>
       <c r="C107" t="n">
-        <v>0.093517</v>
+        <v>0.0936776</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0554094</v>
+        <v>0.0558354</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132395</v>
+        <v>0.132138</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129151</v>
+        <v>0.129069</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0349559</v>
+        <v>0.0349373</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167432</v>
+        <v>0.168093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180949</v>
+        <v>0.180894</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0360037</v>
+        <v>0.0357255</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0313112</v>
+        <v>0.030933</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0432222</v>
+        <v>0.0431652</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0369367</v>
+        <v>0.0369401</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0326716</v>
+        <v>0.0329727</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0442117</v>
+        <v>0.0441118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0377552</v>
+        <v>0.0377742</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.034192</v>
+        <v>0.0345242</v>
       </c>
       <c r="C112" t="n">
-        <v>0.045554</v>
+        <v>0.0454109</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0386251</v>
+        <v>0.0386543</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0360707</v>
+        <v>0.0363155</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04664</v>
+        <v>0.0469124</v>
       </c>
       <c r="D113" t="n">
-        <v>0.039322</v>
+        <v>0.0398848</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0382439</v>
+        <v>0.0384833</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0480627</v>
+        <v>0.04817</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0406154</v>
+        <v>0.0406043</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0410186</v>
+        <v>0.0406998</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0499926</v>
+        <v>0.0497532</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0414076</v>
+        <v>0.0416735</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442232</v>
+        <v>0.0442582</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0520835</v>
+        <v>0.0520724</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0429483</v>
+        <v>0.0429252</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0488381</v>
+        <v>0.0487123</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551636</v>
+        <v>0.0551709</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0443637</v>
+        <v>0.0442984</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0554126</v>
+        <v>0.0551498</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0593039</v>
+        <v>0.059236</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0465511</v>
+        <v>0.0462689</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0650124</v>
+        <v>0.0649938</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06520629999999999</v>
+        <v>0.0651714</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0489807</v>
+        <v>0.0490336</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07954219999999999</v>
+        <v>0.07934769999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0748692</v>
+        <v>0.0749438</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0526991</v>
+        <v>0.0527719</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.0999655</v>
+        <v>0.100073</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0912211</v>
+        <v>0.0911689</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0583966</v>
+        <v>0.0584355</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.128091</v>
+        <v>0.127994</v>
       </c>
       <c r="C122" t="n">
-        <v>0.121696</v>
+        <v>0.12141</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06804730000000001</v>
+        <v>0.06825779999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.162919</v>
+        <v>0.163439</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169768</v>
+        <v>0.169793</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0405756</v>
+        <v>0.0407546</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0341578</v>
+        <v>0.0339416</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0484659</v>
+        <v>0.0488397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0413954</v>
+        <v>0.0412232</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035312</v>
+        <v>0.035228</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0495339</v>
+        <v>0.0496467</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0428377</v>
+        <v>0.0431162</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0371891</v>
+        <v>0.0366875</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0508625</v>
+        <v>0.0510017</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0437196</v>
+        <v>0.0437208</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0386454</v>
+        <v>0.038783</v>
       </c>
       <c r="C127" t="n">
-        <v>0.052058</v>
+        <v>0.0520796</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0443467</v>
+        <v>0.0447826</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0406411</v>
+        <v>0.0408943</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0537741</v>
+        <v>0.053795</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0452594</v>
+        <v>0.0457135</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0433448</v>
+        <v>0.0437778</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0556236</v>
+        <v>0.0549055</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0466727</v>
+        <v>0.0465139</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0464274</v>
+        <v>0.046622</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0579605</v>
+        <v>0.0573536</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0478724</v>
+        <v>0.0480969</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0521866</v>
+        <v>0.0522832</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0611273</v>
+        <v>0.0610135</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0493859</v>
+        <v>0.0493757</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0586651</v>
+        <v>0.0590554</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0651366</v>
+        <v>0.06545579999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0514221</v>
+        <v>0.0512476</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.06821149999999999</v>
+        <v>0.0683796</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0713548</v>
+        <v>0.07061099999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0537617</v>
+        <v>0.054118</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0819853</v>
+        <v>0.08219700000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0806968</v>
+        <v>0.08057110000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0576586</v>
+        <v>0.0578562</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.101681</v>
+        <v>0.102223</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0955157</v>
+        <v>0.0958545</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06351080000000001</v>
+        <v>0.0634776</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129489</v>
+        <v>0.129971</v>
       </c>
       <c r="C136" t="n">
-        <v>0.121821</v>
+        <v>0.122049</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0728499</v>
+        <v>0.07266209999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16381</v>
+        <v>0.16298</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165714</v>
+        <v>0.165041</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0586958</v>
+        <v>0.0587813</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0469567</v>
+        <v>0.0475372</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0676804</v>
+        <v>0.06317109999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0590865</v>
+        <v>0.0593352</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0479043</v>
+        <v>0.0480221</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0640076</v>
+        <v>0.0642674</v>
       </c>
       <c r="D139" t="n">
-        <v>0.059982</v>
+        <v>0.0601432</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0496595</v>
+        <v>0.0494115</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0651943</v>
+        <v>0.0654602</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0606605</v>
+        <v>0.0610174</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0510347</v>
+        <v>0.0509051</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0666687</v>
+        <v>0.06666130000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0615051</v>
+        <v>0.0616236</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0532551</v>
+        <v>0.0529909</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0681568</v>
+        <v>0.0683252</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0624585</v>
+        <v>0.06269089999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.055522</v>
+        <v>0.0557119</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0700597</v>
+        <v>0.0702118</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0634373</v>
+        <v>0.06366330000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Scattered unsuccessful looukp.xlsx
+++ b/clang-arm64/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0192824</v>
+        <v>0.020381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0223308</v>
+        <v>0.0243821</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0215341</v>
+        <v>0.0213141</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.022787</v>
+        <v>0.0231567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0246437</v>
+        <v>0.0263419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0217608</v>
+        <v>0.0220012</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0254227</v>
+        <v>0.0281757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0282634</v>
+        <v>0.03189</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0229104</v>
+        <v>0.0228637</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0350084</v>
+        <v>0.0352799</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0363438</v>
+        <v>0.0372784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0248432</v>
+        <v>0.0244676</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0484515</v>
+        <v>0.04539</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0438801</v>
+        <v>0.0515556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0262211</v>
+        <v>0.0259604</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06955409999999999</v>
+        <v>0.06491429999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0673873</v>
+        <v>0.06764829999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0292879</v>
+        <v>0.028658</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0943093</v>
+        <v>0.0891632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0830534</v>
+        <v>0.08149480000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0373346</v>
+        <v>0.0371282</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.110221</v>
+        <v>0.112722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.136067</v>
+        <v>0.129222</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0188402</v>
+        <v>0.0186849</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165819</v>
+        <v>0.017053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.019834</v>
+        <v>0.0208127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0190636</v>
+        <v>0.0189948</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0170873</v>
+        <v>0.0176131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0203593</v>
+        <v>0.0213278</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0193724</v>
+        <v>0.0192948</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0174093</v>
+        <v>0.018294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0211046</v>
+        <v>0.0218828</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0198339</v>
+        <v>0.0198101</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0180634</v>
+        <v>0.019009</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0213331</v>
+        <v>0.02263</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0199861</v>
+        <v>0.0200323</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0188295</v>
+        <v>0.0202027</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0222466</v>
+        <v>0.0232512</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0203405</v>
+        <v>0.0205084</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0202263</v>
+        <v>0.0216873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0230519</v>
+        <v>0.0241428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0209222</v>
+        <v>0.0207002</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0225393</v>
+        <v>0.0238871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0255221</v>
+        <v>0.0268695</v>
       </c>
       <c r="D16" t="n">
-        <v>0.021737</v>
+        <v>0.0214276</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0270046</v>
+        <v>0.0283309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0276107</v>
+        <v>0.0288871</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0221374</v>
+        <v>0.022011</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0340402</v>
+        <v>0.0347629</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0361442</v>
+        <v>0.0328262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0233913</v>
+        <v>0.0230028</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0405952</v>
+        <v>0.0427405</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0386677</v>
+        <v>0.0390993</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0246614</v>
+        <v>0.0242253</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0540967</v>
+        <v>0.0557526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0487952</v>
+        <v>0.0470423</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0267556</v>
+        <v>0.0262024</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0753144</v>
+        <v>0.0731723</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06779159999999999</v>
+        <v>0.0633778</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03071</v>
+        <v>0.030044</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0908984</v>
+        <v>0.0958377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0861601</v>
+        <v>0.088602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0375423</v>
+        <v>0.0370516</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.124207</v>
+        <v>0.12115</v>
       </c>
       <c r="C23" t="n">
-        <v>0.134572</v>
+        <v>0.13405</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0188982</v>
+        <v>0.0188867</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165232</v>
+        <v>0.0167999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0209599</v>
+        <v>0.0214978</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0191797</v>
+        <v>0.0192237</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0173872</v>
+        <v>0.017383</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0213833</v>
+        <v>0.0219645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0193949</v>
+        <v>0.0194425</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0179736</v>
+        <v>0.0183382</v>
       </c>
       <c r="C26" t="n">
-        <v>0.022113</v>
+        <v>0.0227306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0197928</v>
+        <v>0.0197946</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0189025</v>
+        <v>0.0193988</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0229587</v>
+        <v>0.0236983</v>
       </c>
       <c r="D27" t="n">
-        <v>0.020183</v>
+        <v>0.0201342</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0200386</v>
+        <v>0.0205537</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0241888</v>
+        <v>0.0246423</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0205525</v>
+        <v>0.0205266</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0228294</v>
+        <v>0.0226966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0255318</v>
+        <v>0.025917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0211047</v>
+        <v>0.020959</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.026279</v>
+        <v>0.0250047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02765</v>
+        <v>0.0281203</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0216957</v>
+        <v>0.0214844</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0301288</v>
+        <v>0.0309238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0304101</v>
+        <v>0.0305191</v>
       </c>
       <c r="D31" t="n">
-        <v>0.022566</v>
+        <v>0.0223231</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0367004</v>
+        <v>0.0361738</v>
       </c>
       <c r="C32" t="n">
-        <v>0.035119</v>
+        <v>0.0351044</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0236612</v>
+        <v>0.0233566</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0456813</v>
+        <v>0.0455675</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0416871</v>
+        <v>0.0407874</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0252685</v>
+        <v>0.0248748</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565163</v>
+        <v>0.0564017</v>
       </c>
       <c r="C34" t="n">
-        <v>0.050723</v>
+        <v>0.0501899</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0273439</v>
+        <v>0.0269432</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.07176689999999999</v>
+        <v>0.0722527</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06358080000000001</v>
+        <v>0.06329070000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0312813</v>
+        <v>0.0307678</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09289409999999999</v>
+        <v>0.09413820000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0887559</v>
+        <v>0.0883089</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0385293</v>
+        <v>0.0381048</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.117173</v>
+        <v>0.118638</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126092</v>
+        <v>0.125523</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0195498</v>
+        <v>0.019505</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0170038</v>
+        <v>0.0174142</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0223442</v>
+        <v>0.0226441</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0197726</v>
+        <v>0.0197378</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0180516</v>
+        <v>0.0181997</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0228083</v>
+        <v>0.0231278</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0199995</v>
+        <v>0.0199753</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0188444</v>
+        <v>0.0191908</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0235354</v>
+        <v>0.0239266</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0203111</v>
+        <v>0.0202695</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0201332</v>
+        <v>0.0204403</v>
       </c>
       <c r="C41" t="n">
-        <v>0.024413</v>
+        <v>0.024755</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0206475</v>
+        <v>0.0205809</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0217128</v>
+        <v>0.021836</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0257419</v>
+        <v>0.0260181</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0210713</v>
+        <v>0.0210132</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0241242</v>
+        <v>0.0239224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0276459</v>
+        <v>0.0274856</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0216783</v>
+        <v>0.0215764</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0274554</v>
+        <v>0.0276839</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0294861</v>
+        <v>0.0292543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0223001</v>
+        <v>0.0222081</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.032656</v>
+        <v>0.0315092</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0329824</v>
+        <v>0.0326774</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0231973</v>
+        <v>0.0231524</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0378113</v>
+        <v>0.0372217</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0375305</v>
+        <v>0.0370439</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0245148</v>
+        <v>0.0243994</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0454226</v>
+        <v>0.0454352</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0430927</v>
+        <v>0.0430271</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0262394</v>
+        <v>0.0261699</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0556872</v>
+        <v>0.0550601</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0519925</v>
+        <v>0.0514098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0289159</v>
+        <v>0.0288567</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0711672</v>
+        <v>0.0703042</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0652823</v>
+        <v>0.0649906</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0327134</v>
+        <v>0.0324993</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09126720000000001</v>
+        <v>0.0905224</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0845144</v>
+        <v>0.0841389</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0389778</v>
+        <v>0.0388699</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.117415</v>
+        <v>0.115437</v>
       </c>
       <c r="C51" t="n">
-        <v>0.117621</v>
+        <v>0.117343</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0204049</v>
+        <v>0.0203994</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.141993</v>
+        <v>0.1408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.163266</v>
+        <v>0.163332</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0206291</v>
+        <v>0.0206304</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0192794</v>
+        <v>0.0192387</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0239427</v>
+        <v>0.0241041</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0208996</v>
+        <v>0.020899</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0205508</v>
+        <v>0.0204627</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0246146</v>
+        <v>0.0248142</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0212485</v>
+        <v>0.0212713</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0219352</v>
+        <v>0.0220737</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0257023</v>
+        <v>0.0258859</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0216192</v>
+        <v>0.0215734</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0238673</v>
+        <v>0.0239349</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0268635</v>
+        <v>0.0269065</v>
       </c>
       <c r="D56" t="n">
-        <v>0.022017</v>
+        <v>0.0220027</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0265566</v>
+        <v>0.0262923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.028547</v>
+        <v>0.0285555</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0225314</v>
+        <v>0.0224713</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0300479</v>
+        <v>0.0297657</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0309291</v>
+        <v>0.0308138</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0232519</v>
+        <v>0.0232356</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0344605</v>
+        <v>0.0341001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0336416</v>
+        <v>0.0334128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0241542</v>
+        <v>0.0241598</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0399058</v>
+        <v>0.0395028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0376174</v>
+        <v>0.0373409</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0253325</v>
+        <v>0.0252935</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0472459</v>
+        <v>0.0465838</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0433757</v>
+        <v>0.043244</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0271058</v>
+        <v>0.0270674</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0572801</v>
+        <v>0.0559668</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0516232</v>
+        <v>0.0514921</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0298425</v>
+        <v>0.0297328</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0715269</v>
+        <v>0.0699388</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0631472</v>
+        <v>0.0631197</v>
       </c>
       <c r="D63" t="n">
-        <v>0.034031</v>
+        <v>0.0338401</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0899361</v>
+        <v>0.0889996</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0804212</v>
+        <v>0.08064549999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0406621</v>
+        <v>0.0404851</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.116015</v>
+        <v>0.114856</v>
       </c>
       <c r="C65" t="n">
-        <v>0.11062</v>
+        <v>0.111224</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0516897</v>
+        <v>0.0515575</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.146215</v>
+        <v>0.145398</v>
       </c>
       <c r="C66" t="n">
-        <v>0.156917</v>
+        <v>0.156782</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0209191</v>
+        <v>0.020937</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0198065</v>
+        <v>0.0196969</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0245928</v>
+        <v>0.0246273</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0212725</v>
+        <v>0.0212617</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0212646</v>
+        <v>0.02093</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0255179</v>
+        <v>0.0254874</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0215994</v>
+        <v>0.0215815</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0229548</v>
+        <v>0.0224969</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0265111</v>
+        <v>0.026515</v>
       </c>
       <c r="D69" t="n">
-        <v>0.02203</v>
+        <v>0.0219942</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0247027</v>
+        <v>0.0245783</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0277485</v>
+        <v>0.0276786</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0224798</v>
+        <v>0.0224339</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0273686</v>
+        <v>0.027095</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0291997</v>
+        <v>0.0291119</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0230393</v>
+        <v>0.0229822</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0303975</v>
+        <v>0.0303959</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0312027</v>
+        <v>0.0311576</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0236926</v>
+        <v>0.0236686</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0346074</v>
+        <v>0.0348732</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0338489</v>
+        <v>0.0339469</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0246471</v>
+        <v>0.0245813</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.039786</v>
+        <v>0.0401107</v>
       </c>
       <c r="C74" t="n">
-        <v>0.037681</v>
+        <v>0.0377205</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0258833</v>
+        <v>0.0258009</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0467975</v>
+        <v>0.0469689</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0430757</v>
+        <v>0.0430427</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0276356</v>
+        <v>0.0276711</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0558944</v>
+        <v>0.056182</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0504793</v>
+        <v>0.0505867</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0301812</v>
+        <v>0.0301418</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.068563</v>
+        <v>0.0692083</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0612553</v>
+        <v>0.0612508</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0339739</v>
+        <v>0.0339599</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0867175</v>
+        <v>0.0876976</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0763707</v>
+        <v>0.0763192</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0398074</v>
+        <v>0.039757</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.111578</v>
+        <v>0.112624</v>
       </c>
       <c r="C79" t="n">
-        <v>0.10201</v>
+        <v>0.101765</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0496978</v>
+        <v>0.0495474</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.142415</v>
+        <v>0.143056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.144181</v>
+        <v>0.144347</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0212238</v>
+        <v>0.021192</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.020142</v>
+        <v>0.0203051</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0253866</v>
+        <v>0.0253488</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0216324</v>
+        <v>0.0215353</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0212459</v>
+        <v>0.0214311</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0262222</v>
+        <v>0.026265</v>
       </c>
       <c r="D82" t="n">
-        <v>0.021968</v>
+        <v>0.0219745</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0230698</v>
+        <v>0.0227951</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0272605</v>
+        <v>0.0271908</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0224621</v>
+        <v>0.0224512</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0247966</v>
+        <v>0.0248606</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0284854</v>
+        <v>0.0284288</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0229742</v>
+        <v>0.0229726</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0271694</v>
+        <v>0.0274961</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0300425</v>
+        <v>0.03001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0237234</v>
+        <v>0.0236312</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0302383</v>
+        <v>0.0304265</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0319462</v>
+        <v>0.0319039</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0244664</v>
+        <v>0.0244723</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0341936</v>
+        <v>0.034491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0342856</v>
+        <v>0.0343672</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0254084</v>
+        <v>0.0253764</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.038993</v>
+        <v>0.0392189</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0378454</v>
+        <v>0.0378547</v>
       </c>
       <c r="D88" t="n">
-        <v>0.026724</v>
+        <v>0.0267266</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0455788</v>
+        <v>0.0454425</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0425336</v>
+        <v>0.0426376</v>
       </c>
       <c r="D89" t="n">
-        <v>0.028416</v>
+        <v>0.02845</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0544953</v>
+        <v>0.054124</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0498202</v>
+        <v>0.0498571</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0307864</v>
+        <v>0.0307713</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0665249</v>
+        <v>0.0660497</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0595984</v>
+        <v>0.059631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0341098</v>
+        <v>0.0342051</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08391410000000001</v>
+        <v>0.0833161</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0742888</v>
+        <v>0.0742997</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0394341</v>
+        <v>0.039387</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.107262</v>
+        <v>0.107117</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0978695</v>
+        <v>0.0979019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.048243</v>
+        <v>0.0481448</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.137443</v>
+        <v>0.137068</v>
       </c>
       <c r="C94" t="n">
-        <v>0.137039</v>
+        <v>0.137136</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0229953</v>
+        <v>0.0230461</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0205301</v>
+        <v>0.0205917</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0270525</v>
+        <v>0.0270102</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0234998</v>
+        <v>0.0235885</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0220341</v>
+        <v>0.0217319</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0282228</v>
+        <v>0.0282021</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0241175</v>
+        <v>0.0240683</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0231732</v>
+        <v>0.0234086</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0301937</v>
+        <v>0.0301873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0247142</v>
+        <v>0.0245612</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0251539</v>
+        <v>0.0249196</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0330376</v>
+        <v>0.0330636</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0255242</v>
+        <v>0.0254625</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0274043</v>
+        <v>0.0271441</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0365403</v>
+        <v>0.0367725</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0269132</v>
+        <v>0.0269155</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0308126</v>
+        <v>0.0301186</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0402368</v>
+        <v>0.0404956</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0289756</v>
+        <v>0.0289929</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0348602</v>
+        <v>0.034225</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0438462</v>
+        <v>0.0438179</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0319234</v>
+        <v>0.0319022</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0399581</v>
+        <v>0.0395874</v>
       </c>
       <c r="C102" t="n">
-        <v>0.047224</v>
+        <v>0.0472354</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0350731</v>
+        <v>0.0353162</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0462277</v>
+        <v>0.046425</v>
       </c>
       <c r="C103" t="n">
-        <v>0.050926</v>
+        <v>0.0509235</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0383633</v>
+        <v>0.0382454</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0545371</v>
+        <v>0.0547381</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0560719</v>
+        <v>0.0560138</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0414807</v>
+        <v>0.0414212</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0657605</v>
+        <v>0.0655719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.06301909999999999</v>
+        <v>0.06314790000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0448104</v>
+        <v>0.0448928</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.08112709999999999</v>
+        <v>0.0810201</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0741865</v>
+        <v>0.07436619999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0491259</v>
+        <v>0.0491213</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.102571</v>
+        <v>0.103131</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0936776</v>
+        <v>0.0937021</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0558354</v>
+        <v>0.0556722</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.132138</v>
+        <v>0.132455</v>
       </c>
       <c r="C108" t="n">
-        <v>0.129069</v>
+        <v>0.129268</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0349373</v>
+        <v>0.0349946</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.168093</v>
+        <v>0.167936</v>
       </c>
       <c r="C109" t="n">
-        <v>0.180894</v>
+        <v>0.180556</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0357255</v>
+        <v>0.036062</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.030933</v>
+        <v>0.0314641</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431652</v>
+        <v>0.0432623</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0369401</v>
+        <v>0.0370126</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0329727</v>
+        <v>0.0327748</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0441118</v>
+        <v>0.0443061</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0377742</v>
+        <v>0.0378882</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0345242</v>
+        <v>0.0344387</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0454109</v>
+        <v>0.0453678</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0386543</v>
+        <v>0.0386232</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0363155</v>
+        <v>0.0359115</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0469124</v>
+        <v>0.0466564</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0398848</v>
+        <v>0.039608</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0384833</v>
+        <v>0.0384212</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04817</v>
+        <v>0.0481</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0406043</v>
+        <v>0.0405332</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.0406998</v>
+        <v>0.0411013</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0497532</v>
+        <v>0.0498885</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0416735</v>
+        <v>0.0416032</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0442582</v>
+        <v>0.0443196</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0520724</v>
+        <v>0.0522653</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0429252</v>
+        <v>0.0429799</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0487123</v>
+        <v>0.0490798</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0551709</v>
+        <v>0.0552329</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0442984</v>
+        <v>0.044442</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0551498</v>
+        <v>0.0556472</v>
       </c>
       <c r="C118" t="n">
-        <v>0.059236</v>
+        <v>0.0592122</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0462689</v>
+        <v>0.0464735</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0649938</v>
+        <v>0.0652692</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0651714</v>
+        <v>0.0652914</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0490336</v>
+        <v>0.0490779</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.07934769999999999</v>
+        <v>0.080124</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0749438</v>
+        <v>0.0749547</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0527719</v>
+        <v>0.0526027</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.100073</v>
+        <v>0.100594</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0911689</v>
+        <v>0.09116730000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0584355</v>
+        <v>0.0585157</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.127994</v>
+        <v>0.128412</v>
       </c>
       <c r="C122" t="n">
-        <v>0.12141</v>
+        <v>0.12157</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06825779999999999</v>
+        <v>0.0682112</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.163439</v>
+        <v>0.163387</v>
       </c>
       <c r="C123" t="n">
-        <v>0.169793</v>
+        <v>0.169666</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0407546</v>
+        <v>0.0416503</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0339416</v>
+        <v>0.0342733</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0488397</v>
+        <v>0.0485409</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0412232</v>
+        <v>0.0422691</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.035228</v>
+        <v>0.0354023</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0496467</v>
+        <v>0.0498932</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0431162</v>
+        <v>0.0430552</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0366875</v>
+        <v>0.0369613</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0510017</v>
+        <v>0.0510164</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0437208</v>
+        <v>0.04371</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.038783</v>
+        <v>0.0386997</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0520796</v>
+        <v>0.0521044</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0447826</v>
+        <v>0.0446326</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0408943</v>
+        <v>0.0406429</v>
       </c>
       <c r="C128" t="n">
-        <v>0.053795</v>
+        <v>0.0539084</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0457135</v>
+        <v>0.045744</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0437778</v>
+        <v>0.0434292</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0549055</v>
+        <v>0.0557247</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0465139</v>
+        <v>0.0464876</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.046622</v>
+        <v>0.0467513</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0573536</v>
+        <v>0.0579581</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0480969</v>
+        <v>0.0480236</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0522832</v>
+        <v>0.0511822</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0610135</v>
+        <v>0.0612119</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0493757</v>
+        <v>0.0497905</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0590554</v>
+        <v>0.0585649</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06545579999999999</v>
+        <v>0.0655746</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0512476</v>
+        <v>0.0515751</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0683796</v>
+        <v>0.0673728</v>
       </c>
       <c r="C133" t="n">
-        <v>0.07061099999999999</v>
+        <v>0.07118579999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.054118</v>
+        <v>0.0541836</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.08219700000000001</v>
+        <v>0.08104450000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>0.08057110000000001</v>
+        <v>0.0805454</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0578562</v>
+        <v>0.0578235</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.102223</v>
+        <v>0.101034</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0958545</v>
+        <v>0.0955641</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0634776</v>
+        <v>0.06359289999999999</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.129971</v>
+        <v>0.128826</v>
       </c>
       <c r="C136" t="n">
-        <v>0.122049</v>
+        <v>0.122167</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07266209999999999</v>
+        <v>0.07301820000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16298</v>
+        <v>0.16274</v>
       </c>
       <c r="C137" t="n">
-        <v>0.165041</v>
+        <v>0.166136</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0587813</v>
+        <v>0.0587163</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0475372</v>
+        <v>0.0471946</v>
       </c>
       <c r="C138" t="n">
-        <v>0.06317109999999999</v>
+        <v>0.0632577</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0593352</v>
+        <v>0.0595507</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0480221</v>
+        <v>0.0480173</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0642674</v>
+        <v>0.0643639</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0601432</v>
+        <v>0.0603892</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0494115</v>
+        <v>0.0491618</v>
       </c>
       <c r="C140" t="n">
-        <v>0.0654602</v>
+        <v>0.0654462</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0610174</v>
+        <v>0.0609068</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0509051</v>
+        <v>0.0504992</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06666130000000001</v>
+        <v>0.0668815</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0616236</v>
+        <v>0.0617944</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0529909</v>
+        <v>0.0529453</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0683252</v>
+        <v>0.0683774</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06269089999999999</v>
+        <v>0.0626568</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0557119</v>
+        <v>0.0554429</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0702118</v>
+        <v>0.07045510000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06366330000000001</v>
+        <v>0.0637523</v>
       </c>
     </row>
   </sheetData>
